--- a/a.xlsx
+++ b/a.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hobby Works\Catadex\_resources\_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hobby Works\Catadex\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB6B0E1-66F6-43C5-944C-3431CBE17B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43F9661-DA43-4260-B927-1F3A757984D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JSON Forge" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="491">
   <si>
     <t>year</t>
   </si>
@@ -1296,9 +1296,6 @@
     <t>Eve</t>
   </si>
   <si>
-    <t>From Now On, Showtime</t>
-  </si>
-  <si>
     <t>Kiss Sixth Sense</t>
   </si>
   <si>
@@ -1329,16 +1326,190 @@
     <t>School 2017</t>
   </si>
   <si>
-    <t>School 2015</t>
-  </si>
-  <si>
     <t>School 2013</t>
   </si>
   <si>
     <t>Pachinko</t>
   </si>
   <si>
-    <t>Money Heist: Korea</t>
+    <t>https://www.themoviedb.org/tv/154891</t>
+  </si>
+  <si>
+    <t>Woori the Virgin, Jane the Virgin, Miss Mom Jane, From Today We Are</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/34408</t>
+  </si>
+  <si>
+    <t>Naughty Kiss, Mischievous Kiss</t>
+  </si>
+  <si>
+    <t>Why Oh Soo Jae</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/136644</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/801526</t>
+  </si>
+  <si>
+    <t>The Horse Healer, The King's Doctor</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/45049</t>
+  </si>
+  <si>
+    <t>Love (ft. Marriage and Divorce) 1, Marriage Lyrics 1, Divorce Composition 1, Marriage Story 1, Love (featuring Marriage and Divorce) 1, Love (feat. Marriage and Divorce) 1, Marriage Lyrics and Divorce Music 1, Marriage Lyrics for Divorce Music 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/116041</t>
+  </si>
+  <si>
+    <t>Love (ft. Marriage and Divorce) 2, Marriage Lyrics 2, Divorce Composition 2, Marriage Story 2, Love (featuring Marriage and Divorce) 2, Love (feat. Marriage and Divorce) 2, Marriage Lyrics and Divorce Music 2, Marriage Lyrics for Divorce Music 2</t>
+  </si>
+  <si>
+    <t>Love (ft. Marriage and Divorce) 3, Marriage Lyrics 3, Divorce Composition 3, Marriage Story 3, Love (featuring Marriage and Divorce) 3, Love (feat. Marriage and Divorce) 3, Marriage Lyrics and Divorce Music 3, Marriage Lyrics for Divorce Music 3</t>
+  </si>
+  <si>
+    <t>Link: Eat and Love to Kill, You Are My Killer</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/155231</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/100883</t>
+  </si>
+  <si>
+    <t>13 Lives</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/698948</t>
+  </si>
+  <si>
+    <t>KGF 1</t>
+  </si>
+  <si>
+    <t>KGF 2</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/587412</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/564147</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/585511</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/38</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/755566</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/90237</t>
+  </si>
+  <si>
+    <t>Sing for Me, Tell Your Song, Let Me Hear Your Song</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/135655</t>
+  </si>
+  <si>
+    <t>Hi! School: Love On</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/61738</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/136733</t>
+  </si>
+  <si>
+    <t>Red Heart, Red Single Heart</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/138251</t>
+  </si>
+  <si>
+    <t>Eve's Scandal</t>
+  </si>
+  <si>
+    <t>From Now On, Showtime!</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/194820</t>
+  </si>
+  <si>
+    <t>Showtime Begins</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/135895</t>
+  </si>
+  <si>
+    <t>Sixth Sense Kiss</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/196906</t>
+  </si>
+  <si>
+    <t>Dr. Lawyer</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/337404</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/67744</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/68879</t>
+  </si>
+  <si>
+    <t>The 7th First Kiss, 7 First Kisses, First Kiss for the Seventh Time, First Seven Kisses, First 7 Kisses</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/762975</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/89905</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/97765</t>
+  </si>
+  <si>
+    <t>School 2020, Oh, My Men</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/72374</t>
+  </si>
+  <si>
+    <t>School 7</t>
+  </si>
+  <si>
+    <t>School 5</t>
+  </si>
+  <si>
+    <t>Who Are You: School 2015</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/62511</t>
+  </si>
+  <si>
+    <t>School 6</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/46596</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/110382</t>
+  </si>
+  <si>
+    <t>Money Heist: Korea - Joint Economic Area</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/112836</t>
+  </si>
+  <si>
+    <t>The House of Paper: Korea - Joint Economic Area</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1916,7 @@
       </c>
       <c r="G1" s="5" t="str">
         <f ca="1">Sheet2!B3</f>
-        <v>5 Jun 2023</v>
+        <v>6 Jun 2023</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1836,7 +2007,7 @@
       <c r="I9" s="4"/>
       <c r="J9" t="str">
         <f ca="1">B6&amp;I6&amp;B1&amp;I6&amp;E6&amp;F6&amp;B6&amp;I6&amp;D1&amp;I6&amp;E6&amp;I6&amp;E1&amp;I6&amp;H6&amp;I6&amp;F1&amp;I6&amp;E6&amp;I6&amp;G1&amp;I6&amp;H6</f>
-        <v>{"info":[{"cname":"Teleflix TV","date":"5 Jun 2023",</v>
+        <v>{"info":[{"cname":"Teleflix TV","date":"6 Jun 2023",</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -6342,7 +6513,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <f t="shared" ref="A145:A151" si="27">A144+1</f>
+        <f t="shared" ref="A145:A189" si="27">A144+1</f>
         <v>131</v>
       </c>
       <c r="B145" t="s">
@@ -6580,307 +6751,1291 @@
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <f t="shared" si="27"/>
+        <v>138</v>
+      </c>
       <c r="B152" t="s">
         <v>396</v>
       </c>
+      <c r="C152" t="s">
+        <v>432</v>
+      </c>
+      <c r="D152">
+        <v>2022</v>
+      </c>
+      <c r="E152" t="s">
+        <v>54</v>
+      </c>
+      <c r="F152" t="s">
+        <v>56</v>
+      </c>
+      <c r="G152" t="s">
+        <v>431</v>
+      </c>
       <c r="H152">
         <v>14961</v>
       </c>
+      <c r="I152" t="str">
+        <f t="shared" ref="I152:I189" si="28">IF(H153="",$G$6&amp;$D$6,$H$6)</f>
+        <v>,</v>
+      </c>
+      <c r="J152" t="str">
+        <f t="shared" ref="J152:J189" si="29">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B152&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C152&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D152&amp;$I$6&amp;$H$6&amp;$I$6&amp;E152&amp;$I$6&amp;$H$6&amp;$I$6&amp;F152&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G152&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H152&amp;$I$6&amp;$D$6&amp;I152</f>
+        <v>{"name":"Woo Ri the Virgin","alt":"Woori the Virgin, Jane the Virgin, Miss Mom Jane, From Today We Are","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/154891","post":"14961"},</v>
+      </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <f t="shared" si="27"/>
+        <v>139</v>
+      </c>
       <c r="B153" t="s">
         <v>397</v>
       </c>
+      <c r="C153" t="s">
+        <v>434</v>
+      </c>
+      <c r="D153">
+        <v>2010</v>
+      </c>
+      <c r="E153" t="s">
+        <v>54</v>
+      </c>
+      <c r="F153" t="s">
+        <v>56</v>
+      </c>
+      <c r="G153" t="s">
+        <v>433</v>
+      </c>
       <c r="H153">
         <v>14944</v>
       </c>
+      <c r="I153" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J153" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Playful Kiss","alt":"Naughty Kiss, Mischievous Kiss","tags":["2010","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/34408","post":"14944"},</v>
+      </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <f t="shared" si="27"/>
+        <v>140</v>
+      </c>
       <c r="B154" t="s">
         <v>398</v>
       </c>
+      <c r="C154" t="s">
+        <v>435</v>
+      </c>
+      <c r="D154">
+        <v>2022</v>
+      </c>
+      <c r="E154" t="s">
+        <v>54</v>
+      </c>
+      <c r="F154" t="s">
+        <v>56</v>
+      </c>
+      <c r="G154" t="s">
+        <v>436</v>
+      </c>
       <c r="H154">
         <v>14927</v>
       </c>
+      <c r="I154" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J154" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Why Her","alt":"Why Oh Soo Jae","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/136644","post":"14927"},</v>
+      </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <f t="shared" si="27"/>
+        <v>141</v>
+      </c>
       <c r="B155" t="s">
         <v>399</v>
       </c>
+      <c r="D155">
+        <v>2022</v>
+      </c>
+      <c r="E155" t="s">
+        <v>120</v>
+      </c>
+      <c r="F155" t="s">
+        <v>118</v>
+      </c>
+      <c r="G155" t="s">
+        <v>437</v>
+      </c>
       <c r="H155">
         <v>14924</v>
       </c>
+      <c r="I155" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J155" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Darlings","alt":"","tags":["2022","Hindi","Movie"],"wiki":"https://www.themoviedb.org/movie/801526","post":"14924"},</v>
+      </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <f t="shared" si="27"/>
+        <v>142</v>
+      </c>
       <c r="B156" t="s">
         <v>400</v>
       </c>
+      <c r="C156" t="s">
+        <v>438</v>
+      </c>
+      <c r="D156">
+        <v>2012</v>
+      </c>
+      <c r="E156" t="s">
+        <v>54</v>
+      </c>
+      <c r="F156" t="s">
+        <v>56</v>
+      </c>
+      <c r="G156" t="s">
+        <v>439</v>
+      </c>
       <c r="H156">
         <v>14873</v>
       </c>
+      <c r="I156" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J156" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Horse Doctor","alt":"The Horse Healer, The King's Doctor","tags":["2012","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/45049","post":"14873"},</v>
+      </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <f t="shared" si="27"/>
+        <v>143</v>
+      </c>
       <c r="B157" t="s">
         <v>401</v>
       </c>
+      <c r="C157" t="s">
+        <v>440</v>
+      </c>
+      <c r="D157">
+        <v>2021</v>
+      </c>
+      <c r="E157" t="s">
+        <v>54</v>
+      </c>
+      <c r="F157" t="s">
+        <v>56</v>
+      </c>
+      <c r="G157" t="s">
+        <v>441</v>
+      </c>
       <c r="H157">
         <v>14822</v>
       </c>
+      <c r="I157" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J157" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Love (ft. Marriage and Divorce) S01","alt":"Love (ft. Marriage and Divorce) 1, Marriage Lyrics 1, Divorce Composition 1, Marriage Story 1, Love (featuring Marriage and Divorce) 1, Love (feat. Marriage and Divorce) 1, Marriage Lyrics and Divorce Music 1, Marriage Lyrics for Divorce Music 1","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/116041","post":"14822"},</v>
+      </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <f t="shared" si="27"/>
+        <v>144</v>
+      </c>
       <c r="B158" t="s">
         <v>402</v>
       </c>
+      <c r="C158" t="s">
+        <v>442</v>
+      </c>
+      <c r="D158">
+        <v>2021</v>
+      </c>
+      <c r="E158" t="s">
+        <v>54</v>
+      </c>
+      <c r="F158" t="s">
+        <v>56</v>
+      </c>
+      <c r="G158" t="s">
+        <v>441</v>
+      </c>
       <c r="H158">
         <v>14839</v>
       </c>
+      <c r="I158" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J158" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Love (ft. Marriage and Divorce) S02","alt":"Love (ft. Marriage and Divorce) 2, Marriage Lyrics 2, Divorce Composition 2, Marriage Story 2, Love (featuring Marriage and Divorce) 2, Love (feat. Marriage and Divorce) 2, Marriage Lyrics and Divorce Music 2, Marriage Lyrics for Divorce Music 2","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/116041","post":"14839"},</v>
+      </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <f t="shared" si="27"/>
+        <v>145</v>
+      </c>
       <c r="B159" t="s">
         <v>403</v>
       </c>
+      <c r="C159" t="s">
+        <v>443</v>
+      </c>
+      <c r="D159">
+        <v>2022</v>
+      </c>
+      <c r="E159" t="s">
+        <v>54</v>
+      </c>
+      <c r="F159" t="s">
+        <v>56</v>
+      </c>
+      <c r="G159" t="s">
+        <v>441</v>
+      </c>
       <c r="H159">
         <v>14856</v>
       </c>
+      <c r="I159" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J159" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Love (ft. Marriage and Divorce) S03","alt":"Love (ft. Marriage and Divorce) 3, Marriage Lyrics 3, Divorce Composition 3, Marriage Story 3, Love (featuring Marriage and Divorce) 3, Love (feat. Marriage and Divorce) 3, Marriage Lyrics and Divorce Music 3, Marriage Lyrics for Divorce Music 3","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/116041","post":"14856"},</v>
+      </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <f t="shared" si="27"/>
+        <v>146</v>
+      </c>
       <c r="B160" t="s">
         <v>404</v>
       </c>
+      <c r="C160" t="s">
+        <v>444</v>
+      </c>
+      <c r="D160">
+        <v>2022</v>
+      </c>
+      <c r="E160" t="s">
+        <v>54</v>
+      </c>
+      <c r="F160" t="s">
+        <v>56</v>
+      </c>
+      <c r="G160" t="s">
+        <v>445</v>
+      </c>
       <c r="H160">
         <v>14805</v>
       </c>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I160" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J160" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Link: Eat, Love, Kill","alt":"Link: Eat and Love to Kill, You Are My Killer","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/155231","post":"14805"},</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <f t="shared" si="27"/>
+        <v>147</v>
+      </c>
       <c r="B161" t="s">
         <v>405</v>
       </c>
+      <c r="D161">
+        <v>2020</v>
+      </c>
+      <c r="E161" t="s">
+        <v>90</v>
+      </c>
+      <c r="F161" t="s">
+        <v>56</v>
+      </c>
+      <c r="G161" t="s">
+        <v>446</v>
+      </c>
       <c r="H161">
         <v>14772</v>
       </c>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I161" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J161" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Never Have I Ever S01","alt":"","tags":["2020","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/100883","post":"14772"},</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <f t="shared" si="27"/>
+        <v>148</v>
+      </c>
       <c r="B162" t="s">
         <v>406</v>
       </c>
+      <c r="D162">
+        <v>2021</v>
+      </c>
+      <c r="E162" t="s">
+        <v>90</v>
+      </c>
+      <c r="F162" t="s">
+        <v>56</v>
+      </c>
+      <c r="G162" t="s">
+        <v>446</v>
+      </c>
       <c r="H162">
         <v>14783</v>
       </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I162" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J162" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Never Have I Ever S02","alt":"","tags":["2021","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/100883","post":"14783"},</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <f t="shared" si="27"/>
+        <v>149</v>
+      </c>
       <c r="B163" t="s">
         <v>407</v>
       </c>
+      <c r="D163">
+        <v>2022</v>
+      </c>
+      <c r="E163" t="s">
+        <v>90</v>
+      </c>
+      <c r="F163" t="s">
+        <v>56</v>
+      </c>
+      <c r="G163" t="s">
+        <v>446</v>
+      </c>
       <c r="H163">
         <v>14794</v>
       </c>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I163" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J163" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Never Have I Ever S03","alt":"","tags":["2022","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/100883","post":"14794"},</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <f t="shared" si="27"/>
+        <v>150</v>
+      </c>
       <c r="B164" t="s">
         <v>408</v>
       </c>
+      <c r="C164" t="s">
+        <v>447</v>
+      </c>
+      <c r="D164">
+        <v>2022</v>
+      </c>
+      <c r="E164" t="s">
+        <v>90</v>
+      </c>
+      <c r="F164" t="s">
+        <v>118</v>
+      </c>
+      <c r="G164" t="s">
+        <v>448</v>
+      </c>
       <c r="H164">
         <v>14769</v>
       </c>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I164" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J164" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Thirteen Lives","alt":"13 Lives","tags":["2022","English","Movie"],"wiki":"https://www.themoviedb.org/movie/698948","post":"14769"},</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <f t="shared" si="27"/>
+        <v>151</v>
+      </c>
       <c r="B165" t="s">
         <v>409</v>
       </c>
+      <c r="C165" t="s">
+        <v>449</v>
+      </c>
+      <c r="D165">
+        <v>2018</v>
+      </c>
+      <c r="E165" t="s">
+        <v>120</v>
+      </c>
+      <c r="F165" t="s">
+        <v>118</v>
+      </c>
+      <c r="G165" t="s">
+        <v>452</v>
+      </c>
       <c r="H165">
         <v>14764</v>
       </c>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I165" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J165" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"KGF Chapter 1","alt":"KGF 1","tags":["2018","Hindi","Movie"],"wiki":"https://www.themoviedb.org/movie/564147","post":"14764"},</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <f t="shared" si="27"/>
+        <v>152</v>
+      </c>
       <c r="B166" t="s">
         <v>410</v>
       </c>
+      <c r="C166" t="s">
+        <v>450</v>
+      </c>
+      <c r="D166">
+        <v>2022</v>
+      </c>
+      <c r="E166" t="s">
+        <v>120</v>
+      </c>
+      <c r="F166" t="s">
+        <v>118</v>
+      </c>
+      <c r="G166" t="s">
+        <v>451</v>
+      </c>
       <c r="H166">
         <v>14766</v>
       </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I166" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J166" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"KGF Chapter 2","alt":"KGF 2","tags":["2022","Hindi","Movie"],"wiki":"https://www.themoviedb.org/movie/587412","post":"14766"},</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <f t="shared" si="27"/>
+        <v>153</v>
+      </c>
       <c r="B167" t="s">
         <v>411</v>
       </c>
+      <c r="D167">
+        <v>2022</v>
+      </c>
+      <c r="E167" t="s">
+        <v>90</v>
+      </c>
+      <c r="F167" t="s">
+        <v>118</v>
+      </c>
+      <c r="G167" t="s">
+        <v>453</v>
+      </c>
       <c r="H167">
         <v>14761</v>
       </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I167" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J167" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Luck","alt":"","tags":["2022","English","Movie"],"wiki":"https://www.themoviedb.org/movie/585511","post":"14761"},</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <f t="shared" si="27"/>
+        <v>154</v>
+      </c>
       <c r="B168" t="s">
         <v>412</v>
       </c>
+      <c r="D168">
+        <v>2004</v>
+      </c>
+      <c r="E168" t="s">
+        <v>90</v>
+      </c>
+      <c r="F168" t="s">
+        <v>118</v>
+      </c>
+      <c r="G168" t="s">
+        <v>454</v>
+      </c>
       <c r="H168">
         <v>14758</v>
       </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I168" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J168" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Eternal Sunshine of the Spotless Mind","alt":"","tags":["2004","English","Movie"],"wiki":"https://www.themoviedb.org/movie/38","post":"14758"},</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <f t="shared" si="27"/>
+        <v>155</v>
+      </c>
       <c r="B169" t="s">
         <v>413</v>
       </c>
+      <c r="D169">
+        <v>2022</v>
+      </c>
+      <c r="E169" t="s">
+        <v>90</v>
+      </c>
+      <c r="F169" t="s">
+        <v>118</v>
+      </c>
+      <c r="G169" t="s">
+        <v>455</v>
+      </c>
       <c r="H169">
         <v>14755</v>
       </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I169" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J169" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Day Shift","alt":"","tags":["2022","English","Movie"],"wiki":"https://www.themoviedb.org/movie/755566","post":"14755"},</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <f t="shared" si="27"/>
+        <v>156</v>
+      </c>
       <c r="B170" t="s">
         <v>414</v>
       </c>
+      <c r="C170" t="s">
+        <v>457</v>
+      </c>
+      <c r="D170">
+        <v>2019</v>
+      </c>
+      <c r="E170" t="s">
+        <v>54</v>
+      </c>
+      <c r="F170" t="s">
+        <v>56</v>
+      </c>
+      <c r="G170" t="s">
+        <v>456</v>
+      </c>
       <c r="H170">
         <v>14738</v>
       </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I170" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J170" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"I Wanna Hear Your Song","alt":"Sing for Me, Tell Your Song, Let Me Hear Your Song","tags":["2019","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/90237","post":"14738"},</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <f t="shared" si="27"/>
+        <v>157</v>
+      </c>
       <c r="B171" t="s">
         <v>415</v>
       </c>
+      <c r="D171">
+        <v>2022</v>
+      </c>
+      <c r="E171" t="s">
+        <v>54</v>
+      </c>
+      <c r="F171" t="s">
+        <v>56</v>
+      </c>
+      <c r="G171" t="s">
+        <v>458</v>
+      </c>
       <c r="H171">
         <v>14721</v>
       </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I171" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J171" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Insider","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/135655","post":"14721"},</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <f t="shared" si="27"/>
+        <v>158</v>
+      </c>
       <c r="B172" t="s">
         <v>416</v>
       </c>
+      <c r="C172" t="s">
+        <v>459</v>
+      </c>
+      <c r="D172">
+        <v>2014</v>
+      </c>
+      <c r="E172" t="s">
+        <v>54</v>
+      </c>
+      <c r="F172" t="s">
+        <v>56</v>
+      </c>
+      <c r="G172" t="s">
+        <v>460</v>
+      </c>
       <c r="H172">
         <v>14700</v>
       </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I172" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J172" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"High School - Love On","alt":"Hi! School: Love On","tags":["2014","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/61738","post":"14700"},</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <f t="shared" si="27"/>
+        <v>159</v>
+      </c>
       <c r="B173" t="s">
         <v>417</v>
       </c>
+      <c r="C173" t="s">
+        <v>462</v>
+      </c>
+      <c r="D173">
+        <v>2022</v>
+      </c>
+      <c r="E173" t="s">
+        <v>54</v>
+      </c>
+      <c r="F173" t="s">
+        <v>56</v>
+      </c>
+      <c r="G173" t="s">
+        <v>461</v>
+      </c>
       <c r="H173">
         <v>14683</v>
       </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I173" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J173" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Bloody Heart","alt":"Red Heart, Red Single Heart","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/136733","post":"14683"},</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <f t="shared" si="27"/>
+        <v>160</v>
+      </c>
       <c r="B174" t="s">
         <v>418</v>
       </c>
+      <c r="C174" t="s">
+        <v>464</v>
+      </c>
+      <c r="D174">
+        <v>2022</v>
+      </c>
+      <c r="E174" t="s">
+        <v>54</v>
+      </c>
+      <c r="F174" t="s">
+        <v>56</v>
+      </c>
+      <c r="G174" t="s">
+        <v>463</v>
+      </c>
       <c r="H174">
         <v>14666</v>
       </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I174" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J174" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Eve","alt":"Eve's Scandal","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/138251","post":"14666"},</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <f t="shared" si="27"/>
+        <v>161</v>
+      </c>
       <c r="B175" t="s">
-        <v>419</v>
+        <v>465</v>
+      </c>
+      <c r="C175" t="s">
+        <v>467</v>
+      </c>
+      <c r="D175">
+        <v>2022</v>
+      </c>
+      <c r="E175" t="s">
+        <v>54</v>
+      </c>
+      <c r="F175" t="s">
+        <v>56</v>
+      </c>
+      <c r="G175" t="s">
+        <v>466</v>
       </c>
       <c r="H175">
         <v>14649</v>
       </c>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I175" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J175" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"From Now On, Showtime!","alt":"Showtime Begins","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/194820","post":"14649"},</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <f t="shared" si="27"/>
+        <v>162</v>
+      </c>
       <c r="B176" t="s">
-        <v>420</v>
+        <v>419</v>
+      </c>
+      <c r="C176" t="s">
+        <v>469</v>
+      </c>
+      <c r="D176">
+        <v>2022</v>
+      </c>
+      <c r="E176" t="s">
+        <v>54</v>
+      </c>
+      <c r="F176" t="s">
+        <v>56</v>
+      </c>
+      <c r="G176" t="s">
+        <v>468</v>
       </c>
       <c r="H176">
         <v>14636</v>
       </c>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I176" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J176" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Kiss Sixth Sense","alt":"Sixth Sense Kiss","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/135895","post":"14636"},</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <f t="shared" si="27"/>
+        <v>163</v>
+      </c>
       <c r="B177" t="s">
-        <v>421</v>
+        <v>420</v>
+      </c>
+      <c r="C177" t="s">
+        <v>471</v>
+      </c>
+      <c r="D177">
+        <v>2022</v>
+      </c>
+      <c r="E177" t="s">
+        <v>54</v>
+      </c>
+      <c r="F177" t="s">
+        <v>56</v>
+      </c>
+      <c r="G177" t="s">
+        <v>470</v>
       </c>
       <c r="H177">
         <v>14619</v>
       </c>
-    </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I177" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J177" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Doctor Lawyer","alt":"Dr. Lawyer","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/196906","post":"14619"},</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <f t="shared" si="27"/>
+        <v>164</v>
+      </c>
       <c r="B178" t="s">
-        <v>422</v>
+        <v>421</v>
+      </c>
+      <c r="D178">
+        <v>2021</v>
+      </c>
+      <c r="E178" t="s">
+        <v>90</v>
+      </c>
+      <c r="F178" t="s">
+        <v>118</v>
+      </c>
+      <c r="G178" t="s">
+        <v>472</v>
       </c>
       <c r="H178">
         <v>14616</v>
       </c>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I178" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J178" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Cruella","alt":"","tags":["2021","English","Movie"],"wiki":"https://www.themoviedb.org/movie/337404","post":"14616"},</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <f t="shared" si="27"/>
+        <v>165</v>
+      </c>
       <c r="B179" t="s">
-        <v>423</v>
+        <v>422</v>
+      </c>
+      <c r="D179">
+        <v>2017</v>
+      </c>
+      <c r="E179" t="s">
+        <v>90</v>
+      </c>
+      <c r="F179" t="s">
+        <v>56</v>
+      </c>
+      <c r="G179" t="s">
+        <v>473</v>
       </c>
       <c r="H179">
         <v>14595</v>
       </c>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I179" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J179" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Mindhunter S01","alt":"","tags":["2017","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/67744","post":"14595"},</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <f t="shared" si="27"/>
+        <v>166</v>
+      </c>
       <c r="B180" t="s">
-        <v>424</v>
+        <v>423</v>
+      </c>
+      <c r="D180">
+        <v>2019</v>
+      </c>
+      <c r="E180" t="s">
+        <v>90</v>
+      </c>
+      <c r="F180" t="s">
+        <v>56</v>
+      </c>
+      <c r="G180" t="s">
+        <v>473</v>
       </c>
       <c r="H180">
         <v>14606</v>
       </c>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I180" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J180" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Mindhunter S02","alt":"","tags":["2019","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/67744","post":"14606"},</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <f t="shared" si="27"/>
+        <v>167</v>
+      </c>
       <c r="B181" t="s">
-        <v>425</v>
+        <v>424</v>
+      </c>
+      <c r="C181" t="s">
+        <v>475</v>
+      </c>
+      <c r="D181">
+        <v>2016</v>
+      </c>
+      <c r="E181" t="s">
+        <v>54</v>
+      </c>
+      <c r="F181" t="s">
+        <v>56</v>
+      </c>
+      <c r="G181" t="s">
+        <v>474</v>
       </c>
       <c r="H181">
         <v>14578</v>
       </c>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I181" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J181" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Seven First Kisses","alt":"The 7th First Kiss, 7 First Kisses, First Kiss for the Seventh Time, First Seven Kisses, First 7 Kisses","tags":["2016","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/68879","post":"14578"},</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <f t="shared" si="27"/>
+        <v>168</v>
+      </c>
       <c r="B182" t="s">
-        <v>426</v>
+        <v>425</v>
+      </c>
+      <c r="D182">
+        <v>2022</v>
+      </c>
+      <c r="E182" t="s">
+        <v>90</v>
+      </c>
+      <c r="F182" t="s">
+        <v>118</v>
+      </c>
+      <c r="G182" t="s">
+        <v>476</v>
       </c>
       <c r="H182">
         <v>14575</v>
       </c>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I182" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J182" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Purple Hearts","alt":"","tags":["2022","English","Movie"],"wiki":"https://www.themoviedb.org/movie/762975","post":"14575"},</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <f t="shared" si="27"/>
+        <v>169</v>
+      </c>
       <c r="B183" t="s">
-        <v>427</v>
+        <v>426</v>
+      </c>
+      <c r="D183">
+        <v>2020</v>
+      </c>
+      <c r="E183" t="s">
+        <v>90</v>
+      </c>
+      <c r="F183" t="s">
+        <v>56</v>
+      </c>
+      <c r="G183" t="s">
+        <v>477</v>
       </c>
       <c r="H183">
         <v>14562</v>
       </c>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I183" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J183" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Normal People","alt":"","tags":["2020","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/89905","post":"14562"},</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <f t="shared" si="27"/>
+        <v>170</v>
+      </c>
       <c r="B184" t="s">
-        <v>428</v>
+        <v>427</v>
+      </c>
+      <c r="C184" t="s">
+        <v>479</v>
+      </c>
+      <c r="D184">
+        <v>2021</v>
+      </c>
+      <c r="E184" t="s">
+        <v>54</v>
+      </c>
+      <c r="F184" t="s">
+        <v>56</v>
+      </c>
+      <c r="G184" t="s">
+        <v>478</v>
       </c>
       <c r="H184">
         <v>14545</v>
       </c>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I184" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J184" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"School 2021","alt":"School 2020, Oh, My Men","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/97765","post":"14545"},</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <f t="shared" si="27"/>
+        <v>171</v>
+      </c>
       <c r="B185" t="s">
-        <v>429</v>
+        <v>428</v>
+      </c>
+      <c r="C185" t="s">
+        <v>481</v>
+      </c>
+      <c r="D185">
+        <v>2017</v>
+      </c>
+      <c r="E185" t="s">
+        <v>54</v>
+      </c>
+      <c r="F185" t="s">
+        <v>56</v>
+      </c>
+      <c r="G185" t="s">
+        <v>480</v>
       </c>
       <c r="H185">
         <v>14528</v>
       </c>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I185" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J185" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"School 2017","alt":"School 7","tags":["2017","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/72374","post":"14528"},</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <f t="shared" si="27"/>
+        <v>172</v>
+      </c>
       <c r="B186" t="s">
-        <v>430</v>
+        <v>483</v>
+      </c>
+      <c r="C186" t="s">
+        <v>485</v>
+      </c>
+      <c r="D186">
+        <v>2015</v>
+      </c>
+      <c r="E186" t="s">
+        <v>54</v>
+      </c>
+      <c r="F186" t="s">
+        <v>56</v>
+      </c>
+      <c r="G186" t="s">
+        <v>484</v>
       </c>
       <c r="H186">
         <v>14511</v>
       </c>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I186" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J186" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Who Are You: School 2015","alt":"School 6","tags":["2015","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/62511","post":"14511"},</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <f t="shared" si="27"/>
+        <v>173</v>
+      </c>
       <c r="B187" t="s">
-        <v>431</v>
+        <v>429</v>
+      </c>
+      <c r="C187" t="s">
+        <v>482</v>
+      </c>
+      <c r="D187">
+        <v>2012</v>
+      </c>
+      <c r="E187" t="s">
+        <v>54</v>
+      </c>
+      <c r="F187" t="s">
+        <v>56</v>
+      </c>
+      <c r="G187" t="s">
+        <v>486</v>
       </c>
       <c r="H187">
         <v>14494</v>
       </c>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I187" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J187" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"School 2013","alt":"School 5","tags":["2012","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/46596","post":"14494"},</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <f t="shared" si="27"/>
+        <v>174</v>
+      </c>
       <c r="B188" t="s">
-        <v>432</v>
+        <v>430</v>
+      </c>
+      <c r="D188">
+        <v>2022</v>
+      </c>
+      <c r="E188" t="s">
+        <v>54</v>
+      </c>
+      <c r="F188" t="s">
+        <v>56</v>
+      </c>
+      <c r="G188" t="s">
+        <v>487</v>
       </c>
       <c r="H188">
         <v>14485</v>
       </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I188" t="str">
+        <f t="shared" si="28"/>
+        <v>,</v>
+      </c>
+      <c r="J188" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Pachinko","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/110382","post":"14485"},</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <f t="shared" si="27"/>
+        <v>175</v>
+      </c>
       <c r="B189" t="s">
-        <v>433</v>
+        <v>488</v>
+      </c>
+      <c r="C189" t="s">
+        <v>490</v>
+      </c>
+      <c r="D189">
+        <v>2022</v>
+      </c>
+      <c r="E189" t="s">
+        <v>54</v>
+      </c>
+      <c r="F189" t="s">
+        <v>56</v>
+      </c>
+      <c r="G189" t="s">
+        <v>489</v>
       </c>
       <c r="H189">
         <v>14478</v>
+      </c>
+      <c r="I189" t="str">
+        <f t="shared" si="28"/>
+        <v>]}</v>
+      </c>
+      <c r="J189" t="str">
+        <f t="shared" si="29"/>
+        <v>{"name":"Money Heist: Korea - Joint Economic Area","alt":"The House of Paper: Korea - Joint Economic Area","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/112836","post":"14478"}]}</v>
       </c>
     </row>
   </sheetData>
@@ -6909,11 +8064,11 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45082.535390046294</v>
+        <v>45083.274095023145</v>
       </c>
       <c r="B1">
         <f ca="1">DAY(A1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" t="str">
         <f ca="1">_xlfn.XLOOKUP(F1,G1:G12,H1:H12)</f>
@@ -6945,7 +8100,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="str">
         <f ca="1">B1&amp;" "&amp;C1&amp;" "&amp;D1</f>
-        <v>5 Jun 2023</v>
+        <v>6 Jun 2023</v>
       </c>
       <c r="G3">
         <v>3</v>

--- a/a.xlsx
+++ b/a.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hobby Works\Catadex\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43F9661-DA43-4260-B927-1F3A757984D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08E78E4-A4EA-470D-913D-CAADE0152851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JSON Forge" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="545">
   <si>
     <t>year</t>
   </si>
@@ -1510,6 +1511,168 @@
   </si>
   <si>
     <t>The House of Paper: Korea - Joint Economic Area</t>
+  </si>
+  <si>
+    <t>Jana Gana Mana</t>
+  </si>
+  <si>
+    <t>Our Blues</t>
+  </si>
+  <si>
+    <t>Scams</t>
+  </si>
+  <si>
+    <t>Our Beloved Summer</t>
+  </si>
+  <si>
+    <t>Let Me Be Your Knight</t>
+  </si>
+  <si>
+    <t>D.P. Dog Day</t>
+  </si>
+  <si>
+    <t>Bulgasal: Immortal Souls</t>
+  </si>
+  <si>
+    <t>Another Miss Oh</t>
+  </si>
+  <si>
+    <t>The Sound of Magic</t>
+  </si>
+  <si>
+    <t>Tomorrow</t>
+  </si>
+  <si>
+    <t>Crazy Love</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/792358</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/135840</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/94830</t>
+  </si>
+  <si>
+    <t>Scum</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/135897</t>
+  </si>
+  <si>
+    <t>That Year We Are, Us That Year</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/134071</t>
+  </si>
+  <si>
+    <t>I Will Be Your Night, I'll Be Your Night, Idol's Doctor, Idol Doctor</t>
+  </si>
+  <si>
+    <t>Deserter Pursuit Dog Day, Day of the Dog, D P - Dog Day</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/110534</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/137520</t>
+  </si>
+  <si>
+    <t>Invisible, Immortality, Starfish, Invincible</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/66082</t>
+  </si>
+  <si>
+    <t>Oh Hae Young Again, Another Oh Hae Young, Misunderstood, Again! Oh Hae Young</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/123349</t>
+  </si>
+  <si>
+    <t>Annarasumanara</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/136369</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/134465</t>
+  </si>
+  <si>
+    <t>Malayalam</t>
+  </si>
+  <si>
+    <t>Ugly Alert</t>
+  </si>
+  <si>
+    <t>Juvenile Justice</t>
+  </si>
+  <si>
+    <t>The One and Only</t>
+  </si>
+  <si>
+    <t>Save the Last Dance for Me</t>
+  </si>
+  <si>
+    <t>Business Proposal</t>
+  </si>
+  <si>
+    <t>Thirty-Nine</t>
+  </si>
+  <si>
+    <t>Rookie Cops</t>
+  </si>
+  <si>
+    <t>Forecasting Love and Weather</t>
+  </si>
+  <si>
+    <t>Daredevil S01</t>
+  </si>
+  <si>
+    <t>Daredevil S02</t>
+  </si>
+  <si>
+    <t>Daredevil S03</t>
+  </si>
+  <si>
+    <t>Twenty Five Twenty One</t>
+  </si>
+  <si>
+    <t>Moonshot</t>
+  </si>
+  <si>
+    <t>Hometown</t>
+  </si>
+  <si>
+    <t>Dead to Me S01</t>
+  </si>
+  <si>
+    <t>Dead to Me S02</t>
+  </si>
+  <si>
+    <t>Moonshine</t>
+  </si>
+  <si>
+    <t>Ghost Doctor</t>
+  </si>
+  <si>
+    <t>Turning Red</t>
+  </si>
+  <si>
+    <t>Moonfall</t>
+  </si>
+  <si>
+    <t>Erased</t>
+  </si>
+  <si>
+    <t>Snowdrop</t>
+  </si>
+  <si>
+    <t>Alice in Borderland S01</t>
+  </si>
+  <si>
+    <t>Bad and Crazy</t>
   </si>
 </sst>
 </file>
@@ -1883,10 +2046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L189"/>
+  <dimension ref="A1:L224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="B190" sqref="B190"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,7 +2058,7 @@
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
@@ -6513,7 +6676,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <f t="shared" ref="A145:A189" si="27">A144+1</f>
+        <f t="shared" ref="A145:A208" si="27">A144+1</f>
         <v>131</v>
       </c>
       <c r="B145" t="s">
@@ -8031,11 +8194,678 @@
       </c>
       <c r="I189" t="str">
         <f t="shared" si="28"/>
-        <v>]}</v>
+        <v>,</v>
       </c>
       <c r="J189" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Money Heist: Korea - Joint Economic Area","alt":"The House of Paper: Korea - Joint Economic Area","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/112836","post":"14478"}]}</v>
+        <v>{"name":"Money Heist: Korea - Joint Economic Area","alt":"The House of Paper: Korea - Joint Economic Area","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/112836","post":"14478"},</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <f t="shared" si="27"/>
+        <v>176</v>
+      </c>
+      <c r="B190" t="s">
+        <v>491</v>
+      </c>
+      <c r="D190">
+        <v>2022</v>
+      </c>
+      <c r="E190" t="s">
+        <v>520</v>
+      </c>
+      <c r="F190" t="s">
+        <v>118</v>
+      </c>
+      <c r="G190" t="s">
+        <v>502</v>
+      </c>
+      <c r="H190">
+        <v>14476</v>
+      </c>
+      <c r="I190" t="str">
+        <f t="shared" ref="I190:I200" si="30">IF(H191="",$G$6&amp;$D$6,$H$6)</f>
+        <v>,</v>
+      </c>
+      <c r="J190" t="str">
+        <f t="shared" ref="J190:J200" si="31">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B190&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C190&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D190&amp;$I$6&amp;$H$6&amp;$I$6&amp;E190&amp;$I$6&amp;$H$6&amp;$I$6&amp;F190&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G190&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H190&amp;$I$6&amp;$D$6&amp;I190</f>
+        <v>{"name":"Jana Gana Mana","alt":"","tags":["2022","Malayalam","Movie"],"wiki":"https://www.themoviedb.org/movie/792358","post":"14476"},</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <f t="shared" si="27"/>
+        <v>177</v>
+      </c>
+      <c r="B191" t="s">
+        <v>492</v>
+      </c>
+      <c r="D191">
+        <v>2022</v>
+      </c>
+      <c r="E191" t="s">
+        <v>54</v>
+      </c>
+      <c r="F191" t="s">
+        <v>56</v>
+      </c>
+      <c r="G191" t="s">
+        <v>503</v>
+      </c>
+      <c r="H191">
+        <v>14455</v>
+      </c>
+      <c r="I191" t="str">
+        <f t="shared" si="30"/>
+        <v>,</v>
+      </c>
+      <c r="J191" t="str">
+        <f t="shared" si="31"/>
+        <v>{"name":"Our Blues","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/135840","post":"14455"},</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <f t="shared" si="27"/>
+        <v>178</v>
+      </c>
+      <c r="B192" t="s">
+        <v>493</v>
+      </c>
+      <c r="C192" t="s">
+        <v>505</v>
+      </c>
+      <c r="D192">
+        <v>2019</v>
+      </c>
+      <c r="E192" t="s">
+        <v>54</v>
+      </c>
+      <c r="F192" t="s">
+        <v>56</v>
+      </c>
+      <c r="G192" t="s">
+        <v>504</v>
+      </c>
+      <c r="H192">
+        <v>14411</v>
+      </c>
+      <c r="I192" t="str">
+        <f t="shared" si="30"/>
+        <v>,</v>
+      </c>
+      <c r="J192" t="str">
+        <f t="shared" si="31"/>
+        <v>{"name":"Scams","alt":"Scum","tags":["2019","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/94830","post":"14411"},</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <f t="shared" si="27"/>
+        <v>179</v>
+      </c>
+      <c r="B193" t="s">
+        <v>494</v>
+      </c>
+      <c r="C193" t="s">
+        <v>507</v>
+      </c>
+      <c r="D193">
+        <v>2021</v>
+      </c>
+      <c r="E193" t="s">
+        <v>54</v>
+      </c>
+      <c r="F193" t="s">
+        <v>56</v>
+      </c>
+      <c r="G193" t="s">
+        <v>506</v>
+      </c>
+      <c r="H193">
+        <v>14394</v>
+      </c>
+      <c r="I193" t="str">
+        <f t="shared" si="30"/>
+        <v>,</v>
+      </c>
+      <c r="J193" t="str">
+        <f t="shared" si="31"/>
+        <v>{"name":"Our Beloved Summer","alt":"That Year We Are, Us That Year","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/135897","post":"14394"},</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <f t="shared" si="27"/>
+        <v>180</v>
+      </c>
+      <c r="B194" t="s">
+        <v>495</v>
+      </c>
+      <c r="C194" t="s">
+        <v>509</v>
+      </c>
+      <c r="D194">
+        <v>2021</v>
+      </c>
+      <c r="E194" t="s">
+        <v>54</v>
+      </c>
+      <c r="F194" t="s">
+        <v>56</v>
+      </c>
+      <c r="G194" t="s">
+        <v>508</v>
+      </c>
+      <c r="H194">
+        <v>14381</v>
+      </c>
+      <c r="I194" t="str">
+        <f t="shared" si="30"/>
+        <v>,</v>
+      </c>
+      <c r="J194" t="str">
+        <f t="shared" si="31"/>
+        <v>{"name":"Let Me Be Your Knight","alt":"I Will Be Your Night, I'll Be Your Night, Idol's Doctor, Idol Doctor","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/134071","post":"14381"},</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <f t="shared" si="27"/>
+        <v>181</v>
+      </c>
+      <c r="B195" t="s">
+        <v>496</v>
+      </c>
+      <c r="C195" t="s">
+        <v>510</v>
+      </c>
+      <c r="D195">
+        <v>2021</v>
+      </c>
+      <c r="E195" t="s">
+        <v>54</v>
+      </c>
+      <c r="F195" t="s">
+        <v>56</v>
+      </c>
+      <c r="G195" t="s">
+        <v>511</v>
+      </c>
+      <c r="H195">
+        <v>14374</v>
+      </c>
+      <c r="I195" t="str">
+        <f t="shared" si="30"/>
+        <v>,</v>
+      </c>
+      <c r="J195" t="str">
+        <f t="shared" si="31"/>
+        <v>{"name":"D.P. Dog Day","alt":"Deserter Pursuit Dog Day, Day of the Dog, D P - Dog Day","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/110534","post":"14374"},</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <f t="shared" si="27"/>
+        <v>182</v>
+      </c>
+      <c r="B196" t="s">
+        <v>497</v>
+      </c>
+      <c r="C196" t="s">
+        <v>513</v>
+      </c>
+      <c r="D196">
+        <v>2021</v>
+      </c>
+      <c r="E196" t="s">
+        <v>54</v>
+      </c>
+      <c r="F196" t="s">
+        <v>56</v>
+      </c>
+      <c r="G196" t="s">
+        <v>512</v>
+      </c>
+      <c r="H196">
+        <v>14357</v>
+      </c>
+      <c r="I196" t="str">
+        <f t="shared" si="30"/>
+        <v>,</v>
+      </c>
+      <c r="J196" t="str">
+        <f t="shared" si="31"/>
+        <v>{"name":"Bulgasal: Immortal Souls","alt":"Invisible, Immortality, Starfish, Invincible","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/137520","post":"14357"},</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <f t="shared" si="27"/>
+        <v>183</v>
+      </c>
+      <c r="B197" t="s">
+        <v>498</v>
+      </c>
+      <c r="C197" t="s">
+        <v>515</v>
+      </c>
+      <c r="D197">
+        <v>2016</v>
+      </c>
+      <c r="E197" t="s">
+        <v>54</v>
+      </c>
+      <c r="F197" t="s">
+        <v>56</v>
+      </c>
+      <c r="G197" t="s">
+        <v>514</v>
+      </c>
+      <c r="H197">
+        <v>14338</v>
+      </c>
+      <c r="I197" t="str">
+        <f t="shared" si="30"/>
+        <v>,</v>
+      </c>
+      <c r="J197" t="str">
+        <f t="shared" si="31"/>
+        <v>{"name":"Another Miss Oh","alt":"Oh Hae Young Again, Another Oh Hae Young, Misunderstood, Again! Oh Hae Young","tags":["2016","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/66082","post":"14338"},</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <f t="shared" si="27"/>
+        <v>184</v>
+      </c>
+      <c r="B198" t="s">
+        <v>499</v>
+      </c>
+      <c r="C198" t="s">
+        <v>517</v>
+      </c>
+      <c r="D198">
+        <v>2022</v>
+      </c>
+      <c r="E198" t="s">
+        <v>54</v>
+      </c>
+      <c r="F198" t="s">
+        <v>56</v>
+      </c>
+      <c r="G198" t="s">
+        <v>516</v>
+      </c>
+      <c r="H198">
+        <v>14331</v>
+      </c>
+      <c r="I198" t="str">
+        <f t="shared" si="30"/>
+        <v>,</v>
+      </c>
+      <c r="J198" t="str">
+        <f t="shared" si="31"/>
+        <v>{"name":"The Sound of Magic","alt":"Annarasumanara","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/123349","post":"14331"},</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <f t="shared" si="27"/>
+        <v>185</v>
+      </c>
+      <c r="B199" t="s">
+        <v>500</v>
+      </c>
+      <c r="D199">
+        <v>2022</v>
+      </c>
+      <c r="E199" t="s">
+        <v>54</v>
+      </c>
+      <c r="F199" t="s">
+        <v>56</v>
+      </c>
+      <c r="G199" t="s">
+        <v>518</v>
+      </c>
+      <c r="H199">
+        <v>14314</v>
+      </c>
+      <c r="I199" t="str">
+        <f t="shared" si="30"/>
+        <v>,</v>
+      </c>
+      <c r="J199" t="str">
+        <f t="shared" si="31"/>
+        <v>{"name":"Tomorrow","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/136369","post":"14314"},</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <f t="shared" si="27"/>
+        <v>186</v>
+      </c>
+      <c r="B200" t="s">
+        <v>501</v>
+      </c>
+      <c r="D200">
+        <v>2022</v>
+      </c>
+      <c r="E200" t="s">
+        <v>54</v>
+      </c>
+      <c r="F200" t="s">
+        <v>56</v>
+      </c>
+      <c r="G200" t="s">
+        <v>519</v>
+      </c>
+      <c r="H200">
+        <v>14297</v>
+      </c>
+      <c r="I200" t="str">
+        <f t="shared" si="30"/>
+        <v>,</v>
+      </c>
+      <c r="J200" t="str">
+        <f t="shared" si="31"/>
+        <v>{"name":"Crazy Love","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/134465","post":"14297"},</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <f t="shared" si="27"/>
+        <v>187</v>
+      </c>
+      <c r="B201" t="s">
+        <v>521</v>
+      </c>
+      <c r="H201">
+        <v>14146</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <f t="shared" si="27"/>
+        <v>188</v>
+      </c>
+      <c r="B202" t="s">
+        <v>522</v>
+      </c>
+      <c r="H202">
+        <v>14135</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <f t="shared" si="27"/>
+        <v>189</v>
+      </c>
+      <c r="B203" t="s">
+        <v>523</v>
+      </c>
+      <c r="H203">
+        <v>14118</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <f t="shared" si="27"/>
+        <v>190</v>
+      </c>
+      <c r="B204" t="s">
+        <v>524</v>
+      </c>
+      <c r="H204">
+        <v>14097</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <f t="shared" si="27"/>
+        <v>191</v>
+      </c>
+      <c r="B205" t="s">
+        <v>525</v>
+      </c>
+      <c r="H205">
+        <v>14084</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <f t="shared" si="27"/>
+        <v>192</v>
+      </c>
+      <c r="B206" t="s">
+        <v>526</v>
+      </c>
+      <c r="C206">
+        <v>39</v>
+      </c>
+      <c r="H206">
+        <v>14071</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <f t="shared" si="27"/>
+        <v>193</v>
+      </c>
+      <c r="B207" t="s">
+        <v>527</v>
+      </c>
+      <c r="H207">
+        <v>14054</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <f t="shared" si="27"/>
+        <v>194</v>
+      </c>
+      <c r="B208" t="s">
+        <v>528</v>
+      </c>
+      <c r="H208">
+        <v>14037</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <f t="shared" ref="A209:A224" si="32">A208+1</f>
+        <v>195</v>
+      </c>
+      <c r="B209" t="s">
+        <v>529</v>
+      </c>
+      <c r="H209">
+        <v>13995</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <f t="shared" si="32"/>
+        <v>196</v>
+      </c>
+      <c r="B210" t="s">
+        <v>530</v>
+      </c>
+      <c r="H210">
+        <v>14009</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <f t="shared" si="32"/>
+        <v>197</v>
+      </c>
+      <c r="B211" t="s">
+        <v>531</v>
+      </c>
+      <c r="H211">
+        <v>14023</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <f t="shared" si="32"/>
+        <v>198</v>
+      </c>
+      <c r="B212" t="s">
+        <v>532</v>
+      </c>
+      <c r="C212">
+        <v>2521</v>
+      </c>
+      <c r="H212">
+        <v>13978</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <f t="shared" si="32"/>
+        <v>199</v>
+      </c>
+      <c r="B213" t="s">
+        <v>533</v>
+      </c>
+      <c r="H213">
+        <v>13975</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <f t="shared" si="32"/>
+        <v>200</v>
+      </c>
+      <c r="B214" t="s">
+        <v>534</v>
+      </c>
+      <c r="H214">
+        <v>13962</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <f t="shared" si="32"/>
+        <v>201</v>
+      </c>
+      <c r="B215" t="s">
+        <v>535</v>
+      </c>
+      <c r="H215">
+        <v>13940</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <f t="shared" si="32"/>
+        <v>202</v>
+      </c>
+      <c r="B216" t="s">
+        <v>536</v>
+      </c>
+      <c r="H216">
+        <v>13951</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <f t="shared" si="32"/>
+        <v>203</v>
+      </c>
+      <c r="B217" t="s">
+        <v>537</v>
+      </c>
+      <c r="H217">
+        <v>13923</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <f t="shared" si="32"/>
+        <v>204</v>
+      </c>
+      <c r="B218" t="s">
+        <v>538</v>
+      </c>
+      <c r="H218">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <f t="shared" si="32"/>
+        <v>205</v>
+      </c>
+      <c r="B219" t="s">
+        <v>539</v>
+      </c>
+      <c r="H219">
+        <v>13903</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <f t="shared" si="32"/>
+        <v>206</v>
+      </c>
+      <c r="B220" t="s">
+        <v>540</v>
+      </c>
+      <c r="H220">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <f t="shared" si="32"/>
+        <v>207</v>
+      </c>
+      <c r="B221" t="s">
+        <v>541</v>
+      </c>
+      <c r="H221">
+        <v>13887</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <f t="shared" si="32"/>
+        <v>208</v>
+      </c>
+      <c r="B222" t="s">
+        <v>542</v>
+      </c>
+      <c r="H222">
+        <v>13849</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <f t="shared" si="32"/>
+        <v>209</v>
+      </c>
+      <c r="B223" t="s">
+        <v>543</v>
+      </c>
+      <c r="H223">
+        <v>13840</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <f t="shared" si="32"/>
+        <v>210</v>
+      </c>
+      <c r="B224" t="s">
+        <v>544</v>
+      </c>
+      <c r="H224">
+        <v>13818</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8894,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45083.274095023145</v>
+        <v>45083.290578472224</v>
       </c>
       <c r="B1">
         <f ca="1">DAY(A1)</f>

--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hobby Works\Catadex\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08E78E4-A4EA-470D-913D-CAADE0152851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081CACCB-F87E-4CC8-90E0-38AF1BEC505B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Sheet2" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="607">
   <si>
     <t>year</t>
   </si>
@@ -208,9 +207,6 @@
     <t>Chinese</t>
   </si>
   <si>
-    <t>TV Show</t>
-  </si>
-  <si>
     <t>My Girlfriend Is an Alien S02</t>
   </si>
   <si>
@@ -394,9 +390,6 @@
     <t>Tetris</t>
   </si>
   <si>
-    <t>Movie</t>
-  </si>
-  <si>
     <t>Brahmastra: Part One</t>
   </si>
   <si>
@@ -1636,9 +1629,6 @@
     <t>Daredevil S03</t>
   </si>
   <si>
-    <t>Twenty Five Twenty One</t>
-  </si>
-  <si>
     <t>Moonshot</t>
   </si>
   <si>
@@ -1673,6 +1663,201 @@
   </si>
   <si>
     <t>Bad and Crazy</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/64300</t>
+  </si>
+  <si>
+    <t>Ugly Warning</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/112833</t>
+  </si>
+  <si>
+    <t>Juvenile Judgement, The Boy Judgement, Boy Judge</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/127008</t>
+  </si>
+  <si>
+    <t>Just One Person, Only One Person</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/5551</t>
+  </si>
+  <si>
+    <t>Save Your Last Dance for Me, The Last Dance Is With Me</t>
+  </si>
+  <si>
+    <t>In-House Confrontation, In-House Match, Confrontation in the Company, Meet the Man, Meet the Guy, The Office Blind Date, A Business Proposal</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/154825</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/131028</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/126484</t>
+  </si>
+  <si>
+    <t>Rookies, Our Police Class, Our Police Course, Police Class of Mine and Yours</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/152511</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/61889</t>
+  </si>
+  <si>
+    <t>Marvel's Daredevil 1</t>
+  </si>
+  <si>
+    <t>Marvel's Daredevil 2</t>
+  </si>
+  <si>
+    <t>Marvel's Daredevil 3</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/129888</t>
+  </si>
+  <si>
+    <t>Twenty-Five Twenty-One</t>
+  </si>
+  <si>
+    <t>2521, Twenty Five Twenty One</t>
+  </si>
+  <si>
+    <t>SHOW</t>
+  </si>
+  <si>
+    <t>MOVIE</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/767825</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/128184</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/81357</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/129889</t>
+  </si>
+  <si>
+    <t>Dead to Me 1</t>
+  </si>
+  <si>
+    <t>Dead to Me 2</t>
+  </si>
+  <si>
+    <t>Thinking of the Moon When Flowers Bloom, Flower Blooms, Moon Shines, Thinking of the Moon When the Flower Blooms, When Flowers Bloom, I Think of the Moon</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/152471</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/508947</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/406759</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/74939</t>
+  </si>
+  <si>
+    <t>The Town Where Only I Am Missing, Boku Dake ga Inai Machi</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/108291</t>
+  </si>
+  <si>
+    <t>Alice in Borderland 1, Imawa no Kuni no Alice 1, Imawa no Kuni no Alice S01</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/110316</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/132979</t>
+  </si>
+  <si>
+    <t>Love Affair Cruelty, Office Romance Atrocities, KMA People: Office Romance Cruelty, Meteorological Office People: In-House Love Cruelty, Cruel Story of Office Romance, Meteorological Administration People: Office Romance Cruelty</t>
+  </si>
+  <si>
+    <t>Pushpa: The Rise - Part 1</t>
+  </si>
+  <si>
+    <t>All of Us Are Dead</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/99966</t>
+  </si>
+  <si>
+    <t>A Love So Beautiful</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/75387</t>
+  </si>
+  <si>
+    <t>To Our Pure Little Beauty</t>
+  </si>
+  <si>
+    <t>Tazza</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/46547</t>
+  </si>
+  <si>
+    <t>War of Flowers</t>
+  </si>
+  <si>
+    <t>The Black Sun, Black Sun</t>
+  </si>
+  <si>
+    <t>The Veil</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/127358</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/114395</t>
+  </si>
+  <si>
+    <t>To Our Pure Little Beauty, For Us Who are Beautiful</t>
+  </si>
+  <si>
+    <t>Confession</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/87430</t>
+  </si>
+  <si>
+    <t>Dali and the Cocky Prince</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/131026</t>
+  </si>
+  <si>
+    <t>Dali and Cocky Prince, Dali Potato Soup</t>
+  </si>
+  <si>
+    <t>Police University</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/127356</t>
+  </si>
+  <si>
+    <t>The Police Course, Police Lesson, Police Lessons, Police Academy, My Little Police, Police Class</t>
+  </si>
+  <si>
+    <t>High Class</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/130655</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/690957</t>
   </si>
 </sst>
 </file>
@@ -2046,10 +2231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L224"/>
+  <dimension ref="A1:L234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2235,13 +2420,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>0</v>
@@ -2274,7 +2459,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D15">
         <v>2012</v>
@@ -2283,10 +2468,10 @@
         <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15">
         <v>17172</v>
@@ -2297,7 +2482,7 @@
       </c>
       <c r="J15" t="str">
         <f>$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B15&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C15&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D15&amp;$I$6&amp;$H$6&amp;$I$6&amp;E15&amp;$I$6&amp;$H$6&amp;$I$6&amp;F15&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G15&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H15&amp;$I$6&amp;$D$6&amp;I15</f>
-        <v>{"name":"Rooftop Prince","alt":"Attic Prince","tags":["2012","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/43152","post":"17172"},</v>
+        <v>{"name":"Rooftop Prince","alt":"Attic Prince","tags":["2012","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/43152","post":"17172"},</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2309,7 +2494,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D16">
         <v>2014</v>
@@ -2318,10 +2503,10 @@
         <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16">
         <v>17151</v>
@@ -2332,7 +2517,7 @@
       </c>
       <c r="J16" t="str">
         <f>$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B16&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C16&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D16&amp;$I$6&amp;$H$6&amp;$I$6&amp;E16&amp;$I$6&amp;$H$6&amp;$I$6&amp;F16&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G16&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H16&amp;$I$6&amp;$D$6&amp;I16</f>
-        <v>{"name":"Pinocchio","alt":"Pinokio","tags":["2014","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/61611","post":"17151"},</v>
+        <v>{"name":"Pinocchio","alt":"Pinokio","tags":["2014","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/61611","post":"17151"},</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2344,7 +2529,7 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17">
         <v>2016</v>
@@ -2353,10 +2538,10 @@
         <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17">
         <v>17134</v>
@@ -2367,7 +2552,7 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" ref="J17:J80" si="3">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B17&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C17&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D17&amp;$I$6&amp;$H$6&amp;$I$6&amp;E17&amp;$I$6&amp;$H$6&amp;$I$6&amp;F17&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G17&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H17&amp;$I$6&amp;$D$6&amp;I17</f>
-        <v>{"name":"One More Happy Ending","alt":"Happy Once Again","tags":["2016","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/65187","post":"17134"},</v>
+        <v>{"name":"One More Happy Ending","alt":"Happy Once Again","tags":["2016","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/65187","post":"17134"},</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2388,10 +2573,10 @@
         <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18">
         <v>17117</v>
@@ -2402,7 +2587,7 @@
       </c>
       <c r="J18" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"The Third Charm","alt":"The 3rd Charm","tags":["2018","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/82462","post":"17117"},</v>
+        <v>{"name":"The Third Charm","alt":"The 3rd Charm","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/82462","post":"17117"},</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2420,10 +2605,10 @@
         <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19">
         <v>17096</v>
@@ -2434,7 +2619,7 @@
       </c>
       <c r="J19" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Secret Garden","alt":"","tags":["2010","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/37636","post":"17096"},</v>
+        <v>{"name":"Secret Garden","alt":"","tags":["2010","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/37636","post":"17096"},</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2455,10 +2640,10 @@
         <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H20">
         <v>17079</v>
@@ -2469,7 +2654,7 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Missing 9","alt":"Missing Nine","tags":["2017","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/68891","post":"17079"},</v>
+        <v>{"name":"Missing 9","alt":"Missing Nine","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/68891","post":"17079"},</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2481,7 +2666,7 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D21">
         <v>2021</v>
@@ -2490,10 +2675,10 @@
         <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H21">
         <v>17045</v>
@@ -2504,7 +2689,7 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Taxi Driver S01","alt":"Taxi Driver 1, Model Taxi 1","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/119769","post":"17045"},</v>
+        <v>{"name":"Taxi Driver S01","alt":"Taxi Driver 1, Model Taxi 1","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/119769","post":"17045"},</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2516,7 +2701,7 @@
         <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D22">
         <v>2023</v>
@@ -2525,10 +2710,10 @@
         <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H22">
         <v>17062</v>
@@ -2539,7 +2724,7 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Taxi Driver S02","alt":"Taxi Driver 2, Model Taxi 2","tags":["2023","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/119769","post":"17062"},</v>
+        <v>{"name":"Taxi Driver S02","alt":"Taxi Driver 2, Model Taxi 2","tags":["2023","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/119769","post":"17062"},</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2551,7 +2736,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D23">
         <v>2016</v>
@@ -2560,10 +2745,10 @@
         <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H23">
         <v>17024</v>
@@ -2574,7 +2759,7 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Uncontrollably Fond","alt":"Lightly, Ardently, Arbitrarily Fond","tags":["2016","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/66272","post":"17024"},</v>
+        <v>{"name":"Uncontrollably Fond","alt":"Lightly, Ardently, Arbitrarily Fond","tags":["2016","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/66272","post":"17024"},</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2592,10 +2777,10 @@
         <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24">
         <v>17007</v>
@@ -2606,7 +2791,7 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Strong Woman Do Bong Soon","alt":"","tags":["2017","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/68814","post":"17007"},</v>
+        <v>{"name":"Strong Woman Do Bong Soon","alt":"","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/68814","post":"17007"},</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2624,10 +2809,10 @@
         <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25">
         <v>16990</v>
@@ -2638,7 +2823,7 @@
       </c>
       <c r="J25" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Full House","alt":"","tags":["2004","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/3504","post":"16990"},</v>
+        <v>{"name":"Full House","alt":"","tags":["2004","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/3504","post":"16990"},</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2650,7 +2835,7 @@
         <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D26">
         <v>2019</v>
@@ -2659,10 +2844,10 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H26">
         <v>16930</v>
@@ -2673,7 +2858,7 @@
       </c>
       <c r="J26" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"My Girlfriend Is an Alien S01","alt":"My Girlfriend Is an Alien 1, Alien Girl 1","tags":["2019","Chinese","TV Show"],"wiki":"https://www.themoviedb.org/tv/92779","post":"16930"},</v>
+        <v>{"name":"My Girlfriend Is an Alien S01","alt":"My Girlfriend Is an Alien 1, Alien Girl 1","tags":["2019","Chinese","SHOW"],"wiki":"https://www.themoviedb.org/tv/92779","post":"16930"},</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2682,10 +2867,10 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D27">
         <v>2022</v>
@@ -2694,10 +2879,10 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H27">
         <v>16959</v>
@@ -2708,7 +2893,7 @@
       </c>
       <c r="J27" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"My Girlfriend Is an Alien S02","alt":"My Girlfriend Is an Alien 2, Alien Girl 2","tags":["2022","Chinese","TV Show"],"wiki":"https://www.themoviedb.org/tv/92779","post":"16959"},</v>
+        <v>{"name":"My Girlfriend Is an Alien S02","alt":"My Girlfriend Is an Alien 2, Alien Girl 2","tags":["2022","Chinese","SHOW"],"wiki":"https://www.themoviedb.org/tv/92779","post":"16959"},</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2717,10 +2902,10 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
         <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
       </c>
       <c r="D28">
         <v>2018</v>
@@ -2729,10 +2914,10 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H28">
         <v>16913</v>
@@ -2743,7 +2928,7 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"What's Wrong with Secretary Kim","alt":"Why Secretary Kim","tags":["2018","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/79434","post":"16913"},</v>
+        <v>{"name":"What's Wrong with Secretary Kim","alt":"Why Secretary Kim","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/79434","post":"16913"},</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2752,10 +2937,10 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D29">
         <v>2015</v>
@@ -2764,10 +2949,10 @@
         <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H29">
         <v>16879</v>
@@ -2778,7 +2963,7 @@
       </c>
       <c r="J29" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Oh My Ghost","alt":"Oh My Ghostess","tags":["2015","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/63119","post":"16879"},</v>
+        <v>{"name":"Oh My Ghost","alt":"Oh My Ghostess","tags":["2015","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/63119","post":"16879"},</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2790,7 +2975,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D30">
         <v>2018</v>
@@ -2799,10 +2984,10 @@
         <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H30">
         <v>16854</v>
@@ -2813,7 +2998,7 @@
       </c>
       <c r="J30" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Mr. Sunshine","alt":"Mister Sunshine","tags":["2018","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/75820","post":"16854"},</v>
+        <v>{"name":"Mr. Sunshine","alt":"Mister Sunshine","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/75820","post":"16854"},</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2822,10 +3007,10 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D31">
         <v>2023</v>
@@ -2834,10 +3019,10 @@
         <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31">
         <v>16843</v>
@@ -2848,7 +3033,7 @@
       </c>
       <c r="J31" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Duty After School","alt":"Afterschool Military Activity, Afterschool War Activities","tags":["2023","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/158258","post":"16843"},</v>
+        <v>{"name":"Duty After School","alt":"Afterschool Military Activity, Afterschool War Activities","tags":["2023","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/158258","post":"16843"},</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2857,10 +3042,10 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D32">
         <v>2023</v>
@@ -2869,10 +3054,10 @@
         <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H32">
         <v>16830</v>
@@ -2883,7 +3068,7 @@
       </c>
       <c r="J32" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Decoy","alt":"Bair, Chronicles of Crime, Mikki","tags":["2023","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/204654","post":"16830"},</v>
+        <v>{"name":"Decoy","alt":"Bair, Chronicles of Crime, Mikki","tags":["2023","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/204654","post":"16830"},</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2892,7 +3077,7 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33">
         <v>2009</v>
@@ -2901,10 +3086,10 @@
         <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H33">
         <v>16804</v>
@@ -2915,7 +3100,7 @@
       </c>
       <c r="J33" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Boys Over Flowers","alt":"","tags":["2009","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/16420","post":"16804"},</v>
+        <v>{"name":"Boys Over Flowers","alt":"","tags":["2009","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/16420","post":"16804"},</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2924,19 +3109,19 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34">
         <v>2023</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H34">
         <v>16794</v>
@@ -2947,7 +3132,7 @@
       </c>
       <c r="J34" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"The Last of Us","alt":"","tags":["2023","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/100088","post":"16794"},</v>
+        <v>{"name":"The Last of Us","alt":"","tags":["2023","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/100088","post":"16794"},</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2956,19 +3141,19 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35">
+        <v>2022</v>
+      </c>
+      <c r="E35" t="s">
         <v>89</v>
       </c>
-      <c r="D35">
-        <v>2022</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>563</v>
+      </c>
+      <c r="G35" t="s">
         <v>90</v>
-      </c>
-      <c r="F35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" t="s">
-        <v>91</v>
       </c>
       <c r="H35">
         <v>16785</v>
@@ -2979,7 +3164,7 @@
       </c>
       <c r="J35" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"The Lord of the Rings: The Rings of Power","alt":"","tags":["2022","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/84773","post":"16785"},</v>
+        <v>{"name":"The Lord of the Rings: The Rings of Power","alt":"","tags":["2022","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/84773","post":"16785"},</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2988,7 +3173,7 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36">
         <v>2022</v>
@@ -2997,10 +3182,10 @@
         <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H36">
         <v>16776</v>
@@ -3011,7 +3196,7 @@
       </c>
       <c r="J36" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"The Fabulous","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/135155","post":"16776"},</v>
+        <v>{"name":"The Fabulous","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/135155","post":"16776"},</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -3020,10 +3205,10 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D37">
         <v>2022</v>
@@ -3032,10 +3217,10 @@
         <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H37">
         <v>16759</v>
@@ -3046,7 +3231,7 @@
       </c>
       <c r="J37" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"The Interest of Love","alt":"Understanding Love","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/211746","post":"16759"},</v>
+        <v>{"name":"The Interest of Love","alt":"Understanding Love","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/211746","post":"16759"},</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -3055,10 +3240,10 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D38">
         <v>2012</v>
@@ -3067,10 +3252,10 @@
         <v>54</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H38">
         <v>16742</v>
@@ -3081,7 +3266,7 @@
       </c>
       <c r="J38" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"The Chaser","alt":"Father's War","tags":["2012","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/44729","post":"16742"},</v>
+        <v>{"name":"The Chaser","alt":"Father's War","tags":["2012","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/44729","post":"16742"},</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -3090,10 +3275,10 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D39">
         <v>2023</v>
@@ -3102,10 +3287,10 @@
         <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H39">
         <v>16721</v>
@@ -3116,7 +3301,7 @@
       </c>
       <c r="J39" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Our Blooming Youth","alt":"Sleep Momo, Sleeping Rock, The Golden Hairpin, Talk to the Moon, Youth Climbing Over the Wall","tags":["2023","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/154889","post":"16721"},</v>
+        <v>{"name":"Our Blooming Youth","alt":"Sleep Momo, Sleeping Rock, The Golden Hairpin, Talk to the Moon, Youth Climbing Over the Wall","tags":["2023","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/154889","post":"16721"},</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -3125,19 +3310,19 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D40">
         <v>2022</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H40">
         <v>16710</v>
@@ -3148,7 +3333,7 @@
       </c>
       <c r="J40" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"House of the Dragons","alt":"","tags":["2022","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/94997","post":"16710"},</v>
+        <v>{"name":"House of the Dragons","alt":"","tags":["2022","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/94997","post":"16710"},</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -3157,7 +3342,7 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41">
         <v>2009</v>
@@ -3166,10 +3351,10 @@
         <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H41">
         <v>16668</v>
@@ -3180,7 +3365,7 @@
       </c>
       <c r="J41" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"IRIS S01","alt":"","tags":["2009","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/31505","post":"16668"},</v>
+        <v>{"name":"IRIS S01","alt":"","tags":["2009","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/31505","post":"16668"},</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -3189,7 +3374,7 @@
         <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D42">
         <v>2013</v>
@@ -3198,10 +3383,10 @@
         <v>54</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H42">
         <v>16689</v>
@@ -3212,7 +3397,7 @@
       </c>
       <c r="J42" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"IRIS S02","alt":"","tags":["2013","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/68177","post":"16689"},</v>
+        <v>{"name":"IRIS S02","alt":"","tags":["2013","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/68177","post":"16689"},</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -3221,10 +3406,10 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D43">
         <v>2023</v>
@@ -3233,10 +3418,10 @@
         <v>54</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H43">
         <v>16655</v>
@@ -3247,7 +3432,7 @@
       </c>
       <c r="J43" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Divorce Attorney Shin","alt":"Divine Divorce, Sacred Divorce","tags":["2023","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/204241","post":"16655"},</v>
+        <v>{"name":"Divorce Attorney Shin","alt":"Divine Divorce, Sacred Divorce","tags":["2023","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/204241","post":"16655"},</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3256,10 +3441,10 @@
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D44">
         <v>2023</v>
@@ -3268,10 +3453,10 @@
         <v>54</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H44">
         <v>16638</v>
@@ -3282,7 +3467,7 @@
       </c>
       <c r="J44" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Call It Love","alt":"Please Say This Is Love, Tell Me It's Love","tags":["2023","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/215471","post":"16638"},</v>
+        <v>{"name":"Call It Love","alt":"Please Say This Is Love, Tell Me It's Love","tags":["2023","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/215471","post":"16638"},</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -3291,10 +3476,10 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D45">
         <v>2022</v>
@@ -3303,10 +3488,10 @@
         <v>54</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H45">
         <v>16620</v>
@@ -3317,7 +3502,7 @@
       </c>
       <c r="J45" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Big Bet S01","alt":"Big Bet 1, King of Savvy 1, Casino 1","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/112486","post":"16620"},</v>
+        <v>{"name":"Big Bet S01","alt":"Big Bet 1, King of Savvy 1, Casino 1","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/112486","post":"16620"},</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3326,10 +3511,10 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D46">
         <v>2023</v>
@@ -3338,10 +3523,10 @@
         <v>54</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H46">
         <v>16629</v>
@@ -3352,7 +3537,7 @@
       </c>
       <c r="J46" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Big Bet S02","alt":"Big Bet 2, King of Savvy 2, Casino 2","tags":["2023","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/112486","post":"16629"},</v>
+        <v>{"name":"Big Bet S02","alt":"Big Bet 2, King of Savvy 2, Casino 2","tags":["2023","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/112486","post":"16629"},</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3361,10 +3546,10 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D47">
         <v>2023</v>
@@ -3373,10 +3558,10 @@
         <v>54</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H47">
         <v>16603</v>
@@ -3387,7 +3572,7 @@
       </c>
       <c r="J47" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Brain Works","alt":"Brain Cooperation","tags":["2023","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/206674","post":"16603"},</v>
+        <v>{"name":"Brain Works","alt":"Brain Cooperation","tags":["2023","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/206674","post":"16603"},</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3396,10 +3581,10 @@
         <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D48">
         <v>2022</v>
@@ -3408,10 +3593,10 @@
         <v>54</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H48">
         <v>16590</v>
@@ -3422,7 +3607,7 @@
       </c>
       <c r="J48" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Bad Prosecutor","alt":"True Swordsmanship, Real Swordsmanship, Prosecutor Jin’s Victory, Real Game, Stubborn Prosecutor","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/209408","post":"16590"},</v>
+        <v>{"name":"Bad Prosecutor","alt":"True Swordsmanship, Real Swordsmanship, Prosecutor Jin’s Victory, Real Game, Stubborn Prosecutor","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/209408","post":"16590"},</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3431,19 +3616,19 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D49">
         <v>2021</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H49">
         <v>16550</v>
@@ -3454,7 +3639,7 @@
       </c>
       <c r="J49" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Ginny and Georgia S01","alt":"","tags":["2021","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/117581","post":"16550"},</v>
+        <v>{"name":"Ginny and Georgia S01","alt":"","tags":["2021","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/117581","post":"16550"},</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3463,19 +3648,19 @@
         <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D50">
         <v>2023</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H50">
         <v>16561</v>
@@ -3486,7 +3671,7 @@
       </c>
       <c r="J50" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Ginny and Georgia S02","alt":"","tags":["2023","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/117581","post":"16561"},</v>
+        <v>{"name":"Ginny and Georgia S02","alt":"","tags":["2023","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/117581","post":"16561"},</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3495,19 +3680,19 @@
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D51">
         <v>2023</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F51" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H51">
         <v>16547</v>
@@ -3518,7 +3703,7 @@
       </c>
       <c r="J51" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Tetris","alt":"","tags":["2023","English","Movie"],"wiki":"https://www.themoviedb.org/movie/726759","post":"16547"},</v>
+        <v>{"name":"Tetris","alt":"","tags":["2023","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/726759","post":"16547"},</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3527,19 +3712,19 @@
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D52">
         <v>2022</v>
       </c>
       <c r="E52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F52" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H52">
         <v>16527</v>
@@ -3550,7 +3735,7 @@
       </c>
       <c r="J52" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Brahmastra: Part One","alt":"","tags":["2022","Hindi","Movie"],"wiki":"https://www.themoviedb.org/movie/496331","post":"16527"},</v>
+        <v>{"name":"Brahmastra: Part One","alt":"","tags":["2022","Hindi","MOVIE"],"wiki":"https://www.themoviedb.org/movie/496331","post":"16527"},</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3559,19 +3744,19 @@
         <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D53">
         <v>2023</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F53" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G53" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H53">
         <v>16524</v>
@@ -3582,7 +3767,7 @@
       </c>
       <c r="J53" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Pathaan","alt":"","tags":["2023","Hindi","Movie"],"wiki":"https://www.themoviedb.org/movie/864692","post":"16524"},</v>
+        <v>{"name":"Pathaan","alt":"","tags":["2023","Hindi","MOVIE"],"wiki":"https://www.themoviedb.org/movie/864692","post":"16524"},</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3591,19 +3776,19 @@
         <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D54">
         <v>2021</v>
       </c>
       <c r="E54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G54" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H54">
         <v>16482</v>
@@ -3614,7 +3799,7 @@
       </c>
       <c r="J54" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Kung Fu S01","alt":"","tags":["2021","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/114165","post":"16482"},</v>
+        <v>{"name":"Kung Fu S01","alt":"","tags":["2021","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/114165","post":"16482"},</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3623,19 +3808,19 @@
         <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D55">
         <v>2022</v>
       </c>
       <c r="E55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F55" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G55" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H55">
         <v>16496</v>
@@ -3646,7 +3831,7 @@
       </c>
       <c r="J55" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Kung Fu S02","alt":"","tags":["2022","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/114165","post":"16496"},</v>
+        <v>{"name":"Kung Fu S02","alt":"","tags":["2022","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/114165","post":"16496"},</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3655,19 +3840,19 @@
         <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D56">
         <v>2022</v>
       </c>
       <c r="E56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H56">
         <v>16510</v>
@@ -3678,7 +3863,7 @@
       </c>
       <c r="J56" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Kung Fu S03","alt":"","tags":["2022","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/114165","post":"16510"},</v>
+        <v>{"name":"Kung Fu S03","alt":"","tags":["2022","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/114165","post":"16510"},</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3687,19 +3872,19 @@
         <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D57">
         <v>2023</v>
       </c>
       <c r="E57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H57">
         <v>16471</v>
@@ -3710,7 +3895,7 @@
       </c>
       <c r="J57" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"The Night Agent","alt":"","tags":["2023","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/129552","post":"16471"},</v>
+        <v>{"name":"The Night Agent","alt":"","tags":["2023","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/129552","post":"16471"},</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3719,19 +3904,19 @@
         <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D58">
         <v>2022</v>
       </c>
       <c r="E58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H58">
         <v>16457</v>
@@ -3742,7 +3927,7 @@
       </c>
       <c r="J58" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Walker: Independence","alt":"","tags":["2022","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/201877","post":"16457"},</v>
+        <v>{"name":"Walker: Independence","alt":"","tags":["2022","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/201877","post":"16457"},</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3751,19 +3936,19 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D59">
         <v>2023</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G59" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H59">
         <v>16448</v>
@@ -3774,7 +3959,7 @@
       </c>
       <c r="J59" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Wolf Pack","alt":"","tags":["2023","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/134865","post":"16448"},</v>
+        <v>{"name":"Wolf Pack","alt":"","tags":["2023","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/134865","post":"16448"},</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3783,19 +3968,19 @@
         <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D60">
         <v>2023</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H60">
         <v>16439</v>
@@ -3806,7 +3991,7 @@
       </c>
       <c r="J60" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"The Consultant","alt":"","tags":["2023","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/139099","post":"16439"},</v>
+        <v>{"name":"The Consultant","alt":"","tags":["2023","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/139099","post":"16439"},</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3815,7 +4000,7 @@
         <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D61">
         <v>2019</v>
@@ -3824,10 +4009,10 @@
         <v>55</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H61">
         <v>16430</v>
@@ -3838,7 +4023,7 @@
       </c>
       <c r="J61" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Nowhere Man","alt":"","tags":["2019","Chinese","TV Show"],"wiki":"https://www.themoviedb.org/tv/94384","post":"16430"},</v>
+        <v>{"name":"Nowhere Man","alt":"","tags":["2019","Chinese","SHOW"],"wiki":"https://www.themoviedb.org/tv/94384","post":"16430"},</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3847,19 +4032,19 @@
         <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D62">
         <v>2014</v>
       </c>
       <c r="E62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G62" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H62">
         <v>16407</v>
@@ -3870,7 +4055,7 @@
       </c>
       <c r="J62" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Dominion S01","alt":"","tags":["2014","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/60685","post":"16407"},</v>
+        <v>{"name":"Dominion S01","alt":"","tags":["2014","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/60685","post":"16407"},</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3879,19 +4064,19 @@
         <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D63">
         <v>2015</v>
       </c>
       <c r="E63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H63">
         <v>16416</v>
@@ -3902,7 +4087,7 @@
       </c>
       <c r="J63" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Dominion S02","alt":"","tags":["2015","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/60685","post":"16416"},</v>
+        <v>{"name":"Dominion S02","alt":"","tags":["2015","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/60685","post":"16416"},</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3911,22 +4096,22 @@
         <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D64">
         <v>2022</v>
       </c>
       <c r="E64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H64">
         <v>16397</v>
@@ -3937,7 +4122,7 @@
       </c>
       <c r="J64" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"First Love","alt":"Hatsukoi","tags":["2022","Japanese","TV Show"],"wiki":"https://www.themoviedb.org/tv/210955","post":"16397"},</v>
+        <v>{"name":"First Love","alt":"Hatsukoi","tags":["2022","Japanese","SHOW"],"wiki":"https://www.themoviedb.org/tv/210955","post":"16397"},</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3946,22 +4131,22 @@
         <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D65">
         <v>2022</v>
       </c>
       <c r="E65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F65" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G65" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H65">
         <v>16389</v>
@@ -3972,7 +4157,7 @@
       </c>
       <c r="J65" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Gannibal","alt":"Gannibaru","tags":["2022","Japanese","TV Show"],"wiki":"https://www.themoviedb.org/tv/210213","post":"16389"},</v>
+        <v>{"name":"Gannibal","alt":"Gannibaru","tags":["2022","Japanese","SHOW"],"wiki":"https://www.themoviedb.org/tv/210213","post":"16389"},</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3981,22 +4166,22 @@
         <v>52</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D66">
         <v>2014</v>
       </c>
       <c r="E66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G66" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H66">
         <v>16378</v>
@@ -4007,7 +4192,7 @@
       </c>
       <c r="J66" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Saving My Stupid Youth","alt":"Gomenne Seishun, I'm sorry youth, Gomen ne Seishun, Regret from My School Days","tags":["2014","Japanese","TV Show"],"wiki":"https://www.themoviedb.org/tv/62572","post":"16378"},</v>
+        <v>{"name":"Saving My Stupid Youth","alt":"Gomenne Seishun, I'm sorry youth, Gomen ne Seishun, Regret from My School Days","tags":["2014","Japanese","SHOW"],"wiki":"https://www.themoviedb.org/tv/62572","post":"16378"},</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -4016,22 +4201,22 @@
         <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C67" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D67">
         <v>2005</v>
       </c>
       <c r="E67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G67" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H67">
         <v>16367</v>
@@ -4042,7 +4227,7 @@
       </c>
       <c r="J67" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Producing Nobuta","alt":"Nobuta wo Produce","tags":["2005","Japanese","TV Show"],"wiki":"https://www.themoviedb.org/tv/13493","post":"16367"},</v>
+        <v>{"name":"Producing Nobuta","alt":"Nobuta wo Produce","tags":["2005","Japanese","SHOW"],"wiki":"https://www.themoviedb.org/tv/13493","post":"16367"},</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -4051,22 +4236,22 @@
         <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C68" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D68">
         <v>2023</v>
       </c>
       <c r="E68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F68" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H68">
         <v>16357</v>
@@ -4077,7 +4262,7 @@
       </c>
       <c r="J68" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"The Makanai: Cooking for the Maiko House","alt":"Maiko-san Chi no Makanai-san, Kiyo in Kyoto: From the Maiko House","tags":["2023","Japanese","TV Show"],"wiki":"https://www.themoviedb.org/tv/154916","post":"16357"},</v>
+        <v>{"name":"The Makanai: Cooking for the Maiko House","alt":"Maiko-san Chi no Makanai-san, Kiyo in Kyoto: From the Maiko House","tags":["2023","Japanese","SHOW"],"wiki":"https://www.themoviedb.org/tv/154916","post":"16357"},</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -4086,10 +4271,10 @@
         <v>55</v>
       </c>
       <c r="B69" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C69" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D69">
         <v>2022</v>
@@ -4098,10 +4283,10 @@
         <v>54</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G69" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H69">
         <v>16340</v>
@@ -4112,7 +4297,7 @@
       </c>
       <c r="J69" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"The Law Café","alt":"Love by Law, Love According to the Law","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/156248","post":"16340"},</v>
+        <v>{"name":"The Law Café","alt":"Love by Law, Love According to the Law","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/156248","post":"16340"},</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -4121,7 +4306,7 @@
         <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D70">
         <v>2022</v>
@@ -4130,10 +4315,10 @@
         <v>54</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H70">
         <v>16323</v>
@@ -4144,7 +4329,7 @@
       </c>
       <c r="J70" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"The Golden Spoon","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/157383","post":"16323"},</v>
+        <v>{"name":"The Golden Spoon","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/157383","post":"16323"},</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -4153,10 +4338,10 @@
         <v>57</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C71" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D71">
         <v>2022</v>
@@ -4165,10 +4350,10 @@
         <v>54</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G71" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H71">
         <v>16314</v>
@@ -4179,7 +4364,7 @@
       </c>
       <c r="J71" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Somebody","alt":"Bloody Finger","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/112837","post":"16314"},</v>
+        <v>{"name":"Somebody","alt":"Bloody Finger","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/112837","post":"16314"},</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -4188,10 +4373,10 @@
         <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C72" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D72">
         <v>2022</v>
@@ -4200,10 +4385,10 @@
         <v>54</v>
       </c>
       <c r="F72" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H72">
         <v>16301</v>
@@ -4214,7 +4399,7 @@
       </c>
       <c r="J72" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"One Dollar Lawyer","alt":"One Thousand Won Lawyer, 1000 Won Lawyer, 1 Dollar Lawyer","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/201852","post":"16301"},</v>
+        <v>{"name":"One Dollar Lawyer","alt":"One Thousand Won Lawyer, 1000 Won Lawyer, 1 Dollar Lawyer","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/201852","post":"16301"},</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -4223,7 +4408,7 @@
         <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D73">
         <v>2022</v>
@@ -4232,10 +4417,10 @@
         <v>54</v>
       </c>
       <c r="F73" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H73">
         <v>16284</v>
@@ -4246,7 +4431,7 @@
       </c>
       <c r="J73" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Love in Contract","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/201146","post":"16284"},</v>
+        <v>{"name":"Love in Contract","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/201146","post":"16284"},</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -4255,10 +4440,10 @@
         <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C74" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D74">
         <v>2020</v>
@@ -4267,10 +4452,10 @@
         <v>54</v>
       </c>
       <c r="F74" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G74" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H74">
         <v>16250</v>
@@ -4281,7 +4466,7 @@
       </c>
       <c r="J74" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"The Good Detective S01","alt":"Slient 1, Slicence 1, Exemplary Detective 1, Model Detective 1, The Good Detective 1","tags":["2020","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/99480","post":"16250"},</v>
+        <v>{"name":"The Good Detective S01","alt":"Slient 1, Slicence 1, Exemplary Detective 1, Model Detective 1, The Good Detective 1","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/99480","post":"16250"},</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -4290,10 +4475,10 @@
         <v>61</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C75" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D75">
         <v>2022</v>
@@ -4302,10 +4487,10 @@
         <v>54</v>
       </c>
       <c r="F75" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G75" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H75">
         <v>16267</v>
@@ -4316,7 +4501,7 @@
       </c>
       <c r="J75" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"The Good Detective S02","alt":"Slient 2, Slicence 2, Exemplary Detective 2, Model Detective 2, The Good Detective 2","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/99480","post":"16267"},</v>
+        <v>{"name":"The Good Detective S02","alt":"Slient 2, Slicence 2, Exemplary Detective 2, Model Detective 2, The Good Detective 2","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/99480","post":"16267"},</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -4325,10 +4510,10 @@
         <v>62</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D76">
         <v>2022</v>
@@ -4337,10 +4522,10 @@
         <v>54</v>
       </c>
       <c r="F76" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G76" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H76">
         <v>16237</v>
@@ -4351,7 +4536,7 @@
       </c>
       <c r="J76" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"The Forbidden Marriage","alt":"Golden Spirit: Joseon Marriage Prohibition, Joseon Marriage Ban","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/201330","post":"16237"},</v>
+        <v>{"name":"The Forbidden Marriage","alt":"Golden Spirit: Joseon Marriage Prohibition, Joseon Marriage Ban","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/201330","post":"16237"},</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4360,10 +4545,10 @@
         <v>63</v>
       </c>
       <c r="B77" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C77" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D77">
         <v>2023</v>
@@ -4372,10 +4557,10 @@
         <v>54</v>
       </c>
       <c r="F77" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G77" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H77">
         <v>16226</v>
@@ -4386,7 +4571,7 @@
       </c>
       <c r="J77" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Love to Hate You","alt":"Love Battle, Love Wars","tags":["2023","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/137094","post":"16226"},</v>
+        <v>{"name":"Love to Hate You","alt":"Love Battle, Love Wars","tags":["2023","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/137094","post":"16226"},</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4395,10 +4580,10 @@
         <v>64</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D78">
         <v>2022</v>
@@ -4407,10 +4592,10 @@
         <v>54</v>
       </c>
       <c r="F78" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G78" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H78">
         <v>16213</v>
@@ -4421,7 +4606,7 @@
       </c>
       <c r="J78" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Summer Strike","alt":"I Don't Feel Like Ddoing Anything, I Don't Want to Do Anything","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/197078","post":"16213"},</v>
+        <v>{"name":"Summer Strike","alt":"I Don't Feel Like Ddoing Anything, I Don't Want to Do Anything","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/197078","post":"16213"},</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4430,10 +4615,10 @@
         <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C79" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D79">
         <v>2022</v>
@@ -4442,10 +4627,10 @@
         <v>54</v>
       </c>
       <c r="F79" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G79" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H79">
         <v>16196</v>
@@ -4456,7 +4641,7 @@
       </c>
       <c r="J79" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Curtain Call","alt":"Trees Die on Their Feet, A Tree Dies Standing, The Tree Dies Standing, Trees Die Standing Tall","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/194736","post":"16196"},</v>
+        <v>{"name":"Curtain Call","alt":"Trees Die on Their Feet, A Tree Dies Standing, The Tree Dies Standing, Trees Die Standing Tall","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/194736","post":"16196"},</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4465,19 +4650,19 @@
         <v>66</v>
       </c>
       <c r="B80" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D80">
         <v>2021</v>
       </c>
       <c r="E80" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F80" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G80" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H80">
         <v>16194</v>
@@ -4488,7 +4673,7 @@
       </c>
       <c r="J80" t="str">
         <f t="shared" si="3"/>
-        <v>{"name":"Shiddat","alt":"","tags":["2021","Hindi","Movie"],"wiki":"https://www.themoviedb.org/movie/824744","post":"16194"},</v>
+        <v>{"name":"Shiddat","alt":"","tags":["2021","Hindi","MOVIE"],"wiki":"https://www.themoviedb.org/movie/824744","post":"16194"},</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4497,10 +4682,10 @@
         <v>67</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81">
         <v>2023</v>
@@ -4509,10 +4694,10 @@
         <v>54</v>
       </c>
       <c r="F81" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G81" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H81">
         <v>16177</v>
@@ -4523,7 +4708,7 @@
       </c>
       <c r="J81" t="str">
         <f t="shared" ref="J81:J92" si="6">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B81&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C81&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D81&amp;$I$6&amp;$H$6&amp;$I$6&amp;E81&amp;$I$6&amp;$H$6&amp;$I$6&amp;F81&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G81&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H81&amp;$I$6&amp;$D$6&amp;I81</f>
-        <v>{"name":"Crash Course in Romance","alt":"One Shot Scandal, One Hit Scandal","tags":["2023","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/202318","post":"16177"},</v>
+        <v>{"name":"Crash Course in Romance","alt":"One Shot Scandal, One Hit Scandal","tags":["2023","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/202318","post":"16177"},</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4532,10 +4717,10 @@
         <v>68</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C82" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82">
         <v>2022</v>
@@ -4544,10 +4729,10 @@
         <v>54</v>
       </c>
       <c r="F82" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G82" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H82">
         <v>17193</v>
@@ -4558,7 +4743,7 @@
       </c>
       <c r="J82" t="str">
         <f t="shared" si="6"/>
-        <v>{"name":"The Glory","alt":"The Glory 1, The Glory 2, The Glory Part 1, The Glory Part 2","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/136283","post":"17193"},</v>
+        <v>{"name":"The Glory","alt":"The Glory 1, The Glory 2, The Glory Part 1, The Glory Part 2","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/136283","post":"17193"},</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4567,10 +4752,10 @@
         <v>69</v>
       </c>
       <c r="B83" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C83" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D83">
         <v>2022</v>
@@ -4579,10 +4764,10 @@
         <v>54</v>
       </c>
       <c r="F83" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G83" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H83">
         <v>16150</v>
@@ -4593,7 +4778,7 @@
       </c>
       <c r="J83" t="str">
         <f t="shared" si="6"/>
-        <v>{"name":"Unlock My Boss","alt":"Unlock the Boss","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/155459","post":"16150"},</v>
+        <v>{"name":"Unlock My Boss","alt":"Unlock the Boss","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/155459","post":"16150"},</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4602,10 +4787,10 @@
         <v>70</v>
       </c>
       <c r="B84" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C84" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84">
         <v>2022</v>
@@ -4614,10 +4799,10 @@
         <v>54</v>
       </c>
       <c r="F84" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G84" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H84">
         <v>16133</v>
@@ -4628,7 +4813,7 @@
       </c>
       <c r="J84" t="str">
         <f t="shared" si="6"/>
-        <v>{"name":"Love is for Suckers","alt":"Love That Will Freeze to Death, Frozen Love, Dating to Death, Icy Cold Romance","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/197073","post":"16133"},</v>
+        <v>{"name":"Love is for Suckers","alt":"Love That Will Freeze to Death, Frozen Love, Dating to Death, Icy Cold Romance","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/197073","post":"16133"},</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4637,7 +4822,7 @@
         <v>71</v>
       </c>
       <c r="B85" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D85">
         <v>2022</v>
@@ -4646,10 +4831,10 @@
         <v>54</v>
       </c>
       <c r="F85" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G85" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H85">
         <v>16116</v>
@@ -4660,7 +4845,7 @@
       </c>
       <c r="J85" t="str">
         <f t="shared" si="6"/>
-        <v>{"name":"Under the Queen's Umbrella","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/156406","post":"16116"},</v>
+        <v>{"name":"Under the Queen's Umbrella","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/156406","post":"16116"},</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4669,7 +4854,7 @@
         <v>72</v>
       </c>
       <c r="B86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D86">
         <v>2022</v>
@@ -4678,10 +4863,10 @@
         <v>54</v>
       </c>
       <c r="F86" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G86" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H86">
         <v>16099</v>
@@ -4692,7 +4877,7 @@
       </c>
       <c r="J86" t="str">
         <f t="shared" si="6"/>
-        <v>{"name":"Blind","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/158865","post":"16099"},</v>
+        <v>{"name":"Blind","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/158865","post":"16099"},</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4701,10 +4886,10 @@
         <v>73</v>
       </c>
       <c r="B87" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D87">
         <v>2022</v>
@@ -4713,10 +4898,10 @@
         <v>54</v>
       </c>
       <c r="F87" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G87" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H87">
         <v>16058</v>
@@ -4727,7 +4912,7 @@
       </c>
       <c r="J87" t="str">
         <f t="shared" si="6"/>
-        <v>{"name":"Alchemy of Souls S01","alt":"Can This Person Be Translated 1, Salvation Interpreter 1, Soul Marriage 1, Resurrection 1, Alchemy of Souls 1","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/135157","post":"16058"},</v>
+        <v>{"name":"Alchemy of Souls S01","alt":"Can This Person Be Translated 1, Salvation Interpreter 1, Soul Marriage 1, Resurrection 1, Alchemy of Souls 1","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/135157","post":"16058"},</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4736,10 +4921,10 @@
         <v>74</v>
       </c>
       <c r="B88" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C88" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D88">
         <v>2022</v>
@@ -4748,10 +4933,10 @@
         <v>54</v>
       </c>
       <c r="F88" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G88" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H88">
         <v>16079</v>
@@ -4762,7 +4947,7 @@
       </c>
       <c r="J88" t="str">
         <f t="shared" si="6"/>
-        <v>{"name":"Alchemy of Souls S02: Light and Shadow","alt":"Can This Person Be Translated 2, Salvation Interpreter 2, Soul Marriage 2, Resurrection 2, Alchemy of Souls 2","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/135157","post":"16079"},</v>
+        <v>{"name":"Alchemy of Souls S02: Light and Shadow","alt":"Can This Person Be Translated 2, Salvation Interpreter 2, Soul Marriage 2, Resurrection 2, Alchemy of Souls 2","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/135157","post":"16079"},</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -4771,10 +4956,10 @@
         <v>75</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C89" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D89">
         <v>2022</v>
@@ -4783,10 +4968,10 @@
         <v>54</v>
       </c>
       <c r="F89" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G89" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H89">
         <v>17210</v>
@@ -4797,7 +4982,7 @@
       </c>
       <c r="J89" t="str">
         <f t="shared" si="6"/>
-        <v>{"name":"Island","alt":"Island 1, Island 2, Island Part 1, Island Part 2","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/211747","post":"17210"},</v>
+        <v>{"name":"Island","alt":"Island 1, Island 2, Island Part 1, Island Part 2","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/211747","post":"17210"},</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4806,22 +4991,22 @@
         <v>76</v>
       </c>
       <c r="B90" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C90" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D90">
         <v>2014</v>
       </c>
       <c r="E90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F90" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G90" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H90">
         <v>16046</v>
@@ -4832,7 +5017,7 @@
       </c>
       <c r="J90" t="str">
         <f t="shared" si="6"/>
-        <v>{"name":"John Wick","alt":"John Wick 1","tags":["2014","English","Movie"],"wiki":"https://www.themoviedb.org/movie/245891","post":"16046"},</v>
+        <v>{"name":"John Wick","alt":"John Wick 1","tags":["2014","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/245891","post":"16046"},</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4841,22 +5026,22 @@
         <v>77</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C91" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D91">
         <v>2017</v>
       </c>
       <c r="E91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F91" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G91" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H91">
         <v>16049</v>
@@ -4867,7 +5052,7 @@
       </c>
       <c r="J91" t="str">
         <f t="shared" si="6"/>
-        <v>{"name":"John Wick: Chapter 2","alt":"John Wick 2","tags":["2017","English","Movie"],"wiki":"https://www.themoviedb.org/movie/324552","post":"16049"},</v>
+        <v>{"name":"John Wick: Chapter 2","alt":"John Wick 2","tags":["2017","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/324552","post":"16049"},</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -4876,22 +5061,22 @@
         <v>78</v>
       </c>
       <c r="B92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D92">
         <v>2019</v>
       </c>
       <c r="E92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F92" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H92">
         <v>16055</v>
@@ -4902,7 +5087,7 @@
       </c>
       <c r="J92" t="str">
         <f t="shared" si="6"/>
-        <v>{"name":"John Wick: Chapter 3 - Parabellum","alt":"John Wick 3","tags":["2019","English","Movie"],"wiki":"https://www.themoviedb.org/movie/458156","post":"16055"},</v>
+        <v>{"name":"John Wick: Chapter 3 - Parabellum","alt":"John Wick 3","tags":["2019","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/458156","post":"16055"},</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -4911,22 +5096,22 @@
         <v>79</v>
       </c>
       <c r="B93" t="s">
+        <v>241</v>
+      </c>
+      <c r="C93" t="s">
+        <v>242</v>
+      </c>
+      <c r="D93">
+        <v>2022</v>
+      </c>
+      <c r="E93" t="s">
+        <v>54</v>
+      </c>
+      <c r="F93" t="s">
+        <v>563</v>
+      </c>
+      <c r="G93" t="s">
         <v>243</v>
-      </c>
-      <c r="C93" t="s">
-        <v>244</v>
-      </c>
-      <c r="D93">
-        <v>2022</v>
-      </c>
-      <c r="E93" t="s">
-        <v>54</v>
-      </c>
-      <c r="F93" t="s">
-        <v>56</v>
-      </c>
-      <c r="G93" t="s">
-        <v>245</v>
       </c>
       <c r="H93">
         <v>16022</v>
@@ -4937,7 +5122,7 @@
       </c>
       <c r="J93" t="str">
         <f t="shared" ref="J93" si="8">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B93&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C93&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D93&amp;$I$6&amp;$H$6&amp;$I$6&amp;E93&amp;$I$6&amp;$H$6&amp;$I$6&amp;F93&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G93&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H93&amp;$I$6&amp;$D$6&amp;I93</f>
-        <v>{"name":"Sh**ting Stars","alt":"Shooting Stars, Shitting Stars, Star Fall","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/136732","post":"16022"},</v>
+        <v>{"name":"Sh**ting Stars","alt":"Shooting Stars, Shitting Stars, Star Fall","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/136732","post":"16022"},</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -4946,11 +5131,11 @@
         <v>80</v>
       </c>
       <c r="B94" t="s">
+        <v>244</v>
+      </c>
+      <c r="C94" t="s">
         <v>246</v>
       </c>
-      <c r="C94" t="s">
-        <v>248</v>
-      </c>
       <c r="D94">
         <v>2022</v>
       </c>
@@ -4958,10 +5143,10 @@
         <v>54</v>
       </c>
       <c r="F94" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G94" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H94">
         <v>16005</v>
@@ -4972,7 +5157,7 @@
       </c>
       <c r="J94" t="str">
         <f t="shared" ref="J94" si="10">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B94&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C94&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D94&amp;$I$6&amp;$H$6&amp;$I$6&amp;E94&amp;$I$6&amp;$H$6&amp;$I$6&amp;F94&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G94&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H94&amp;$I$6&amp;$D$6&amp;I94</f>
-        <v>{"name":"If You Wish Upon Me","alt":"If You Say Your Wish, Tell Me Your Wish","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/135154","post":"16005"},</v>
+        <v>{"name":"If You Wish Upon Me","alt":"If You Say Your Wish, Tell Me Your Wish","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/135154","post":"16005"},</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -4981,22 +5166,22 @@
         <v>81</v>
       </c>
       <c r="B95" t="s">
+        <v>247</v>
+      </c>
+      <c r="C95" t="s">
+        <v>248</v>
+      </c>
+      <c r="D95">
+        <v>2022</v>
+      </c>
+      <c r="E95" t="s">
+        <v>54</v>
+      </c>
+      <c r="F95" t="s">
+        <v>563</v>
+      </c>
+      <c r="G95" t="s">
         <v>249</v>
-      </c>
-      <c r="C95" t="s">
-        <v>250</v>
-      </c>
-      <c r="D95">
-        <v>2022</v>
-      </c>
-      <c r="E95" t="s">
-        <v>54</v>
-      </c>
-      <c r="F95" t="s">
-        <v>56</v>
-      </c>
-      <c r="G95" t="s">
-        <v>251</v>
       </c>
       <c r="H95">
         <v>15958</v>
@@ -5007,7 +5192,7 @@
       </c>
       <c r="J95" t="str">
         <f t="shared" ref="J95" si="12">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B95&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C95&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D95&amp;$I$6&amp;$H$6&amp;$I$6&amp;E95&amp;$I$6&amp;$H$6&amp;$I$6&amp;F95&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G95&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H95&amp;$I$6&amp;$D$6&amp;I95</f>
-        <v>{"name":"Reborn Rich","alt":"The Youngest Son of Sunyang, The Youngest Son of the Chaebol House, Chaebol Family’s Youngest Son, The Chaebol's Youngest Son, The Youngest Son of the Chaebol Family, The Youngest Son of a Chaebol Family","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/153496","post":"15958"},</v>
+        <v>{"name":"Reborn Rich","alt":"The Youngest Son of Sunyang, The Youngest Son of the Chaebol House, Chaebol Family’s Youngest Son, The Chaebol's Youngest Son, The Youngest Son of the Chaebol Family, The Youngest Son of a Chaebol Family","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/153496","post":"15958"},</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -5016,7 +5201,7 @@
         <v>82</v>
       </c>
       <c r="B96" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D96">
         <v>2022</v>
@@ -5025,10 +5210,10 @@
         <v>54</v>
       </c>
       <c r="F96" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G96" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H96">
         <v>15941</v>
@@ -5039,7 +5224,7 @@
       </c>
       <c r="J96" t="str">
         <f t="shared" ref="J96:J100" si="14">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B96&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C96&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D96&amp;$I$6&amp;$H$6&amp;$I$6&amp;E96&amp;$I$6&amp;$H$6&amp;$I$6&amp;F96&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G96&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H96&amp;$I$6&amp;$D$6&amp;I96</f>
-        <v>{"name":"Cheer Up","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/155229","post":"15941"},</v>
+        <v>{"name":"Cheer Up","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/155229","post":"15941"},</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -5048,10 +5233,10 @@
         <v>83</v>
       </c>
       <c r="B97" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C97" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D97">
         <v>2022</v>
@@ -5060,10 +5245,10 @@
         <v>54</v>
       </c>
       <c r="F97" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G97" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H97">
         <v>15928</v>
@@ -5074,7 +5259,7 @@
       </c>
       <c r="J97" t="str">
         <f t="shared" si="14"/>
-        <v>{"name":"Behind Every Star","alt":"Behind Every Star 1, Call My Agent 1, Survive as a Celebrity Manager 1, Surviving as a Celebrity Manager 1","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/203697","post":"15928"},</v>
+        <v>{"name":"Behind Every Star","alt":"Behind Every Star 1, Call My Agent 1, Survive as a Celebrity Manager 1, Surviving as a Celebrity Manager 1","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/203697","post":"15928"},</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -5083,10 +5268,10 @@
         <v>84</v>
       </c>
       <c r="B98" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C98" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D98">
         <v>2022</v>
@@ -5095,10 +5280,10 @@
         <v>54</v>
       </c>
       <c r="F98" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G98" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H98">
         <v>15915</v>
@@ -5109,7 +5294,7 @@
       </c>
       <c r="J98" t="str">
         <f t="shared" si="14"/>
-        <v>{"name":"The First Responders","alt":"The First Responders 1, The Police Station Next to Fire Station 1","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/211261","post":"15915"},</v>
+        <v>{"name":"The First Responders","alt":"The First Responders 1, The Police Station Next to Fire Station 1","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/211261","post":"15915"},</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -5118,22 +5303,22 @@
         <v>85</v>
       </c>
       <c r="B99" t="s">
+        <v>258</v>
+      </c>
+      <c r="C99" t="s">
+        <v>259</v>
+      </c>
+      <c r="D99">
+        <v>2022</v>
+      </c>
+      <c r="E99" t="s">
+        <v>54</v>
+      </c>
+      <c r="F99" t="s">
+        <v>563</v>
+      </c>
+      <c r="G99" t="s">
         <v>260</v>
-      </c>
-      <c r="C99" t="s">
-        <v>261</v>
-      </c>
-      <c r="D99">
-        <v>2022</v>
-      </c>
-      <c r="E99" t="s">
-        <v>54</v>
-      </c>
-      <c r="F99" t="s">
-        <v>56</v>
-      </c>
-      <c r="G99" t="s">
-        <v>262</v>
       </c>
       <c r="H99">
         <v>15906</v>
@@ -5144,7 +5329,7 @@
       </c>
       <c r="J99" t="str">
         <f t="shared" si="14"/>
-        <v>{"name":"Weak Hero Class 1","alt":"Weak Hero 1","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/200709","post":"15906"},</v>
+        <v>{"name":"Weak Hero Class 1","alt":"Weak Hero 1","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/200709","post":"15906"},</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -5153,10 +5338,10 @@
         <v>86</v>
       </c>
       <c r="B100" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C100" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D100">
         <v>2022</v>
@@ -5165,10 +5350,10 @@
         <v>54</v>
       </c>
       <c r="F100" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G100" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H100">
         <v>15899</v>
@@ -5179,7 +5364,7 @@
       </c>
       <c r="J100" t="str">
         <f t="shared" si="14"/>
-        <v>{"name":"Narco-Saints","alt":"The Accidental Narco, Suriname, Soorinam, Surinam","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/97970","post":"15899"},</v>
+        <v>{"name":"Narco-Saints","alt":"The Accidental Narco, Suriname, Soorinam, Surinam","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/97970","post":"15899"},</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -5188,10 +5373,10 @@
         <v>87</v>
       </c>
       <c r="B101" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C101" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D101">
         <v>2016</v>
@@ -5200,10 +5385,10 @@
         <v>54</v>
       </c>
       <c r="F101" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G101" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H101">
         <v>15860</v>
@@ -5214,7 +5399,7 @@
       </c>
       <c r="J101" t="str">
         <f>$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B101&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C101&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D101&amp;$I$6&amp;$H$6&amp;$I$6&amp;E101&amp;$I$6&amp;$H$6&amp;$I$6&amp;F101&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G101&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H101&amp;$I$6&amp;$D$6&amp;I101</f>
-        <v>{"name":"Doctors","alt":"Female Gangster Hye Jung, Doctor Crush, The Doctors","tags":["2016","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/66329","post":"15860"},</v>
+        <v>{"name":"Doctors","alt":"Female Gangster Hye Jung, Doctor Crush, The Doctors","tags":["2016","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/66329","post":"15860"},</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -5223,10 +5408,10 @@
         <v>88</v>
       </c>
       <c r="B102" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C102" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D102">
         <v>2022</v>
@@ -5235,10 +5420,10 @@
         <v>54</v>
       </c>
       <c r="F102" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G102" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H102">
         <v>15847</v>
@@ -5249,7 +5434,7 @@
       </c>
       <c r="J102" t="str">
         <f t="shared" ref="J102:J111" si="16">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B102&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C102&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D102&amp;$I$6&amp;$H$6&amp;$I$6&amp;E102&amp;$I$6&amp;$H$6&amp;$I$6&amp;F102&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G102&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H102&amp;$I$6&amp;$D$6&amp;I102</f>
-        <v>{"name":"Becoming Witch","alt":"The Witch Is Alive","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/157236","post":"15847"},</v>
+        <v>{"name":"Becoming Witch","alt":"The Witch Is Alive","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/157236","post":"15847"},</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -5258,10 +5443,10 @@
         <v>89</v>
       </c>
       <c r="B103" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C103" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D103">
         <v>2022</v>
@@ -5270,10 +5455,10 @@
         <v>54</v>
       </c>
       <c r="F103" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G103" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H103">
         <v>15834</v>
@@ -5284,7 +5469,7 @@
       </c>
       <c r="J103" t="str">
         <f t="shared" si="16"/>
-        <v>{"name":"Revenge of Others","alt":"Third Person Revenge","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/208336","post":"15834"},</v>
+        <v>{"name":"Revenge of Others","alt":"Third Person Revenge","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/208336","post":"15834"},</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -5293,19 +5478,19 @@
         <v>90</v>
       </c>
       <c r="B104" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D104">
         <v>2022</v>
       </c>
       <c r="E104" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F104" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G104" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H104">
         <v>15825</v>
@@ -5316,7 +5501,7 @@
       </c>
       <c r="J104" t="str">
         <f t="shared" si="16"/>
-        <v>{"name":"Wednesday","alt":"","tags":["2022","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/119051","post":"15825"},</v>
+        <v>{"name":"Wednesday","alt":"","tags":["2022","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/119051","post":"15825"},</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -5325,22 +5510,22 @@
         <v>91</v>
       </c>
       <c r="B105" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C105" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D105">
         <v>2019</v>
       </c>
       <c r="E105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F105" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G105" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H105">
         <v>15819</v>
@@ -5351,7 +5536,7 @@
       </c>
       <c r="J105" t="str">
         <f t="shared" si="16"/>
-        <v>{"name":"The Addams Family","alt":"The Addams Family 1","tags":["2019","English","Movie"],"wiki":"https://www.themoviedb.org/movie/481084","post":"15819"},</v>
+        <v>{"name":"The Addams Family","alt":"The Addams Family 1","tags":["2019","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/481084","post":"15819"},</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -5360,19 +5545,19 @@
         <v>92</v>
       </c>
       <c r="B106" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D106">
         <v>2021</v>
       </c>
       <c r="E106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F106" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G106" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H106">
         <v>15822</v>
@@ -5383,7 +5568,7 @@
       </c>
       <c r="J106" t="str">
         <f t="shared" si="16"/>
-        <v>{"name":"The Addams Family 2","alt":"","tags":["2021","English","Movie"],"wiki":"https://www.themoviedb.org/movie/639721","post":"15822"},</v>
+        <v>{"name":"The Addams Family 2","alt":"","tags":["2021","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/639721","post":"15822"},</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -5392,19 +5577,19 @@
         <v>93</v>
       </c>
       <c r="B107" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D107">
         <v>1998</v>
       </c>
       <c r="E107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F107" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G107" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H107">
         <v>15753</v>
@@ -5415,7 +5600,7 @@
       </c>
       <c r="J107" t="str">
         <f t="shared" si="16"/>
-        <v>{"name":"The New Addams Family","alt":"","tags":["1998","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/21036","post":"15753"},</v>
+        <v>{"name":"The New Addams Family","alt":"","tags":["1998","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/21036","post":"15753"},</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -5424,22 +5609,22 @@
         <v>94</v>
       </c>
       <c r="B108" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C108" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D108">
         <v>1993</v>
       </c>
       <c r="E108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F108" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G108" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H108">
         <v>15672</v>
@@ -5450,7 +5635,7 @@
       </c>
       <c r="J108" t="str">
         <f t="shared" si="16"/>
-        <v>{"name":"Addams Family Values","alt":"The Addams Family Values","tags":["1993","English","Movie"],"wiki":"https://www.themoviedb.org/movie/2758","post":"15672"},</v>
+        <v>{"name":"Addams Family Values","alt":"The Addams Family Values","tags":["1993","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/2758","post":"15672"},</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -5459,19 +5644,19 @@
         <v>95</v>
       </c>
       <c r="B109" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D109">
         <v>1991</v>
       </c>
       <c r="E109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F109" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G109" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H109">
         <v>15669</v>
@@ -5482,7 +5667,7 @@
       </c>
       <c r="J109" t="str">
         <f t="shared" si="16"/>
-        <v>{"name":"The Addams Family","alt":"","tags":["1991","English","Movie"],"wiki":"https://www.themoviedb.org/movie/2907","post":"15669"},</v>
+        <v>{"name":"The Addams Family","alt":"","tags":["1991","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/2907","post":"15669"},</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -5491,22 +5676,22 @@
         <v>96</v>
       </c>
       <c r="B110" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C110" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D110">
         <v>1964</v>
       </c>
       <c r="E110" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F110" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G110" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H110">
         <v>15603</v>
@@ -5517,7 +5702,7 @@
       </c>
       <c r="J110" t="str">
         <f t="shared" si="16"/>
-        <v>{"name":"The Addams Family S01","alt":"The Addams Family 1","tags":["1964","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/14009","post":"15603"},</v>
+        <v>{"name":"The Addams Family S01","alt":"The Addams Family 1","tags":["1964","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/14009","post":"15603"},</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -5526,22 +5711,22 @@
         <v>97</v>
       </c>
       <c r="B111" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C111" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D111">
         <v>1965</v>
       </c>
       <c r="E111" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F111" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G111" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H111">
         <v>15638</v>
@@ -5552,7 +5737,7 @@
       </c>
       <c r="J111" t="str">
         <f t="shared" si="16"/>
-        <v>{"name":"The Addams Family S02","alt":"The Addams Family 2","tags":["1965","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/14009","post":"15638"},</v>
+        <v>{"name":"The Addams Family S02","alt":"The Addams Family 2","tags":["1965","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/14009","post":"15638"},</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -5561,19 +5746,19 @@
         <v>98</v>
       </c>
       <c r="B112" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D112">
         <v>2022</v>
       </c>
       <c r="E112" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F112" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G112" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H112">
         <v>15601</v>
@@ -5584,7 +5769,7 @@
       </c>
       <c r="J112" t="str">
         <f t="shared" ref="J112:J117" si="18">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B112&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C112&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D112&amp;$I$6&amp;$H$6&amp;$I$6&amp;E112&amp;$I$6&amp;$H$6&amp;$I$6&amp;F112&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G112&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H112&amp;$I$6&amp;$D$6&amp;I112</f>
-        <v>{"name":"Freddy","alt":"","tags":["2022","Hindi","Movie"],"wiki":"https://www.themoviedb.org/movie/1041054","post":"15601"},</v>
+        <v>{"name":"Freddy","alt":"","tags":["2022","Hindi","MOVIE"],"wiki":"https://www.themoviedb.org/movie/1041054","post":"15601"},</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -5593,19 +5778,19 @@
         <v>99</v>
       </c>
       <c r="B113" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D113">
         <v>2018</v>
       </c>
       <c r="E113" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F113" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G113" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H113">
         <v>15598</v>
@@ -5616,7 +5801,7 @@
       </c>
       <c r="J113" t="str">
         <f t="shared" si="18"/>
-        <v>{"name":"Tumbbad","alt":"","tags":["2018","Hindi","Movie"],"wiki":"https://www.themoviedb.org/movie/538858","post":"15598"},</v>
+        <v>{"name":"Tumbbad","alt":"","tags":["2018","Hindi","MOVIE"],"wiki":"https://www.themoviedb.org/movie/538858","post":"15598"},</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -5625,11 +5810,11 @@
         <v>100</v>
       </c>
       <c r="B114" t="s">
+        <v>293</v>
+      </c>
+      <c r="C114" t="s">
         <v>295</v>
       </c>
-      <c r="C114" t="s">
-        <v>297</v>
-      </c>
       <c r="D114">
         <v>2022</v>
       </c>
@@ -5637,10 +5822,10 @@
         <v>54</v>
       </c>
       <c r="F114" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G114" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H114">
         <v>15585</v>
@@ -5651,7 +5836,7 @@
       </c>
       <c r="J114" t="str">
         <f t="shared" si="18"/>
-        <v>{"name":"Little Women","alt":"Little Ladies","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/134675","post":"15585"},</v>
+        <v>{"name":"Little Women","alt":"Little Ladies","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/134675","post":"15585"},</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -5660,7 +5845,7 @@
         <v>101</v>
       </c>
       <c r="B115" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D115">
         <v>2022</v>
@@ -5669,10 +5854,10 @@
         <v>54</v>
       </c>
       <c r="F115" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G115" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H115">
         <v>15574</v>
@@ -5683,7 +5868,7 @@
       </c>
       <c r="J115" t="str">
         <f t="shared" si="18"/>
-        <v>{"name":"Glitch","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/136699","post":"15574"},</v>
+        <v>{"name":"Glitch","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/136699","post":"15574"},</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -5692,19 +5877,19 @@
         <v>102</v>
       </c>
       <c r="B116" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D116">
         <v>2022</v>
       </c>
       <c r="E116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F116" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G116" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H116">
         <v>15571</v>
@@ -5715,7 +5900,7 @@
       </c>
       <c r="J116" t="str">
         <f t="shared" si="18"/>
-        <v>{"name":"Bullet Train","alt":"","tags":["2022","English","Movie"],"wiki":"https://www.themoviedb.org/movie/718930","post":"15571"},</v>
+        <v>{"name":"Bullet Train","alt":"","tags":["2022","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/718930","post":"15571"},</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -5724,19 +5909,19 @@
         <v>103</v>
       </c>
       <c r="B117" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D117">
         <v>2022</v>
       </c>
       <c r="E117" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F117" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G117" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H117">
         <v>15568</v>
@@ -5747,7 +5932,7 @@
       </c>
       <c r="J117" t="str">
         <f t="shared" si="18"/>
-        <v>{"name":"Sita Ramam","alt":"","tags":["2022","Hindi","Movie"],"wiki":"https://www.themoviedb.org/movie/894803","post":"15568"},</v>
+        <v>{"name":"Sita Ramam","alt":"","tags":["2022","Hindi","MOVIE"],"wiki":"https://www.themoviedb.org/movie/894803","post":"15568"},</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -5756,7 +5941,7 @@
         <v>104</v>
       </c>
       <c r="B118" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D118">
         <v>2022</v>
@@ -5765,10 +5950,10 @@
         <v>54</v>
       </c>
       <c r="F118" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G118" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H118">
         <v>15551</v>
@@ -5779,7 +5964,7 @@
       </c>
       <c r="J118" t="str">
         <f t="shared" ref="J118:J122" si="20">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B118&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C118&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D118&amp;$I$6&amp;$H$6&amp;$I$6&amp;E118&amp;$I$6&amp;$H$6&amp;$I$6&amp;F118&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G118&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H118&amp;$I$6&amp;$D$6&amp;I118</f>
-        <v>{"name":"Todday's Webtoon","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/155222","post":"15551"},</v>
+        <v>{"name":"Todday's Webtoon","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/155222","post":"15551"},</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -5788,10 +5973,10 @@
         <v>105</v>
       </c>
       <c r="B119" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C119" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D119">
         <v>2022</v>
@@ -5800,10 +5985,10 @@
         <v>54</v>
       </c>
       <c r="F119" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G119" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H119">
         <v>15534</v>
@@ -5814,7 +5999,7 @@
       </c>
       <c r="J119" t="str">
         <f t="shared" si="20"/>
-        <v>{"name":"Big Mouth","alt":"Big Mouse","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/155226","post":"15534"},</v>
+        <v>{"name":"Big Mouth","alt":"Big Mouse","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/155226","post":"15534"},</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -5823,7 +6008,7 @@
         <v>106</v>
       </c>
       <c r="B120" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D120">
         <v>2022</v>
@@ -5832,10 +6017,10 @@
         <v>54</v>
       </c>
       <c r="F120" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G120" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H120">
         <v>15517</v>
@@ -5846,7 +6031,7 @@
       </c>
       <c r="J120" t="str">
         <f t="shared" si="20"/>
-        <v>{"name":"Adamas","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/205040","post":"15517"},</v>
+        <v>{"name":"Adamas","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/205040","post":"15517"},</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -5855,10 +6040,10 @@
         <v>107</v>
       </c>
       <c r="B121" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C121" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D121">
         <v>2022</v>
@@ -5867,10 +6052,10 @@
         <v>54</v>
       </c>
       <c r="F121" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G121" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H121">
         <v>15500</v>
@@ -5881,7 +6066,7 @@
       </c>
       <c r="J121" t="str">
         <f t="shared" si="20"/>
-        <v>{"name":"Jinxed at First","alt":"Jinx's Lover, Jinxed Couple, The Jinx's Lover","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/155224","post":"15500"},</v>
+        <v>{"name":"Jinxed at First","alt":"Jinx's Lover, Jinxed Couple, The Jinx's Lover","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/155224","post":"15500"},</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -5890,7 +6075,7 @@
         <v>108</v>
       </c>
       <c r="B122" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D122">
         <v>2022</v>
@@ -5899,10 +6084,10 @@
         <v>54</v>
       </c>
       <c r="F122" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G122" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H122">
         <v>15487</v>
@@ -5913,7 +6098,7 @@
       </c>
       <c r="J122" t="str">
         <f t="shared" si="20"/>
-        <v>{"name":"Bad Girlfriend","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/204625","post":"15487"},</v>
+        <v>{"name":"Bad Girlfriend","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/204625","post":"15487"},</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -5922,10 +6107,10 @@
         <v>109</v>
       </c>
       <c r="B123" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C123" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D123">
         <v>2022</v>
@@ -5934,10 +6119,10 @@
         <v>54</v>
       </c>
       <c r="F123" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G123" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H123">
         <v>15478</v>
@@ -5948,7 +6133,7 @@
       </c>
       <c r="J123" t="str">
         <f t="shared" ref="J123:J124" si="22">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B123&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C123&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D123&amp;$I$6&amp;$H$6&amp;$I$6&amp;E123&amp;$I$6&amp;$H$6&amp;$I$6&amp;F123&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G123&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H123&amp;$I$6&amp;$D$6&amp;I123</f>
-        <v>{"name":"Anna","alt":"The Second Anna","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/208255","post":"15478"},</v>
+        <v>{"name":"Anna","alt":"The Second Anna","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/208255","post":"15478"},</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -5957,10 +6142,10 @@
         <v>110</v>
       </c>
       <c r="B124" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C124" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D124">
         <v>2022</v>
@@ -5969,10 +6154,10 @@
         <v>54</v>
       </c>
       <c r="F124" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G124" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H124">
         <v>15459</v>
@@ -5983,7 +6168,7 @@
       </c>
       <c r="J124" t="str">
         <f t="shared" si="22"/>
-        <v>{"name":"Café Minamdang","alt":"Minamdang: Case Note","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/138663","post":"15459"},</v>
+        <v>{"name":"Café Minamdang","alt":"Minamdang: Case Note","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/138663","post":"15459"},</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -5992,11 +6177,11 @@
         <v>111</v>
       </c>
       <c r="B125" t="s">
+        <v>320</v>
+      </c>
+      <c r="C125" t="s">
         <v>322</v>
       </c>
-      <c r="C125" t="s">
-        <v>324</v>
-      </c>
       <c r="D125">
         <v>2022</v>
       </c>
@@ -6004,10 +6189,10 @@
         <v>54</v>
       </c>
       <c r="F125" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G125" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H125">
         <v>15454</v>
@@ -6018,7 +6203,7 @@
       </c>
       <c r="J125" t="str">
         <f t="shared" ref="J125:J126" si="24">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B125&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C125&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D125&amp;$I$6&amp;$H$6&amp;$I$6&amp;E125&amp;$I$6&amp;$H$6&amp;$I$6&amp;F125&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G125&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H125&amp;$I$6&amp;$D$6&amp;I125</f>
-        <v>{"name":"Hunted","alt":"Wild Boar Hunting","tags":["2022","Korean","TV Show"],"wiki":"https://mydramalist.com/722715-wild-boar-hunt","post":"15454"},</v>
+        <v>{"name":"Hunted","alt":"Wild Boar Hunting","tags":["2022","Korean","SHOW"],"wiki":"https://mydramalist.com/722715-wild-boar-hunt","post":"15454"},</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -6027,10 +6212,10 @@
         <v>112</v>
       </c>
       <c r="B126" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C126" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D126">
         <v>2022</v>
@@ -6039,10 +6224,10 @@
         <v>54</v>
       </c>
       <c r="F126" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G126" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H126">
         <v>15445</v>
@@ -6053,7 +6238,7 @@
       </c>
       <c r="J126" t="str">
         <f t="shared" si="24"/>
-        <v>{"name":"Alice, the Final Weapon","alt":"She's the Last Weapon, Ultimate Weapon Alice","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/135896","post":"15445"},</v>
+        <v>{"name":"Alice, the Final Weapon","alt":"She's the Last Weapon, Ultimate Weapon Alice","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/135896","post":"15445"},</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -6062,10 +6247,10 @@
         <v>113</v>
       </c>
       <c r="B127" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C127" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D127">
         <v>2021</v>
@@ -6074,10 +6259,10 @@
         <v>54</v>
       </c>
       <c r="F127" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G127" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H127">
         <v>15415</v>
@@ -6088,7 +6273,7 @@
       </c>
       <c r="J127" t="str">
         <f t="shared" ref="J127:J151" si="26">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B127&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C127&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D127&amp;$I$6&amp;$H$6&amp;$I$6&amp;E127&amp;$I$6&amp;$H$6&amp;$I$6&amp;F127&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G127&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H127&amp;$I$6&amp;$D$6&amp;I127</f>
-        <v>{"name":"My Name","alt":"Nemesis, Undercover","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/110356","post":"15415"},</v>
+        <v>{"name":"My Name","alt":"Nemesis, Undercover","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/110356","post":"15415"},</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -6097,22 +6282,22 @@
         <v>114</v>
       </c>
       <c r="B128" t="s">
+        <v>351</v>
+      </c>
+      <c r="C128" t="s">
+        <v>352</v>
+      </c>
+      <c r="D128">
+        <v>2022</v>
+      </c>
+      <c r="E128" t="s">
+        <v>54</v>
+      </c>
+      <c r="F128" t="s">
+        <v>563</v>
+      </c>
+      <c r="G128" t="s">
         <v>353</v>
-      </c>
-      <c r="C128" t="s">
-        <v>354</v>
-      </c>
-      <c r="D128">
-        <v>2022</v>
-      </c>
-      <c r="E128" t="s">
-        <v>54</v>
-      </c>
-      <c r="F128" t="s">
-        <v>56</v>
-      </c>
-      <c r="G128" t="s">
-        <v>355</v>
       </c>
       <c r="H128">
         <v>15398</v>
@@ -6123,7 +6308,7 @@
       </c>
       <c r="J128" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Military Prosecutor Doberman","alt":"Military Prosecutor Do Bae Man","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/135652","post":"15398"},</v>
+        <v>{"name":"Military Prosecutor Doberman","alt":"Military Prosecutor Do Bae Man","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/135652","post":"15398"},</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -6132,7 +6317,7 @@
         <v>115</v>
       </c>
       <c r="B129" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D129">
         <v>2020</v>
@@ -6141,10 +6326,10 @@
         <v>54</v>
       </c>
       <c r="F129" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G129" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H129">
         <v>15367</v>
@@ -6155,7 +6340,7 @@
       </c>
       <c r="J129" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Love Revolution","alt":"","tags":["2020","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/108290","post":"15367"},</v>
+        <v>{"name":"Love Revolution","alt":"","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/108290","post":"15367"},</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -6164,10 +6349,10 @@
         <v>116</v>
       </c>
       <c r="B130" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C130" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D130">
         <v>2022</v>
@@ -6176,10 +6361,10 @@
         <v>54</v>
       </c>
       <c r="F130" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G130" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H130">
         <v>15356</v>
@@ -6190,7 +6375,7 @@
       </c>
       <c r="J130" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Grid","alt":"Zero, Greed","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/135894","post":"15356"},</v>
+        <v>{"name":"Grid","alt":"Zero, Greed","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/135894","post":"15356"},</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -6199,10 +6384,10 @@
         <v>117</v>
       </c>
       <c r="B131" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C131" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D131">
         <v>2017</v>
@@ -6211,10 +6396,10 @@
         <v>54</v>
       </c>
       <c r="F131" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G131" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H131">
         <v>15339</v>
@@ -6225,7 +6410,7 @@
       </c>
       <c r="J131" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Introverted Boss","alt":"Introvert Boss, Sensitive Boss, My Shy Boss","tags":["2017","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/69205","post":"15339"},</v>
+        <v>{"name":"Introverted Boss","alt":"Introvert Boss, Sensitive Boss, My Shy Boss","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/69205","post":"15339"},</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -6234,10 +6419,10 @@
         <v>118</v>
       </c>
       <c r="B132" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C132" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D132">
         <v>2022</v>
@@ -6246,10 +6431,10 @@
         <v>54</v>
       </c>
       <c r="F132" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G132" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H132">
         <v>15322</v>
@@ -6260,7 +6445,7 @@
       </c>
       <c r="J132" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Extraordinary Attorney Woo","alt":"Strange Lawyer Woo Young Woo, Unusual Lawyer Woo Young Woo, Weird Lawyer Woo Young Woo","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/197067","post":"15322"},</v>
+        <v>{"name":"Extraordinary Attorney Woo","alt":"Strange Lawyer Woo Young Woo, Unusual Lawyer Woo Young Woo, Weird Lawyer Woo Young Woo","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/197067","post":"15322"},</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -6269,10 +6454,10 @@
         <v>119</v>
       </c>
       <c r="B133" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C133" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D133">
         <v>2021</v>
@@ -6281,10 +6466,10 @@
         <v>54</v>
       </c>
       <c r="F133" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G133" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H133">
         <v>15301</v>
@@ -6295,7 +6480,7 @@
       </c>
       <c r="J133" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Artificial City","alt":"Peacock City, Duke City, Sabotage City","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/138947","post":"15301"},</v>
+        <v>{"name":"Artificial City","alt":"Peacock City, Duke City, Sabotage City","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/138947","post":"15301"},</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -6304,10 +6489,10 @@
         <v>120</v>
       </c>
       <c r="B134" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C134" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D134">
         <v>2022</v>
@@ -6316,10 +6501,10 @@
         <v>54</v>
       </c>
       <c r="F134" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G134" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H134">
         <v>15296</v>
@@ -6330,7 +6515,7 @@
       </c>
       <c r="J134" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Soundtrack #1","alt":"Why Did You Come to My House, Soundtrack No. 1, Soundtrack Number One, Soundtrack Number 1","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/137872","post":"15296"},</v>
+        <v>{"name":"Soundtrack #1","alt":"Why Did You Come to My House, Soundtrack No. 1, Soundtrack Number One, Soundtrack Number 1","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/137872","post":"15296"},</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -6339,10 +6524,10 @@
         <v>121</v>
       </c>
       <c r="B135" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C135" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D135">
         <v>2011</v>
@@ -6351,10 +6536,10 @@
         <v>54</v>
       </c>
       <c r="F135" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G135" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H135">
         <v>15275</v>
@@ -6365,7 +6550,7 @@
       </c>
       <c r="J135" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Sign","alt":"Heaven","tags":["2011","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/42019","post":"15275"},</v>
+        <v>{"name":"Sign","alt":"Heaven","tags":["2011","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/42019","post":"15275"},</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -6374,7 +6559,7 @@
         <v>122</v>
       </c>
       <c r="B136" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D136">
         <v>2014</v>
@@ -6383,10 +6568,10 @@
         <v>54</v>
       </c>
       <c r="F136" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G136" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H136">
         <v>15254</v>
@@ -6397,7 +6582,7 @@
       </c>
       <c r="J136" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Modern Farmer","alt":"","tags":["2014","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/61613","post":"15254"},</v>
+        <v>{"name":"Modern Farmer","alt":"","tags":["2014","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/61613","post":"15254"},</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -6406,7 +6591,7 @@
         <v>123</v>
       </c>
       <c r="B137" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D137">
         <v>2022</v>
@@ -6415,10 +6600,10 @@
         <v>54</v>
       </c>
       <c r="F137" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G137" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H137">
         <v>15237</v>
@@ -6429,7 +6614,7 @@
       </c>
       <c r="J137" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Cleaning Up","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/195745","post":"15237"},</v>
+        <v>{"name":"Cleaning Up","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/195745","post":"15237"},</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -6438,10 +6623,10 @@
         <v>124</v>
       </c>
       <c r="B138" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C138" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D138">
         <v>2019</v>
@@ -6450,10 +6635,10 @@
         <v>54</v>
       </c>
       <c r="F138" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G138" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H138">
         <v>15204</v>
@@ -6464,7 +6649,7 @@
       </c>
       <c r="J138" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Welcome 2 Life","alt":"You Only Live Twice, Living Two Lives Anyway, Welcome2Life, Welcome to Life","tags":["2019","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/91460","post":"15204"},</v>
+        <v>{"name":"Welcome 2 Life","alt":"You Only Live Twice, Living Two Lives Anyway, Welcome2Life, Welcome to Life","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/91460","post":"15204"},</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -6473,10 +6658,10 @@
         <v>125</v>
       </c>
       <c r="B139" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C139" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D139">
         <v>2021</v>
@@ -6485,10 +6670,10 @@
         <v>54</v>
       </c>
       <c r="F139" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G139" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H139">
         <v>15174</v>
@@ -6499,7 +6684,7 @@
       </c>
       <c r="J139" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Yumi's Cells S01","alt":"Yumi's Cells 1","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/128995","post":"15174"},</v>
+        <v>{"name":"Yumi's Cells S01","alt":"Yumi's Cells 1","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/128995","post":"15174"},</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -6508,10 +6693,10 @@
         <v>126</v>
       </c>
       <c r="B140" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C140" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D140">
         <v>2022</v>
@@ -6520,10 +6705,10 @@
         <v>54</v>
       </c>
       <c r="F140" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G140" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H140">
         <v>15189</v>
@@ -6534,7 +6719,7 @@
       </c>
       <c r="J140" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Yumi's Cells S02","alt":"Yumi's Cells 2","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/128995","post":"15189"},</v>
+        <v>{"name":"Yumi's Cells S02","alt":"Yumi's Cells 2","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/128995","post":"15189"},</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -6543,10 +6728,10 @@
         <v>127</v>
       </c>
       <c r="B141" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C141" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D141">
         <v>2018</v>
@@ -6555,10 +6740,10 @@
         <v>54</v>
       </c>
       <c r="F141" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G141" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H141">
         <v>15157</v>
@@ -6569,7 +6754,7 @@
       </c>
       <c r="J141" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Devilish Joy","alt":"Devilish Happiness, Diabolic Joy, Devilish Charm","tags":["2018","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/82102","post":"15157"},</v>
+        <v>{"name":"Devilish Joy","alt":"Devilish Happiness, Diabolic Joy, Devilish Charm","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/82102","post":"15157"},</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -6578,10 +6763,10 @@
         <v>128</v>
       </c>
       <c r="B142" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C142" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D142">
         <v>2021</v>
@@ -6590,10 +6775,10 @@
         <v>54</v>
       </c>
       <c r="F142" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G142" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H142">
         <v>15124</v>
@@ -6604,7 +6789,7 @@
       </c>
       <c r="J142" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"The King of Tears, Lee Bang Won","alt":"The Great King Yi Bang Won, The Great King Lee Bang Won","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/135751","post":"15124"},</v>
+        <v>{"name":"The King of Tears, Lee Bang Won","alt":"The Great King Yi Bang Won, The Great King Lee Bang Won","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/135751","post":"15124"},</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -6613,10 +6798,10 @@
         <v>129</v>
       </c>
       <c r="B143" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C143" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D143">
         <v>2022</v>
@@ -6625,10 +6810,10 @@
         <v>54</v>
       </c>
       <c r="F143" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G143" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H143">
         <v>15107</v>
@@ -6639,7 +6824,7 @@
       </c>
       <c r="J143" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"My Liberation Notes","alt":"My Liberation Diary, My Liberation Days, My Liberation Journal","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/154887","post":"15107"},</v>
+        <v>{"name":"My Liberation Notes","alt":"My Liberation Diary, My Liberation Days, My Liberation Journal","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/154887","post":"15107"},</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -6648,7 +6833,7 @@
         <v>130</v>
       </c>
       <c r="B144" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D144">
         <v>2022</v>
@@ -6657,10 +6842,10 @@
         <v>54</v>
       </c>
       <c r="F144" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G144" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H144">
         <v>15090</v>
@@ -6671,7 +6856,7 @@
       </c>
       <c r="J144" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Again My Life","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/135654","post":"15090"},</v>
+        <v>{"name":"Again My Life","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/135654","post":"15090"},</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -6680,10 +6865,10 @@
         <v>131</v>
       </c>
       <c r="B145" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C145" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D145">
         <v>2020</v>
@@ -6692,10 +6877,10 @@
         <v>54</v>
       </c>
       <c r="F145" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G145" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H145">
         <v>15073</v>
@@ -6706,7 +6891,7 @@
       </c>
       <c r="J145" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Cheat On Me, If You Can","alt":"You Cheat, You Die, You're Dead If You Cheat, If I Cheat, I Die, If You Cheat, You Die, Dare You Cheat On Me","tags":["2020","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/112706","post":"15073"},</v>
+        <v>{"name":"Cheat On Me, If You Can","alt":"You Cheat, You Die, You're Dead If You Cheat, If I Cheat, I Die, If You Cheat, You Die, Dare You Cheat On Me","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/112706","post":"15073"},</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -6715,10 +6900,10 @@
         <v>132</v>
       </c>
       <c r="B146" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C146" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D146">
         <v>2022</v>
@@ -6727,10 +6912,10 @@
         <v>54</v>
       </c>
       <c r="F146" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G146" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H146">
         <v>15062</v>
@@ -6741,7 +6926,7 @@
       </c>
       <c r="J146" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"A Model Family","alt":"Exemplary Family, Role Model Family","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/132171","post":"15062"},</v>
+        <v>{"name":"A Model Family","alt":"Exemplary Family, Role Model Family","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/132171","post":"15062"},</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -6750,7 +6935,7 @@
         <v>133</v>
       </c>
       <c r="B147" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D147">
         <v>2022</v>
@@ -6759,10 +6944,10 @@
         <v>54</v>
       </c>
       <c r="F147" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G147" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H147">
         <v>15045</v>
@@ -6773,7 +6958,7 @@
       </c>
       <c r="J147" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Green Mothers' Club","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/195747","post":"15045"},</v>
+        <v>{"name":"Green Mothers' Club","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/195747","post":"15045"},</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -6782,10 +6967,10 @@
         <v>134</v>
       </c>
       <c r="B148" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C148" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D148">
         <v>2022</v>
@@ -6794,10 +6979,10 @@
         <v>54</v>
       </c>
       <c r="F148" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G148" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H148">
         <v>15011</v>
@@ -6808,7 +6993,7 @@
       </c>
       <c r="J148" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Love All Play","alt":"The Speed to You Is 493 km, The Speed Going to You 493 km, Going to You at a Speed of 493 km, The Speed to You Is 493km, The Speed Going to You 493km, Going to You at a Speed of 493km","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/152512","post":"15011"},</v>
+        <v>{"name":"Love All Play","alt":"The Speed to You Is 493 km, The Speed Going to You 493 km, Going to You at a Speed of 493 km, The Speed to You Is 493km, The Speed Going to You 493km, Going to You at a Speed of 493km","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/152512","post":"15011"},</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -6817,10 +7002,10 @@
         <v>135</v>
       </c>
       <c r="B149" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C149" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D149">
         <v>2022</v>
@@ -6829,10 +7014,10 @@
         <v>54</v>
       </c>
       <c r="F149" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G149" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H149">
         <v>14998</v>
@@ -6843,7 +7028,7 @@
       </c>
       <c r="J149" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Welcome to Wedding Hell","alt":"Marriage White Paper, Wedding White Paper","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/196907","post":"14998"},</v>
+        <v>{"name":"Welcome to Wedding Hell","alt":"Marriage White Paper, Wedding White Paper","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/196907","post":"14998"},</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -6852,7 +7037,7 @@
         <v>136</v>
       </c>
       <c r="B150" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D150">
         <v>2021</v>
@@ -6861,10 +7046,10 @@
         <v>54</v>
       </c>
       <c r="F150" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G150" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H150">
         <v>14985</v>
@@ -6875,7 +7060,7 @@
       </c>
       <c r="J150" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Imitation","alt":"","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/116708","post":"14985"},</v>
+        <v>{"name":"Imitation","alt":"","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/116708","post":"14985"},</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -6884,10 +7069,10 @@
         <v>137</v>
       </c>
       <c r="B151" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C151" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D151">
         <v>2022</v>
@@ -6896,10 +7081,10 @@
         <v>54</v>
       </c>
       <c r="F151" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G151" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H151">
         <v>14976</v>
@@ -6910,7 +7095,7 @@
       </c>
       <c r="J151" t="str">
         <f t="shared" si="26"/>
-        <v>{"name":"Remarriage and Desires","alt":"The Black Bride, The Bride of Black, Match VIP","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/133775","post":"14976"},</v>
+        <v>{"name":"Remarriage and Desires","alt":"The Black Bride, The Bride of Black, Match VIP","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/133775","post":"14976"},</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -6919,10 +7104,10 @@
         <v>138</v>
       </c>
       <c r="B152" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C152" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D152">
         <v>2022</v>
@@ -6931,10 +7116,10 @@
         <v>54</v>
       </c>
       <c r="F152" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G152" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H152">
         <v>14961</v>
@@ -6945,7 +7130,7 @@
       </c>
       <c r="J152" t="str">
         <f t="shared" ref="J152:J189" si="29">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B152&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C152&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D152&amp;$I$6&amp;$H$6&amp;$I$6&amp;E152&amp;$I$6&amp;$H$6&amp;$I$6&amp;F152&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G152&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H152&amp;$I$6&amp;$D$6&amp;I152</f>
-        <v>{"name":"Woo Ri the Virgin","alt":"Woori the Virgin, Jane the Virgin, Miss Mom Jane, From Today We Are","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/154891","post":"14961"},</v>
+        <v>{"name":"Woo Ri the Virgin","alt":"Woori the Virgin, Jane the Virgin, Miss Mom Jane, From Today We Are","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/154891","post":"14961"},</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -6954,10 +7139,10 @@
         <v>139</v>
       </c>
       <c r="B153" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C153" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D153">
         <v>2010</v>
@@ -6966,10 +7151,10 @@
         <v>54</v>
       </c>
       <c r="F153" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G153" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H153">
         <v>14944</v>
@@ -6980,7 +7165,7 @@
       </c>
       <c r="J153" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Playful Kiss","alt":"Naughty Kiss, Mischievous Kiss","tags":["2010","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/34408","post":"14944"},</v>
+        <v>{"name":"Playful Kiss","alt":"Naughty Kiss, Mischievous Kiss","tags":["2010","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/34408","post":"14944"},</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -6989,10 +7174,10 @@
         <v>140</v>
       </c>
       <c r="B154" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C154" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D154">
         <v>2022</v>
@@ -7001,10 +7186,10 @@
         <v>54</v>
       </c>
       <c r="F154" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G154" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H154">
         <v>14927</v>
@@ -7015,7 +7200,7 @@
       </c>
       <c r="J154" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Why Her","alt":"Why Oh Soo Jae","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/136644","post":"14927"},</v>
+        <v>{"name":"Why Her","alt":"Why Oh Soo Jae","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/136644","post":"14927"},</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -7024,19 +7209,19 @@
         <v>141</v>
       </c>
       <c r="B155" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D155">
         <v>2022</v>
       </c>
       <c r="E155" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F155" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G155" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H155">
         <v>14924</v>
@@ -7047,7 +7232,7 @@
       </c>
       <c r="J155" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Darlings","alt":"","tags":["2022","Hindi","Movie"],"wiki":"https://www.themoviedb.org/movie/801526","post":"14924"},</v>
+        <v>{"name":"Darlings","alt":"","tags":["2022","Hindi","MOVIE"],"wiki":"https://www.themoviedb.org/movie/801526","post":"14924"},</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -7056,10 +7241,10 @@
         <v>142</v>
       </c>
       <c r="B156" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C156" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D156">
         <v>2012</v>
@@ -7068,10 +7253,10 @@
         <v>54</v>
       </c>
       <c r="F156" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G156" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H156">
         <v>14873</v>
@@ -7082,7 +7267,7 @@
       </c>
       <c r="J156" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Horse Doctor","alt":"The Horse Healer, The King's Doctor","tags":["2012","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/45049","post":"14873"},</v>
+        <v>{"name":"Horse Doctor","alt":"The Horse Healer, The King's Doctor","tags":["2012","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/45049","post":"14873"},</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -7091,10 +7276,10 @@
         <v>143</v>
       </c>
       <c r="B157" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C157" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D157">
         <v>2021</v>
@@ -7103,10 +7288,10 @@
         <v>54</v>
       </c>
       <c r="F157" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G157" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H157">
         <v>14822</v>
@@ -7117,7 +7302,7 @@
       </c>
       <c r="J157" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Love (ft. Marriage and Divorce) S01","alt":"Love (ft. Marriage and Divorce) 1, Marriage Lyrics 1, Divorce Composition 1, Marriage Story 1, Love (featuring Marriage and Divorce) 1, Love (feat. Marriage and Divorce) 1, Marriage Lyrics and Divorce Music 1, Marriage Lyrics for Divorce Music 1","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/116041","post":"14822"},</v>
+        <v>{"name":"Love (ft. Marriage and Divorce) S01","alt":"Love (ft. Marriage and Divorce) 1, Marriage Lyrics 1, Divorce Composition 1, Marriage Story 1, Love (featuring Marriage and Divorce) 1, Love (feat. Marriage and Divorce) 1, Marriage Lyrics and Divorce Music 1, Marriage Lyrics for Divorce Music 1","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/116041","post":"14822"},</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -7126,10 +7311,10 @@
         <v>144</v>
       </c>
       <c r="B158" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C158" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D158">
         <v>2021</v>
@@ -7138,10 +7323,10 @@
         <v>54</v>
       </c>
       <c r="F158" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G158" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H158">
         <v>14839</v>
@@ -7152,7 +7337,7 @@
       </c>
       <c r="J158" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Love (ft. Marriage and Divorce) S02","alt":"Love (ft. Marriage and Divorce) 2, Marriage Lyrics 2, Divorce Composition 2, Marriage Story 2, Love (featuring Marriage and Divorce) 2, Love (feat. Marriage and Divorce) 2, Marriage Lyrics and Divorce Music 2, Marriage Lyrics for Divorce Music 2","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/116041","post":"14839"},</v>
+        <v>{"name":"Love (ft. Marriage and Divorce) S02","alt":"Love (ft. Marriage and Divorce) 2, Marriage Lyrics 2, Divorce Composition 2, Marriage Story 2, Love (featuring Marriage and Divorce) 2, Love (feat. Marriage and Divorce) 2, Marriage Lyrics and Divorce Music 2, Marriage Lyrics for Divorce Music 2","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/116041","post":"14839"},</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -7161,10 +7346,10 @@
         <v>145</v>
       </c>
       <c r="B159" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C159" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D159">
         <v>2022</v>
@@ -7173,10 +7358,10 @@
         <v>54</v>
       </c>
       <c r="F159" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G159" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H159">
         <v>14856</v>
@@ -7187,7 +7372,7 @@
       </c>
       <c r="J159" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Love (ft. Marriage and Divorce) S03","alt":"Love (ft. Marriage and Divorce) 3, Marriage Lyrics 3, Divorce Composition 3, Marriage Story 3, Love (featuring Marriage and Divorce) 3, Love (feat. Marriage and Divorce) 3, Marriage Lyrics and Divorce Music 3, Marriage Lyrics for Divorce Music 3","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/116041","post":"14856"},</v>
+        <v>{"name":"Love (ft. Marriage and Divorce) S03","alt":"Love (ft. Marriage and Divorce) 3, Marriage Lyrics 3, Divorce Composition 3, Marriage Story 3, Love (featuring Marriage and Divorce) 3, Love (feat. Marriage and Divorce) 3, Marriage Lyrics and Divorce Music 3, Marriage Lyrics for Divorce Music 3","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/116041","post":"14856"},</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -7196,10 +7381,10 @@
         <v>146</v>
       </c>
       <c r="B160" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C160" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D160">
         <v>2022</v>
@@ -7208,10 +7393,10 @@
         <v>54</v>
       </c>
       <c r="F160" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G160" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H160">
         <v>14805</v>
@@ -7222,7 +7407,7 @@
       </c>
       <c r="J160" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Link: Eat, Love, Kill","alt":"Link: Eat and Love to Kill, You Are My Killer","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/155231","post":"14805"},</v>
+        <v>{"name":"Link: Eat, Love, Kill","alt":"Link: Eat and Love to Kill, You Are My Killer","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/155231","post":"14805"},</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -7231,19 +7416,19 @@
         <v>147</v>
       </c>
       <c r="B161" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D161">
         <v>2020</v>
       </c>
       <c r="E161" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F161" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G161" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H161">
         <v>14772</v>
@@ -7254,7 +7439,7 @@
       </c>
       <c r="J161" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Never Have I Ever S01","alt":"","tags":["2020","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/100883","post":"14772"},</v>
+        <v>{"name":"Never Have I Ever S01","alt":"","tags":["2020","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/100883","post":"14772"},</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -7263,19 +7448,19 @@
         <v>148</v>
       </c>
       <c r="B162" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D162">
         <v>2021</v>
       </c>
       <c r="E162" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F162" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G162" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H162">
         <v>14783</v>
@@ -7286,7 +7471,7 @@
       </c>
       <c r="J162" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Never Have I Ever S02","alt":"","tags":["2021","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/100883","post":"14783"},</v>
+        <v>{"name":"Never Have I Ever S02","alt":"","tags":["2021","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/100883","post":"14783"},</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -7295,19 +7480,19 @@
         <v>149</v>
       </c>
       <c r="B163" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D163">
         <v>2022</v>
       </c>
       <c r="E163" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F163" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G163" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H163">
         <v>14794</v>
@@ -7318,7 +7503,7 @@
       </c>
       <c r="J163" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Never Have I Ever S03","alt":"","tags":["2022","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/100883","post":"14794"},</v>
+        <v>{"name":"Never Have I Ever S03","alt":"","tags":["2022","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/100883","post":"14794"},</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -7327,22 +7512,22 @@
         <v>150</v>
       </c>
       <c r="B164" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C164" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D164">
         <v>2022</v>
       </c>
       <c r="E164" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F164" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G164" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H164">
         <v>14769</v>
@@ -7353,7 +7538,7 @@
       </c>
       <c r="J164" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Thirteen Lives","alt":"13 Lives","tags":["2022","English","Movie"],"wiki":"https://www.themoviedb.org/movie/698948","post":"14769"},</v>
+        <v>{"name":"Thirteen Lives","alt":"13 Lives","tags":["2022","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/698948","post":"14769"},</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -7362,22 +7547,22 @@
         <v>151</v>
       </c>
       <c r="B165" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C165" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D165">
         <v>2018</v>
       </c>
       <c r="E165" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F165" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G165" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H165">
         <v>14764</v>
@@ -7388,7 +7573,7 @@
       </c>
       <c r="J165" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"KGF Chapter 1","alt":"KGF 1","tags":["2018","Hindi","Movie"],"wiki":"https://www.themoviedb.org/movie/564147","post":"14764"},</v>
+        <v>{"name":"KGF Chapter 1","alt":"KGF 1","tags":["2018","Hindi","MOVIE"],"wiki":"https://www.themoviedb.org/movie/564147","post":"14764"},</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -7397,22 +7582,22 @@
         <v>152</v>
       </c>
       <c r="B166" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C166" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D166">
         <v>2022</v>
       </c>
       <c r="E166" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F166" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G166" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H166">
         <v>14766</v>
@@ -7423,7 +7608,7 @@
       </c>
       <c r="J166" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"KGF Chapter 2","alt":"KGF 2","tags":["2022","Hindi","Movie"],"wiki":"https://www.themoviedb.org/movie/587412","post":"14766"},</v>
+        <v>{"name":"KGF Chapter 2","alt":"KGF 2","tags":["2022","Hindi","MOVIE"],"wiki":"https://www.themoviedb.org/movie/587412","post":"14766"},</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -7432,19 +7617,19 @@
         <v>153</v>
       </c>
       <c r="B167" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D167">
         <v>2022</v>
       </c>
       <c r="E167" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F167" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G167" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H167">
         <v>14761</v>
@@ -7455,7 +7640,7 @@
       </c>
       <c r="J167" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Luck","alt":"","tags":["2022","English","Movie"],"wiki":"https://www.themoviedb.org/movie/585511","post":"14761"},</v>
+        <v>{"name":"Luck","alt":"","tags":["2022","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/585511","post":"14761"},</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -7464,19 +7649,19 @@
         <v>154</v>
       </c>
       <c r="B168" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D168">
         <v>2004</v>
       </c>
       <c r="E168" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F168" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G168" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H168">
         <v>14758</v>
@@ -7487,7 +7672,7 @@
       </c>
       <c r="J168" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Eternal Sunshine of the Spotless Mind","alt":"","tags":["2004","English","Movie"],"wiki":"https://www.themoviedb.org/movie/38","post":"14758"},</v>
+        <v>{"name":"Eternal Sunshine of the Spotless Mind","alt":"","tags":["2004","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/38","post":"14758"},</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -7496,19 +7681,19 @@
         <v>155</v>
       </c>
       <c r="B169" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D169">
         <v>2022</v>
       </c>
       <c r="E169" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F169" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G169" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H169">
         <v>14755</v>
@@ -7519,7 +7704,7 @@
       </c>
       <c r="J169" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Day Shift","alt":"","tags":["2022","English","Movie"],"wiki":"https://www.themoviedb.org/movie/755566","post":"14755"},</v>
+        <v>{"name":"Day Shift","alt":"","tags":["2022","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/755566","post":"14755"},</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -7528,10 +7713,10 @@
         <v>156</v>
       </c>
       <c r="B170" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C170" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D170">
         <v>2019</v>
@@ -7540,10 +7725,10 @@
         <v>54</v>
       </c>
       <c r="F170" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G170" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H170">
         <v>14738</v>
@@ -7554,7 +7739,7 @@
       </c>
       <c r="J170" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"I Wanna Hear Your Song","alt":"Sing for Me, Tell Your Song, Let Me Hear Your Song","tags":["2019","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/90237","post":"14738"},</v>
+        <v>{"name":"I Wanna Hear Your Song","alt":"Sing for Me, Tell Your Song, Let Me Hear Your Song","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/90237","post":"14738"},</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -7563,7 +7748,7 @@
         <v>157</v>
       </c>
       <c r="B171" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D171">
         <v>2022</v>
@@ -7572,10 +7757,10 @@
         <v>54</v>
       </c>
       <c r="F171" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G171" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H171">
         <v>14721</v>
@@ -7586,7 +7771,7 @@
       </c>
       <c r="J171" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Insider","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/135655","post":"14721"},</v>
+        <v>{"name":"Insider","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/135655","post":"14721"},</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -7595,10 +7780,10 @@
         <v>158</v>
       </c>
       <c r="B172" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C172" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D172">
         <v>2014</v>
@@ -7607,10 +7792,10 @@
         <v>54</v>
       </c>
       <c r="F172" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G172" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H172">
         <v>14700</v>
@@ -7621,7 +7806,7 @@
       </c>
       <c r="J172" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"High School - Love On","alt":"Hi! School: Love On","tags":["2014","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/61738","post":"14700"},</v>
+        <v>{"name":"High School - Love On","alt":"Hi! School: Love On","tags":["2014","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/61738","post":"14700"},</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -7630,10 +7815,10 @@
         <v>159</v>
       </c>
       <c r="B173" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C173" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D173">
         <v>2022</v>
@@ -7642,10 +7827,10 @@
         <v>54</v>
       </c>
       <c r="F173" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G173" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H173">
         <v>14683</v>
@@ -7656,7 +7841,7 @@
       </c>
       <c r="J173" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Bloody Heart","alt":"Red Heart, Red Single Heart","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/136733","post":"14683"},</v>
+        <v>{"name":"Bloody Heart","alt":"Red Heart, Red Single Heart","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/136733","post":"14683"},</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -7665,10 +7850,10 @@
         <v>160</v>
       </c>
       <c r="B174" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C174" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D174">
         <v>2022</v>
@@ -7677,10 +7862,10 @@
         <v>54</v>
       </c>
       <c r="F174" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G174" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H174">
         <v>14666</v>
@@ -7691,7 +7876,7 @@
       </c>
       <c r="J174" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Eve","alt":"Eve's Scandal","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/138251","post":"14666"},</v>
+        <v>{"name":"Eve","alt":"Eve's Scandal","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/138251","post":"14666"},</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -7700,11 +7885,11 @@
         <v>161</v>
       </c>
       <c r="B175" t="s">
+        <v>463</v>
+      </c>
+      <c r="C175" t="s">
         <v>465</v>
       </c>
-      <c r="C175" t="s">
-        <v>467</v>
-      </c>
       <c r="D175">
         <v>2022</v>
       </c>
@@ -7712,10 +7897,10 @@
         <v>54</v>
       </c>
       <c r="F175" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G175" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H175">
         <v>14649</v>
@@ -7726,7 +7911,7 @@
       </c>
       <c r="J175" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"From Now On, Showtime!","alt":"Showtime Begins","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/194820","post":"14649"},</v>
+        <v>{"name":"From Now On, Showtime!","alt":"Showtime Begins","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/194820","post":"14649"},</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -7735,10 +7920,10 @@
         <v>162</v>
       </c>
       <c r="B176" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C176" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D176">
         <v>2022</v>
@@ -7747,10 +7932,10 @@
         <v>54</v>
       </c>
       <c r="F176" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G176" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H176">
         <v>14636</v>
@@ -7761,7 +7946,7 @@
       </c>
       <c r="J176" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Kiss Sixth Sense","alt":"Sixth Sense Kiss","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/135895","post":"14636"},</v>
+        <v>{"name":"Kiss Sixth Sense","alt":"Sixth Sense Kiss","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/135895","post":"14636"},</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -7770,10 +7955,10 @@
         <v>163</v>
       </c>
       <c r="B177" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C177" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D177">
         <v>2022</v>
@@ -7782,10 +7967,10 @@
         <v>54</v>
       </c>
       <c r="F177" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G177" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H177">
         <v>14619</v>
@@ -7796,7 +7981,7 @@
       </c>
       <c r="J177" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Doctor Lawyer","alt":"Dr. Lawyer","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/196906","post":"14619"},</v>
+        <v>{"name":"Doctor Lawyer","alt":"Dr. Lawyer","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/196906","post":"14619"},</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -7805,19 +7990,19 @@
         <v>164</v>
       </c>
       <c r="B178" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D178">
         <v>2021</v>
       </c>
       <c r="E178" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F178" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G178" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H178">
         <v>14616</v>
@@ -7828,7 +8013,7 @@
       </c>
       <c r="J178" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Cruella","alt":"","tags":["2021","English","Movie"],"wiki":"https://www.themoviedb.org/movie/337404","post":"14616"},</v>
+        <v>{"name":"Cruella","alt":"","tags":["2021","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/337404","post":"14616"},</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -7837,19 +8022,19 @@
         <v>165</v>
       </c>
       <c r="B179" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D179">
         <v>2017</v>
       </c>
       <c r="E179" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F179" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G179" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H179">
         <v>14595</v>
@@ -7860,7 +8045,7 @@
       </c>
       <c r="J179" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Mindhunter S01","alt":"","tags":["2017","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/67744","post":"14595"},</v>
+        <v>{"name":"Mindhunter S01","alt":"","tags":["2017","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/67744","post":"14595"},</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -7869,19 +8054,19 @@
         <v>166</v>
       </c>
       <c r="B180" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D180">
         <v>2019</v>
       </c>
       <c r="E180" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F180" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G180" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H180">
         <v>14606</v>
@@ -7892,7 +8077,7 @@
       </c>
       <c r="J180" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Mindhunter S02","alt":"","tags":["2019","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/67744","post":"14606"},</v>
+        <v>{"name":"Mindhunter S02","alt":"","tags":["2019","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/67744","post":"14606"},</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -7901,10 +8086,10 @@
         <v>167</v>
       </c>
       <c r="B181" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C181" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D181">
         <v>2016</v>
@@ -7913,10 +8098,10 @@
         <v>54</v>
       </c>
       <c r="F181" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G181" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H181">
         <v>14578</v>
@@ -7927,7 +8112,7 @@
       </c>
       <c r="J181" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Seven First Kisses","alt":"The 7th First Kiss, 7 First Kisses, First Kiss for the Seventh Time, First Seven Kisses, First 7 Kisses","tags":["2016","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/68879","post":"14578"},</v>
+        <v>{"name":"Seven First Kisses","alt":"The 7th First Kiss, 7 First Kisses, First Kiss for the Seventh Time, First Seven Kisses, First 7 Kisses","tags":["2016","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/68879","post":"14578"},</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -7936,19 +8121,19 @@
         <v>168</v>
       </c>
       <c r="B182" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D182">
         <v>2022</v>
       </c>
       <c r="E182" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F182" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G182" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H182">
         <v>14575</v>
@@ -7959,7 +8144,7 @@
       </c>
       <c r="J182" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Purple Hearts","alt":"","tags":["2022","English","Movie"],"wiki":"https://www.themoviedb.org/movie/762975","post":"14575"},</v>
+        <v>{"name":"Purple Hearts","alt":"","tags":["2022","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/762975","post":"14575"},</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -7968,19 +8153,19 @@
         <v>169</v>
       </c>
       <c r="B183" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D183">
         <v>2020</v>
       </c>
       <c r="E183" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F183" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G183" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H183">
         <v>14562</v>
@@ -7991,7 +8176,7 @@
       </c>
       <c r="J183" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Normal People","alt":"","tags":["2020","English","TV Show"],"wiki":"https://www.themoviedb.org/tv/89905","post":"14562"},</v>
+        <v>{"name":"Normal People","alt":"","tags":["2020","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/89905","post":"14562"},</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -8000,10 +8185,10 @@
         <v>170</v>
       </c>
       <c r="B184" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C184" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D184">
         <v>2021</v>
@@ -8012,10 +8197,10 @@
         <v>54</v>
       </c>
       <c r="F184" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G184" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H184">
         <v>14545</v>
@@ -8026,7 +8211,7 @@
       </c>
       <c r="J184" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"School 2021","alt":"School 2020, Oh, My Men","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/97765","post":"14545"},</v>
+        <v>{"name":"School 2021","alt":"School 2020, Oh, My Men","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/97765","post":"14545"},</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -8035,10 +8220,10 @@
         <v>171</v>
       </c>
       <c r="B185" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C185" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D185">
         <v>2017</v>
@@ -8047,10 +8232,10 @@
         <v>54</v>
       </c>
       <c r="F185" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G185" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H185">
         <v>14528</v>
@@ -8061,7 +8246,7 @@
       </c>
       <c r="J185" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"School 2017","alt":"School 7","tags":["2017","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/72374","post":"14528"},</v>
+        <v>{"name":"School 2017","alt":"School 7","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/72374","post":"14528"},</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -8070,10 +8255,10 @@
         <v>172</v>
       </c>
       <c r="B186" t="s">
+        <v>481</v>
+      </c>
+      <c r="C186" t="s">
         <v>483</v>
-      </c>
-      <c r="C186" t="s">
-        <v>485</v>
       </c>
       <c r="D186">
         <v>2015</v>
@@ -8082,10 +8267,10 @@
         <v>54</v>
       </c>
       <c r="F186" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G186" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H186">
         <v>14511</v>
@@ -8096,7 +8281,7 @@
       </c>
       <c r="J186" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Who Are You: School 2015","alt":"School 6","tags":["2015","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/62511","post":"14511"},</v>
+        <v>{"name":"Who Are You: School 2015","alt":"School 6","tags":["2015","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/62511","post":"14511"},</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -8105,10 +8290,10 @@
         <v>173</v>
       </c>
       <c r="B187" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C187" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D187">
         <v>2012</v>
@@ -8117,10 +8302,10 @@
         <v>54</v>
       </c>
       <c r="F187" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G187" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H187">
         <v>14494</v>
@@ -8131,7 +8316,7 @@
       </c>
       <c r="J187" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"School 2013","alt":"School 5","tags":["2012","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/46596","post":"14494"},</v>
+        <v>{"name":"School 2013","alt":"School 5","tags":["2012","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/46596","post":"14494"},</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -8140,7 +8325,7 @@
         <v>174</v>
       </c>
       <c r="B188" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D188">
         <v>2022</v>
@@ -8149,10 +8334,10 @@
         <v>54</v>
       </c>
       <c r="F188" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G188" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H188">
         <v>14485</v>
@@ -8163,7 +8348,7 @@
       </c>
       <c r="J188" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Pachinko","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/110382","post":"14485"},</v>
+        <v>{"name":"Pachinko","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/110382","post":"14485"},</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -8172,11 +8357,11 @@
         <v>175</v>
       </c>
       <c r="B189" t="s">
+        <v>486</v>
+      </c>
+      <c r="C189" t="s">
         <v>488</v>
       </c>
-      <c r="C189" t="s">
-        <v>490</v>
-      </c>
       <c r="D189">
         <v>2022</v>
       </c>
@@ -8184,10 +8369,10 @@
         <v>54</v>
       </c>
       <c r="F189" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G189" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H189">
         <v>14478</v>
@@ -8198,7 +8383,7 @@
       </c>
       <c r="J189" t="str">
         <f t="shared" si="29"/>
-        <v>{"name":"Money Heist: Korea - Joint Economic Area","alt":"The House of Paper: Korea - Joint Economic Area","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/112836","post":"14478"},</v>
+        <v>{"name":"Money Heist: Korea - Joint Economic Area","alt":"The House of Paper: Korea - Joint Economic Area","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/112836","post":"14478"},</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -8207,19 +8392,19 @@
         <v>176</v>
       </c>
       <c r="B190" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D190">
         <v>2022</v>
       </c>
       <c r="E190" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F190" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="G190" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H190">
         <v>14476</v>
@@ -8230,7 +8415,7 @@
       </c>
       <c r="J190" t="str">
         <f t="shared" ref="J190:J200" si="31">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B190&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C190&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D190&amp;$I$6&amp;$H$6&amp;$I$6&amp;E190&amp;$I$6&amp;$H$6&amp;$I$6&amp;F190&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G190&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H190&amp;$I$6&amp;$D$6&amp;I190</f>
-        <v>{"name":"Jana Gana Mana","alt":"","tags":["2022","Malayalam","Movie"],"wiki":"https://www.themoviedb.org/movie/792358","post":"14476"},</v>
+        <v>{"name":"Jana Gana Mana","alt":"","tags":["2022","Malayalam","MOVIE"],"wiki":"https://www.themoviedb.org/movie/792358","post":"14476"},</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -8239,7 +8424,7 @@
         <v>177</v>
       </c>
       <c r="B191" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D191">
         <v>2022</v>
@@ -8248,10 +8433,10 @@
         <v>54</v>
       </c>
       <c r="F191" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G191" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H191">
         <v>14455</v>
@@ -8262,7 +8447,7 @@
       </c>
       <c r="J191" t="str">
         <f t="shared" si="31"/>
-        <v>{"name":"Our Blues","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/135840","post":"14455"},</v>
+        <v>{"name":"Our Blues","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/135840","post":"14455"},</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -8271,10 +8456,10 @@
         <v>178</v>
       </c>
       <c r="B192" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C192" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D192">
         <v>2019</v>
@@ -8283,10 +8468,10 @@
         <v>54</v>
       </c>
       <c r="F192" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G192" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H192">
         <v>14411</v>
@@ -8297,7 +8482,7 @@
       </c>
       <c r="J192" t="str">
         <f t="shared" si="31"/>
-        <v>{"name":"Scams","alt":"Scum","tags":["2019","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/94830","post":"14411"},</v>
+        <v>{"name":"Scams","alt":"Scum","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/94830","post":"14411"},</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -8306,10 +8491,10 @@
         <v>179</v>
       </c>
       <c r="B193" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C193" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D193">
         <v>2021</v>
@@ -8318,10 +8503,10 @@
         <v>54</v>
       </c>
       <c r="F193" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G193" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H193">
         <v>14394</v>
@@ -8332,7 +8517,7 @@
       </c>
       <c r="J193" t="str">
         <f t="shared" si="31"/>
-        <v>{"name":"Our Beloved Summer","alt":"That Year We Are, Us That Year","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/135897","post":"14394"},</v>
+        <v>{"name":"Our Beloved Summer","alt":"That Year We Are, Us That Year","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/135897","post":"14394"},</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -8341,10 +8526,10 @@
         <v>180</v>
       </c>
       <c r="B194" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C194" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D194">
         <v>2021</v>
@@ -8353,10 +8538,10 @@
         <v>54</v>
       </c>
       <c r="F194" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G194" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H194">
         <v>14381</v>
@@ -8367,7 +8552,7 @@
       </c>
       <c r="J194" t="str">
         <f t="shared" si="31"/>
-        <v>{"name":"Let Me Be Your Knight","alt":"I Will Be Your Night, I'll Be Your Night, Idol's Doctor, Idol Doctor","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/134071","post":"14381"},</v>
+        <v>{"name":"Let Me Be Your Knight","alt":"I Will Be Your Night, I'll Be Your Night, Idol's Doctor, Idol Doctor","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/134071","post":"14381"},</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -8376,10 +8561,10 @@
         <v>181</v>
       </c>
       <c r="B195" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C195" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D195">
         <v>2021</v>
@@ -8388,10 +8573,10 @@
         <v>54</v>
       </c>
       <c r="F195" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G195" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H195">
         <v>14374</v>
@@ -8402,7 +8587,7 @@
       </c>
       <c r="J195" t="str">
         <f t="shared" si="31"/>
-        <v>{"name":"D.P. Dog Day","alt":"Deserter Pursuit Dog Day, Day of the Dog, D P - Dog Day","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/110534","post":"14374"},</v>
+        <v>{"name":"D.P. Dog Day","alt":"Deserter Pursuit Dog Day, Day of the Dog, D P - Dog Day","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/110534","post":"14374"},</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -8411,10 +8596,10 @@
         <v>182</v>
       </c>
       <c r="B196" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C196" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D196">
         <v>2021</v>
@@ -8423,10 +8608,10 @@
         <v>54</v>
       </c>
       <c r="F196" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G196" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H196">
         <v>14357</v>
@@ -8437,7 +8622,7 @@
       </c>
       <c r="J196" t="str">
         <f t="shared" si="31"/>
-        <v>{"name":"Bulgasal: Immortal Souls","alt":"Invisible, Immortality, Starfish, Invincible","tags":["2021","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/137520","post":"14357"},</v>
+        <v>{"name":"Bulgasal: Immortal Souls","alt":"Invisible, Immortality, Starfish, Invincible","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/137520","post":"14357"},</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -8446,10 +8631,10 @@
         <v>183</v>
       </c>
       <c r="B197" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C197" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D197">
         <v>2016</v>
@@ -8458,10 +8643,10 @@
         <v>54</v>
       </c>
       <c r="F197" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G197" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H197">
         <v>14338</v>
@@ -8472,7 +8657,7 @@
       </c>
       <c r="J197" t="str">
         <f t="shared" si="31"/>
-        <v>{"name":"Another Miss Oh","alt":"Oh Hae Young Again, Another Oh Hae Young, Misunderstood, Again! Oh Hae Young","tags":["2016","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/66082","post":"14338"},</v>
+        <v>{"name":"Another Miss Oh","alt":"Oh Hae Young Again, Another Oh Hae Young, Misunderstood, Again! Oh Hae Young","tags":["2016","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/66082","post":"14338"},</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -8481,10 +8666,10 @@
         <v>184</v>
       </c>
       <c r="B198" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C198" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D198">
         <v>2022</v>
@@ -8493,10 +8678,10 @@
         <v>54</v>
       </c>
       <c r="F198" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G198" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H198">
         <v>14331</v>
@@ -8507,7 +8692,7 @@
       </c>
       <c r="J198" t="str">
         <f t="shared" si="31"/>
-        <v>{"name":"The Sound of Magic","alt":"Annarasumanara","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/123349","post":"14331"},</v>
+        <v>{"name":"The Sound of Magic","alt":"Annarasumanara","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/123349","post":"14331"},</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -8516,7 +8701,7 @@
         <v>185</v>
       </c>
       <c r="B199" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D199">
         <v>2022</v>
@@ -8525,10 +8710,10 @@
         <v>54</v>
       </c>
       <c r="F199" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G199" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H199">
         <v>14314</v>
@@ -8539,7 +8724,7 @@
       </c>
       <c r="J199" t="str">
         <f t="shared" si="31"/>
-        <v>{"name":"Tomorrow","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/136369","post":"14314"},</v>
+        <v>{"name":"Tomorrow","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/136369","post":"14314"},</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -8548,7 +8733,7 @@
         <v>186</v>
       </c>
       <c r="B200" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D200">
         <v>2022</v>
@@ -8557,10 +8742,10 @@
         <v>54</v>
       </c>
       <c r="F200" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="G200" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H200">
         <v>14297</v>
@@ -8571,7 +8756,7 @@
       </c>
       <c r="J200" t="str">
         <f t="shared" si="31"/>
-        <v>{"name":"Crazy Love","alt":"","tags":["2022","Korean","TV Show"],"wiki":"https://www.themoviedb.org/tv/134465","post":"14297"},</v>
+        <v>{"name":"Crazy Love","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/134465","post":"14297"},</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -8580,10 +8765,33 @@
         <v>187</v>
       </c>
       <c r="B201" t="s">
-        <v>521</v>
+        <v>519</v>
+      </c>
+      <c r="C201" t="s">
+        <v>543</v>
+      </c>
+      <c r="D201">
+        <v>2013</v>
+      </c>
+      <c r="E201" t="s">
+        <v>54</v>
+      </c>
+      <c r="F201" t="s">
+        <v>563</v>
+      </c>
+      <c r="G201" t="s">
+        <v>542</v>
       </c>
       <c r="H201">
         <v>14146</v>
+      </c>
+      <c r="I201" t="str">
+        <f t="shared" ref="I201:I224" si="32">IF(H202="",$G$6&amp;$D$6,$H$6)</f>
+        <v>,</v>
+      </c>
+      <c r="J201" t="str">
+        <f t="shared" ref="J201:J224" si="33">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B201&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C201&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D201&amp;$I$6&amp;$H$6&amp;$I$6&amp;E201&amp;$I$6&amp;$H$6&amp;$I$6&amp;F201&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G201&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H201&amp;$I$6&amp;$D$6&amp;I201</f>
+        <v>{"name":"Ugly Alert","alt":"Ugly Warning","tags":["2013","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/64300","post":"14146"},</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -8592,10 +8800,33 @@
         <v>188</v>
       </c>
       <c r="B202" t="s">
-        <v>522</v>
+        <v>520</v>
+      </c>
+      <c r="C202" t="s">
+        <v>545</v>
+      </c>
+      <c r="D202">
+        <v>2022</v>
+      </c>
+      <c r="E202" t="s">
+        <v>54</v>
+      </c>
+      <c r="F202" t="s">
+        <v>563</v>
+      </c>
+      <c r="G202" t="s">
+        <v>544</v>
       </c>
       <c r="H202">
         <v>14135</v>
+      </c>
+      <c r="I202" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J202" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Juvenile Justice","alt":"Juvenile Judgement, The Boy Judgement, Boy Judge","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/112833","post":"14135"},</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -8604,10 +8835,33 @@
         <v>189</v>
       </c>
       <c r="B203" t="s">
-        <v>523</v>
+        <v>521</v>
+      </c>
+      <c r="C203" t="s">
+        <v>547</v>
+      </c>
+      <c r="D203">
+        <v>2021</v>
+      </c>
+      <c r="E203" t="s">
+        <v>54</v>
+      </c>
+      <c r="F203" t="s">
+        <v>563</v>
+      </c>
+      <c r="G203" t="s">
+        <v>546</v>
       </c>
       <c r="H203">
         <v>14118</v>
+      </c>
+      <c r="I203" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J203" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"The One and Only","alt":"Just One Person, Only One Person","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/127008","post":"14118"},</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -8616,10 +8870,33 @@
         <v>190</v>
       </c>
       <c r="B204" t="s">
-        <v>524</v>
+        <v>522</v>
+      </c>
+      <c r="C204" t="s">
+        <v>549</v>
+      </c>
+      <c r="D204">
+        <v>2004</v>
+      </c>
+      <c r="E204" t="s">
+        <v>54</v>
+      </c>
+      <c r="F204" t="s">
+        <v>563</v>
+      </c>
+      <c r="G204" t="s">
+        <v>548</v>
       </c>
       <c r="H204">
         <v>14097</v>
+      </c>
+      <c r="I204" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J204" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Save the Last Dance for Me","alt":"Save Your Last Dance for Me, The Last Dance Is With Me","tags":["2004","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/5551","post":"14097"},</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -8628,10 +8905,33 @@
         <v>191</v>
       </c>
       <c r="B205" t="s">
-        <v>525</v>
+        <v>523</v>
+      </c>
+      <c r="C205" t="s">
+        <v>550</v>
+      </c>
+      <c r="D205">
+        <v>2022</v>
+      </c>
+      <c r="E205" t="s">
+        <v>54</v>
+      </c>
+      <c r="F205" t="s">
+        <v>563</v>
+      </c>
+      <c r="G205" t="s">
+        <v>551</v>
       </c>
       <c r="H205">
         <v>14084</v>
+      </c>
+      <c r="I205" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J205" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Business Proposal","alt":"In-House Confrontation, In-House Match, Confrontation in the Company, Meet the Man, Meet the Guy, The Office Blind Date, A Business Proposal","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/154825","post":"14084"},</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -8640,13 +8940,33 @@
         <v>192</v>
       </c>
       <c r="B206" t="s">
-        <v>526</v>
-      </c>
-      <c r="C206">
+        <v>524</v>
+      </c>
+      <c r="C206" s="3">
         <v>39</v>
+      </c>
+      <c r="D206">
+        <v>2022</v>
+      </c>
+      <c r="E206" t="s">
+        <v>54</v>
+      </c>
+      <c r="F206" t="s">
+        <v>563</v>
+      </c>
+      <c r="G206" t="s">
+        <v>552</v>
       </c>
       <c r="H206">
         <v>14071</v>
+      </c>
+      <c r="I206" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J206" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Thirty-Nine","alt":"39","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/131028","post":"14071"},</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -8655,10 +8975,33 @@
         <v>193</v>
       </c>
       <c r="B207" t="s">
-        <v>527</v>
+        <v>525</v>
+      </c>
+      <c r="C207" t="s">
+        <v>554</v>
+      </c>
+      <c r="D207">
+        <v>2022</v>
+      </c>
+      <c r="E207" t="s">
+        <v>54</v>
+      </c>
+      <c r="F207" t="s">
+        <v>563</v>
+      </c>
+      <c r="G207" t="s">
+        <v>553</v>
       </c>
       <c r="H207">
         <v>14054</v>
+      </c>
+      <c r="I207" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J207" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Rookie Cops","alt":"Rookies, Our Police Class, Our Police Course, Police Class of Mine and Yours","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/126484","post":"14054"},</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -8667,205 +9010,910 @@
         <v>194</v>
       </c>
       <c r="B208" t="s">
-        <v>528</v>
+        <v>526</v>
+      </c>
+      <c r="C208" t="s">
+        <v>581</v>
+      </c>
+      <c r="D208">
+        <v>2022</v>
+      </c>
+      <c r="E208" t="s">
+        <v>54</v>
+      </c>
+      <c r="F208" t="s">
+        <v>563</v>
+      </c>
+      <c r="G208" t="s">
+        <v>555</v>
       </c>
       <c r="H208">
         <v>14037</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I208" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J208" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Forecasting Love and Weather","alt":"Love Affair Cruelty, Office Romance Atrocities, KMA People: Office Romance Cruelty, Meteorological Office People: In-House Love Cruelty, Cruel Story of Office Romance, Meteorological Administration People: Office Romance Cruelty","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/152511","post":"14037"},</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
-        <f t="shared" ref="A209:A224" si="32">A208+1</f>
+        <f t="shared" ref="A209:A234" si="34">A208+1</f>
         <v>195</v>
       </c>
       <c r="B209" t="s">
-        <v>529</v>
+        <v>527</v>
+      </c>
+      <c r="C209" t="s">
+        <v>557</v>
+      </c>
+      <c r="D209">
+        <v>2015</v>
+      </c>
+      <c r="E209" t="s">
+        <v>89</v>
+      </c>
+      <c r="F209" t="s">
+        <v>563</v>
+      </c>
+      <c r="G209" t="s">
+        <v>556</v>
       </c>
       <c r="H209">
         <v>13995</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I209" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J209" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Daredevil S01","alt":"Marvel's Daredevil 1","tags":["2015","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/61889","post":"13995"},</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>196</v>
       </c>
       <c r="B210" t="s">
-        <v>530</v>
+        <v>528</v>
+      </c>
+      <c r="C210" t="s">
+        <v>558</v>
+      </c>
+      <c r="D210">
+        <v>2016</v>
+      </c>
+      <c r="E210" t="s">
+        <v>89</v>
+      </c>
+      <c r="F210" t="s">
+        <v>563</v>
+      </c>
+      <c r="G210" t="s">
+        <v>556</v>
       </c>
       <c r="H210">
         <v>14009</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I210" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J210" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Daredevil S02","alt":"Marvel's Daredevil 2","tags":["2016","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/61889","post":"14009"},</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>197</v>
       </c>
       <c r="B211" t="s">
-        <v>531</v>
+        <v>529</v>
+      </c>
+      <c r="C211" t="s">
+        <v>559</v>
+      </c>
+      <c r="D211">
+        <v>2018</v>
+      </c>
+      <c r="E211" t="s">
+        <v>89</v>
+      </c>
+      <c r="F211" t="s">
+        <v>563</v>
+      </c>
+      <c r="G211" t="s">
+        <v>556</v>
       </c>
       <c r="H211">
         <v>14023</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I211" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J211" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Daredevil S03","alt":"Marvel's Daredevil 3","tags":["2018","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/61889","post":"14023"},</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>198</v>
       </c>
       <c r="B212" t="s">
-        <v>532</v>
-      </c>
-      <c r="C212">
-        <v>2521</v>
+        <v>561</v>
+      </c>
+      <c r="C212" t="s">
+        <v>562</v>
+      </c>
+      <c r="D212">
+        <v>2022</v>
+      </c>
+      <c r="E212" t="s">
+        <v>54</v>
+      </c>
+      <c r="F212" t="s">
+        <v>563</v>
+      </c>
+      <c r="G212" t="s">
+        <v>560</v>
       </c>
       <c r="H212">
         <v>13978</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I212" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J212" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Twenty-Five Twenty-One","alt":"2521, Twenty Five Twenty One","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/129888","post":"13978"},</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>199</v>
       </c>
       <c r="B213" t="s">
-        <v>533</v>
+        <v>530</v>
+      </c>
+      <c r="D213">
+        <v>2022</v>
+      </c>
+      <c r="E213" t="s">
+        <v>54</v>
+      </c>
+      <c r="F213" t="s">
+        <v>564</v>
+      </c>
+      <c r="G213" t="s">
+        <v>565</v>
       </c>
       <c r="H213">
         <v>13975</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I213" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J213" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Moonshot","alt":"","tags":["2022","Korean","MOVIE"],"wiki":"https://www.themoviedb.org/movie/767825","post":"13975"},</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>200</v>
       </c>
       <c r="B214" t="s">
-        <v>534</v>
+        <v>531</v>
+      </c>
+      <c r="D214">
+        <v>2021</v>
+      </c>
+      <c r="E214" t="s">
+        <v>54</v>
+      </c>
+      <c r="F214" t="s">
+        <v>563</v>
+      </c>
+      <c r="G214" t="s">
+        <v>566</v>
       </c>
       <c r="H214">
         <v>13962</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I214" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J214" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Hometown","alt":"","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/128184","post":"13962"},</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>201</v>
       </c>
       <c r="B215" t="s">
-        <v>535</v>
+        <v>532</v>
+      </c>
+      <c r="C215" t="s">
+        <v>569</v>
+      </c>
+      <c r="D215">
+        <v>2019</v>
+      </c>
+      <c r="E215" t="s">
+        <v>89</v>
+      </c>
+      <c r="F215" t="s">
+        <v>563</v>
+      </c>
+      <c r="G215" t="s">
+        <v>567</v>
       </c>
       <c r="H215">
         <v>13940</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I215" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J215" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Dead to Me S01","alt":"Dead to Me 1","tags":["2019","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/81357","post":"13940"},</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>202</v>
       </c>
       <c r="B216" t="s">
-        <v>536</v>
+        <v>533</v>
+      </c>
+      <c r="C216" t="s">
+        <v>570</v>
+      </c>
+      <c r="D216">
+        <v>2020</v>
+      </c>
+      <c r="E216" t="s">
+        <v>89</v>
+      </c>
+      <c r="F216" t="s">
+        <v>563</v>
+      </c>
+      <c r="G216" t="s">
+        <v>567</v>
       </c>
       <c r="H216">
         <v>13951</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I216" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J216" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Dead to Me S02","alt":"Dead to Me 2","tags":["2020","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/81357","post":"13951"},</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>203</v>
       </c>
       <c r="B217" t="s">
-        <v>537</v>
+        <v>534</v>
+      </c>
+      <c r="C217" t="s">
+        <v>571</v>
+      </c>
+      <c r="D217">
+        <v>2021</v>
+      </c>
+      <c r="E217" t="s">
+        <v>54</v>
+      </c>
+      <c r="F217" t="s">
+        <v>563</v>
+      </c>
+      <c r="G217" t="s">
+        <v>568</v>
       </c>
       <c r="H217">
         <v>13923</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I217" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J217" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Moonshine","alt":"Thinking of the Moon When Flowers Bloom, Flower Blooms, Moon Shines, Thinking of the Moon When the Flower Blooms, When Flowers Bloom, I Think of the Moon","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/129889","post":"13923"},</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>204</v>
       </c>
       <c r="B218" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="D218">
+        <v>2022</v>
+      </c>
+      <c r="E218" t="s">
+        <v>54</v>
+      </c>
+      <c r="F218" t="s">
+        <v>563</v>
+      </c>
+      <c r="G218" t="s">
+        <v>572</v>
       </c>
       <c r="H218">
         <v>13906</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I218" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J218" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Ghost Doctor","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/152471","post":"13906"},</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>205</v>
       </c>
       <c r="B219" t="s">
-        <v>539</v>
+        <v>536</v>
+      </c>
+      <c r="D219">
+        <v>2022</v>
+      </c>
+      <c r="E219" t="s">
+        <v>89</v>
+      </c>
+      <c r="F219" t="s">
+        <v>564</v>
+      </c>
+      <c r="G219" t="s">
+        <v>573</v>
       </c>
       <c r="H219">
         <v>13903</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I219" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J219" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Turning Red","alt":"","tags":["2022","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/508947","post":"13903"},</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>206</v>
       </c>
       <c r="B220" t="s">
-        <v>540</v>
+        <v>537</v>
+      </c>
+      <c r="D220">
+        <v>2022</v>
+      </c>
+      <c r="E220" t="s">
+        <v>89</v>
+      </c>
+      <c r="F220" t="s">
+        <v>564</v>
+      </c>
+      <c r="G220" t="s">
+        <v>574</v>
       </c>
       <c r="H220">
         <v>13900</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I220" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J220" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Moonfall","alt":"","tags":["2022","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/406759","post":"13900"},</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>207</v>
       </c>
       <c r="B221" t="s">
-        <v>541</v>
+        <v>538</v>
+      </c>
+      <c r="C221" t="s">
+        <v>576</v>
+      </c>
+      <c r="D221">
+        <v>2017</v>
+      </c>
+      <c r="E221" t="s">
+        <v>141</v>
+      </c>
+      <c r="F221" t="s">
+        <v>563</v>
+      </c>
+      <c r="G221" t="s">
+        <v>575</v>
       </c>
       <c r="H221">
         <v>13887</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I221" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J221" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Erased","alt":"The Town Where Only I Am Missing, Boku Dake ga Inai Machi","tags":["2017","Japanese","SHOW"],"wiki":"https://www.themoviedb.org/tv/74939","post":"13887"},</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>208</v>
       </c>
       <c r="B222" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="D222">
+        <v>2021</v>
+      </c>
+      <c r="E222" t="s">
+        <v>54</v>
+      </c>
+      <c r="F222" t="s">
+        <v>563</v>
+      </c>
+      <c r="G222" t="s">
+        <v>577</v>
       </c>
       <c r="H222">
         <v>13849</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I222" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J222" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Snowdrop","alt":"","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/108291","post":"13849"},</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>209</v>
       </c>
       <c r="B223" t="s">
-        <v>543</v>
+        <v>540</v>
+      </c>
+      <c r="C223" t="s">
+        <v>578</v>
+      </c>
+      <c r="D223">
+        <v>2020</v>
+      </c>
+      <c r="E223" t="s">
+        <v>141</v>
+      </c>
+      <c r="F223" t="s">
+        <v>563</v>
+      </c>
+      <c r="G223" t="s">
+        <v>579</v>
       </c>
       <c r="H223">
         <v>13840</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I223" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J223" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Alice in Borderland S01","alt":"Alice in Borderland 1, Imawa no Kuni no Alice 1, Imawa no Kuni no Alice S01","tags":["2020","Japanese","SHOW"],"wiki":"https://www.themoviedb.org/tv/110316","post":"13840"},</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>210</v>
       </c>
       <c r="B224" t="s">
-        <v>544</v>
+        <v>541</v>
+      </c>
+      <c r="D224">
+        <v>2021</v>
+      </c>
+      <c r="E224" t="s">
+        <v>54</v>
+      </c>
+      <c r="F224" t="s">
+        <v>563</v>
+      </c>
+      <c r="G224" t="s">
+        <v>580</v>
       </c>
       <c r="H224">
         <v>13818</v>
+      </c>
+      <c r="I224" t="str">
+        <f t="shared" si="32"/>
+        <v>,</v>
+      </c>
+      <c r="J224" t="str">
+        <f t="shared" si="33"/>
+        <v>{"name":"Bad and Crazy","alt":"","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/132979","post":"13818"},</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <f t="shared" si="34"/>
+        <v>211</v>
+      </c>
+      <c r="B225" t="s">
+        <v>582</v>
+      </c>
+      <c r="D225">
+        <v>2021</v>
+      </c>
+      <c r="E225" t="s">
+        <v>118</v>
+      </c>
+      <c r="F225" t="s">
+        <v>564</v>
+      </c>
+      <c r="G225" t="s">
+        <v>606</v>
+      </c>
+      <c r="H225">
+        <v>13816</v>
+      </c>
+      <c r="I225" t="str">
+        <f t="shared" ref="I225:I229" si="35">IF(H226="",$G$6&amp;$D$6,$H$6)</f>
+        <v>,</v>
+      </c>
+      <c r="J225" t="str">
+        <f t="shared" ref="J225:J229" si="36">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B225&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C225&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D225&amp;$I$6&amp;$H$6&amp;$I$6&amp;E225&amp;$I$6&amp;$H$6&amp;$I$6&amp;F225&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G225&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H225&amp;$I$6&amp;$D$6&amp;I225</f>
+        <v>{"name":"Pushpa: The Rise - Part 1","alt":"","tags":["2021","Hindi","MOVIE"],"wiki":"https://www.themoviedb.org/movie/690957","post":"13816"},</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <f t="shared" si="34"/>
+        <v>212</v>
+      </c>
+      <c r="B226" t="s">
+        <v>583</v>
+      </c>
+      <c r="D226">
+        <v>2022</v>
+      </c>
+      <c r="E226" t="s">
+        <v>54</v>
+      </c>
+      <c r="F226" t="s">
+        <v>563</v>
+      </c>
+      <c r="G226" t="s">
+        <v>584</v>
+      </c>
+      <c r="H226">
+        <v>13803</v>
+      </c>
+      <c r="I226" t="str">
+        <f t="shared" si="35"/>
+        <v>,</v>
+      </c>
+      <c r="J226" t="str">
+        <f t="shared" si="36"/>
+        <v>{"name":"All of Us Are Dead","alt":"","tags":["2022","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/99966","post":"13803"},</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <f t="shared" si="34"/>
+        <v>213</v>
+      </c>
+      <c r="B227" t="s">
+        <v>585</v>
+      </c>
+      <c r="C227" t="s">
+        <v>587</v>
+      </c>
+      <c r="D227">
+        <v>2017</v>
+      </c>
+      <c r="E227" t="s">
+        <v>55</v>
+      </c>
+      <c r="F227" t="s">
+        <v>563</v>
+      </c>
+      <c r="G227" t="s">
+        <v>586</v>
+      </c>
+      <c r="H227">
+        <v>13778</v>
+      </c>
+      <c r="I227" t="str">
+        <f t="shared" si="35"/>
+        <v>,</v>
+      </c>
+      <c r="J227" t="str">
+        <f t="shared" si="36"/>
+        <v>{"name":"A Love So Beautiful","alt":"To Our Pure Little Beauty","tags":["2017","Chinese","SHOW"],"wiki":"https://www.themoviedb.org/tv/75387","post":"13778"},</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <f t="shared" si="34"/>
+        <v>214</v>
+      </c>
+      <c r="B228" t="s">
+        <v>588</v>
+      </c>
+      <c r="C228" t="s">
+        <v>590</v>
+      </c>
+      <c r="D228">
+        <v>2008</v>
+      </c>
+      <c r="E228" t="s">
+        <v>54</v>
+      </c>
+      <c r="F228" t="s">
+        <v>563</v>
+      </c>
+      <c r="G228" t="s">
+        <v>589</v>
+      </c>
+      <c r="H228">
+        <v>13756</v>
+      </c>
+      <c r="I228" t="str">
+        <f t="shared" si="35"/>
+        <v>,</v>
+      </c>
+      <c r="J228" t="str">
+        <f t="shared" si="36"/>
+        <v>{"name":"Tazza","alt":"War of Flowers","tags":["2008","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/46547","post":"13756"},</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <f t="shared" si="34"/>
+        <v>215</v>
+      </c>
+      <c r="B229" t="s">
+        <v>592</v>
+      </c>
+      <c r="C229" t="s">
+        <v>591</v>
+      </c>
+      <c r="D229">
+        <v>2021</v>
+      </c>
+      <c r="E229" t="s">
+        <v>54</v>
+      </c>
+      <c r="F229" t="s">
+        <v>563</v>
+      </c>
+      <c r="G229" t="s">
+        <v>593</v>
+      </c>
+      <c r="H229">
+        <v>13743</v>
+      </c>
+      <c r="I229" t="str">
+        <f t="shared" si="35"/>
+        <v>,</v>
+      </c>
+      <c r="J229" t="str">
+        <f t="shared" si="36"/>
+        <v>{"name":"The Veil","alt":"The Black Sun, Black Sun","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/127358","post":"13743"},</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <f t="shared" si="34"/>
+        <v>216</v>
+      </c>
+      <c r="B230" t="s">
+        <v>585</v>
+      </c>
+      <c r="C230" t="s">
+        <v>595</v>
+      </c>
+      <c r="D230">
+        <v>2020</v>
+      </c>
+      <c r="E230" t="s">
+        <v>54</v>
+      </c>
+      <c r="F230" t="s">
+        <v>563</v>
+      </c>
+      <c r="G230" t="s">
+        <v>594</v>
+      </c>
+      <c r="H230">
+        <v>13718</v>
+      </c>
+      <c r="I230" t="str">
+        <f t="shared" ref="I230:I232" si="37">IF(H231="",$G$6&amp;$D$6,$H$6)</f>
+        <v>,</v>
+      </c>
+      <c r="J230" t="str">
+        <f t="shared" ref="J230:J232" si="38">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B230&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C230&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D230&amp;$I$6&amp;$H$6&amp;$I$6&amp;E230&amp;$I$6&amp;$H$6&amp;$I$6&amp;F230&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G230&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H230&amp;$I$6&amp;$D$6&amp;I230</f>
+        <v>{"name":"A Love So Beautiful","alt":"To Our Pure Little Beauty, For Us Who are Beautiful","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/114395","post":"13718"},</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <f t="shared" si="34"/>
+        <v>217</v>
+      </c>
+      <c r="B231" t="s">
+        <v>596</v>
+      </c>
+      <c r="D231">
+        <v>2019</v>
+      </c>
+      <c r="E231" t="s">
+        <v>54</v>
+      </c>
+      <c r="F231" t="s">
+        <v>563</v>
+      </c>
+      <c r="G231" t="s">
+        <v>597</v>
+      </c>
+      <c r="H231">
+        <v>13701</v>
+      </c>
+      <c r="I231" t="str">
+        <f t="shared" si="37"/>
+        <v>,</v>
+      </c>
+      <c r="J231" t="str">
+        <f t="shared" si="38"/>
+        <v>{"name":"Confession","alt":"","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/87430","post":"13701"},</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <f t="shared" si="34"/>
+        <v>218</v>
+      </c>
+      <c r="B232" t="s">
+        <v>598</v>
+      </c>
+      <c r="C232" t="s">
+        <v>600</v>
+      </c>
+      <c r="D232">
+        <v>2021</v>
+      </c>
+      <c r="E232" t="s">
+        <v>54</v>
+      </c>
+      <c r="F232" t="s">
+        <v>563</v>
+      </c>
+      <c r="G232" t="s">
+        <v>599</v>
+      </c>
+      <c r="H232">
+        <v>13684</v>
+      </c>
+      <c r="I232" t="str">
+        <f t="shared" si="37"/>
+        <v>,</v>
+      </c>
+      <c r="J232" t="str">
+        <f t="shared" si="38"/>
+        <v>{"name":"Dali and the Cocky Prince","alt":"Dali and Cocky Prince, Dali Potato Soup","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/131026","post":"13684"},</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <f t="shared" si="34"/>
+        <v>219</v>
+      </c>
+      <c r="B233" t="s">
+        <v>601</v>
+      </c>
+      <c r="C233" t="s">
+        <v>603</v>
+      </c>
+      <c r="D233">
+        <v>2021</v>
+      </c>
+      <c r="E233" t="s">
+        <v>54</v>
+      </c>
+      <c r="F233" t="s">
+        <v>563</v>
+      </c>
+      <c r="G233" t="s">
+        <v>602</v>
+      </c>
+      <c r="H233">
+        <v>13667</v>
+      </c>
+      <c r="I233" t="str">
+        <f t="shared" ref="I233:I234" si="39">IF(H234="",$G$6&amp;$D$6,$H$6)</f>
+        <v>,</v>
+      </c>
+      <c r="J233" t="str">
+        <f t="shared" ref="J233:J234" si="40">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B233&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C233&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D233&amp;$I$6&amp;$H$6&amp;$I$6&amp;E233&amp;$I$6&amp;$H$6&amp;$I$6&amp;F233&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G233&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H233&amp;$I$6&amp;$D$6&amp;I233</f>
+        <v>{"name":"Police University","alt":"The Police Course, Police Lesson, Police Lessons, Police Academy, My Little Police, Police Class","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/127356","post":"13667"},</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <f t="shared" si="34"/>
+        <v>220</v>
+      </c>
+      <c r="B234" t="s">
+        <v>604</v>
+      </c>
+      <c r="D234">
+        <v>2021</v>
+      </c>
+      <c r="E234" t="s">
+        <v>54</v>
+      </c>
+      <c r="F234" t="s">
+        <v>563</v>
+      </c>
+      <c r="G234" t="s">
+        <v>605</v>
+      </c>
+      <c r="H234">
+        <v>13650</v>
+      </c>
+      <c r="I234" t="str">
+        <f t="shared" si="39"/>
+        <v>]}</v>
+      </c>
+      <c r="J234" t="str">
+        <f t="shared" si="40"/>
+        <v>{"name":"High Class","alt":"","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/130655","post":"13650"}]}</v>
       </c>
     </row>
   </sheetData>
@@ -8894,7 +9942,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>45083.290578472224</v>
+        <v>45083.876092939812</v>
       </c>
       <c r="B1">
         <f ca="1">DAY(A1)</f>

--- a/a.xlsx
+++ b/a.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1116">
   <si>
     <t>info</t>
   </si>
@@ -1241,15 +1241,24 @@
     <t>Never Have I Ever S01</t>
   </si>
   <si>
+    <t>Never Have I Ever 1</t>
+  </si>
+  <si>
     <t>https://www.themoviedb.org/tv/100883</t>
   </si>
   <si>
     <t>Never Have I Ever S02</t>
   </si>
   <si>
+    <t>Never Have I Ever 2</t>
+  </si>
+  <si>
     <t>Never Have I Ever S03</t>
   </si>
   <si>
+    <t>Never Have I Ever 3</t>
+  </si>
+  <si>
     <t>Thirteen Lives</t>
   </si>
   <si>
@@ -1373,12 +1382,18 @@
     <t>Mindhunter S01</t>
   </si>
   <si>
+    <t>Mindhunter 1</t>
+  </si>
+  <si>
     <t>https://www.themoviedb.org/tv/67744</t>
   </si>
   <si>
     <t>Mindhunter S02</t>
   </si>
   <si>
+    <t>Mindhunter 2</t>
+  </si>
+  <si>
     <t>Seven First Kisses</t>
   </si>
   <si>
@@ -2453,72 +2468,150 @@
     <t>Blue Planet S01</t>
   </si>
   <si>
+    <t>The Blue Planet 1, The Blue Planet I, The Blue Planet S01</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/13579</t>
+  </si>
+  <si>
     <t>Blue Planet S02</t>
   </si>
   <si>
+    <t>The Blue Planet 2, The Blue Planet II, The Blue Planet S02</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/74313</t>
+  </si>
+  <si>
     <t>Planet Earth S01</t>
   </si>
   <si>
-    <t>Planet Earth 1, Planet Earth I</t>
+    <t>The Planet Earth 1, THe Planet Earth I, The Planet Earth S01</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/1044</t>
   </si>
   <si>
     <t>Planet Earth S02</t>
   </si>
   <si>
-    <t>Planet Earth 2, Planet Earth II</t>
+    <t>The Planet Earth 2, THe Planet Earth II, The Planet Earth S02</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/68595</t>
   </si>
   <si>
     <t>The Sopranos S01</t>
   </si>
   <si>
+    <t>The Sopranos 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/1398</t>
+  </si>
+  <si>
     <t>The Sopranos S02</t>
   </si>
   <si>
+    <t>The Sopranos 2</t>
+  </si>
+  <si>
     <t>The Sopranos S03</t>
   </si>
   <si>
+    <t>The Sopranos 3</t>
+  </si>
+  <si>
     <t>The Sopranos S04</t>
   </si>
   <si>
+    <t>The Sopranos 4</t>
+  </si>
+  <si>
     <t>The Sopranos S05</t>
   </si>
   <si>
+    <t>The Sopranos 5</t>
+  </si>
+  <si>
     <t>The Sopranos S06</t>
   </si>
   <si>
+    <t>The Sopranos 6</t>
+  </si>
+  <si>
     <t>Palm Springs</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/movie/587792</t>
+  </si>
+  <si>
     <t>The Prestige</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/movie/1124</t>
+  </si>
+  <si>
     <t>Source Code</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/movie/45612</t>
+  </si>
+  <si>
     <t>Predestination</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/movie/206487</t>
+  </si>
+  <si>
     <t>Lamb</t>
   </si>
   <si>
+    <t>Dýrið, Dyrid</t>
+  </si>
+  <si>
+    <t>Icelandic</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/788929</t>
+  </si>
+  <si>
     <t>Inglourious Basterds</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/movie/16869</t>
+  </si>
+  <si>
     <t>Boss Level</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/movie/513310</t>
+  </si>
+  <si>
     <t>Battlestar Galactica: Blood &amp; Chrome</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/movie/257368</t>
+  </si>
+  <si>
     <t>Battlestar Galactica: The Plan</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/movie/105077</t>
+  </si>
+  <si>
     <t>Battlestar Galactica: Razor</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/movie/69315</t>
+  </si>
+  <si>
     <t>Battlestar Galactica S01</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/tv/1972</t>
+  </si>
+  <si>
     <t>Battlestar Galactica S02</t>
   </si>
   <si>
@@ -2531,196 +2624,706 @@
     <t>Battlestar Galactica: The Miniseries</t>
   </si>
   <si>
-    <t>The Road: Tragedy of One</t>
+    <t>https://www.themoviedb.org/tv/71365</t>
+  </si>
+  <si>
+    <t>The Road: The Tragedy of One</t>
+  </si>
+  <si>
+    <t>The Road: Tragedy of 1, One Tragedy, Birth of a Tragedy</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/127016</t>
   </si>
   <si>
     <t>Mad Dog</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/tv/74076</t>
+  </si>
+  <si>
     <t>Come and Hug Me</t>
   </si>
   <si>
+    <t>Come Here And Give Me A Hug</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/79238</t>
+  </si>
+  <si>
     <t>Love in the Moonlight</t>
   </si>
   <si>
-    <t>Suspicious Housekeeper</t>
+    <t>Moonlight Drawn by Clouds</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/66256</t>
+  </si>
+  <si>
+    <t>The Suspicious Housekeeper</t>
+  </si>
+  <si>
+    <t>Housemaid Park Bok-Nyeo, The Mystery Housemaid, The Suspicious Housemaid, The Strange Housekeeper</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/62609</t>
   </si>
   <si>
     <t>Hometown Cha-Cha-Cha</t>
   </si>
   <si>
+    <t>The Sea Village Cha Cha Cha, Fishing Village Cha Cha Cha, Chachachacha In The Seaside Village, Mr. Handy, Mr. Hong, The Seashore Village Cha Cha Cha</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/128883</t>
+  </si>
+  <si>
     <t>Pawn</t>
   </si>
   <si>
+    <t>Guarantee, Collateral</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/589174</t>
+  </si>
+  <si>
     <t>The Crown S01</t>
   </si>
   <si>
+    <t>The Crown 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/65494</t>
+  </si>
+  <si>
     <t>The Crown S02</t>
   </si>
   <si>
+    <t>The Crown 2</t>
+  </si>
+  <si>
     <t>The Crown S03</t>
   </si>
   <si>
+    <t>The Crown 3</t>
+  </si>
+  <si>
     <t>The Crown S04</t>
   </si>
   <si>
+    <t>The Crown 4</t>
+  </si>
+  <si>
     <t>Gossip Girl S01</t>
   </si>
   <si>
+    <t>Gossip Girl 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/1395</t>
+  </si>
+  <si>
     <t>Gossip Girl S02</t>
   </si>
   <si>
+    <t>Gossip Girl 2</t>
+  </si>
+  <si>
     <t>Gossip Girl S03</t>
   </si>
   <si>
+    <t>Gossip Girl 3</t>
+  </si>
+  <si>
     <t>Gossip Girl S04</t>
   </si>
   <si>
+    <t>Gossip Girl 4</t>
+  </si>
+  <si>
     <t>Gossip Girl S05</t>
   </si>
   <si>
+    <t>Gossip Girl 5</t>
+  </si>
+  <si>
     <t>Gossip Girl S06</t>
   </si>
   <si>
+    <t>Gossip Girl 6</t>
+  </si>
+  <si>
     <t>Weeds S01</t>
   </si>
   <si>
+    <t>Weeds 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/186</t>
+  </si>
+  <si>
     <t>Weeds S02</t>
   </si>
   <si>
+    <t>Weeds 2</t>
+  </si>
+  <si>
     <t>Weeds S03</t>
   </si>
   <si>
+    <t>Weeds 3</t>
+  </si>
+  <si>
     <t>Weeds S04</t>
   </si>
   <si>
+    <t>Weeds 4</t>
+  </si>
+  <si>
     <t>Weeds S05</t>
   </si>
   <si>
+    <t>Weeds 5</t>
+  </si>
+  <si>
     <t>Weeds S06</t>
   </si>
   <si>
+    <t>Weeds 6</t>
+  </si>
+  <si>
     <t>Weeds S07</t>
   </si>
   <si>
+    <t>Weeds 7</t>
+  </si>
+  <si>
     <t>Weeds S08</t>
   </si>
   <si>
+    <t>Weeds 8</t>
+  </si>
+  <si>
     <t>Breaking Bad S01</t>
   </si>
   <si>
+    <t>Breaking Bad 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/1396</t>
+  </si>
+  <si>
     <t>Breaking Bad S02</t>
   </si>
   <si>
+    <t>Breaking Bad 2</t>
+  </si>
+  <si>
     <t>Breaking Bad S03</t>
   </si>
   <si>
+    <t>Breaking Bad 3</t>
+  </si>
+  <si>
     <t>Breaking Bad S04</t>
   </si>
   <si>
+    <t>Breaking Bad 4</t>
+  </si>
+  <si>
     <t>Breaking Bad S05</t>
   </si>
   <si>
+    <t>Breaking Bad 5</t>
+  </si>
+  <si>
     <t>Dune</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/movie/438631</t>
+  </si>
+  <si>
     <t>Maid</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/tv/111141</t>
+  </si>
+  <si>
     <t>Show Me the Ghost</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/movie/840526</t>
+  </si>
+  <si>
     <t>Guimoon: The Lightless Door</t>
   </si>
   <si>
+    <t>Gwimun: The Lightless Door</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/844069</t>
+  </si>
+  <si>
     <t>House of Cards S01</t>
   </si>
   <si>
+    <t>House of Cards 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/1425</t>
+  </si>
+  <si>
     <t>House of Cards S02</t>
   </si>
   <si>
+    <t>House of Cards 2</t>
+  </si>
+  <si>
     <t>House of Cards S03</t>
   </si>
   <si>
+    <t>House of Cards 3</t>
+  </si>
+  <si>
     <t>House of Cards S04</t>
   </si>
   <si>
+    <t>House of Cards 4</t>
+  </si>
+  <si>
     <t>House of Cards S05</t>
   </si>
   <si>
+    <t>House of Cards 5</t>
+  </si>
+  <si>
     <t>House of Cards S06</t>
   </si>
   <si>
+    <t>House of Cards 6</t>
+  </si>
+  <si>
     <t>Better Call Saul S01</t>
   </si>
   <si>
+    <t>Better Call Saul 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/60059</t>
+  </si>
+  <si>
     <t>Better Call Saul S02</t>
   </si>
   <si>
+    <t>Better Call Saul 2</t>
+  </si>
+  <si>
     <t>Better Call Saul S03</t>
   </si>
   <si>
+    <t>Better Call Saul 3</t>
+  </si>
+  <si>
     <t>Better Call Saul S04</t>
   </si>
   <si>
+    <t>Better Call Saul 4</t>
+  </si>
+  <si>
     <t>Better Call Saul S05</t>
   </si>
   <si>
+    <t>Better Call Saul 5</t>
+  </si>
+  <si>
     <t>Buffy the Vampire Slayer S01</t>
   </si>
   <si>
+    <t>Buffy the Vampire Slayer 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/95</t>
+  </si>
+  <si>
     <t>Buffy the Vampire Slayer S02</t>
   </si>
   <si>
+    <t>Buffy the Vampire Slayer 2</t>
+  </si>
+  <si>
     <t>Buffy the Vampire Slayer S03</t>
   </si>
   <si>
+    <t>Buffy the Vampire Slayer 3</t>
+  </si>
+  <si>
     <t>Buffy the Vampire Slayer S04</t>
   </si>
   <si>
+    <t>Buffy the Vampire Slayer 4</t>
+  </si>
+  <si>
     <t>Buffy the Vampire Slayer S05</t>
   </si>
   <si>
+    <t>Buffy the Vampire Slayer 5</t>
+  </si>
+  <si>
     <t>Buffy the Vampire Slayer S06</t>
   </si>
   <si>
+    <t>Buffy the Vampire Slayer 6</t>
+  </si>
+  <si>
     <t>Buffy the Vampire Slayer S07</t>
   </si>
   <si>
+    <t>Buffy the Vampire Slayer 7</t>
+  </si>
+  <si>
     <t>Skins S01</t>
   </si>
   <si>
+    <t>Skins 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/900</t>
+  </si>
+  <si>
     <t>Skins S02</t>
   </si>
   <si>
+    <t>Skins 2</t>
+  </si>
+  <si>
     <t>Skins S03</t>
   </si>
   <si>
+    <t>Skins 3</t>
+  </si>
+  <si>
     <t>Skins S04</t>
   </si>
   <si>
+    <t>Skins 4</t>
+  </si>
+  <si>
     <t>Skins S05</t>
   </si>
   <si>
+    <t>Skins 5</t>
+  </si>
+  <si>
     <t>Skins S06</t>
   </si>
   <si>
+    <t>Skins 6</t>
+  </si>
+  <si>
     <t>Skins S07</t>
   </si>
   <si>
+    <t>Skins 7</t>
+  </si>
+  <si>
     <t>Utopia S01</t>
   </si>
   <si>
+    <t>Utopia 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/46511</t>
+  </si>
+  <si>
     <t>Utopia S02</t>
   </si>
   <si>
-    <t>Marvelous Mrs. Maisel S01</t>
-  </si>
-  <si>
-    <t>Marvelous Mrs. Maisel S02</t>
-  </si>
-  <si>
-    <t>Marvelous Mrs. Maisel S03</t>
+    <t>Utopia 2</t>
+  </si>
+  <si>
+    <t>The Marvelous Mrs. Maisel S01</t>
+  </si>
+  <si>
+    <t>The Marvelous Mrs. Maisel 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/70796</t>
+  </si>
+  <si>
+    <t>The Marvelous Mrs. Maisel S02</t>
+  </si>
+  <si>
+    <t>The Marvelous Mrs. Maisel 2</t>
+  </si>
+  <si>
+    <t>The Marvelous Mrs. Maisel S03</t>
+  </si>
+  <si>
+    <t>The Marvelous Mrs. Maisel 3</t>
+  </si>
+  <si>
+    <t>The X-Files</t>
+  </si>
+  <si>
+    <t>The X-Files S01</t>
+  </si>
+  <si>
+    <t>The X-Files S02</t>
+  </si>
+  <si>
+    <t>The X-Files S03</t>
+  </si>
+  <si>
+    <t>The X-Files S04</t>
+  </si>
+  <si>
+    <t>The X-Files S05</t>
+  </si>
+  <si>
+    <t>The X-Files S06</t>
+  </si>
+  <si>
+    <t>The X-Files S07</t>
+  </si>
+  <si>
+    <t>The X-Files S08</t>
+  </si>
+  <si>
+    <t>The X-Files S09</t>
+  </si>
+  <si>
+    <t>The X-Files S10</t>
+  </si>
+  <si>
+    <t>The X-Files S11</t>
+  </si>
+  <si>
+    <t>Westworld S01</t>
+  </si>
+  <si>
+    <t>Westworld S02</t>
+  </si>
+  <si>
+    <t>Westworld S03</t>
+  </si>
+  <si>
+    <t>Stranger Things S01</t>
+  </si>
+  <si>
+    <t>Stranger Things S02</t>
+  </si>
+  <si>
+    <t>Stranger Things S03</t>
+  </si>
+  <si>
+    <t>New Girl S01</t>
+  </si>
+  <si>
+    <t>New Girl S02</t>
+  </si>
+  <si>
+    <t>New Girl S03</t>
+  </si>
+  <si>
+    <t>New Girl S04</t>
+  </si>
+  <si>
+    <t>New Girl S05</t>
+  </si>
+  <si>
+    <t>New Girl S06</t>
+  </si>
+  <si>
+    <t>New Girl S07</t>
+  </si>
+  <si>
+    <t>Ted Lasso S01</t>
+  </si>
+  <si>
+    <t>Ted Lasso S02</t>
+  </si>
+  <si>
+    <t>Fleabag S01</t>
+  </si>
+  <si>
+    <t>Fleabag S02</t>
+  </si>
+  <si>
+    <t>Black Mirror S01</t>
+  </si>
+  <si>
+    <t>Black Mirror S02</t>
+  </si>
+  <si>
+    <t>Black Mirror S03</t>
+  </si>
+  <si>
+    <t>Black Mirror S04</t>
+  </si>
+  <si>
+    <t>Black Mirror S05</t>
+  </si>
+  <si>
+    <t>Black Mirror: Bandersnatch</t>
+  </si>
+  <si>
+    <t>That '70s Show S01</t>
+  </si>
+  <si>
+    <t>That '70s Show S02</t>
+  </si>
+  <si>
+    <t>That '70s Show S03</t>
+  </si>
+  <si>
+    <t>That '70s Show S04</t>
+  </si>
+  <si>
+    <t>That '70s Show S05</t>
+  </si>
+  <si>
+    <t>That '70s Show S06</t>
+  </si>
+  <si>
+    <t>That '70s Show S07</t>
+  </si>
+  <si>
+    <t>That '70s Show S08</t>
+  </si>
+  <si>
+    <t>Two and a Half Men S01</t>
+  </si>
+  <si>
+    <t>Two and a Half Men S02</t>
+  </si>
+  <si>
+    <t>Two and a Half Men S03</t>
+  </si>
+  <si>
+    <t>Two and a Half Men S04</t>
+  </si>
+  <si>
+    <t>Two and a Half Men S05</t>
+  </si>
+  <si>
+    <t>Two and a Half Men S06</t>
+  </si>
+  <si>
+    <t>Two and a Half Men S07</t>
+  </si>
+  <si>
+    <t>Two and a Half Men S08</t>
+  </si>
+  <si>
+    <t>Two and a Half Men S09</t>
+  </si>
+  <si>
+    <t>Two and a Half Men S10</t>
+  </si>
+  <si>
+    <t>Two and a Half Men S11</t>
+  </si>
+  <si>
+    <t>Two and a Half Men S12</t>
+  </si>
+  <si>
+    <t>My So-Called Life</t>
+  </si>
+  <si>
+    <t>The Big Bang Theory S01</t>
+  </si>
+  <si>
+    <t>The Big Bang Theory S02</t>
+  </si>
+  <si>
+    <t>The Big Bang Theory S03</t>
+  </si>
+  <si>
+    <t>The Big Bang Theory S04</t>
+  </si>
+  <si>
+    <t>The Big Bang Theory S05</t>
+  </si>
+  <si>
+    <t>The Big Bang Theory S06</t>
+  </si>
+  <si>
+    <t>The Big Bang Theory S07</t>
+  </si>
+  <si>
+    <t>The Big Bang Theory S08</t>
+  </si>
+  <si>
+    <t>The Big Bang Theory S09</t>
+  </si>
+  <si>
+    <t>The Big Bang Theory S10</t>
+  </si>
+  <si>
+    <t>The Big Bang Theory S11</t>
+  </si>
+  <si>
+    <t>The Big Bang Theory S12</t>
+  </si>
+  <si>
+    <t>Freaks and Geeks</t>
+  </si>
+  <si>
+    <t>Sex and the City 2</t>
+  </si>
+  <si>
+    <t>Sex and the City</t>
+  </si>
+  <si>
+    <t>Sex and the City S01</t>
+  </si>
+  <si>
+    <t>Sex and the City S02</t>
+  </si>
+  <si>
+    <t>Sex and the City S03</t>
+  </si>
+  <si>
+    <t>Sex and the City S04</t>
+  </si>
+  <si>
+    <t>Sex and the City S05</t>
+  </si>
+  <si>
+    <t>Sex and the City S06</t>
+  </si>
+  <si>
+    <t>Sex Education S01</t>
+  </si>
+  <si>
+    <t>Sex Education S02</t>
+  </si>
+  <si>
+    <t>Sex Education S03</t>
+  </si>
+  <si>
+    <t>The Penthouse S01</t>
+  </si>
+  <si>
+    <t>The Penthouse S02</t>
+  </si>
+  <si>
+    <t>The Penthouse S03</t>
+  </si>
+  <si>
+    <t>Hospital Playlist S01</t>
+  </si>
+  <si>
+    <t>Hospital Playlist S02</t>
+  </si>
+  <si>
+    <t>Monthly Magazine Home</t>
+  </si>
+  <si>
+    <t>Go Back Couple</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
   </si>
   <si>
     <t>Jan</t>
@@ -3497,17 +4100,17 @@
         <v>17172.0</v>
       </c>
       <c r="I15" s="5" t="str">
-        <f t="shared" ref="I15:I327" si="1">IF(H16="",$G$6&amp;$D$6,$H$6)</f>
+        <f t="shared" ref="I15:I416" si="1">IF(H16="",$G$6&amp;$D$6,$H$6)</f>
         <v>,</v>
       </c>
       <c r="J15" s="5" t="str">
-        <f t="shared" ref="J15:J327" si="2">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B15&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C15&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D15&amp;$I$6&amp;$H$6&amp;$I$6&amp;E15&amp;$I$6&amp;$H$6&amp;$I$6&amp;F15&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G15&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H15&amp;$I$6&amp;$D$6&amp;I15</f>
+        <f t="shared" ref="J15:J416" si="2">$B$6&amp;$I$6&amp;$B$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;B15&amp;$I$6&amp;$H$6&amp;$I$6&amp;$C$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;C15&amp;$I$6&amp;$H$6&amp;$I$6&amp;$I$14&amp;$I$6&amp;$E$6&amp;$F$6&amp;$I$6&amp;D15&amp;$I$6&amp;$H$6&amp;$I$6&amp;E15&amp;$I$6&amp;$H$6&amp;$I$6&amp;F15&amp;$I$6&amp;$G$6&amp;$H$6&amp;$I$6&amp;$G$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;G15&amp;$I$6&amp;$H$6&amp;$I$6&amp;$H$14&amp;$I$6&amp;$E$6&amp;$I$6&amp;H15&amp;$I$6&amp;$D$6&amp;I15</f>
         <v>{"name":"Rooftop Prince","alt":"Attic Prince","tags":["2012","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/43152","post":"17172"},</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7">
-        <f t="shared" ref="A16:A416" si="3">A15+1</f>
+        <f t="shared" ref="A16:A505" si="3">A15+1</f>
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -8438,6 +9041,9 @@
       <c r="B161" s="5" t="s">
         <v>408</v>
       </c>
+      <c r="C161" s="8" t="s">
+        <v>409</v>
+      </c>
       <c r="D161" s="5">
         <v>2020.0</v>
       </c>
@@ -8448,7 +9054,7 @@
         <v>32</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H161" s="5">
         <v>14772.0</v>
@@ -8459,7 +9065,7 @@
       </c>
       <c r="J161" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{"name":"Never Have I Ever S01","alt":"","tags":["2020","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/100883","post":"14772"},</v>
+        <v>{"name":"Never Have I Ever S01","alt":"Never Have I Ever 1","tags":["2020","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/100883","post":"14772"},</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
@@ -8468,7 +9074,10 @@
         <v>148</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="D162" s="5">
         <v>2021.0</v>
@@ -8480,7 +9089,7 @@
         <v>32</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H162" s="5">
         <v>14783.0</v>
@@ -8491,7 +9100,7 @@
       </c>
       <c r="J162" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{"name":"Never Have I Ever S02","alt":"","tags":["2021","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/100883","post":"14783"},</v>
+        <v>{"name":"Never Have I Ever S02","alt":"Never Have I Ever 2","tags":["2021","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/100883","post":"14783"},</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
@@ -8500,7 +9109,10 @@
         <v>149</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>411</v>
+        <v>413</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="D163" s="5">
         <v>2022.0</v>
@@ -8512,7 +9124,7 @@
         <v>32</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H163" s="5">
         <v>14794.0</v>
@@ -8523,7 +9135,7 @@
       </c>
       <c r="J163" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{"name":"Never Have I Ever S03","alt":"","tags":["2022","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/100883","post":"14794"},</v>
+        <v>{"name":"Never Have I Ever S03","alt":"Never Have I Ever 3","tags":["2022","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/100883","post":"14794"},</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
@@ -8532,10 +9144,10 @@
         <v>150</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D164" s="5">
         <v>2022.0</v>
@@ -8547,7 +9159,7 @@
         <v>126</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H164" s="5">
         <v>14769.0</v>
@@ -8567,10 +9179,10 @@
         <v>151</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D165" s="5">
         <v>2018.0</v>
@@ -8582,7 +9194,7 @@
         <v>126</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H165" s="5">
         <v>14764.0</v>
@@ -8602,10 +9214,10 @@
         <v>152</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D166" s="5">
         <v>2022.0</v>
@@ -8617,7 +9229,7 @@
         <v>126</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H166" s="5">
         <v>14766.0</v>
@@ -8637,7 +9249,7 @@
         <v>153</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D167" s="5">
         <v>2022.0</v>
@@ -8649,7 +9261,7 @@
         <v>126</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H167" s="5">
         <v>14761.0</v>
@@ -8669,7 +9281,7 @@
         <v>154</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D168" s="5">
         <v>2004.0</v>
@@ -8681,7 +9293,7 @@
         <v>126</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H168" s="5">
         <v>14758.0</v>
@@ -8701,7 +9313,7 @@
         <v>155</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D169" s="5">
         <v>2022.0</v>
@@ -8713,7 +9325,7 @@
         <v>126</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H169" s="5">
         <v>14755.0</v>
@@ -8733,10 +9345,10 @@
         <v>156</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D170" s="5">
         <v>2019.0</v>
@@ -8748,7 +9360,7 @@
         <v>32</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H170" s="5">
         <v>14738.0</v>
@@ -8768,7 +9380,7 @@
         <v>157</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D171" s="5">
         <v>2022.0</v>
@@ -8780,7 +9392,7 @@
         <v>32</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H171" s="5">
         <v>14721.0</v>
@@ -8800,10 +9412,10 @@
         <v>158</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D172" s="5">
         <v>2014.0</v>
@@ -8815,7 +9427,7 @@
         <v>32</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H172" s="5">
         <v>14700.0</v>
@@ -8835,10 +9447,10 @@
         <v>159</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D173" s="5">
         <v>2022.0</v>
@@ -8850,7 +9462,7 @@
         <v>32</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H173" s="5">
         <v>14683.0</v>
@@ -8870,10 +9482,10 @@
         <v>160</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D174" s="5">
         <v>2022.0</v>
@@ -8885,7 +9497,7 @@
         <v>32</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H174" s="5">
         <v>14666.0</v>
@@ -8905,10 +9517,10 @@
         <v>161</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D175" s="5">
         <v>2022.0</v>
@@ -8920,7 +9532,7 @@
         <v>32</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H175" s="5">
         <v>14649.0</v>
@@ -8940,10 +9552,10 @@
         <v>162</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D176" s="5">
         <v>2022.0</v>
@@ -8955,7 +9567,7 @@
         <v>32</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H176" s="5">
         <v>14636.0</v>
@@ -8975,10 +9587,10 @@
         <v>163</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D177" s="5">
         <v>2022.0</v>
@@ -8990,7 +9602,7 @@
         <v>32</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H177" s="5">
         <v>14619.0</v>
@@ -9010,7 +9622,7 @@
         <v>164</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D178" s="5">
         <v>2021.0</v>
@@ -9022,7 +9634,7 @@
         <v>126</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H178" s="5">
         <v>14616.0</v>
@@ -9042,7 +9654,10 @@
         <v>165</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>452</v>
+        <v>455</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>456</v>
       </c>
       <c r="D179" s="5">
         <v>2017.0</v>
@@ -9054,7 +9669,7 @@
         <v>32</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H179" s="5">
         <v>14595.0</v>
@@ -9065,7 +9680,7 @@
       </c>
       <c r="J179" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{"name":"Mindhunter S01","alt":"","tags":["2017","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/67744","post":"14595"},</v>
+        <v>{"name":"Mindhunter S01","alt":"Mindhunter 1","tags":["2017","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/67744","post":"14595"},</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
@@ -9074,7 +9689,10 @@
         <v>166</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>454</v>
+        <v>458</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>459</v>
       </c>
       <c r="D180" s="5">
         <v>2019.0</v>
@@ -9086,7 +9704,7 @@
         <v>32</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H180" s="5">
         <v>14606.0</v>
@@ -9097,7 +9715,7 @@
       </c>
       <c r="J180" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{"name":"Mindhunter S02","alt":"","tags":["2019","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/67744","post":"14606"},</v>
+        <v>{"name":"Mindhunter S02","alt":"Mindhunter 2","tags":["2019","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/67744","post":"14606"},</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
@@ -9106,10 +9724,10 @@
         <v>167</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D181" s="5">
         <v>2016.0</v>
@@ -9121,7 +9739,7 @@
         <v>32</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="H181" s="5">
         <v>14578.0</v>
@@ -9141,7 +9759,7 @@
         <v>168</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D182" s="5">
         <v>2022.0</v>
@@ -9153,7 +9771,7 @@
         <v>126</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H182" s="5">
         <v>14575.0</v>
@@ -9173,7 +9791,7 @@
         <v>169</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D183" s="5">
         <v>2020.0</v>
@@ -9185,7 +9803,7 @@
         <v>32</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="H183" s="5">
         <v>14562.0</v>
@@ -9205,10 +9823,10 @@
         <v>170</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D184" s="5">
         <v>2021.0</v>
@@ -9220,7 +9838,7 @@
         <v>32</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="H184" s="5">
         <v>14545.0</v>
@@ -9240,10 +9858,10 @@
         <v>171</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D185" s="5">
         <v>2017.0</v>
@@ -9255,7 +9873,7 @@
         <v>32</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="H185" s="5">
         <v>14528.0</v>
@@ -9275,10 +9893,10 @@
         <v>172</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D186" s="5">
         <v>2015.0</v>
@@ -9290,7 +9908,7 @@
         <v>32</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="H186" s="5">
         <v>14511.0</v>
@@ -9310,10 +9928,10 @@
         <v>173</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D187" s="5">
         <v>2012.0</v>
@@ -9325,7 +9943,7 @@
         <v>32</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="H187" s="5">
         <v>14494.0</v>
@@ -9345,7 +9963,7 @@
         <v>174</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D188" s="5">
         <v>2022.0</v>
@@ -9357,7 +9975,7 @@
         <v>32</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H188" s="5">
         <v>14485.0</v>
@@ -9377,10 +9995,10 @@
         <v>175</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D189" s="5">
         <v>2022.0</v>
@@ -9392,7 +10010,7 @@
         <v>32</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="H189" s="5">
         <v>14478.0</v>
@@ -9412,19 +10030,19 @@
         <v>176</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D190" s="5">
         <v>2022.0</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>126</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H190" s="5">
         <v>14476.0</v>
@@ -9444,7 +10062,7 @@
         <v>177</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D191" s="5">
         <v>2022.0</v>
@@ -9456,7 +10074,7 @@
         <v>32</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="H191" s="5">
         <v>14455.0</v>
@@ -9476,10 +10094,10 @@
         <v>178</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D192" s="5">
         <v>2019.0</v>
@@ -9491,7 +10109,7 @@
         <v>32</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="H192" s="5">
         <v>14411.0</v>
@@ -9511,10 +10129,10 @@
         <v>179</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="D193" s="5">
         <v>2021.0</v>
@@ -9526,7 +10144,7 @@
         <v>32</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H193" s="5">
         <v>14394.0</v>
@@ -9546,10 +10164,10 @@
         <v>180</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D194" s="5">
         <v>2021.0</v>
@@ -9561,7 +10179,7 @@
         <v>32</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="H194" s="5">
         <v>14381.0</v>
@@ -9581,10 +10199,10 @@
         <v>181</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D195" s="5">
         <v>2021.0</v>
@@ -9596,7 +10214,7 @@
         <v>32</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="H195" s="5">
         <v>14374.0</v>
@@ -9616,10 +10234,10 @@
         <v>182</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D196" s="5">
         <v>2021.0</v>
@@ -9631,7 +10249,7 @@
         <v>32</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="H196" s="5">
         <v>14357.0</v>
@@ -9651,10 +10269,10 @@
         <v>183</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="D197" s="5">
         <v>2016.0</v>
@@ -9666,7 +10284,7 @@
         <v>32</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="H197" s="5">
         <v>14338.0</v>
@@ -9686,10 +10304,10 @@
         <v>184</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D198" s="5">
         <v>2022.0</v>
@@ -9701,7 +10319,7 @@
         <v>32</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="H198" s="5">
         <v>14331.0</v>
@@ -9721,7 +10339,7 @@
         <v>185</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D199" s="5">
         <v>2022.0</v>
@@ -9733,7 +10351,7 @@
         <v>32</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="H199" s="5">
         <v>14314.0</v>
@@ -9753,7 +10371,7 @@
         <v>186</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D200" s="5">
         <v>2022.0</v>
@@ -9765,7 +10383,7 @@
         <v>32</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="H200" s="5">
         <v>14297.0</v>
@@ -9785,10 +10403,10 @@
         <v>187</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D201" s="5">
         <v>2013.0</v>
@@ -9800,7 +10418,7 @@
         <v>32</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="H201" s="5">
         <v>14146.0</v>
@@ -9820,10 +10438,10 @@
         <v>188</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="D202" s="5">
         <v>2022.0</v>
@@ -9835,7 +10453,7 @@
         <v>32</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="H202" s="5">
         <v>14135.0</v>
@@ -9855,10 +10473,10 @@
         <v>189</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="D203" s="5">
         <v>2021.0</v>
@@ -9870,7 +10488,7 @@
         <v>32</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="H203" s="5">
         <v>14118.0</v>
@@ -9890,10 +10508,10 @@
         <v>190</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D204" s="5">
         <v>2004.0</v>
@@ -9905,7 +10523,7 @@
         <v>32</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="H204" s="5">
         <v>14097.0</v>
@@ -9925,10 +10543,10 @@
         <v>191</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D205" s="5">
         <v>2022.0</v>
@@ -9940,7 +10558,7 @@
         <v>32</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="H205" s="5">
         <v>14084.0</v>
@@ -9960,7 +10578,7 @@
         <v>192</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C206" s="7">
         <v>39.0</v>
@@ -9975,7 +10593,7 @@
         <v>32</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="H206" s="5">
         <v>14071.0</v>
@@ -9995,10 +10613,10 @@
         <v>193</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D207" s="5">
         <v>2022.0</v>
@@ -10010,7 +10628,7 @@
         <v>32</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="H207" s="5">
         <v>14054.0</v>
@@ -10030,10 +10648,10 @@
         <v>194</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D208" s="5">
         <v>2022.0</v>
@@ -10045,7 +10663,7 @@
         <v>32</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="H208" s="5">
         <v>14037.0</v>
@@ -10065,10 +10683,10 @@
         <v>195</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D209" s="5">
         <v>2015.0</v>
@@ -10080,7 +10698,7 @@
         <v>32</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="H209" s="5">
         <v>13995.0</v>
@@ -10100,10 +10718,10 @@
         <v>196</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D210" s="5">
         <v>2016.0</v>
@@ -10115,7 +10733,7 @@
         <v>32</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="H210" s="5">
         <v>14009.0</v>
@@ -10135,10 +10753,10 @@
         <v>197</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D211" s="5">
         <v>2018.0</v>
@@ -10150,7 +10768,7 @@
         <v>32</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="H211" s="5">
         <v>14023.0</v>
@@ -10170,10 +10788,10 @@
         <v>198</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D212" s="5">
         <v>2022.0</v>
@@ -10185,7 +10803,7 @@
         <v>32</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="H212" s="5">
         <v>13978.0</v>
@@ -10205,7 +10823,7 @@
         <v>199</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D213" s="5">
         <v>2022.0</v>
@@ -10217,7 +10835,7 @@
         <v>126</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="H213" s="5">
         <v>13975.0</v>
@@ -10237,7 +10855,7 @@
         <v>200</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D214" s="5">
         <v>2021.0</v>
@@ -10249,7 +10867,7 @@
         <v>32</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="H214" s="5">
         <v>13962.0</v>
@@ -10269,10 +10887,10 @@
         <v>201</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D215" s="5">
         <v>2019.0</v>
@@ -10284,7 +10902,7 @@
         <v>32</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="H215" s="5">
         <v>13940.0</v>
@@ -10304,10 +10922,10 @@
         <v>202</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="D216" s="5">
         <v>2020.0</v>
@@ -10319,7 +10937,7 @@
         <v>32</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="H216" s="5">
         <v>13951.0</v>
@@ -10339,10 +10957,10 @@
         <v>203</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="D217" s="5">
         <v>2021.0</v>
@@ -10354,7 +10972,7 @@
         <v>32</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="H217" s="5">
         <v>13923.0</v>
@@ -10374,7 +10992,7 @@
         <v>204</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D218" s="5">
         <v>2022.0</v>
@@ -10386,7 +11004,7 @@
         <v>32</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="H218" s="5">
         <v>13906.0</v>
@@ -10406,7 +11024,7 @@
         <v>205</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="D219" s="5">
         <v>2022.0</v>
@@ -10418,7 +11036,7 @@
         <v>126</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="H219" s="5">
         <v>13903.0</v>
@@ -10438,7 +11056,7 @@
         <v>206</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D220" s="5">
         <v>2022.0</v>
@@ -10450,7 +11068,7 @@
         <v>126</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="H220" s="5">
         <v>13900.0</v>
@@ -10470,10 +11088,10 @@
         <v>207</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="D221" s="5">
         <v>2017.0</v>
@@ -10485,7 +11103,7 @@
         <v>32</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="H221" s="5">
         <v>13887.0</v>
@@ -10505,7 +11123,7 @@
         <v>208</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="D222" s="5">
         <v>2021.0</v>
@@ -10517,7 +11135,7 @@
         <v>32</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="H222" s="5">
         <v>13849.0</v>
@@ -10537,10 +11155,10 @@
         <v>209</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D223" s="5">
         <v>2020.0</v>
@@ -10552,7 +11170,7 @@
         <v>32</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="H223" s="5">
         <v>13840.0</v>
@@ -10572,7 +11190,7 @@
         <v>210</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D224" s="5">
         <v>2021.0</v>
@@ -10584,7 +11202,7 @@
         <v>32</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="H224" s="5">
         <v>13818.0</v>
@@ -10604,7 +11222,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D225" s="5">
         <v>2021.0</v>
@@ -10616,7 +11234,7 @@
         <v>126</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="H225" s="5">
         <v>13816.0</v>
@@ -10636,7 +11254,7 @@
         <v>212</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D226" s="5">
         <v>2022.0</v>
@@ -10648,7 +11266,7 @@
         <v>32</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="H226" s="5">
         <v>13803.0</v>
@@ -10668,10 +11286,10 @@
         <v>213</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="D227" s="5">
         <v>2017.0</v>
@@ -10683,7 +11301,7 @@
         <v>32</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="H227" s="5">
         <v>13778.0</v>
@@ -10703,10 +11321,10 @@
         <v>214</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D228" s="5">
         <v>2008.0</v>
@@ -10718,7 +11336,7 @@
         <v>32</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="H228" s="5">
         <v>13756.0</v>
@@ -10738,10 +11356,10 @@
         <v>215</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="D229" s="5">
         <v>2021.0</v>
@@ -10753,7 +11371,7 @@
         <v>32</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="H229" s="5">
         <v>13743.0</v>
@@ -10773,10 +11391,10 @@
         <v>216</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="D230" s="5">
         <v>2020.0</v>
@@ -10788,7 +11406,7 @@
         <v>32</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="H230" s="5">
         <v>13718.0</v>
@@ -10808,7 +11426,7 @@
         <v>217</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="D231" s="5">
         <v>2019.0</v>
@@ -10820,7 +11438,7 @@
         <v>32</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="H231" s="5">
         <v>13701.0</v>
@@ -10840,10 +11458,10 @@
         <v>218</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D232" s="5">
         <v>2021.0</v>
@@ -10855,7 +11473,7 @@
         <v>32</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H232" s="5">
         <v>13684.0</v>
@@ -10875,10 +11493,10 @@
         <v>219</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D233" s="5">
         <v>2021.0</v>
@@ -10890,7 +11508,7 @@
         <v>32</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="H233" s="5">
         <v>13667.0</v>
@@ -10910,7 +11528,7 @@
         <v>220</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D234" s="5">
         <v>2021.0</v>
@@ -10922,7 +11540,7 @@
         <v>32</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="H234" s="5">
         <v>13650.0</v>
@@ -10942,7 +11560,7 @@
         <v>221</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="D235" s="8">
         <v>2021.0</v>
@@ -10954,7 +11572,7 @@
         <v>32</v>
       </c>
       <c r="G235" s="9" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="H235" s="8">
         <v>13633.0</v>
@@ -10974,10 +11592,10 @@
         <v>222</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="D236" s="8">
         <v>2021.0</v>
@@ -10989,7 +11607,7 @@
         <v>32</v>
       </c>
       <c r="G236" s="9" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="H236" s="8">
         <v>13599.0</v>
@@ -11009,10 +11627,10 @@
         <v>223</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="D237" s="8">
         <v>2021.0</v>
@@ -11024,7 +11642,7 @@
         <v>32</v>
       </c>
       <c r="G237" s="9" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="H237" s="8">
         <v>13582.0</v>
@@ -11044,10 +11662,10 @@
         <v>224</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="D238" s="8">
         <v>2021.0</v>
@@ -11059,7 +11677,7 @@
         <v>32</v>
       </c>
       <c r="G238" s="9" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="H238" s="8">
         <v>13565.0</v>
@@ -11079,10 +11697,10 @@
         <v>225</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="D239" s="8">
         <v>2021.0</v>
@@ -11094,7 +11712,7 @@
         <v>32</v>
       </c>
       <c r="G239" s="9" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="H239" s="8">
         <v>13556.0</v>
@@ -11114,10 +11732,10 @@
         <v>226</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="D240" s="8">
         <v>2021.0</v>
@@ -11129,7 +11747,7 @@
         <v>32</v>
       </c>
       <c r="G240" s="9" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="H240" s="8">
         <v>13539.0</v>
@@ -11149,10 +11767,10 @@
         <v>227</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="D241" s="8">
         <v>2021.0</v>
@@ -11164,7 +11782,7 @@
         <v>32</v>
       </c>
       <c r="G241" s="9" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="H241" s="8">
         <v>13532.0</v>
@@ -11184,10 +11802,10 @@
         <v>228</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="D242" s="8">
         <v>2021.0</v>
@@ -11199,7 +11817,7 @@
         <v>32</v>
       </c>
       <c r="G242" s="9" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="H242" s="8">
         <v>13519.0</v>
@@ -11219,10 +11837,10 @@
         <v>229</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="D243" s="8">
         <v>2021.0</v>
@@ -11234,7 +11852,7 @@
         <v>32</v>
       </c>
       <c r="G243" s="9" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="H243" s="8">
         <v>13498.0</v>
@@ -11254,7 +11872,7 @@
         <v>230</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="D244" s="8">
         <v>2021.0</v>
@@ -11266,7 +11884,7 @@
         <v>32</v>
       </c>
       <c r="G244" s="9" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="H244" s="8">
         <v>13481.0</v>
@@ -11286,10 +11904,10 @@
         <v>231</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="D245" s="8">
         <v>2021.0</v>
@@ -11301,7 +11919,7 @@
         <v>32</v>
       </c>
       <c r="G245" s="9" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="H245" s="8">
         <v>13464.0</v>
@@ -11321,7 +11939,7 @@
         <v>232</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="D246" s="8">
         <v>2021.0</v>
@@ -11333,7 +11951,7 @@
         <v>32</v>
       </c>
       <c r="G246" s="9" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="H246" s="8">
         <v>13451.0</v>
@@ -11353,7 +11971,7 @@
         <v>233</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="D247" s="8">
         <v>2021.0</v>
@@ -11365,7 +11983,7 @@
         <v>126</v>
       </c>
       <c r="G247" s="9" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="H247" s="8">
         <v>13448.0</v>
@@ -11385,10 +12003,10 @@
         <v>234</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="D248" s="8">
         <v>2021.0</v>
@@ -11400,7 +12018,7 @@
         <v>32</v>
       </c>
       <c r="G248" s="9" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="H248" s="8">
         <v>13435.0</v>
@@ -11420,10 +12038,10 @@
         <v>235</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="D249" s="8">
         <v>2021.0</v>
@@ -11435,7 +12053,7 @@
         <v>32</v>
       </c>
       <c r="G249" s="9" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="H249" s="8">
         <v>13417.0</v>
@@ -11455,10 +12073,10 @@
         <v>236</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="D250" s="8">
         <v>2021.0</v>
@@ -11470,7 +12088,7 @@
         <v>32</v>
       </c>
       <c r="G250" s="9" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="H250" s="8">
         <v>13383.0</v>
@@ -11490,10 +12108,10 @@
         <v>237</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="D251" s="8">
         <v>2021.0</v>
@@ -11505,7 +12123,7 @@
         <v>32</v>
       </c>
       <c r="G251" s="9" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="H251" s="8">
         <v>13366.0</v>
@@ -11525,10 +12143,10 @@
         <v>238</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="D252" s="8">
         <v>2021.0</v>
@@ -11540,7 +12158,7 @@
         <v>126</v>
       </c>
       <c r="G252" s="9" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="H252" s="8">
         <v>13363.0</v>
@@ -11560,10 +12178,10 @@
         <v>239</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="D253" s="8">
         <v>2018.0</v>
@@ -11575,7 +12193,7 @@
         <v>126</v>
       </c>
       <c r="G253" s="9" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="H253" s="8">
         <v>13360.0</v>
@@ -11595,10 +12213,10 @@
         <v>240</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="D254" s="8">
         <v>2020.0</v>
@@ -11610,7 +12228,7 @@
         <v>32</v>
       </c>
       <c r="G254" s="9" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="H254" s="8">
         <v>13343.0</v>
@@ -11630,7 +12248,7 @@
         <v>241</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="D255" s="8">
         <v>2021.0</v>
@@ -11642,7 +12260,7 @@
         <v>126</v>
       </c>
       <c r="G255" s="9" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="H255" s="8">
         <v>13340.0</v>
@@ -11662,22 +12280,22 @@
         <v>242</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="D256" s="8">
         <v>2000.0</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="F256" s="8" t="s">
         <v>126</v>
       </c>
       <c r="G256" s="9" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="H256" s="8">
         <v>13334.0</v>
@@ -11697,7 +12315,7 @@
         <v>243</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="D257" s="8">
         <v>2021.0</v>
@@ -11709,7 +12327,7 @@
         <v>126</v>
       </c>
       <c r="G257" s="9" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="H257" s="8">
         <v>13331.0</v>
@@ -11729,7 +12347,7 @@
         <v>244</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="D258" s="8">
         <v>2021.0</v>
@@ -11741,7 +12359,7 @@
         <v>126</v>
       </c>
       <c r="G258" s="9" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="H258" s="8">
         <v>13329.0</v>
@@ -11761,7 +12379,7 @@
         <v>245</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="D259" s="8">
         <v>2014.0</v>
@@ -11773,7 +12391,7 @@
         <v>126</v>
       </c>
       <c r="G259" s="9" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="H259" s="8">
         <v>13326.0</v>
@@ -11793,7 +12411,7 @@
         <v>246</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="D260" s="8">
         <v>1992.0</v>
@@ -11805,7 +12423,7 @@
         <v>126</v>
       </c>
       <c r="G260" s="9" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="H260" s="8">
         <v>13324.0</v>
@@ -11825,10 +12443,10 @@
         <v>247</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="D261" s="8">
         <v>1990.0</v>
@@ -11840,7 +12458,7 @@
         <v>32</v>
       </c>
       <c r="G261" s="9" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="H261" s="8">
         <v>13273.0</v>
@@ -11860,10 +12478,10 @@
         <v>248</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="D262" s="8">
         <v>1990.0</v>
@@ -11875,7 +12493,7 @@
         <v>32</v>
       </c>
       <c r="G262" s="9" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="H262" s="8">
         <v>13282.0</v>
@@ -11895,10 +12513,10 @@
         <v>249</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="D263" s="8">
         <v>2017.0</v>
@@ -11910,7 +12528,7 @@
         <v>32</v>
       </c>
       <c r="G263" s="9" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="H263" s="8">
         <v>13305.0</v>
@@ -11930,10 +12548,10 @@
         <v>250</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="D264" s="8">
         <v>2009.0</v>
@@ -11945,7 +12563,7 @@
         <v>32</v>
       </c>
       <c r="G264" s="9" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="H264" s="8">
         <v>13088.0</v>
@@ -11965,10 +12583,10 @@
         <v>251</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="D265" s="8">
         <v>2009.0</v>
@@ -11980,7 +12598,7 @@
         <v>32</v>
       </c>
       <c r="G265" s="9" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="H265" s="8">
         <v>13095.0</v>
@@ -12000,10 +12618,10 @@
         <v>252</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="D266" s="8">
         <v>2011.0</v>
@@ -12015,7 +12633,7 @@
         <v>32</v>
       </c>
       <c r="G266" s="9" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="H266" s="8">
         <v>13120.0</v>
@@ -12035,10 +12653,10 @@
         <v>253</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="D267" s="8">
         <v>2011.0</v>
@@ -12050,7 +12668,7 @@
         <v>32</v>
       </c>
       <c r="G267" s="9" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="H267" s="8">
         <v>13137.0</v>
@@ -12070,10 +12688,10 @@
         <v>254</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="D268" s="8">
         <v>2012.0</v>
@@ -12085,7 +12703,7 @@
         <v>32</v>
       </c>
       <c r="G268" s="9" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="H268" s="8">
         <v>13160.0</v>
@@ -12105,10 +12723,10 @@
         <v>255</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="D269" s="8">
         <v>2013.0</v>
@@ -12120,7 +12738,7 @@
         <v>32</v>
       </c>
       <c r="G269" s="9" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="H269" s="8">
         <v>13183.0</v>
@@ -12140,10 +12758,10 @@
         <v>256</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="D270" s="8">
         <v>2015.0</v>
@@ -12155,7 +12773,7 @@
         <v>32</v>
       </c>
       <c r="G270" s="9" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="H270" s="8">
         <v>13204.0</v>
@@ -12175,7 +12793,7 @@
         <v>257</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="D271" s="8">
         <v>2014.0</v>
@@ -12187,7 +12805,7 @@
         <v>126</v>
       </c>
       <c r="G271" s="9" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="H271" s="8">
         <v>13086.0</v>
@@ -12207,10 +12825,10 @@
         <v>258</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="D272" s="8">
         <v>2012.0</v>
@@ -12222,7 +12840,7 @@
         <v>126</v>
       </c>
       <c r="G272" s="9" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="H272" s="8">
         <v>13083.0</v>
@@ -12242,7 +12860,7 @@
         <v>259</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="D273" s="8">
         <v>2007.0</v>
@@ -12254,7 +12872,7 @@
         <v>126</v>
       </c>
       <c r="G273" s="9" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="H273" s="8">
         <v>13072.0</v>
@@ -12274,7 +12892,7 @@
         <v>260</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="D274" s="8">
         <v>2004.0</v>
@@ -12286,7 +12904,7 @@
         <v>126</v>
       </c>
       <c r="G274" s="9" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H274" s="8">
         <v>13069.0</v>
@@ -12306,10 +12924,10 @@
         <v>261</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="D275" s="8">
         <v>2002.0</v>
@@ -12321,7 +12939,7 @@
         <v>126</v>
       </c>
       <c r="G275" s="9" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="H275" s="8">
         <v>13066.0</v>
@@ -12341,7 +12959,7 @@
         <v>262</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="D276" s="8">
         <v>2019.0</v>
@@ -12353,7 +12971,7 @@
         <v>126</v>
       </c>
       <c r="G276" s="9" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="H276" s="8">
         <v>13063.0</v>
@@ -12373,10 +12991,10 @@
         <v>263</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="D277" s="8">
         <v>2010.0</v>
@@ -12388,7 +13006,7 @@
         <v>32</v>
       </c>
       <c r="G277" s="9" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="H277" s="8">
         <v>13005.0</v>
@@ -12408,10 +13026,10 @@
         <v>264</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="D278" s="8">
         <v>2011.0</v>
@@ -12423,7 +13041,7 @@
         <v>32</v>
       </c>
       <c r="G278" s="9" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="H278" s="8">
         <v>13013.0</v>
@@ -12443,10 +13061,10 @@
         <v>265</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="D279" s="8">
         <v>2012.0</v>
@@ -12458,7 +13076,7 @@
         <v>32</v>
       </c>
       <c r="G279" s="9" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="H279" s="8">
         <v>13023.0</v>
@@ -12478,10 +13096,10 @@
         <v>266</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="D280" s="8">
         <v>2013.0</v>
@@ -12493,7 +13111,7 @@
         <v>32</v>
       </c>
       <c r="G280" s="9" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="H280" s="8">
         <v>13033.0</v>
@@ -12513,10 +13131,10 @@
         <v>267</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="D281" s="8">
         <v>2014.0</v>
@@ -12528,7 +13146,7 @@
         <v>32</v>
       </c>
       <c r="G281" s="9" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="H281" s="8">
         <v>13043.0</v>
@@ -12548,10 +13166,10 @@
         <v>268</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="D282" s="8">
         <v>2015.0</v>
@@ -12563,7 +13181,7 @@
         <v>32</v>
       </c>
       <c r="G282" s="9" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="H282" s="8">
         <v>13053.0</v>
@@ -12583,10 +13201,10 @@
         <v>269</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="D283" s="8">
         <v>2011.0</v>
@@ -12598,7 +13216,7 @@
         <v>32</v>
       </c>
       <c r="G283" s="9" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="H283" s="8">
         <v>12957.0</v>
@@ -12618,10 +13236,10 @@
         <v>270</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="D284" s="8">
         <v>2012.0</v>
@@ -12633,7 +13251,7 @@
         <v>32</v>
       </c>
       <c r="G284" s="9" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="H284" s="8">
         <v>12971.0</v>
@@ -12653,10 +13271,10 @@
         <v>271</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="D285" s="8">
         <v>2013.0</v>
@@ -12668,7 +13286,7 @@
         <v>32</v>
       </c>
       <c r="G285" s="9" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="H285" s="8">
         <v>12985.0</v>
@@ -12688,10 +13306,10 @@
         <v>272</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="D286" s="8">
         <v>2014.0</v>
@@ -12703,7 +13321,7 @@
         <v>32</v>
       </c>
       <c r="G286" s="9" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="H286" s="8">
         <v>12998.0</v>
@@ -12723,10 +13341,10 @@
         <v>273</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="D287" s="8">
         <v>2011.0</v>
@@ -12738,7 +13356,7 @@
         <v>32</v>
       </c>
       <c r="G287" s="9" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="H287" s="8">
         <v>12864.0</v>
@@ -12758,10 +13376,10 @@
         <v>274</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="D288" s="8">
         <v>2012.0</v>
@@ -12773,7 +13391,7 @@
         <v>32</v>
       </c>
       <c r="G288" s="9" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="H288" s="8">
         <v>12887.0</v>
@@ -12793,10 +13411,10 @@
         <v>275</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="D289" s="8">
         <v>2013.0</v>
@@ -12808,7 +13426,7 @@
         <v>32</v>
       </c>
       <c r="G289" s="9" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="H289" s="8">
         <v>12910.0</v>
@@ -12828,10 +13446,10 @@
         <v>276</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="D290" s="8">
         <v>2014.0</v>
@@ -12843,7 +13461,7 @@
         <v>32</v>
       </c>
       <c r="G290" s="9" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="H290" s="8">
         <v>12933.0</v>
@@ -12863,10 +13481,10 @@
         <v>277</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="D291" s="8">
         <v>2017.0</v>
@@ -12878,7 +13496,7 @@
         <v>32</v>
       </c>
       <c r="G291" s="9" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="H291" s="8">
         <v>12831.0</v>
@@ -12898,10 +13516,10 @@
         <v>278</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="D292" s="8">
         <v>2018.0</v>
@@ -12913,7 +13531,7 @@
         <v>32</v>
       </c>
       <c r="G292" s="9" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="H292" s="8">
         <v>12842.0</v>
@@ -12933,10 +13551,10 @@
         <v>279</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="D293" s="8">
         <v>2020.0</v>
@@ -12948,7 +13566,7 @@
         <v>32</v>
       </c>
       <c r="G293" s="9" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="H293" s="8">
         <v>12853.0</v>
@@ -12968,7 +13586,7 @@
         <v>280</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="D294" s="8">
         <v>2021.0</v>
@@ -12980,7 +13598,7 @@
         <v>126</v>
       </c>
       <c r="G294" s="9" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="H294" s="8">
         <v>12828.0</v>
@@ -13000,7 +13618,7 @@
         <v>281</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="D295" s="8">
         <v>2016.0</v>
@@ -13012,7 +13630,7 @@
         <v>32</v>
       </c>
       <c r="G295" s="9" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="H295" s="8">
         <v>12823.0</v>
@@ -13032,10 +13650,10 @@
         <v>282</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="D296" s="8">
         <v>2000.0</v>
@@ -13047,7 +13665,7 @@
         <v>32</v>
       </c>
       <c r="G296" s="9" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="H296" s="8">
         <v>12663.0</v>
@@ -13067,10 +13685,10 @@
         <v>283</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="D297" s="8">
         <v>2001.0</v>
@@ -13082,7 +13700,7 @@
         <v>32</v>
       </c>
       <c r="G297" s="9" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="H297" s="8">
         <v>12685.0</v>
@@ -13102,10 +13720,10 @@
         <v>284</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="D298" s="8">
         <v>2002.0</v>
@@ -13117,7 +13735,7 @@
         <v>32</v>
       </c>
       <c r="G298" s="9" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="H298" s="8">
         <v>12708.0</v>
@@ -13137,10 +13755,10 @@
         <v>285</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="D299" s="8">
         <v>2003.0</v>
@@ -13152,7 +13770,7 @@
         <v>32</v>
       </c>
       <c r="G299" s="9" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="H299" s="8">
         <v>12731.0</v>
@@ -13172,10 +13790,10 @@
         <v>286</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="D300" s="8">
         <v>2004.0</v>
@@ -13187,7 +13805,7 @@
         <v>32</v>
       </c>
       <c r="G300" s="9" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="H300" s="8">
         <v>12754.0</v>
@@ -13207,10 +13825,10 @@
         <v>287</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="D301" s="8">
         <v>2005.0</v>
@@ -13222,7 +13840,7 @@
         <v>32</v>
       </c>
       <c r="G301" s="9" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="H301" s="8">
         <v>12777.0</v>
@@ -13242,10 +13860,10 @@
         <v>288</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="D302" s="8">
         <v>2006.0</v>
@@ -13257,7 +13875,7 @@
         <v>32</v>
       </c>
       <c r="G302" s="9" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="H302" s="8">
         <v>12800.0</v>
@@ -13277,10 +13895,10 @@
         <v>289</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="D303" s="8">
         <v>2009.0</v>
@@ -13292,7 +13910,7 @@
         <v>32</v>
       </c>
       <c r="G303" s="9" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="H303" s="8">
         <v>12482.0</v>
@@ -13312,10 +13930,10 @@
         <v>290</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="D304" s="8">
         <v>2009.0</v>
@@ -13327,7 +13945,7 @@
         <v>32</v>
       </c>
       <c r="G304" s="9" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="H304" s="8">
         <v>12493.0</v>
@@ -13347,10 +13965,10 @@
         <v>291</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="D305" s="8">
         <v>2010.0</v>
@@ -13362,7 +13980,7 @@
         <v>32</v>
       </c>
       <c r="G305" s="9" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="H305" s="8">
         <v>12518.0</v>
@@ -13382,10 +14000,10 @@
         <v>292</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="D306" s="8">
         <v>2011.0</v>
@@ -13397,7 +14015,7 @@
         <v>32</v>
       </c>
       <c r="G306" s="9" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="H306" s="8">
         <v>12543.0</v>
@@ -13417,10 +14035,10 @@
         <v>293</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="D307" s="8">
         <v>2012.0</v>
@@ -13432,7 +14050,7 @@
         <v>32</v>
       </c>
       <c r="G307" s="9" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="H307" s="8">
         <v>12567.0</v>
@@ -13452,10 +14070,10 @@
         <v>294</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="D308" s="8">
         <v>2013.0</v>
@@ -13467,7 +14085,7 @@
         <v>32</v>
       </c>
       <c r="G308" s="9" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="H308" s="8">
         <v>12592.0</v>
@@ -13487,10 +14105,10 @@
         <v>295</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="D309" s="8">
         <v>2014.0</v>
@@ -13502,7 +14120,7 @@
         <v>32</v>
       </c>
       <c r="G309" s="9" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="H309" s="8">
         <v>12616.0</v>
@@ -13522,10 +14140,10 @@
         <v>296</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="D310" s="8">
         <v>2015.0</v>
@@ -13537,7 +14155,7 @@
         <v>32</v>
       </c>
       <c r="G310" s="9" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="H310" s="8">
         <v>12640.0</v>
@@ -13557,10 +14175,10 @@
         <v>297</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="C311" s="8" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="D311" s="8">
         <v>2013.0</v>
@@ -13572,7 +14190,7 @@
         <v>32</v>
       </c>
       <c r="G311" s="9" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="H311" s="8">
         <v>12384.0</v>
@@ -13592,10 +14210,10 @@
         <v>298</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="D312" s="8">
         <v>2014.0</v>
@@ -13607,7 +14225,7 @@
         <v>32</v>
       </c>
       <c r="G312" s="9" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="H312" s="8">
         <v>12398.0</v>
@@ -13627,10 +14245,10 @@
         <v>299</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="D313" s="8">
         <v>2015.0</v>
@@ -13642,7 +14260,7 @@
         <v>32</v>
       </c>
       <c r="G313" s="9" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="H313" s="8">
         <v>12412.0</v>
@@ -13662,10 +14280,10 @@
         <v>300</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="C314" s="8" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="D314" s="8">
         <v>2016.0</v>
@@ -13677,7 +14295,7 @@
         <v>32</v>
       </c>
       <c r="G314" s="9" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="H314" s="8">
         <v>12426.0</v>
@@ -13697,10 +14315,10 @@
         <v>301</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="D315" s="8">
         <v>2017.0</v>
@@ -13712,7 +14330,7 @@
         <v>32</v>
       </c>
       <c r="G315" s="9" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="H315" s="8">
         <v>12440.0</v>
@@ -13732,10 +14350,10 @@
         <v>302</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="C316" s="8" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="D316" s="8">
         <v>2018.0</v>
@@ -13747,7 +14365,7 @@
         <v>32</v>
       </c>
       <c r="G316" s="9" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="H316" s="8">
         <v>12454.0</v>
@@ -13767,10 +14385,10 @@
         <v>303</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="C317" s="8" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="D317" s="8">
         <v>2019.0</v>
@@ -13782,7 +14400,7 @@
         <v>32</v>
       </c>
       <c r="G317" s="9" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="H317" s="8">
         <v>12468.0</v>
@@ -13802,10 +14420,10 @@
         <v>304</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="C318" s="8" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="D318" s="8">
         <v>2018.0</v>
@@ -13817,7 +14435,7 @@
         <v>32</v>
       </c>
       <c r="G318" s="9" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="H318" s="8">
         <v>12351.0</v>
@@ -13837,10 +14455,10 @@
         <v>305</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="D319" s="8">
         <v>2019.0</v>
@@ -13852,7 +14470,7 @@
         <v>32</v>
       </c>
       <c r="G319" s="9" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="H319" s="8">
         <v>12362.0</v>
@@ -13872,10 +14490,10 @@
         <v>306</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="D320" s="8">
         <v>2021.0</v>
@@ -13887,7 +14505,7 @@
         <v>32</v>
       </c>
       <c r="G320" s="9" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="H320" s="8">
         <v>12373.0</v>
@@ -13907,7 +14525,7 @@
         <v>307</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="D321" s="8">
         <v>2021.0</v>
@@ -13919,7 +14537,7 @@
         <v>126</v>
       </c>
       <c r="G321" s="9" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="H321" s="8">
         <v>12348.0</v>
@@ -13939,10 +14557,10 @@
         <v>308</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D322" s="8">
         <v>2002.0</v>
@@ -13954,7 +14572,7 @@
         <v>32</v>
       </c>
       <c r="G322" s="9" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="H322" s="8">
         <v>12283.0</v>
@@ -13974,10 +14592,10 @@
         <v>309</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="C323" s="8" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="D323" s="8">
         <v>2003.0</v>
@@ -13989,7 +14607,7 @@
         <v>32</v>
       </c>
       <c r="G323" s="9" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="H323" s="8">
         <v>12297.0</v>
@@ -14009,10 +14627,10 @@
         <v>310</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="C324" s="8" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="D324" s="8">
         <v>2004.0</v>
@@ -14024,7 +14642,7 @@
         <v>32</v>
       </c>
       <c r="G324" s="9" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="H324" s="8">
         <v>12310.0</v>
@@ -14044,10 +14662,10 @@
         <v>311</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="C325" s="8" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="D325" s="8">
         <v>2006.0</v>
@@ -14059,7 +14677,7 @@
         <v>32</v>
       </c>
       <c r="G325" s="9" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="H325" s="8">
         <v>12323.0</v>
@@ -14079,10 +14697,10 @@
         <v>312</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="C326" s="8" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="D326" s="8">
         <v>2008.0</v>
@@ -14094,7 +14712,7 @@
         <v>32</v>
       </c>
       <c r="G326" s="9" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="H326" s="8">
         <v>12337.0</v>
@@ -14114,7 +14732,7 @@
         <v>313</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="D327" s="8">
         <v>2019.0</v>
@@ -14126,7 +14744,7 @@
         <v>32</v>
       </c>
       <c r="G327" s="9" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="H327" s="8">
         <v>12274.0</v>
@@ -14146,11 +14764,34 @@
         <v>314</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>812</v>
+        <v>817</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="D328" s="8">
+        <v>2001.0</v>
+      </c>
+      <c r="E328" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F328" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G328" s="9" t="s">
+        <v>819</v>
       </c>
       <c r="H328" s="8">
         <v>12257.0</v>
       </c>
+      <c r="I328" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J328" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Blue Planet S01","alt":"The Blue Planet 1, The Blue Planet I, The Blue Planet S01","tags":["2001","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/13579","post":"12257"},</v>
+      </c>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="7">
@@ -14158,11 +14799,34 @@
         <v>315</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>813</v>
+        <v>820</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="D329" s="8">
+        <v>2017.0</v>
+      </c>
+      <c r="E329" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F329" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G329" s="9" t="s">
+        <v>822</v>
       </c>
       <c r="H329" s="8">
         <v>12266.0</v>
       </c>
+      <c r="I329" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J329" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Blue Planet S02","alt":"The Blue Planet 2, The Blue Planet II, The Blue Planet S02","tags":["2017","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/74313","post":"12266"},</v>
+      </c>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="7">
@@ -14170,14 +14834,34 @@
         <v>316</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>815</v>
+        <v>824</v>
+      </c>
+      <c r="D330" s="8">
+        <v>2006.0</v>
+      </c>
+      <c r="E330" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F330" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G330" s="9" t="s">
+        <v>825</v>
       </c>
       <c r="H330" s="8">
         <v>12238.0</v>
       </c>
+      <c r="I330" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J330" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Planet Earth S01","alt":"The Planet Earth 1, THe Planet Earth I, The Planet Earth S01","tags":["2006","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1044","post":"12238"},</v>
+      </c>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="7">
@@ -14185,14 +14869,34 @@
         <v>317</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>817</v>
+        <v>827</v>
+      </c>
+      <c r="D331" s="8">
+        <v>2016.0</v>
+      </c>
+      <c r="E331" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F331" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G331" s="9" t="s">
+        <v>828</v>
       </c>
       <c r="H331" s="8">
         <v>12250.0</v>
       </c>
+      <c r="I331" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J331" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Planet Earth S02","alt":"The Planet Earth 2, THe Planet Earth II, The Planet Earth S02","tags":["2016","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/68595","post":"12250"},</v>
+      </c>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="7">
@@ -14200,11 +14904,34 @@
         <v>318</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>818</v>
+        <v>829</v>
+      </c>
+      <c r="C332" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="D332" s="8">
+        <v>1999.0</v>
+      </c>
+      <c r="E332" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F332" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G332" s="9" t="s">
+        <v>831</v>
       </c>
       <c r="H332" s="8">
         <v>12146.0</v>
       </c>
+      <c r="I332" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J332" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Sopranos S01","alt":"The Sopranos 1","tags":["1999","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1398","post":"12146"},</v>
+      </c>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="7">
@@ -14212,11 +14939,34 @@
         <v>319</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>819</v>
+        <v>832</v>
+      </c>
+      <c r="C333" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="D333" s="8">
+        <v>2000.0</v>
+      </c>
+      <c r="E333" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F333" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G333" s="9" t="s">
+        <v>831</v>
       </c>
       <c r="H333" s="8">
         <v>12160.0</v>
       </c>
+      <c r="I333" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J333" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Sopranos S02","alt":"The Sopranos 2","tags":["2000","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1398","post":"12160"},</v>
+      </c>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="7">
@@ -14224,11 +14974,34 @@
         <v>320</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>820</v>
+        <v>834</v>
+      </c>
+      <c r="C334" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="D334" s="8">
+        <v>2001.0</v>
+      </c>
+      <c r="E334" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F334" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G334" s="9" t="s">
+        <v>831</v>
       </c>
       <c r="H334" s="8">
         <v>12174.0</v>
       </c>
+      <c r="I334" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J334" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Sopranos S03","alt":"The Sopranos 3","tags":["2001","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1398","post":"12174"},</v>
+      </c>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="7">
@@ -14236,11 +15009,34 @@
         <v>321</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>821</v>
+        <v>836</v>
+      </c>
+      <c r="C335" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="D335" s="8">
+        <v>2002.0</v>
+      </c>
+      <c r="E335" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F335" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G335" s="9" t="s">
+        <v>831</v>
       </c>
       <c r="H335" s="8">
         <v>12188.0</v>
       </c>
+      <c r="I335" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J335" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Sopranos S04","alt":"The Sopranos 4","tags":["2002","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1398","post":"12188"},</v>
+      </c>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="7">
@@ -14248,11 +15044,34 @@
         <v>322</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>822</v>
+        <v>838</v>
+      </c>
+      <c r="C336" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="D336" s="8">
+        <v>2004.0</v>
+      </c>
+      <c r="E336" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F336" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G336" s="9" t="s">
+        <v>831</v>
       </c>
       <c r="H336" s="8">
         <v>12202.0</v>
       </c>
+      <c r="I336" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J336" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Sopranos S05","alt":"The Sopranos 5","tags":["2004","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1398","post":"12202"},</v>
+      </c>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="7">
@@ -14260,11 +15079,34 @@
         <v>323</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>823</v>
+        <v>840</v>
+      </c>
+      <c r="C337" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="D337" s="8">
+        <v>2006.0</v>
+      </c>
+      <c r="E337" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F337" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G337" s="9" t="s">
+        <v>831</v>
       </c>
       <c r="H337" s="8">
         <v>12216.0</v>
       </c>
+      <c r="I337" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J337" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Sopranos S06","alt":"The Sopranos 6","tags":["2006","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1398","post":"12216"},</v>
+      </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="7">
@@ -14272,11 +15114,31 @@
         <v>324</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>824</v>
+        <v>842</v>
+      </c>
+      <c r="D338" s="8">
+        <v>2020.0</v>
+      </c>
+      <c r="E338" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F338" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G338" s="9" t="s">
+        <v>843</v>
       </c>
       <c r="H338" s="8">
         <v>12143.0</v>
       </c>
+      <c r="I338" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J338" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Palm Springs","alt":"","tags":["2020","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/587792","post":"12143"},</v>
+      </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="7">
@@ -14284,11 +15146,31 @@
         <v>325</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>825</v>
+        <v>844</v>
+      </c>
+      <c r="D339" s="8">
+        <v>2006.0</v>
+      </c>
+      <c r="E339" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F339" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G339" s="9" t="s">
+        <v>845</v>
       </c>
       <c r="H339" s="8">
         <v>12140.0</v>
       </c>
+      <c r="I339" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J339" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Prestige","alt":"","tags":["2006","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/1124","post":"12140"},</v>
+      </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="7">
@@ -14296,11 +15178,31 @@
         <v>326</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>826</v>
+        <v>846</v>
+      </c>
+      <c r="D340" s="8">
+        <v>2011.0</v>
+      </c>
+      <c r="E340" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F340" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G340" s="9" t="s">
+        <v>847</v>
       </c>
       <c r="H340" s="8">
         <v>12137.0</v>
       </c>
+      <c r="I340" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J340" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Source Code","alt":"","tags":["2011","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/45612","post":"12137"},</v>
+      </c>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="7">
@@ -14308,11 +15210,31 @@
         <v>327</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>827</v>
+        <v>848</v>
+      </c>
+      <c r="D341" s="8">
+        <v>2014.0</v>
+      </c>
+      <c r="E341" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F341" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G341" s="9" t="s">
+        <v>849</v>
       </c>
       <c r="H341" s="8">
         <v>12134.0</v>
       </c>
+      <c r="I341" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J341" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Predestination","alt":"","tags":["2014","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/206487","post":"12134"},</v>
+      </c>
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="7">
@@ -14320,11 +15242,34 @@
         <v>328</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>828</v>
+        <v>850</v>
+      </c>
+      <c r="C342" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="D342" s="8">
+        <v>2021.0</v>
+      </c>
+      <c r="E342" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="F342" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G342" s="9" t="s">
+        <v>853</v>
       </c>
       <c r="H342" s="8">
         <v>12131.0</v>
       </c>
+      <c r="I342" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J342" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Lamb","alt":"Dýrið, Dyrid","tags":["2021","Icelandic","MOVIE"],"wiki":"https://www.themoviedb.org/movie/788929","post":"12131"},</v>
+      </c>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="7">
@@ -14332,11 +15277,31 @@
         <v>329</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>829</v>
+        <v>854</v>
+      </c>
+      <c r="D343" s="8">
+        <v>2009.0</v>
+      </c>
+      <c r="E343" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F343" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G343" s="9" t="s">
+        <v>855</v>
       </c>
       <c r="H343" s="8">
         <v>12128.0</v>
       </c>
+      <c r="I343" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J343" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Inglourious Basterds","alt":"","tags":["2009","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/16869","post":"12128"},</v>
+      </c>
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="7">
@@ -14344,11 +15309,31 @@
         <v>330</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>830</v>
+        <v>856</v>
+      </c>
+      <c r="D344" s="8">
+        <v>2020.0</v>
+      </c>
+      <c r="E344" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F344" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G344" s="9" t="s">
+        <v>857</v>
       </c>
       <c r="H344" s="8">
         <v>12125.0</v>
       </c>
+      <c r="I344" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J344" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Boss Level","alt":"","tags":["2020","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/513310","post":"12125"},</v>
+      </c>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="7">
@@ -14356,11 +15341,31 @@
         <v>331</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>831</v>
+        <v>858</v>
+      </c>
+      <c r="D345" s="8">
+        <v>2012.0</v>
+      </c>
+      <c r="E345" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F345" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G345" s="9" t="s">
+        <v>859</v>
       </c>
       <c r="H345" s="8">
         <v>12122.0</v>
       </c>
+      <c r="I345" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J345" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Battlestar Galactica: Blood &amp; Chrome","alt":"","tags":["2012","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/257368","post":"12122"},</v>
+      </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="7">
@@ -14368,11 +15373,31 @@
         <v>332</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>832</v>
+        <v>860</v>
+      </c>
+      <c r="D346" s="8">
+        <v>2009.0</v>
+      </c>
+      <c r="E346" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F346" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G346" s="9" t="s">
+        <v>861</v>
       </c>
       <c r="H346" s="8">
         <v>12117.0</v>
       </c>
+      <c r="I346" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J346" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Battlestar Galactica: The Plan","alt":"","tags":["2009","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/105077","post":"12117"},</v>
+      </c>
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="7">
@@ -14380,11 +15405,31 @@
         <v>333</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>833</v>
+        <v>862</v>
+      </c>
+      <c r="D347" s="8">
+        <v>2007.0</v>
+      </c>
+      <c r="E347" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F347" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G347" s="9" t="s">
+        <v>863</v>
       </c>
       <c r="H347" s="8">
         <v>12114.0</v>
       </c>
+      <c r="I347" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J347" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Battlestar Galactica: Razor","alt":"","tags":["2007","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/69315","post":"12114"},</v>
+      </c>
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="7">
@@ -14392,11 +15437,31 @@
         <v>334</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>834</v>
+        <v>864</v>
+      </c>
+      <c r="D348" s="8">
+        <v>2004.0</v>
+      </c>
+      <c r="E348" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F348" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G348" s="9" t="s">
+        <v>865</v>
       </c>
       <c r="H348" s="8">
         <v>12036.0</v>
       </c>
+      <c r="I348" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J348" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Battlestar Galactica S01","alt":"","tags":["2004","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1972","post":"12036"},</v>
+      </c>
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="7">
@@ -14404,11 +15469,31 @@
         <v>335</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>835</v>
+        <v>866</v>
+      </c>
+      <c r="D349" s="8">
+        <v>2005.0</v>
+      </c>
+      <c r="E349" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F349" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G349" s="9" t="s">
+        <v>865</v>
       </c>
       <c r="H349" s="8">
         <v>12050.0</v>
       </c>
+      <c r="I349" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J349" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Battlestar Galactica S02","alt":"","tags":["2005","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1972","post":"12050"},</v>
+      </c>
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="7">
@@ -14416,11 +15501,31 @@
         <v>336</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>836</v>
+        <v>867</v>
+      </c>
+      <c r="D350" s="8">
+        <v>2006.0</v>
+      </c>
+      <c r="E350" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F350" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G350" s="9" t="s">
+        <v>865</v>
       </c>
       <c r="H350" s="8">
         <v>12071.0</v>
       </c>
+      <c r="I350" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J350" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Battlestar Galactica S03","alt":"","tags":["2006","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1972","post":"12071"},</v>
+      </c>
     </row>
     <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="7">
@@ -14428,11 +15533,31 @@
         <v>337</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>837</v>
+        <v>868</v>
+      </c>
+      <c r="D351" s="8">
+        <v>2008.0</v>
+      </c>
+      <c r="E351" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F351" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G351" s="9" t="s">
+        <v>865</v>
       </c>
       <c r="H351" s="8">
         <v>12093.0</v>
       </c>
+      <c r="I351" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J351" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Battlestar Galactica S04","alt":"","tags":["2008","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1972","post":"12093"},</v>
+      </c>
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="7">
@@ -14440,11 +15565,31 @@
         <v>338</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>838</v>
+        <v>869</v>
+      </c>
+      <c r="D352" s="8">
+        <v>2003.0</v>
+      </c>
+      <c r="E352" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F352" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G352" s="9" t="s">
+        <v>870</v>
       </c>
       <c r="H352" s="8">
         <v>12033.0</v>
       </c>
+      <c r="I352" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J352" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Battlestar Galactica: The Miniseries","alt":"","tags":["2003","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/71365","post":"12033"},</v>
+      </c>
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="7">
@@ -14452,11 +15597,34 @@
         <v>339</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>839</v>
+        <v>871</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="D353" s="8">
+        <v>2021.0</v>
+      </c>
+      <c r="E353" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F353" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G353" s="9" t="s">
+        <v>873</v>
       </c>
       <c r="H353" s="8">
         <v>12017.0</v>
       </c>
+      <c r="I353" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J353" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Road: The Tragedy of One","alt":"The Road: Tragedy of 1, One Tragedy, Birth of a Tragedy","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/127016","post":"12017"},</v>
+      </c>
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="7">
@@ -14464,11 +15632,31 @@
         <v>340</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>840</v>
+        <v>874</v>
+      </c>
+      <c r="D354" s="8">
+        <v>2017.0</v>
+      </c>
+      <c r="E354" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F354" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G354" s="9" t="s">
+        <v>875</v>
       </c>
       <c r="H354" s="8">
         <v>12000.0</v>
       </c>
+      <c r="I354" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J354" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Mad Dog","alt":"","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/74076","post":"12000"},</v>
+      </c>
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="7">
@@ -14476,11 +15664,34 @@
         <v>341</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>841</v>
+        <v>876</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="D355" s="8">
+        <v>2018.0</v>
+      </c>
+      <c r="E355" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F355" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G355" s="9" t="s">
+        <v>878</v>
       </c>
       <c r="H355" s="8">
         <v>11983.0</v>
       </c>
+      <c r="I355" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J355" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Come and Hug Me","alt":"Come Here And Give Me A Hug","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/79238","post":"11983"},</v>
+      </c>
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="7">
@@ -14488,11 +15699,34 @@
         <v>342</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>842</v>
+        <v>879</v>
+      </c>
+      <c r="C356" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="D356" s="8">
+        <v>2016.0</v>
+      </c>
+      <c r="E356" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F356" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G356" s="9" t="s">
+        <v>881</v>
       </c>
       <c r="H356" s="8">
         <v>11964.0</v>
       </c>
+      <c r="I356" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J356" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Love in the Moonlight","alt":"Moonlight Drawn by Clouds","tags":["2016","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/66256","post":"11964"},</v>
+      </c>
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="7">
@@ -14500,11 +15734,34 @@
         <v>343</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>843</v>
+        <v>882</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="D357" s="8">
+        <v>2013.0</v>
+      </c>
+      <c r="E357" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F357" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G357" s="9" t="s">
+        <v>884</v>
       </c>
       <c r="H357" s="8">
         <v>11943.0</v>
       </c>
+      <c r="I357" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J357" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Suspicious Housekeeper","alt":"Housemaid Park Bok-Nyeo, The Mystery Housemaid, The Suspicious Housemaid, The Strange Housekeeper","tags":["2013","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/62609","post":"11943"},</v>
+      </c>
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="7">
@@ -14512,11 +15769,34 @@
         <v>344</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>844</v>
+        <v>885</v>
+      </c>
+      <c r="C358" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="D358" s="8">
+        <v>2021.0</v>
+      </c>
+      <c r="E358" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F358" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G358" s="9" t="s">
+        <v>887</v>
       </c>
       <c r="H358" s="8">
         <v>11926.0</v>
       </c>
+      <c r="I358" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J358" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Hometown Cha-Cha-Cha","alt":"The Sea Village Cha Cha Cha, Fishing Village Cha Cha Cha, Chachachacha In The Seaside Village, Mr. Handy, Mr. Hong, The Seashore Village Cha Cha Cha","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/128883","post":"11926"},</v>
+      </c>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="7">
@@ -14524,11 +15804,34 @@
         <v>345</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>845</v>
+        <v>888</v>
+      </c>
+      <c r="C359" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="D359" s="8">
+        <v>2020.0</v>
+      </c>
+      <c r="E359" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F359" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G359" s="9" t="s">
+        <v>890</v>
       </c>
       <c r="H359" s="8">
         <v>11907.0</v>
       </c>
+      <c r="I359" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J359" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Pawn","alt":"Guarantee, Collateral","tags":["2020","Korean","MOVIE"],"wiki":"https://www.themoviedb.org/movie/589174","post":"11907"},</v>
+      </c>
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="7">
@@ -14536,11 +15839,34 @@
         <v>346</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>846</v>
+        <v>891</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="D360" s="8">
+        <v>2016.0</v>
+      </c>
+      <c r="E360" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F360" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G360" s="9" t="s">
+        <v>893</v>
       </c>
       <c r="H360" s="8">
         <v>11863.0</v>
       </c>
+      <c r="I360" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J360" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Crown S01","alt":"The Crown 1","tags":["2016","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/65494","post":"11863"},</v>
+      </c>
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="7">
@@ -14548,11 +15874,34 @@
         <v>347</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>847</v>
+        <v>894</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="D361" s="8">
+        <v>2017.0</v>
+      </c>
+      <c r="E361" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F361" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G361" s="9" t="s">
+        <v>893</v>
       </c>
       <c r="H361" s="8">
         <v>11874.0</v>
       </c>
+      <c r="I361" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J361" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Crown S02","alt":"The Crown 2","tags":["2017","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/65494","post":"11874"},</v>
+      </c>
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="7">
@@ -14560,11 +15909,34 @@
         <v>348</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>848</v>
+        <v>896</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="D362" s="8">
+        <v>2019.0</v>
+      </c>
+      <c r="E362" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F362" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G362" s="9" t="s">
+        <v>893</v>
       </c>
       <c r="H362" s="8">
         <v>11885.0</v>
       </c>
+      <c r="I362" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J362" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Crown S03","alt":"The Crown 3","tags":["2019","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/65494","post":"11885"},</v>
+      </c>
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="7">
@@ -14572,11 +15944,34 @@
         <v>349</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>849</v>
+        <v>898</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="D363" s="8">
+        <v>2020.0</v>
+      </c>
+      <c r="E363" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F363" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G363" s="9" t="s">
+        <v>893</v>
       </c>
       <c r="H363" s="8">
         <v>11896.0</v>
       </c>
+      <c r="I363" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J363" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Crown S04","alt":"The Crown 4","tags":["2020","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/65494","post":"11896"},</v>
+      </c>
     </row>
     <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="7">
@@ -14584,11 +15979,34 @@
         <v>350</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>850</v>
+        <v>900</v>
+      </c>
+      <c r="C364" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="D364" s="8">
+        <v>2007.0</v>
+      </c>
+      <c r="E364" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F364" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G364" s="9" t="s">
+        <v>902</v>
       </c>
       <c r="H364" s="8">
         <v>11736.0</v>
       </c>
+      <c r="I364" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J364" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Gossip Girl S01","alt":"Gossip Girl 1","tags":["2007","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1395","post":"11736"},</v>
+      </c>
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="7">
@@ -14596,11 +16014,34 @@
         <v>351</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>851</v>
+        <v>903</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="D365" s="8">
+        <v>2008.0</v>
+      </c>
+      <c r="E365" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F365" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G365" s="9" t="s">
+        <v>902</v>
       </c>
       <c r="H365" s="8">
         <v>11755.0</v>
       </c>
+      <c r="I365" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J365" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Gossip Girl S02","alt":"Gossip Girl 2","tags":["2008","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1395","post":"11755"},</v>
+      </c>
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="7">
@@ -14608,11 +16049,34 @@
         <v>352</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>852</v>
+        <v>905</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="D366" s="8">
+        <v>2009.0</v>
+      </c>
+      <c r="E366" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F366" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G366" s="9" t="s">
+        <v>902</v>
       </c>
       <c r="H366" s="8">
         <v>11781.0</v>
       </c>
+      <c r="I366" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J366" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Gossip Girl S03","alt":"Gossip Girl 3","tags":["2009","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1395","post":"11781"},</v>
+      </c>
     </row>
     <row r="367" ht="15.75" customHeight="1">
       <c r="A367" s="7">
@@ -14620,11 +16084,34 @@
         <v>353</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>853</v>
+        <v>907</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="D367" s="8">
+        <v>2010.0</v>
+      </c>
+      <c r="E367" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F367" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G367" s="9" t="s">
+        <v>902</v>
       </c>
       <c r="H367" s="8">
         <v>11804.0</v>
       </c>
+      <c r="I367" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J367" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Gossip Girl S04","alt":"Gossip Girl 4","tags":["2010","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1395","post":"11804"},</v>
+      </c>
     </row>
     <row r="368" ht="15.75" customHeight="1">
       <c r="A368" s="7">
@@ -14632,11 +16119,34 @@
         <v>354</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>854</v>
+        <v>909</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="D368" s="8">
+        <v>2011.0</v>
+      </c>
+      <c r="E368" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F368" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G368" s="9" t="s">
+        <v>902</v>
       </c>
       <c r="H368" s="8">
         <v>11827.0</v>
       </c>
+      <c r="I368" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J368" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Gossip Girl S05","alt":"Gossip Girl 5","tags":["2011","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1395","post":"11827"},</v>
+      </c>
     </row>
     <row r="369" ht="15.75" customHeight="1">
       <c r="A369" s="7">
@@ -14644,11 +16154,34 @@
         <v>355</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>855</v>
+        <v>911</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="D369" s="8">
+        <v>2012.0</v>
+      </c>
+      <c r="E369" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F369" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G369" s="9" t="s">
+        <v>902</v>
       </c>
       <c r="H369" s="8">
         <v>11852.0</v>
       </c>
+      <c r="I369" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J369" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Gossip Girl S06","alt":"Gossip Girl 6","tags":["2012","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1395","post":"11852"},</v>
+      </c>
     </row>
     <row r="370" ht="15.75" customHeight="1">
       <c r="A370" s="7">
@@ -14656,11 +16189,34 @@
         <v>356</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>856</v>
+        <v>913</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="D370" s="8">
+        <v>2005.0</v>
+      </c>
+      <c r="E370" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F370" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G370" s="9" t="s">
+        <v>915</v>
       </c>
       <c r="H370" s="8">
         <v>11627.0</v>
       </c>
+      <c r="I370" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J370" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Weeds S01","alt":"Weeds 1","tags":["2005","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/186","post":"11627"},</v>
+      </c>
     </row>
     <row r="371" ht="15.75" customHeight="1">
       <c r="A371" s="7">
@@ -14668,11 +16224,34 @@
         <v>357</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>857</v>
+        <v>916</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="D371" s="8">
+        <v>2006.0</v>
+      </c>
+      <c r="E371" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F371" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G371" s="9" t="s">
+        <v>915</v>
       </c>
       <c r="H371" s="8">
         <v>11638.0</v>
       </c>
+      <c r="I371" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J371" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Weeds S02","alt":"Weeds 2","tags":["2006","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/186","post":"11638"},</v>
+      </c>
     </row>
     <row r="372" ht="15.75" customHeight="1">
       <c r="A372" s="7">
@@ -14680,11 +16259,34 @@
         <v>358</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>858</v>
+        <v>918</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="D372" s="8">
+        <v>2007.0</v>
+      </c>
+      <c r="E372" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F372" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G372" s="9" t="s">
+        <v>915</v>
       </c>
       <c r="H372" s="8">
         <v>11651.0</v>
       </c>
+      <c r="I372" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J372" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Weeds S03","alt":"Weeds 3","tags":["2007","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/186","post":"11651"},</v>
+      </c>
     </row>
     <row r="373" ht="15.75" customHeight="1">
       <c r="A373" s="7">
@@ -14692,11 +16294,34 @@
         <v>359</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>859</v>
+        <v>920</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="D373" s="8">
+        <v>2008.0</v>
+      </c>
+      <c r="E373" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F373" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G373" s="9" t="s">
+        <v>915</v>
       </c>
       <c r="H373" s="8">
         <v>11667.0</v>
       </c>
+      <c r="I373" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J373" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Weeds S04","alt":"Weeds 4","tags":["2008","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/186","post":"11667"},</v>
+      </c>
     </row>
     <row r="374" ht="15.75" customHeight="1">
       <c r="A374" s="7">
@@ -14704,11 +16329,34 @@
         <v>360</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>860</v>
+        <v>922</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="D374" s="8">
+        <v>2009.0</v>
+      </c>
+      <c r="E374" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F374" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G374" s="9" t="s">
+        <v>915</v>
       </c>
       <c r="H374" s="8">
         <v>11681.0</v>
       </c>
+      <c r="I374" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J374" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Weeds S05","alt":"Weeds 5","tags":["2009","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/186","post":"11681"},</v>
+      </c>
     </row>
     <row r="375" ht="15.75" customHeight="1">
       <c r="A375" s="7">
@@ -14716,11 +16364,34 @@
         <v>361</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>861</v>
+        <v>924</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="D375" s="8">
+        <v>2010.0</v>
+      </c>
+      <c r="E375" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F375" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G375" s="9" t="s">
+        <v>915</v>
       </c>
       <c r="H375" s="8">
         <v>11695.0</v>
       </c>
+      <c r="I375" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J375" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Weeds S06","alt":"Weeds 6","tags":["2010","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/186","post":"11695"},</v>
+      </c>
     </row>
     <row r="376" ht="15.75" customHeight="1">
       <c r="A376" s="7">
@@ -14728,11 +16399,34 @@
         <v>362</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>862</v>
+        <v>926</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="D376" s="8">
+        <v>2011.0</v>
+      </c>
+      <c r="E376" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F376" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G376" s="9" t="s">
+        <v>915</v>
       </c>
       <c r="H376" s="8">
         <v>11709.0</v>
       </c>
+      <c r="I376" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J376" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Weeds S07","alt":"Weeds 7","tags":["2011","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/186","post":"11709"},</v>
+      </c>
     </row>
     <row r="377" ht="15.75" customHeight="1">
       <c r="A377" s="7">
@@ -14740,11 +16434,34 @@
         <v>363</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>863</v>
+        <v>928</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="D377" s="8">
+        <v>2012.0</v>
+      </c>
+      <c r="E377" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F377" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G377" s="9" t="s">
+        <v>915</v>
       </c>
       <c r="H377" s="8">
         <v>11723.0</v>
       </c>
+      <c r="I377" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J377" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Weeds S08","alt":"Weeds 8","tags":["2012","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/186","post":"11723"},</v>
+      </c>
     </row>
     <row r="378" ht="15.75" customHeight="1">
       <c r="A378" s="7">
@@ -14752,11 +16469,34 @@
         <v>364</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>864</v>
+        <v>930</v>
+      </c>
+      <c r="C378" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="D378" s="8">
+        <v>2008.0</v>
+      </c>
+      <c r="E378" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F378" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G378" s="9" t="s">
+        <v>932</v>
       </c>
       <c r="H378" s="8">
         <v>11560.0</v>
       </c>
+      <c r="I378" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J378" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Breaking Bad S01","alt":"Breaking Bad 1","tags":["2008","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1396","post":"11560"},</v>
+      </c>
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="A379" s="7">
@@ -14764,11 +16504,34 @@
         <v>365</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>865</v>
+        <v>933</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="D379" s="8">
+        <v>2009.0</v>
+      </c>
+      <c r="E379" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F379" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G379" s="9" t="s">
+        <v>932</v>
       </c>
       <c r="H379" s="8">
         <v>11568.0</v>
       </c>
+      <c r="I379" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J379" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Breaking Bad S02","alt":"Breaking Bad 2","tags":["2009","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1396","post":"11568"},</v>
+      </c>
     </row>
     <row r="380" ht="15.75" customHeight="1">
       <c r="A380" s="7">
@@ -14776,11 +16539,34 @@
         <v>366</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>866</v>
+        <v>935</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="D380" s="8">
+        <v>2010.0</v>
+      </c>
+      <c r="E380" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F380" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G380" s="9" t="s">
+        <v>932</v>
       </c>
       <c r="H380" s="8">
         <v>11582.0</v>
       </c>
+      <c r="I380" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J380" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Breaking Bad S03","alt":"Breaking Bad 3","tags":["2010","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1396","post":"11582"},</v>
+      </c>
     </row>
     <row r="381" ht="15.75" customHeight="1">
       <c r="A381" s="7">
@@ -14788,11 +16574,34 @@
         <v>367</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>867</v>
+        <v>937</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="D381" s="8">
+        <v>2011.0</v>
+      </c>
+      <c r="E381" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F381" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G381" s="9" t="s">
+        <v>932</v>
       </c>
       <c r="H381" s="8">
         <v>11596.0</v>
       </c>
+      <c r="I381" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J381" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Breaking Bad S04","alt":"Breaking Bad 4","tags":["2011","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1396","post":"11596"},</v>
+      </c>
     </row>
     <row r="382" ht="15.75" customHeight="1">
       <c r="A382" s="7">
@@ -14800,11 +16609,34 @@
         <v>368</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>868</v>
+        <v>939</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="D382" s="8">
+        <v>2012.0</v>
+      </c>
+      <c r="E382" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F382" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G382" s="9" t="s">
+        <v>932</v>
       </c>
       <c r="H382" s="8">
         <v>11610.0</v>
       </c>
+      <c r="I382" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J382" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Breaking Bad S05","alt":"Breaking Bad 5","tags":["2012","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1396","post":"11610"},</v>
+      </c>
     </row>
     <row r="383" ht="15.75" customHeight="1">
       <c r="A383" s="7">
@@ -14812,11 +16644,31 @@
         <v>369</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>869</v>
+        <v>941</v>
+      </c>
+      <c r="D383" s="8">
+        <v>2021.0</v>
+      </c>
+      <c r="E383" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F383" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G383" s="9" t="s">
+        <v>942</v>
       </c>
       <c r="H383" s="8">
         <v>11548.0</v>
       </c>
+      <c r="I383" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J383" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Dune","alt":"","tags":["2021","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/438631","post":"11548"},</v>
+      </c>
     </row>
     <row r="384" ht="15.75" customHeight="1">
       <c r="A384" s="7">
@@ -14824,11 +16676,31 @@
         <v>370</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>870</v>
+        <v>943</v>
+      </c>
+      <c r="D384" s="8">
+        <v>2021.0</v>
+      </c>
+      <c r="E384" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F384" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G384" s="9" t="s">
+        <v>944</v>
       </c>
       <c r="H384" s="8">
         <v>11537.0</v>
       </c>
+      <c r="I384" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J384" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Maid","alt":"","tags":["2021","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/111141","post":"11537"},</v>
+      </c>
     </row>
     <row r="385" ht="15.75" customHeight="1">
       <c r="A385" s="7">
@@ -14836,11 +16708,31 @@
         <v>371</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>871</v>
+        <v>945</v>
+      </c>
+      <c r="D385" s="8">
+        <v>2021.0</v>
+      </c>
+      <c r="E385" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F385" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G385" s="9" t="s">
+        <v>946</v>
       </c>
       <c r="H385" s="8">
         <v>11430.0</v>
       </c>
+      <c r="I385" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J385" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Show Me the Ghost","alt":"","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/movie/840526","post":"11430"},</v>
+      </c>
     </row>
     <row r="386" ht="15.75" customHeight="1">
       <c r="A386" s="7">
@@ -14848,11 +16740,34 @@
         <v>372</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>872</v>
+        <v>947</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="D386" s="8">
+        <v>2021.0</v>
+      </c>
+      <c r="E386" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F386" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G386" s="9" t="s">
+        <v>949</v>
       </c>
       <c r="H386" s="8">
         <v>11428.0</v>
       </c>
+      <c r="I386" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J386" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Guimoon: The Lightless Door","alt":"Gwimun: The Lightless Door","tags":["2021","Korean","MOVIE"],"wiki":"https://www.themoviedb.org/movie/844069","post":"11428"},</v>
+      </c>
     </row>
     <row r="387" ht="15.75" customHeight="1">
       <c r="A387" s="7">
@@ -14860,11 +16775,34 @@
         <v>373</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>873</v>
+        <v>950</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>951</v>
+      </c>
+      <c r="D387" s="8">
+        <v>2013.0</v>
+      </c>
+      <c r="E387" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F387" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G387" s="9" t="s">
+        <v>952</v>
       </c>
       <c r="H387" s="8">
         <v>11347.0</v>
       </c>
+      <c r="I387" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J387" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"House of Cards S01","alt":"House of Cards 1","tags":["2013","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1425","post":"11347"},</v>
+      </c>
     </row>
     <row r="388" ht="15.75" customHeight="1">
       <c r="A388" s="7">
@@ -14872,11 +16810,34 @@
         <v>374</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>874</v>
+        <v>953</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="D388" s="8">
+        <v>2014.0</v>
+      </c>
+      <c r="E388" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F388" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G388" s="9" t="s">
+        <v>952</v>
       </c>
       <c r="H388" s="8">
         <v>11361.0</v>
       </c>
+      <c r="I388" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J388" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"House of Cards S02","alt":"House of Cards 2","tags":["2014","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1425","post":"11361"},</v>
+      </c>
     </row>
     <row r="389" ht="15.75" customHeight="1">
       <c r="A389" s="7">
@@ -14884,11 +16845,34 @@
         <v>375</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>875</v>
+        <v>955</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="D389" s="8">
+        <v>2015.0</v>
+      </c>
+      <c r="E389" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F389" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G389" s="9" t="s">
+        <v>952</v>
       </c>
       <c r="H389" s="8">
         <v>11375.0</v>
       </c>
+      <c r="I389" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J389" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"House of Cards S03","alt":"House of Cards 3","tags":["2015","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1425","post":"11375"},</v>
+      </c>
     </row>
     <row r="390" ht="15.75" customHeight="1">
       <c r="A390" s="7">
@@ -14896,11 +16880,34 @@
         <v>376</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>876</v>
+        <v>957</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>958</v>
+      </c>
+      <c r="D390" s="8">
+        <v>2016.0</v>
+      </c>
+      <c r="E390" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F390" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G390" s="9" t="s">
+        <v>952</v>
       </c>
       <c r="H390" s="8">
         <v>11389.0</v>
       </c>
+      <c r="I390" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J390" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"House of Cards S04","alt":"House of Cards 4","tags":["2016","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1425","post":"11389"},</v>
+      </c>
     </row>
     <row r="391" ht="15.75" customHeight="1">
       <c r="A391" s="7">
@@ -14908,11 +16915,34 @@
         <v>377</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>877</v>
+        <v>959</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="D391" s="8">
+        <v>2017.0</v>
+      </c>
+      <c r="E391" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F391" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G391" s="9" t="s">
+        <v>952</v>
       </c>
       <c r="H391" s="8">
         <v>11403.0</v>
       </c>
+      <c r="I391" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J391" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"House of Cards S05","alt":"House of Cards 5","tags":["2017","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1425","post":"11403"},</v>
+      </c>
     </row>
     <row r="392" ht="15.75" customHeight="1">
       <c r="A392" s="7">
@@ -14920,11 +16950,34 @@
         <v>378</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>878</v>
+        <v>961</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>962</v>
+      </c>
+      <c r="D392" s="8">
+        <v>2018.0</v>
+      </c>
+      <c r="E392" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F392" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G392" s="9" t="s">
+        <v>952</v>
       </c>
       <c r="H392" s="8">
         <v>11417.0</v>
       </c>
+      <c r="I392" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J392" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"House of Cards S06","alt":"House of Cards 6","tags":["2018","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1425","post":"11417"},</v>
+      </c>
     </row>
     <row r="393" ht="15.75" customHeight="1">
       <c r="A393" s="7">
@@ -14932,11 +16985,34 @@
         <v>379</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>879</v>
+        <v>963</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="D393" s="8">
+        <v>2015.0</v>
+      </c>
+      <c r="E393" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F393" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G393" s="9" t="s">
+        <v>965</v>
       </c>
       <c r="H393" s="8">
         <v>11292.0</v>
       </c>
+      <c r="I393" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J393" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Better Call Saul S01","alt":"Better Call Saul 1","tags":["2015","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/60059","post":"11292"},</v>
+      </c>
     </row>
     <row r="394" ht="15.75" customHeight="1">
       <c r="A394" s="7">
@@ -14944,11 +17020,34 @@
         <v>380</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>880</v>
+        <v>966</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="D394" s="8">
+        <v>2016.0</v>
+      </c>
+      <c r="E394" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F394" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G394" s="9" t="s">
+        <v>965</v>
       </c>
       <c r="H394" s="8">
         <v>11303.0</v>
       </c>
+      <c r="I394" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J394" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Better Call Saul S02","alt":"Better Call Saul 2","tags":["2016","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/60059","post":"11303"},</v>
+      </c>
     </row>
     <row r="395" ht="15.75" customHeight="1">
       <c r="A395" s="7">
@@ -14956,11 +17055,34 @@
         <v>381</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>881</v>
+        <v>968</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="D395" s="8">
+        <v>2017.0</v>
+      </c>
+      <c r="E395" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F395" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G395" s="9" t="s">
+        <v>965</v>
       </c>
       <c r="H395" s="8">
         <v>11314.0</v>
       </c>
+      <c r="I395" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J395" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Better Call Saul S03","alt":"Better Call Saul 3","tags":["2017","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/60059","post":"11314"},</v>
+      </c>
     </row>
     <row r="396" ht="15.75" customHeight="1">
       <c r="A396" s="7">
@@ -14968,11 +17090,34 @@
         <v>382</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>882</v>
+        <v>970</v>
+      </c>
+      <c r="C396" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="D396" s="8">
+        <v>2018.0</v>
+      </c>
+      <c r="E396" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F396" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G396" s="9" t="s">
+        <v>965</v>
       </c>
       <c r="H396" s="8">
         <v>11325.0</v>
       </c>
+      <c r="I396" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J396" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Better Call Saul S04","alt":"Better Call Saul 4","tags":["2018","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/60059","post":"11325"},</v>
+      </c>
     </row>
     <row r="397" ht="15.75" customHeight="1">
       <c r="A397" s="7">
@@ -14980,11 +17125,34 @@
         <v>383</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>883</v>
+        <v>972</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="D397" s="8">
+        <v>2020.0</v>
+      </c>
+      <c r="E397" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F397" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G397" s="9" t="s">
+        <v>965</v>
       </c>
       <c r="H397" s="8">
         <v>11336.0</v>
       </c>
+      <c r="I397" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J397" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Better Call Saul S05","alt":"Better Call Saul 5","tags":["2020","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/60059","post":"11336"},</v>
+      </c>
     </row>
     <row r="398" ht="15.75" customHeight="1">
       <c r="A398" s="7">
@@ -14992,11 +17160,34 @@
         <v>384</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>884</v>
+        <v>974</v>
+      </c>
+      <c r="C398" s="8" t="s">
+        <v>975</v>
+      </c>
+      <c r="D398" s="8">
+        <v>1997.0</v>
+      </c>
+      <c r="E398" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F398" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G398" s="9" t="s">
+        <v>976</v>
       </c>
       <c r="H398" s="8">
         <v>11141.0</v>
       </c>
+      <c r="I398" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J398" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Buffy the Vampire Slayer S01","alt":"Buffy the Vampire Slayer 1","tags":["1997","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/95","post":"11141"},</v>
+      </c>
     </row>
     <row r="399" ht="15.75" customHeight="1">
       <c r="A399" s="7">
@@ -15004,11 +17195,34 @@
         <v>385</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>885</v>
+        <v>977</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>978</v>
+      </c>
+      <c r="D399" s="8">
+        <v>1997.0</v>
+      </c>
+      <c r="E399" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F399" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G399" s="9" t="s">
+        <v>976</v>
       </c>
       <c r="H399" s="8">
         <v>11154.0</v>
       </c>
+      <c r="I399" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J399" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Buffy the Vampire Slayer S02","alt":"Buffy the Vampire Slayer 2","tags":["1997","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/95","post":"11154"},</v>
+      </c>
     </row>
     <row r="400" ht="15.75" customHeight="1">
       <c r="A400" s="7">
@@ -15016,11 +17230,34 @@
         <v>386</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>886</v>
+        <v>979</v>
+      </c>
+      <c r="C400" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="D400" s="8">
+        <v>1998.0</v>
+      </c>
+      <c r="E400" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F400" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G400" s="9" t="s">
+        <v>976</v>
       </c>
       <c r="H400" s="8">
         <v>11177.0</v>
       </c>
+      <c r="I400" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J400" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Buffy the Vampire Slayer S03","alt":"Buffy the Vampire Slayer 3","tags":["1998","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/95","post":"11177"},</v>
+      </c>
     </row>
     <row r="401" ht="15.75" customHeight="1">
       <c r="A401" s="7">
@@ -15028,11 +17265,34 @@
         <v>387</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>887</v>
+        <v>981</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="D401" s="8">
+        <v>1999.0</v>
+      </c>
+      <c r="E401" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F401" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G401" s="9" t="s">
+        <v>976</v>
       </c>
       <c r="H401" s="8">
         <v>11200.0</v>
       </c>
+      <c r="I401" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J401" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Buffy the Vampire Slayer S04","alt":"Buffy the Vampire Slayer 4","tags":["1999","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/95","post":"11200"},</v>
+      </c>
     </row>
     <row r="402" ht="15.75" customHeight="1">
       <c r="A402" s="7">
@@ -15040,11 +17300,34 @@
         <v>388</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>888</v>
+        <v>983</v>
+      </c>
+      <c r="C402" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="D402" s="8">
+        <v>2000.0</v>
+      </c>
+      <c r="E402" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F402" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G402" s="9" t="s">
+        <v>976</v>
       </c>
       <c r="H402" s="8">
         <v>11223.0</v>
       </c>
+      <c r="I402" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J402" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Buffy the Vampire Slayer S05","alt":"Buffy the Vampire Slayer 5","tags":["2000","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/95","post":"11223"},</v>
+      </c>
     </row>
     <row r="403" ht="15.75" customHeight="1">
       <c r="A403" s="7">
@@ -15052,11 +17335,34 @@
         <v>389</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>889</v>
+        <v>985</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="D403" s="8">
+        <v>2001.0</v>
+      </c>
+      <c r="E403" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F403" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G403" s="9" t="s">
+        <v>976</v>
       </c>
       <c r="H403" s="8">
         <v>11246.0</v>
       </c>
+      <c r="I403" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J403" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Buffy the Vampire Slayer S06","alt":"Buffy the Vampire Slayer 6","tags":["2001","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/95","post":"11246"},</v>
+      </c>
     </row>
     <row r="404" ht="15.75" customHeight="1">
       <c r="A404" s="7">
@@ -15064,11 +17370,34 @@
         <v>390</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>890</v>
+        <v>987</v>
+      </c>
+      <c r="C404" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="D404" s="8">
+        <v>2002.0</v>
+      </c>
+      <c r="E404" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F404" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G404" s="9" t="s">
+        <v>976</v>
       </c>
       <c r="H404" s="8">
         <v>11269.0</v>
       </c>
+      <c r="I404" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J404" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Buffy the Vampire Slayer S07","alt":"Buffy the Vampire Slayer 7","tags":["2002","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/95","post":"11269"},</v>
+      </c>
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="A405" s="7">
@@ -15076,11 +17405,34 @@
         <v>391</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>891</v>
+        <v>989</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="D405" s="8">
+        <v>2007.0</v>
+      </c>
+      <c r="E405" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F405" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G405" s="9" t="s">
+        <v>991</v>
       </c>
       <c r="H405" s="8">
         <v>11073.0</v>
       </c>
+      <c r="I405" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J405" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Skins S01","alt":"Skins 1","tags":["2007","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/900","post":"11073"},</v>
+      </c>
     </row>
     <row r="406" ht="15.75" customHeight="1">
       <c r="A406" s="7">
@@ -15088,11 +17440,34 @@
         <v>392</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>892</v>
+        <v>992</v>
+      </c>
+      <c r="C406" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="D406" s="8">
+        <v>2008.0</v>
+      </c>
+      <c r="E406" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F406" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G406" s="9" t="s">
+        <v>991</v>
       </c>
       <c r="H406" s="8">
         <v>11083.0</v>
       </c>
+      <c r="I406" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J406" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Skins S02","alt":"Skins 2","tags":["2008","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/900","post":"11083"},</v>
+      </c>
     </row>
     <row r="407" ht="15.75" customHeight="1">
       <c r="A407" s="7">
@@ -15100,11 +17475,34 @@
         <v>393</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>893</v>
+        <v>994</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="D407" s="8">
+        <v>2009.0</v>
+      </c>
+      <c r="E407" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F407" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G407" s="9" t="s">
+        <v>991</v>
       </c>
       <c r="H407" s="8">
         <v>11094.0</v>
       </c>
+      <c r="I407" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J407" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Skins S03","alt":"Skins 3","tags":["2009","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/900","post":"11094"},</v>
+      </c>
     </row>
     <row r="408" ht="15.75" customHeight="1">
       <c r="A408" s="7">
@@ -15112,11 +17510,34 @@
         <v>394</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>894</v>
+        <v>996</v>
+      </c>
+      <c r="C408" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="D408" s="8">
+        <v>2010.0</v>
+      </c>
+      <c r="E408" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F408" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G408" s="9" t="s">
+        <v>991</v>
       </c>
       <c r="H408" s="8">
         <v>11105.0</v>
       </c>
+      <c r="I408" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J408" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Skins S04","alt":"Skins 4","tags":["2010","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/900","post":"11105"},</v>
+      </c>
     </row>
     <row r="409" ht="15.75" customHeight="1">
       <c r="A409" s="7">
@@ -15124,11 +17545,34 @@
         <v>395</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>895</v>
+        <v>998</v>
+      </c>
+      <c r="C409" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="D409" s="8">
+        <v>2011.0</v>
+      </c>
+      <c r="E409" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F409" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G409" s="9" t="s">
+        <v>991</v>
       </c>
       <c r="H409" s="8">
         <v>11114.0</v>
       </c>
+      <c r="I409" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J409" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Skins S05","alt":"Skins 5","tags":["2011","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/900","post":"11114"},</v>
+      </c>
     </row>
     <row r="410" ht="15.75" customHeight="1">
       <c r="A410" s="7">
@@ -15136,11 +17580,34 @@
         <v>396</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>896</v>
+        <v>1000</v>
+      </c>
+      <c r="C410" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D410" s="8">
+        <v>2012.0</v>
+      </c>
+      <c r="E410" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F410" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G410" s="9" t="s">
+        <v>991</v>
       </c>
       <c r="H410" s="8">
         <v>11123.0</v>
       </c>
+      <c r="I410" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J410" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Skins S06","alt":"Skins 6","tags":["2012","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/900","post":"11123"},</v>
+      </c>
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="A411" s="7">
@@ -15148,11 +17615,34 @@
         <v>397</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>897</v>
+        <v>1002</v>
+      </c>
+      <c r="C411" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D411" s="8">
+        <v>2013.0</v>
+      </c>
+      <c r="E411" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F411" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G411" s="9" t="s">
+        <v>991</v>
       </c>
       <c r="H411" s="8">
         <v>11134.0</v>
       </c>
+      <c r="I411" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J411" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Skins S07","alt":"Skins 7","tags":["2013","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/900","post":"11134"},</v>
+      </c>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="A412" s="7">
@@ -15160,11 +17650,34 @@
         <v>398</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>898</v>
+        <v>1004</v>
+      </c>
+      <c r="C412" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D412" s="8">
+        <v>2013.0</v>
+      </c>
+      <c r="E412" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F412" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G412" s="9" t="s">
+        <v>1006</v>
       </c>
       <c r="H412" s="8">
         <v>11059.0</v>
       </c>
+      <c r="I412" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J412" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Utopia S01","alt":"Utopia 1","tags":["2013","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/46511","post":"11059"},</v>
+      </c>
     </row>
     <row r="413" ht="15.75" customHeight="1">
       <c r="A413" s="7">
@@ -15172,11 +17685,34 @@
         <v>399</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>899</v>
+        <v>1007</v>
+      </c>
+      <c r="C413" s="8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D413" s="8">
+        <v>2014.0</v>
+      </c>
+      <c r="E413" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F413" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G413" s="9" t="s">
+        <v>1006</v>
       </c>
       <c r="H413" s="8">
         <v>11066.0</v>
       </c>
+      <c r="I413" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J413" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Utopia S02","alt":"Utopia 2","tags":["2014","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/46511","post":"11066"},</v>
+      </c>
     </row>
     <row r="414" ht="15.75" customHeight="1">
       <c r="A414" s="7">
@@ -15184,11 +17720,34 @@
         <v>400</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>900</v>
+        <v>1009</v>
+      </c>
+      <c r="C414" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D414" s="8">
+        <v>2017.0</v>
+      </c>
+      <c r="E414" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F414" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G414" s="9" t="s">
+        <v>1011</v>
       </c>
       <c r="H414" s="8">
         <v>11030.0</v>
       </c>
+      <c r="I414" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J414" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Marvelous Mrs. Maisel S01","alt":"The Marvelous Mrs. Maisel 1","tags":["2017","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/70796","post":"11030"},</v>
+      </c>
     </row>
     <row r="415" ht="15.75" customHeight="1">
       <c r="A415" s="7">
@@ -15196,11 +17755,34 @@
         <v>401</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>901</v>
+        <v>1012</v>
+      </c>
+      <c r="C415" s="8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D415" s="8">
+        <v>2018.0</v>
+      </c>
+      <c r="E415" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F415" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G415" s="9" t="s">
+        <v>1011</v>
       </c>
       <c r="H415" s="8">
         <v>11039.0</v>
       </c>
+      <c r="I415" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J415" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Marvelous Mrs. Maisel S02","alt":"The Marvelous Mrs. Maisel 2","tags":["2018","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/70796","post":"11039"},</v>
+      </c>
     </row>
     <row r="416" ht="15.75" customHeight="1">
       <c r="A416" s="7">
@@ -15208,101 +17790,1382 @@
         <v>402</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>902</v>
+        <v>1014</v>
+      </c>
+      <c r="C416" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D416" s="8">
+        <v>2019.0</v>
+      </c>
+      <c r="E416" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F416" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G416" s="9" t="s">
+        <v>1011</v>
       </c>
       <c r="H416" s="8">
         <v>11050.0</v>
       </c>
-    </row>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
+      <c r="I416" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J416" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Marvelous Mrs. Maisel S03","alt":"The Marvelous Mrs. Maisel 3","tags":["2019","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/70796","post":"11050"},</v>
+      </c>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="A417" s="7">
+        <f t="shared" si="3"/>
+        <v>403</v>
+      </c>
+      <c r="B417" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D417" s="8">
+        <v>2008.0</v>
+      </c>
+      <c r="F417" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H417" s="8">
+        <v>11027.0</v>
+      </c>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="A418" s="7">
+        <f t="shared" si="3"/>
+        <v>404</v>
+      </c>
+      <c r="B418" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D418" s="8">
+        <v>1998.0</v>
+      </c>
+      <c r="F418" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H418" s="8">
+        <v>11024.0</v>
+      </c>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="A419" s="7">
+        <f t="shared" si="3"/>
+        <v>405</v>
+      </c>
+      <c r="B419" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F419" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H419" s="8">
+        <v>10795.0</v>
+      </c>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="A420" s="7">
+        <f t="shared" si="3"/>
+        <v>406</v>
+      </c>
+      <c r="B420" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F420" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H420" s="8">
+        <v>10820.0</v>
+      </c>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="A421" s="7">
+        <f t="shared" si="3"/>
+        <v>407</v>
+      </c>
+      <c r="B421" s="8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F421" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H421" s="8">
+        <v>10846.0</v>
+      </c>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="A422" s="7">
+        <f t="shared" si="3"/>
+        <v>408</v>
+      </c>
+      <c r="B422" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F422" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H422" s="8">
+        <v>10871.0</v>
+      </c>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="A423" s="7">
+        <f t="shared" si="3"/>
+        <v>409</v>
+      </c>
+      <c r="B423" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F423" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H423" s="8">
+        <v>10896.0</v>
+      </c>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="A424" s="7">
+        <f t="shared" si="3"/>
+        <v>410</v>
+      </c>
+      <c r="B424" s="8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F424" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H424" s="8">
+        <v>10917.0</v>
+      </c>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="A425" s="7">
+        <f t="shared" si="3"/>
+        <v>411</v>
+      </c>
+      <c r="B425" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F425" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H425" s="8">
+        <v>10940.0</v>
+      </c>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="A426" s="7">
+        <f t="shared" si="3"/>
+        <v>412</v>
+      </c>
+      <c r="B426" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F426" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H426" s="8">
+        <v>10963.0</v>
+      </c>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="A427" s="7">
+        <f t="shared" si="3"/>
+        <v>413</v>
+      </c>
+      <c r="B427" s="8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F427" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H427" s="8">
+        <v>10985.0</v>
+      </c>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="A428" s="7">
+        <f t="shared" si="3"/>
+        <v>414</v>
+      </c>
+      <c r="B428" s="8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F428" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H428" s="8">
+        <v>11005.0</v>
+      </c>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="A429" s="7">
+        <f t="shared" si="3"/>
+        <v>415</v>
+      </c>
+      <c r="B429" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F429" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H429" s="8">
+        <v>11013.0</v>
+      </c>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="A430" s="7">
+        <f t="shared" si="3"/>
+        <v>416</v>
+      </c>
+      <c r="B430" s="8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F430" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H430" s="8">
+        <v>10764.0</v>
+      </c>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="A431" s="7">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+      <c r="B431" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F431" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H431" s="8">
+        <v>10775.0</v>
+      </c>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="A432" s="7">
+        <f t="shared" si="3"/>
+        <v>418</v>
+      </c>
+      <c r="B432" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F432" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H432" s="8">
+        <v>10786.0</v>
+      </c>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="A433" s="7">
+        <f t="shared" si="3"/>
+        <v>419</v>
+      </c>
+      <c r="B433" s="8" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F433" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H433" s="8">
+        <v>10736.0</v>
+      </c>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="A434" s="7">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+      <c r="B434" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F434" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H434" s="8">
+        <v>10745.0</v>
+      </c>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="A435" s="7">
+        <f t="shared" si="3"/>
+        <v>421</v>
+      </c>
+      <c r="B435" s="8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F435" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H435" s="8">
+        <v>10755.0</v>
+      </c>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="A436" s="7">
+        <f t="shared" si="3"/>
+        <v>422</v>
+      </c>
+      <c r="B436" s="8" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F436" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H436" s="8">
+        <v>10583.0</v>
+      </c>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="A437" s="7">
+        <f t="shared" si="3"/>
+        <v>423</v>
+      </c>
+      <c r="B437" s="8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F437" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H437" s="8">
+        <v>10608.0</v>
+      </c>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="A438" s="7">
+        <f t="shared" si="3"/>
+        <v>424</v>
+      </c>
+      <c r="B438" s="8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F438" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H438" s="8">
+        <v>10634.0</v>
+      </c>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="A439" s="7">
+        <f t="shared" si="3"/>
+        <v>425</v>
+      </c>
+      <c r="B439" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F439" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H439" s="8">
+        <v>10658.0</v>
+      </c>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="A440" s="7">
+        <f t="shared" si="3"/>
+        <v>426</v>
+      </c>
+      <c r="B440" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F440" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H440" s="8">
+        <v>10681.0</v>
+      </c>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="A441" s="7">
+        <f t="shared" si="3"/>
+        <v>427</v>
+      </c>
+      <c r="B441" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F441" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H441" s="8">
+        <v>10704.0</v>
+      </c>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="A442" s="7">
+        <f t="shared" si="3"/>
+        <v>428</v>
+      </c>
+      <c r="B442" s="8" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F442" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H442" s="8">
+        <v>10727.0</v>
+      </c>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="A443" s="7">
+        <f t="shared" si="3"/>
+        <v>429</v>
+      </c>
+      <c r="B443" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F443" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H443" s="8">
+        <v>10559.0</v>
+      </c>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="A444" s="7">
+        <f t="shared" si="3"/>
+        <v>430</v>
+      </c>
+      <c r="B444" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F444" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H444" s="8">
+        <v>10570.0</v>
+      </c>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="A445" s="7">
+        <f t="shared" si="3"/>
+        <v>431</v>
+      </c>
+      <c r="B445" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F445" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H445" s="8">
+        <v>10522.0</v>
+      </c>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="A446" s="7">
+        <f t="shared" si="3"/>
+        <v>432</v>
+      </c>
+      <c r="B446" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F446" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H446" s="8">
+        <v>10529.0</v>
+      </c>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="A447" s="7">
+        <f t="shared" si="3"/>
+        <v>433</v>
+      </c>
+      <c r="B447" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F447" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H447" s="8">
+        <v>10491.0</v>
+      </c>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="A448" s="7">
+        <f t="shared" si="3"/>
+        <v>434</v>
+      </c>
+      <c r="B448" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F448" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H448" s="8">
+        <v>10495.0</v>
+      </c>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="A449" s="7">
+        <f t="shared" si="3"/>
+        <v>435</v>
+      </c>
+      <c r="B449" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F449" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H449" s="8">
+        <v>10500.0</v>
+      </c>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="A450" s="7">
+        <f t="shared" si="3"/>
+        <v>436</v>
+      </c>
+      <c r="B450" s="8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F450" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H450" s="8">
+        <v>10507.0</v>
+      </c>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="A451" s="7">
+        <f t="shared" si="3"/>
+        <v>437</v>
+      </c>
+      <c r="B451" s="8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F451" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H451" s="8">
+        <v>10518.0</v>
+      </c>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="A452" s="7">
+        <f t="shared" si="3"/>
+        <v>438</v>
+      </c>
+      <c r="B452" s="8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F452" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H452" s="8">
+        <v>10514.0</v>
+      </c>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="A453" s="7">
+        <f t="shared" si="3"/>
+        <v>439</v>
+      </c>
+      <c r="B453" s="8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F453" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H453" s="8">
+        <v>10283.0</v>
+      </c>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="A454" s="7">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="B454" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F454" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H454" s="8">
+        <v>10309.0</v>
+      </c>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="A455" s="7">
+        <f t="shared" si="3"/>
+        <v>441</v>
+      </c>
+      <c r="B455" s="8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F455" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H455" s="8">
+        <v>10336.0</v>
+      </c>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="A456" s="7">
+        <f t="shared" si="3"/>
+        <v>442</v>
+      </c>
+      <c r="B456" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F456" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H456" s="8">
+        <v>10362.0</v>
+      </c>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="A457" s="7">
+        <f t="shared" si="3"/>
+        <v>443</v>
+      </c>
+      <c r="B457" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F457" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H457" s="8">
+        <v>10390.0</v>
+      </c>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="A458" s="7">
+        <f t="shared" si="3"/>
+        <v>444</v>
+      </c>
+      <c r="B458" s="8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F458" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H458" s="8">
+        <v>10416.0</v>
+      </c>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="A459" s="7">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+      <c r="B459" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F459" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H459" s="8">
+        <v>10442.0</v>
+      </c>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="A460" s="7">
+        <f t="shared" si="3"/>
+        <v>446</v>
+      </c>
+      <c r="B460" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F460" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H460" s="8">
+        <v>10468.0</v>
+      </c>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="A461" s="7">
+        <f t="shared" si="3"/>
+        <v>447</v>
+      </c>
+      <c r="B461" s="8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F461" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H461" s="8">
+        <v>10009.0</v>
+      </c>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="A462" s="7">
+        <f t="shared" si="3"/>
+        <v>448</v>
+      </c>
+      <c r="B462" s="8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F462" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H462" s="8">
+        <v>10034.0</v>
+      </c>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="A463" s="7">
+        <f t="shared" si="3"/>
+        <v>449</v>
+      </c>
+      <c r="B463" s="8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F463" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H463" s="8">
+        <v>10059.0</v>
+      </c>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="A464" s="7">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="B464" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F464" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H464" s="8">
+        <v>10084.0</v>
+      </c>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="A465" s="7">
+        <f t="shared" si="3"/>
+        <v>451</v>
+      </c>
+      <c r="B465" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F465" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H465" s="8">
+        <v>10109.0</v>
+      </c>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="A466" s="7">
+        <f t="shared" si="3"/>
+        <v>452</v>
+      </c>
+      <c r="B466" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F466" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H466" s="8">
+        <v>10129.0</v>
+      </c>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="A467" s="7">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="B467" s="8" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F467" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H467" s="8">
+        <v>10154.0</v>
+      </c>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="A468" s="7">
+        <f t="shared" si="3"/>
+        <v>454</v>
+      </c>
+      <c r="B468" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F468" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H468" s="8">
+        <v>10177.0</v>
+      </c>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="A469" s="7">
+        <f t="shared" si="3"/>
+        <v>455</v>
+      </c>
+      <c r="B469" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F469" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H469" s="8">
+        <v>10194.0</v>
+      </c>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="A470" s="7">
+        <f t="shared" si="3"/>
+        <v>456</v>
+      </c>
+      <c r="B470" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F470" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H470" s="8">
+        <v>10219.0</v>
+      </c>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="A471" s="7">
+        <f t="shared" si="3"/>
+        <v>457</v>
+      </c>
+      <c r="B471" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F471" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H471" s="8">
+        <v>10243.0</v>
+      </c>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="A472" s="7">
+        <f t="shared" si="3"/>
+        <v>458</v>
+      </c>
+      <c r="B472" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F472" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H472" s="8">
+        <v>10267.0</v>
+      </c>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="A473" s="7">
+        <f t="shared" si="3"/>
+        <v>459</v>
+      </c>
+      <c r="B473" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F473" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H473" s="8">
+        <v>9989.0</v>
+      </c>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="A474" s="7">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="B474" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F474" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H474" s="8">
+        <v>9698.0</v>
+      </c>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="A475" s="7">
+        <f t="shared" si="3"/>
+        <v>461</v>
+      </c>
+      <c r="B475" s="8" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F475" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H475" s="8">
+        <v>9716.0</v>
+      </c>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="A476" s="7">
+        <f t="shared" si="3"/>
+        <v>462</v>
+      </c>
+      <c r="B476" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F476" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H476" s="8">
+        <v>9740.0</v>
+      </c>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="A477" s="7">
+        <f t="shared" si="3"/>
+        <v>463</v>
+      </c>
+      <c r="B477" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F477" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H477" s="8">
+        <v>9764.0</v>
+      </c>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="A478" s="7">
+        <f t="shared" si="3"/>
+        <v>464</v>
+      </c>
+      <c r="B478" s="8" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F478" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H478" s="8">
+        <v>9789.0</v>
+      </c>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="A479" s="7">
+        <f t="shared" si="3"/>
+        <v>465</v>
+      </c>
+      <c r="B479" s="8" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F479" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H479" s="8">
+        <v>9814.0</v>
+      </c>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="A480" s="7">
+        <f t="shared" si="3"/>
+        <v>466</v>
+      </c>
+      <c r="B480" s="8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F480" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H480" s="8">
+        <v>9839.0</v>
+      </c>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="A481" s="7">
+        <f t="shared" si="3"/>
+        <v>467</v>
+      </c>
+      <c r="B481" s="8" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F481" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H481" s="8">
+        <v>9864.0</v>
+      </c>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="A482" s="7">
+        <f t="shared" si="3"/>
+        <v>468</v>
+      </c>
+      <c r="B482" s="8" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F482" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H482" s="8">
+        <v>9889.0</v>
+      </c>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="A483" s="7">
+        <f t="shared" si="3"/>
+        <v>469</v>
+      </c>
+      <c r="B483" s="8" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F483" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H483" s="8">
+        <v>9914.0</v>
+      </c>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="A484" s="7">
+        <f t="shared" si="3"/>
+        <v>470</v>
+      </c>
+      <c r="B484" s="8" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F484" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H484" s="8">
+        <v>9939.0</v>
+      </c>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="A485" s="7">
+        <f t="shared" si="3"/>
+        <v>471</v>
+      </c>
+      <c r="B485" s="8" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F485" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H485" s="8">
+        <v>9964.0</v>
+      </c>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="A486" s="7">
+        <f t="shared" si="3"/>
+        <v>472</v>
+      </c>
+      <c r="B486" s="8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F486" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H486" s="8">
+        <v>9679.0</v>
+      </c>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="A487" s="7">
+        <f t="shared" si="3"/>
+        <v>473</v>
+      </c>
+      <c r="B487" s="8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D487" s="8">
+        <v>2010.0</v>
+      </c>
+      <c r="F487" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H487" s="8">
+        <v>9677.0</v>
+      </c>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="A488" s="7">
+        <f t="shared" si="3"/>
+        <v>474</v>
+      </c>
+      <c r="B488" s="8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D488" s="8">
+        <v>2008.0</v>
+      </c>
+      <c r="F488" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H488" s="8">
+        <v>9675.0</v>
+      </c>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="A489" s="7">
+        <f t="shared" si="3"/>
+        <v>475</v>
+      </c>
+      <c r="B489" s="8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F489" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H489" s="8">
+        <v>9575.0</v>
+      </c>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="A490" s="7">
+        <f t="shared" si="3"/>
+        <v>476</v>
+      </c>
+      <c r="B490" s="8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F490" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H490" s="8">
+        <v>9588.0</v>
+      </c>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="A491" s="7">
+        <f t="shared" si="3"/>
+        <v>477</v>
+      </c>
+      <c r="B491" s="8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F491" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H491" s="8">
+        <v>9607.0</v>
+      </c>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="A492" s="7">
+        <f t="shared" si="3"/>
+        <v>478</v>
+      </c>
+      <c r="B492" s="8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F492" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H492" s="8">
+        <v>9626.0</v>
+      </c>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="A493" s="7">
+        <f t="shared" si="3"/>
+        <v>479</v>
+      </c>
+      <c r="B493" s="8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F493" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H493" s="8">
+        <v>9645.0</v>
+      </c>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="A494" s="7">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="B494" s="8" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F494" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H494" s="8">
+        <v>9654.0</v>
+      </c>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="A495" s="7">
+        <f t="shared" si="3"/>
+        <v>481</v>
+      </c>
+      <c r="B495" s="8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F495" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H495" s="8">
+        <v>9548.0</v>
+      </c>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="A496" s="7">
+        <f t="shared" si="3"/>
+        <v>482</v>
+      </c>
+      <c r="B496" s="8" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F496" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H496" s="8">
+        <v>9557.0</v>
+      </c>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="A497" s="7">
+        <f t="shared" si="3"/>
+        <v>483</v>
+      </c>
+      <c r="B497" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F497" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H497" s="8">
+        <v>9566.0</v>
+      </c>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="A498" s="7">
+        <f t="shared" si="3"/>
+        <v>484</v>
+      </c>
+      <c r="B498" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F498" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H498" s="8">
+        <v>9497.0</v>
+      </c>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="A499" s="7">
+        <f t="shared" si="3"/>
+        <v>485</v>
+      </c>
+      <c r="B499" s="8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F499" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H499" s="8">
+        <v>9519.0</v>
+      </c>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="A500" s="7">
+        <f t="shared" si="3"/>
+        <v>486</v>
+      </c>
+      <c r="B500" s="8" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F500" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H500" s="8">
+        <v>9533.0</v>
+      </c>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="A501" s="7">
+        <f t="shared" si="3"/>
+        <v>487</v>
+      </c>
+      <c r="B501" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F501" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H501" s="8">
+        <v>9471.0</v>
+      </c>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="A502" s="7">
+        <f t="shared" si="3"/>
+        <v>488</v>
+      </c>
+      <c r="B502" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F502" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H502" s="8">
+        <v>9484.0</v>
+      </c>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="A503" s="7">
+        <f t="shared" si="3"/>
+        <v>489</v>
+      </c>
+      <c r="B503" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F503" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H503" s="8">
+        <v>9454.0</v>
+      </c>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="A504" s="7">
+        <f t="shared" si="3"/>
+        <v>490</v>
+      </c>
+      <c r="B504" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F504" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H504" s="8">
+        <v>9441.0</v>
+      </c>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="A505" s="7">
+        <f t="shared" si="3"/>
+        <v>491</v>
+      </c>
+      <c r="B505" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F505" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H505" s="8">
+        <v>9431.0</v>
+      </c>
+    </row>
     <row r="506" ht="15.75" customHeight="1"/>
     <row r="507" ht="15.75" customHeight="1"/>
     <row r="508" ht="15.75" customHeight="1"/>
@@ -15823,7 +19686,7 @@
     <row r="1">
       <c r="A1" s="10">
         <f>NOW()</f>
-        <v>45084.33945</v>
+        <v>45084.95546</v>
       </c>
       <c r="B1" s="5">
         <f>DAY(A1)</f>
@@ -15845,7 +19708,7 @@
         <v>1.0</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>903</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="2">
@@ -15853,7 +19716,7 @@
         <v>2.0</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>904</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="3">
@@ -15865,7 +19728,7 @@
         <v>3.0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>905</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="4">
@@ -15873,7 +19736,7 @@
         <v>4.0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>906</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="5">
@@ -15881,7 +19744,7 @@
         <v>5.0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>907</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="6">
@@ -15889,7 +19752,7 @@
         <v>6.0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>908</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7">
@@ -15897,7 +19760,7 @@
         <v>7.0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>909</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="8">
@@ -15905,7 +19768,7 @@
         <v>8.0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>910</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="9">
@@ -15913,7 +19776,7 @@
         <v>9.0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>911</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="10">
@@ -15921,7 +19784,7 @@
         <v>10.0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>912</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="11">
@@ -15929,7 +19792,7 @@
         <v>11.0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>913</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="12">
@@ -15937,7 +19800,7 @@
         <v>12.0</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>914</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="1215">
   <si>
     <t>info</t>
   </si>
@@ -3041,268 +3041,631 @@
     <t>The Marvelous Mrs. Maisel 3</t>
   </si>
   <si>
+    <t>The X-Files: I Want to Believe</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/8836</t>
+  </si>
+  <si>
     <t>The X-Files</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/movie/846</t>
+  </si>
+  <si>
     <t>The X-Files S01</t>
   </si>
   <si>
+    <t>The X-Files 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/4087</t>
+  </si>
+  <si>
     <t>The X-Files S02</t>
   </si>
   <si>
+    <t>The X-Files 2</t>
+  </si>
+  <si>
     <t>The X-Files S03</t>
   </si>
   <si>
+    <t>The X-Files 3</t>
+  </si>
+  <si>
     <t>The X-Files S04</t>
   </si>
   <si>
+    <t>The X-Files 4</t>
+  </si>
+  <si>
     <t>The X-Files S05</t>
   </si>
   <si>
+    <t>The X-Files 5</t>
+  </si>
+  <si>
     <t>The X-Files S06</t>
   </si>
   <si>
+    <t>The X-Files 6</t>
+  </si>
+  <si>
     <t>The X-Files S07</t>
   </si>
   <si>
+    <t>The X-Files 7</t>
+  </si>
+  <si>
     <t>The X-Files S08</t>
   </si>
   <si>
+    <t>The X-Files 8</t>
+  </si>
+  <si>
     <t>The X-Files S09</t>
   </si>
   <si>
+    <t>The X-Files 9</t>
+  </si>
+  <si>
     <t>The X-Files S10</t>
   </si>
   <si>
+    <t>The X-Files 10</t>
+  </si>
+  <si>
     <t>The X-Files S11</t>
   </si>
   <si>
+    <t>The X-Files 11</t>
+  </si>
+  <si>
     <t>Westworld S01</t>
   </si>
   <si>
+    <t>Westworld 1, Westworld: The Maze</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/63247</t>
+  </si>
+  <si>
     <t>Westworld S02</t>
   </si>
   <si>
+    <t>Westworld 2, Westworld: The Door</t>
+  </si>
+  <si>
     <t>Westworld S03</t>
   </si>
   <si>
+    <t>Westworld 3, Westworld: The New World</t>
+  </si>
+  <si>
     <t>Stranger Things S01</t>
   </si>
   <si>
+    <t>Stranger Things 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/66732</t>
+  </si>
+  <si>
     <t>Stranger Things S02</t>
   </si>
   <si>
+    <t>Stranger Things 2</t>
+  </si>
+  <si>
     <t>Stranger Things S03</t>
   </si>
   <si>
+    <t>Stranger Things 3</t>
+  </si>
+  <si>
     <t>New Girl S01</t>
   </si>
   <si>
+    <t>New Girl 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/1420</t>
+  </si>
+  <si>
     <t>New Girl S02</t>
   </si>
   <si>
+    <t>New Girl 2</t>
+  </si>
+  <si>
     <t>New Girl S03</t>
   </si>
   <si>
+    <t>New Girl 3</t>
+  </si>
+  <si>
     <t>New Girl S04</t>
   </si>
   <si>
+    <t>New Girl 4</t>
+  </si>
+  <si>
     <t>New Girl S05</t>
   </si>
   <si>
+    <t>New Girl 5</t>
+  </si>
+  <si>
     <t>New Girl S06</t>
   </si>
   <si>
+    <t>New Girl 6</t>
+  </si>
+  <si>
     <t>New Girl S07</t>
   </si>
   <si>
+    <t>New Girl 7</t>
+  </si>
+  <si>
     <t>Ted Lasso S01</t>
   </si>
   <si>
+    <t>Ted Lasso 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/97546</t>
+  </si>
+  <si>
     <t>Ted Lasso S02</t>
   </si>
   <si>
+    <t>Ted Lasso 2</t>
+  </si>
+  <si>
     <t>Fleabag S01</t>
   </si>
   <si>
+    <t>Fleabag 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/67070</t>
+  </si>
+  <si>
     <t>Fleabag S02</t>
   </si>
   <si>
+    <t>Fleabag 2</t>
+  </si>
+  <si>
     <t>Black Mirror S01</t>
   </si>
   <si>
+    <t>Black Mirror 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/42009</t>
+  </si>
+  <si>
     <t>Black Mirror S02</t>
   </si>
   <si>
+    <t>Black Mirror 2</t>
+  </si>
+  <si>
     <t>Black Mirror S03</t>
   </si>
   <si>
+    <t>Black Mirror 3</t>
+  </si>
+  <si>
     <t>Black Mirror S04</t>
   </si>
   <si>
+    <t>Black Mirror 4</t>
+  </si>
+  <si>
     <t>Black Mirror S05</t>
   </si>
   <si>
+    <t>Black Mirror 5</t>
+  </si>
+  <si>
     <t>Black Mirror: Bandersnatch</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/movie/569547</t>
+  </si>
+  <si>
     <t>That '70s Show S01</t>
   </si>
   <si>
+    <t>That '70s Show 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/52</t>
+  </si>
+  <si>
     <t>That '70s Show S02</t>
   </si>
   <si>
+    <t>That '70s Show 2</t>
+  </si>
+  <si>
     <t>That '70s Show S03</t>
   </si>
   <si>
+    <t>That '70s Show 3</t>
+  </si>
+  <si>
     <t>That '70s Show S04</t>
   </si>
   <si>
+    <t>That '70s Show 4</t>
+  </si>
+  <si>
     <t>That '70s Show S05</t>
   </si>
   <si>
+    <t>That '70s Show 5</t>
+  </si>
+  <si>
     <t>That '70s Show S06</t>
   </si>
   <si>
+    <t>That '70s Show 6</t>
+  </si>
+  <si>
     <t>That '70s Show S07</t>
   </si>
   <si>
+    <t>That '70s Show 7</t>
+  </si>
+  <si>
     <t>That '70s Show S08</t>
   </si>
   <si>
+    <t>That '70s Show 8</t>
+  </si>
+  <si>
     <t>Two and a Half Men S01</t>
   </si>
   <si>
+    <t>Two and a Half Men 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/2691</t>
+  </si>
+  <si>
     <t>Two and a Half Men S02</t>
   </si>
   <si>
+    <t>Two and a Half Men 2</t>
+  </si>
+  <si>
     <t>Two and a Half Men S03</t>
   </si>
   <si>
+    <t>Two and a Half Men 3</t>
+  </si>
+  <si>
     <t>Two and a Half Men S04</t>
   </si>
   <si>
+    <t>Two and a Half Men 4</t>
+  </si>
+  <si>
     <t>Two and a Half Men S05</t>
   </si>
   <si>
+    <t>Two and a Half Men 5</t>
+  </si>
+  <si>
     <t>Two and a Half Men S06</t>
   </si>
   <si>
+    <t>Two and a Half Men 6</t>
+  </si>
+  <si>
     <t>Two and a Half Men S07</t>
   </si>
   <si>
+    <t>Two and a Half Men 7</t>
+  </si>
+  <si>
     <t>Two and a Half Men S08</t>
   </si>
   <si>
+    <t>Two and a Half Men 8</t>
+  </si>
+  <si>
     <t>Two and a Half Men S09</t>
   </si>
   <si>
+    <t>Two and a Half Men 9</t>
+  </si>
+  <si>
     <t>Two and a Half Men S10</t>
   </si>
   <si>
+    <t>Two and a Half Men 10</t>
+  </si>
+  <si>
     <t>Two and a Half Men S11</t>
   </si>
   <si>
+    <t>Two and a Half Men 11</t>
+  </si>
+  <si>
     <t>Two and a Half Men S12</t>
   </si>
   <si>
+    <t>Two and a Half Men 12</t>
+  </si>
+  <si>
     <t>My So-Called Life</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/tv/1101</t>
+  </si>
+  <si>
     <t>The Big Bang Theory S01</t>
   </si>
   <si>
+    <t>The Big Bang Theory 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/1418</t>
+  </si>
+  <si>
     <t>The Big Bang Theory S02</t>
   </si>
   <si>
+    <t>The Big Bang Theory 2</t>
+  </si>
+  <si>
     <t>The Big Bang Theory S03</t>
   </si>
   <si>
+    <t>The Big Bang Theory 3</t>
+  </si>
+  <si>
     <t>The Big Bang Theory S04</t>
   </si>
   <si>
+    <t>The Big Bang Theory 4</t>
+  </si>
+  <si>
     <t>The Big Bang Theory S05</t>
   </si>
   <si>
+    <t>The Big Bang Theory 5</t>
+  </si>
+  <si>
     <t>The Big Bang Theory S06</t>
   </si>
   <si>
+    <t>The Big Bang Theory 6</t>
+  </si>
+  <si>
     <t>The Big Bang Theory S07</t>
   </si>
   <si>
+    <t>The Big Bang Theory 7</t>
+  </si>
+  <si>
     <t>The Big Bang Theory S08</t>
   </si>
   <si>
+    <t>The Big Bang Theory 8</t>
+  </si>
+  <si>
     <t>The Big Bang Theory S09</t>
   </si>
   <si>
+    <t>The Big Bang Theory 9</t>
+  </si>
+  <si>
     <t>The Big Bang Theory S10</t>
   </si>
   <si>
+    <t>The Big Bang Theory 10</t>
+  </si>
+  <si>
     <t>The Big Bang Theory S11</t>
   </si>
   <si>
+    <t>The Big Bang Theory 11</t>
+  </si>
+  <si>
     <t>The Big Bang Theory S12</t>
   </si>
   <si>
+    <t>The Big Bang Theory 12</t>
+  </si>
+  <si>
     <t>Freaks and Geeks</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/tv/2382</t>
+  </si>
+  <si>
     <t>Sex and the City 2</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/movie/37786</t>
+  </si>
+  <si>
     <t>Sex and the City</t>
   </si>
   <si>
+    <t>Sex and the City 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/4564</t>
+  </si>
+  <si>
     <t>Sex and the City S01</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/tv/105</t>
+  </si>
+  <si>
     <t>Sex and the City S02</t>
   </si>
   <si>
     <t>Sex and the City S03</t>
   </si>
   <si>
+    <t>Sex and the City 3</t>
+  </si>
+  <si>
     <t>Sex and the City S04</t>
   </si>
   <si>
+    <t>Sex and the City 4</t>
+  </si>
+  <si>
     <t>Sex and the City S05</t>
   </si>
   <si>
+    <t>Sex and the City 5</t>
+  </si>
+  <si>
     <t>Sex and the City S06</t>
   </si>
   <si>
+    <t>Sex and the City 6</t>
+  </si>
+  <si>
     <t>Sex Education S01</t>
   </si>
   <si>
+    <t>Sex Education 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/81356</t>
+  </si>
+  <si>
     <t>Sex Education S02</t>
   </si>
   <si>
+    <t>Sex Education 2</t>
+  </si>
+  <si>
     <t>Sex Education S03</t>
   </si>
   <si>
+    <t>Sex Education 3</t>
+  </si>
+  <si>
     <t>The Penthouse S01</t>
   </si>
   <si>
+    <t>The Penthouse 1, The Penthouse: War in Life 1, The Penthouse: War in Life S01</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/99489</t>
+  </si>
+  <si>
     <t>The Penthouse S02</t>
   </si>
   <si>
+    <t>The Penthouse 2, The Penthouse: War in Life 2, The Penthouse: War in Life S02</t>
+  </si>
+  <si>
     <t>The Penthouse S03</t>
   </si>
   <si>
+    <t>The Penthouse 3, The Penthouse: War in Life 3, The Penthouse: War in Life S03</t>
+  </si>
+  <si>
     <t>Hospital Playlist S01</t>
   </si>
   <si>
+    <t>Hospital Playlist 1, Wise Doctor Life 1, Smart Doctor Living 1, A Wise Doctor's Life 1, Secret Doctor's Life 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/96102</t>
+  </si>
+  <si>
     <t>Hospital Playlist S02</t>
   </si>
   <si>
+    <t>Hospital Playlist 2, Wise Doctor Life 2, Smart Doctor Living 2, A Wise Doctor's Life 2, Secret Doctor's Life 2</t>
+  </si>
+  <si>
     <t>Monthly Magazine Home</t>
   </si>
   <si>
+    <t>Monthly House, Monthly Home</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/120057</t>
+  </si>
+  <si>
     <t>Go Back Couple</t>
   </si>
   <si>
+    <t>Go Back Spouses, Confession Couple, Confession Spouses, Go Back to 1999, Couple on the Backtrack, Do It One More Time</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/74064</t>
+  </si>
+  <si>
     <t>Squid Game</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>The Squid Game</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>Cuttlefish Game</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>Squid Games</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>Round Six</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>Round 6</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/93405</t>
   </si>
   <si>
     <t>Jan</t>
@@ -3345,7 +3708,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -3378,6 +3741,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3418,7 +3789,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3436,6 +3807,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="22" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -3659,11 +4036,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.14"/>
-    <col customWidth="1" min="2" max="2" width="25.29"/>
-    <col customWidth="1" min="3" max="3" width="21.71"/>
-    <col customWidth="1" min="4" max="4" width="9.43"/>
-    <col customWidth="1" min="5" max="5" width="11.29"/>
+    <col customWidth="1" min="1" max="1" width="4.57"/>
+    <col customWidth="1" min="2" max="2" width="17.0"/>
+    <col customWidth="1" min="3" max="3" width="14.57"/>
+    <col customWidth="1" min="4" max="4" width="7.0"/>
+    <col customWidth="1" min="5" max="5" width="6.71"/>
     <col customWidth="1" min="6" max="6" width="8.71"/>
     <col customWidth="1" min="7" max="7" width="15.71"/>
     <col customWidth="1" min="8" max="8" width="8.57"/>
@@ -3833,11 +4210,11 @@
         <v>17172.0</v>
       </c>
       <c r="I4" s="7" t="str">
-        <f t="shared" ref="I4:I405" si="1">IF(H5="",$G$2&amp;$D$2,$H$2)</f>
+        <f t="shared" ref="I4:I494" si="1">IF(H5="",$G$2&amp;$D$2,$H$2)</f>
         <v>,</v>
       </c>
       <c r="J4" s="8" t="str">
-        <f t="shared" ref="J4:J405" si="2">$B$2&amp;$I$2&amp;$B$3&amp;$I$2&amp;$E$2&amp;$I$2&amp;B4&amp;$I$2&amp;$H$2&amp;$I$2&amp;$C$3&amp;$I$2&amp;$E$2&amp;$I$2&amp;C4&amp;$I$2&amp;$H$2&amp;$I$2&amp;$I$3&amp;$I$2&amp;$E$2&amp;$F$2&amp;$I$2&amp;D4&amp;$I$2&amp;$H$2&amp;$I$2&amp;E4&amp;$I$2&amp;$H$2&amp;$I$2&amp;F4&amp;$I$2&amp;$G$2&amp;$H$2&amp;$I$2&amp;$G$3&amp;$I$2&amp;$E$2&amp;$I$2&amp;G4&amp;$I$2&amp;$H$2&amp;$I$2&amp;$H$3&amp;$I$2&amp;$E$2&amp;$I$2&amp;H4&amp;$I$2&amp;$D$2&amp;I4</f>
+        <f t="shared" ref="J4:J494" si="2">$B$2&amp;$I$2&amp;$B$3&amp;$I$2&amp;$E$2&amp;$I$2&amp;B4&amp;$I$2&amp;$H$2&amp;$I$2&amp;$C$3&amp;$I$2&amp;$E$2&amp;$I$2&amp;C4&amp;$I$2&amp;$H$2&amp;$I$2&amp;$I$3&amp;$I$2&amp;$E$2&amp;$F$2&amp;$I$2&amp;D4&amp;$I$2&amp;$H$2&amp;$I$2&amp;E4&amp;$I$2&amp;$H$2&amp;$I$2&amp;F4&amp;$I$2&amp;$G$2&amp;$H$2&amp;$I$2&amp;$G$3&amp;$I$2&amp;$E$2&amp;$I$2&amp;G4&amp;$I$2&amp;$H$2&amp;$I$2&amp;$H$3&amp;$I$2&amp;$E$2&amp;$I$2&amp;H4&amp;$I$2&amp;$D$2&amp;I4</f>
         <v>{"name":"Rooftop Prince","alt":"Attic Prince","tags":["2012","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/43152","post":"17172"},</v>
       </c>
     </row>
@@ -17563,13 +17940,26 @@
       <c r="D406" s="9">
         <v>2008.0</v>
       </c>
+      <c r="E406" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F406" s="9" t="s">
         <v>119</v>
       </c>
+      <c r="G406" s="11" t="s">
+        <v>1010</v>
+      </c>
       <c r="H406" s="9">
         <v>11027.0</v>
       </c>
-      <c r="J406" s="8"/>
+      <c r="I406" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J406" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The X-Files: I Want to Believe","alt":"","tags":["2008","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/8836","post":"11027"},</v>
+      </c>
     </row>
     <row r="407" ht="15.75" customHeight="1">
       <c r="A407" s="6">
@@ -17577,18 +17967,31 @@
         <v>404</v>
       </c>
       <c r="B407" s="9" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D407" s="9">
         <v>1998.0</v>
       </c>
+      <c r="E407" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F407" s="9" t="s">
         <v>119</v>
       </c>
+      <c r="G407" s="11" t="s">
+        <v>1012</v>
+      </c>
       <c r="H407" s="9">
         <v>11024.0</v>
       </c>
-      <c r="J407" s="8"/>
+      <c r="I407" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J407" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The X-Files","alt":"","tags":["1998","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/846","post":"11024"},</v>
+      </c>
     </row>
     <row r="408" ht="15.75" customHeight="1">
       <c r="A408" s="6">
@@ -17596,15 +17999,34 @@
         <v>405</v>
       </c>
       <c r="B408" s="9" t="s">
-        <v>1010</v>
+        <v>1013</v>
+      </c>
+      <c r="C408" s="9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D408" s="9">
+        <v>1993.0</v>
+      </c>
+      <c r="E408" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F408" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G408" s="11" t="s">
+        <v>1015</v>
       </c>
       <c r="H408" s="9">
         <v>10795.0</v>
       </c>
-      <c r="J408" s="8"/>
+      <c r="I408" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J408" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The X-Files S01","alt":"The X-Files 1","tags":["1993","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/4087","post":"10795"},</v>
+      </c>
     </row>
     <row r="409" ht="15.75" customHeight="1">
       <c r="A409" s="6">
@@ -17612,15 +18034,34 @@
         <v>406</v>
       </c>
       <c r="B409" s="9" t="s">
-        <v>1011</v>
+        <v>1016</v>
+      </c>
+      <c r="C409" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D409" s="9">
+        <v>1994.0</v>
+      </c>
+      <c r="E409" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F409" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G409" s="11" t="s">
+        <v>1015</v>
       </c>
       <c r="H409" s="9">
         <v>10820.0</v>
       </c>
-      <c r="J409" s="8"/>
+      <c r="I409" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J409" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The X-Files S02","alt":"The X-Files 2","tags":["1994","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/4087","post":"10820"},</v>
+      </c>
     </row>
     <row r="410" ht="15.75" customHeight="1">
       <c r="A410" s="6">
@@ -17628,15 +18069,34 @@
         <v>407</v>
       </c>
       <c r="B410" s="9" t="s">
-        <v>1012</v>
+        <v>1018</v>
+      </c>
+      <c r="C410" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D410" s="9">
+        <v>1995.0</v>
+      </c>
+      <c r="E410" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F410" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G410" s="11" t="s">
+        <v>1015</v>
       </c>
       <c r="H410" s="9">
         <v>10846.0</v>
       </c>
-      <c r="J410" s="8"/>
+      <c r="I410" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J410" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The X-Files S03","alt":"The X-Files 3","tags":["1995","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/4087","post":"10846"},</v>
+      </c>
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="A411" s="6">
@@ -17644,15 +18104,34 @@
         <v>408</v>
       </c>
       <c r="B411" s="9" t="s">
-        <v>1013</v>
+        <v>1020</v>
+      </c>
+      <c r="C411" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D411" s="9">
+        <v>1996.0</v>
+      </c>
+      <c r="E411" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F411" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G411" s="11" t="s">
+        <v>1015</v>
       </c>
       <c r="H411" s="9">
         <v>10871.0</v>
       </c>
-      <c r="J411" s="8"/>
+      <c r="I411" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J411" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The X-Files S04","alt":"The X-Files 4","tags":["1996","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/4087","post":"10871"},</v>
+      </c>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="A412" s="6">
@@ -17660,15 +18139,34 @@
         <v>409</v>
       </c>
       <c r="B412" s="9" t="s">
-        <v>1014</v>
+        <v>1022</v>
+      </c>
+      <c r="C412" s="9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D412" s="9">
+        <v>1997.0</v>
+      </c>
+      <c r="E412" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F412" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G412" s="11" t="s">
+        <v>1015</v>
       </c>
       <c r="H412" s="9">
         <v>10896.0</v>
       </c>
-      <c r="J412" s="8"/>
+      <c r="I412" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J412" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The X-Files S05","alt":"The X-Files 5","tags":["1997","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/4087","post":"10896"},</v>
+      </c>
     </row>
     <row r="413" ht="15.75" customHeight="1">
       <c r="A413" s="6">
@@ -17676,15 +18174,34 @@
         <v>410</v>
       </c>
       <c r="B413" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C413" s="9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D413" s="9">
+        <v>1998.0</v>
+      </c>
+      <c r="E413" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F413" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G413" s="11" t="s">
         <v>1015</v>
-      </c>
-      <c r="F413" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="H413" s="9">
         <v>10917.0</v>
       </c>
-      <c r="J413" s="8"/>
+      <c r="I413" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J413" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The X-Files S06","alt":"The X-Files 6","tags":["1998","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/4087","post":"10917"},</v>
+      </c>
     </row>
     <row r="414" ht="15.75" customHeight="1">
       <c r="A414" s="6">
@@ -17692,15 +18209,34 @@
         <v>411</v>
       </c>
       <c r="B414" s="9" t="s">
-        <v>1016</v>
+        <v>1026</v>
+      </c>
+      <c r="C414" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D414" s="9">
+        <v>1999.0</v>
+      </c>
+      <c r="E414" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F414" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G414" s="11" t="s">
+        <v>1015</v>
       </c>
       <c r="H414" s="9">
         <v>10940.0</v>
       </c>
-      <c r="J414" s="8"/>
+      <c r="I414" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J414" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The X-Files S07","alt":"The X-Files 7","tags":["1999","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/4087","post":"10940"},</v>
+      </c>
     </row>
     <row r="415" ht="15.75" customHeight="1">
       <c r="A415" s="6">
@@ -17708,15 +18244,34 @@
         <v>412</v>
       </c>
       <c r="B415" s="9" t="s">
-        <v>1017</v>
+        <v>1028</v>
+      </c>
+      <c r="C415" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D415" s="9">
+        <v>2000.0</v>
+      </c>
+      <c r="E415" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F415" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G415" s="11" t="s">
+        <v>1015</v>
       </c>
       <c r="H415" s="9">
         <v>10963.0</v>
       </c>
-      <c r="J415" s="8"/>
+      <c r="I415" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J415" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The X-Files S08","alt":"The X-Files 8","tags":["2000","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/4087","post":"10963"},</v>
+      </c>
     </row>
     <row r="416" ht="15.75" customHeight="1">
       <c r="A416" s="6">
@@ -17724,15 +18279,34 @@
         <v>413</v>
       </c>
       <c r="B416" s="9" t="s">
-        <v>1018</v>
+        <v>1030</v>
+      </c>
+      <c r="C416" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D416" s="9">
+        <v>2001.0</v>
+      </c>
+      <c r="E416" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F416" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G416" s="11" t="s">
+        <v>1015</v>
       </c>
       <c r="H416" s="9">
         <v>10985.0</v>
       </c>
-      <c r="J416" s="8"/>
+      <c r="I416" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J416" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The X-Files S09","alt":"The X-Files 9","tags":["2001","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/4087","post":"10985"},</v>
+      </c>
     </row>
     <row r="417" ht="15.75" customHeight="1">
       <c r="A417" s="6">
@@ -17740,15 +18314,34 @@
         <v>414</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>1019</v>
+        <v>1032</v>
+      </c>
+      <c r="C417" s="9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D417" s="9">
+        <v>2016.0</v>
+      </c>
+      <c r="E417" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F417" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G417" s="11" t="s">
+        <v>1015</v>
       </c>
       <c r="H417" s="9">
         <v>11005.0</v>
       </c>
-      <c r="J417" s="8"/>
+      <c r="I417" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J417" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The X-Files S10","alt":"The X-Files 10","tags":["2016","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/4087","post":"11005"},</v>
+      </c>
     </row>
     <row r="418" ht="15.75" customHeight="1">
       <c r="A418" s="6">
@@ -17756,15 +18349,34 @@
         <v>415</v>
       </c>
       <c r="B418" s="9" t="s">
-        <v>1020</v>
+        <v>1034</v>
+      </c>
+      <c r="C418" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D418" s="9">
+        <v>2018.0</v>
+      </c>
+      <c r="E418" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F418" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G418" s="11" t="s">
+        <v>1015</v>
       </c>
       <c r="H418" s="9">
         <v>11013.0</v>
       </c>
-      <c r="J418" s="8"/>
+      <c r="I418" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J418" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The X-Files S11","alt":"The X-Files 11","tags":["2018","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/4087","post":"11013"},</v>
+      </c>
     </row>
     <row r="419" ht="15.75" customHeight="1">
       <c r="A419" s="6">
@@ -17772,15 +18384,34 @@
         <v>416</v>
       </c>
       <c r="B419" s="9" t="s">
-        <v>1021</v>
+        <v>1036</v>
+      </c>
+      <c r="C419" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D419" s="9">
+        <v>2016.0</v>
+      </c>
+      <c r="E419" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F419" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G419" s="11" t="s">
+        <v>1038</v>
       </c>
       <c r="H419" s="9">
         <v>10764.0</v>
       </c>
-      <c r="J419" s="8"/>
+      <c r="I419" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J419" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Westworld S01","alt":"Westworld 1, Westworld: The Maze","tags":["2016","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/63247","post":"10764"},</v>
+      </c>
     </row>
     <row r="420" ht="15.75" customHeight="1">
       <c r="A420" s="6">
@@ -17788,15 +18419,34 @@
         <v>417</v>
       </c>
       <c r="B420" s="9" t="s">
-        <v>1022</v>
+        <v>1039</v>
+      </c>
+      <c r="C420" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D420" s="9">
+        <v>2018.0</v>
+      </c>
+      <c r="E420" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F420" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G420" s="11" t="s">
+        <v>1038</v>
       </c>
       <c r="H420" s="9">
         <v>10775.0</v>
       </c>
-      <c r="J420" s="8"/>
+      <c r="I420" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J420" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Westworld S02","alt":"Westworld 2, Westworld: The Door","tags":["2018","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/63247","post":"10775"},</v>
+      </c>
     </row>
     <row r="421" ht="15.75" customHeight="1">
       <c r="A421" s="6">
@@ -17804,15 +18454,34 @@
         <v>418</v>
       </c>
       <c r="B421" s="9" t="s">
-        <v>1023</v>
+        <v>1041</v>
+      </c>
+      <c r="C421" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D421" s="9">
+        <v>2020.0</v>
+      </c>
+      <c r="E421" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F421" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G421" s="11" t="s">
+        <v>1038</v>
       </c>
       <c r="H421" s="9">
         <v>10786.0</v>
       </c>
-      <c r="J421" s="8"/>
+      <c r="I421" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J421" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Westworld S03","alt":"Westworld 3, Westworld: The New World","tags":["2020","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/63247","post":"10786"},</v>
+      </c>
     </row>
     <row r="422" ht="15.75" customHeight="1">
       <c r="A422" s="6">
@@ -17820,15 +18489,34 @@
         <v>419</v>
       </c>
       <c r="B422" s="9" t="s">
-        <v>1024</v>
+        <v>1043</v>
+      </c>
+      <c r="C422" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D422" s="9">
+        <v>2016.0</v>
+      </c>
+      <c r="E422" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F422" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G422" s="11" t="s">
+        <v>1045</v>
       </c>
       <c r="H422" s="9">
         <v>10736.0</v>
       </c>
-      <c r="J422" s="8"/>
+      <c r="I422" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J422" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Stranger Things S01","alt":"Stranger Things 1","tags":["2016","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/66732","post":"10736"},</v>
+      </c>
     </row>
     <row r="423" ht="15.75" customHeight="1">
       <c r="A423" s="6">
@@ -17836,15 +18524,34 @@
         <v>420</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>1025</v>
+        <v>1046</v>
+      </c>
+      <c r="C423" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D423" s="9">
+        <v>2017.0</v>
+      </c>
+      <c r="E423" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F423" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G423" s="11" t="s">
+        <v>1045</v>
       </c>
       <c r="H423" s="9">
         <v>10745.0</v>
       </c>
-      <c r="J423" s="8"/>
+      <c r="I423" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J423" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Stranger Things S02","alt":"Stranger Things 2","tags":["2017","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/66732","post":"10745"},</v>
+      </c>
     </row>
     <row r="424" ht="15.75" customHeight="1">
       <c r="A424" s="6">
@@ -17852,15 +18559,34 @@
         <v>421</v>
       </c>
       <c r="B424" s="9" t="s">
-        <v>1026</v>
+        <v>1048</v>
+      </c>
+      <c r="C424" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D424" s="9">
+        <v>2019.0</v>
+      </c>
+      <c r="E424" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F424" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G424" s="11" t="s">
+        <v>1045</v>
       </c>
       <c r="H424" s="9">
         <v>10755.0</v>
       </c>
-      <c r="J424" s="8"/>
+      <c r="I424" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J424" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Stranger Things S03","alt":"Stranger Things 3","tags":["2019","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/66732","post":"10755"},</v>
+      </c>
     </row>
     <row r="425" ht="15.75" customHeight="1">
       <c r="A425" s="6">
@@ -17868,15 +18594,34 @@
         <v>422</v>
       </c>
       <c r="B425" s="9" t="s">
-        <v>1027</v>
+        <v>1050</v>
+      </c>
+      <c r="C425" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D425" s="9">
+        <v>2011.0</v>
+      </c>
+      <c r="E425" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F425" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G425" s="11" t="s">
+        <v>1052</v>
       </c>
       <c r="H425" s="9">
         <v>10583.0</v>
       </c>
-      <c r="J425" s="8"/>
+      <c r="I425" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J425" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"New Girl S01","alt":"New Girl 1","tags":["2011","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1420","post":"10583"},</v>
+      </c>
     </row>
     <row r="426" ht="15.75" customHeight="1">
       <c r="A426" s="6">
@@ -17884,15 +18629,34 @@
         <v>423</v>
       </c>
       <c r="B426" s="9" t="s">
-        <v>1028</v>
+        <v>1053</v>
+      </c>
+      <c r="C426" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D426" s="9">
+        <v>2012.0</v>
+      </c>
+      <c r="E426" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F426" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G426" s="11" t="s">
+        <v>1052</v>
       </c>
       <c r="H426" s="9">
         <v>10608.0</v>
       </c>
-      <c r="J426" s="8"/>
+      <c r="I426" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J426" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"New Girl S02","alt":"New Girl 2","tags":["2012","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1420","post":"10608"},</v>
+      </c>
     </row>
     <row r="427" ht="15.75" customHeight="1">
       <c r="A427" s="6">
@@ -17900,15 +18664,34 @@
         <v>424</v>
       </c>
       <c r="B427" s="9" t="s">
-        <v>1029</v>
+        <v>1055</v>
+      </c>
+      <c r="C427" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D427" s="9">
+        <v>2013.0</v>
+      </c>
+      <c r="E427" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F427" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G427" s="11" t="s">
+        <v>1052</v>
       </c>
       <c r="H427" s="9">
         <v>10634.0</v>
       </c>
-      <c r="J427" s="8"/>
+      <c r="I427" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J427" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"New Girl S03","alt":"New Girl 3","tags":["2013","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1420","post":"10634"},</v>
+      </c>
     </row>
     <row r="428" ht="15.75" customHeight="1">
       <c r="A428" s="6">
@@ -17916,15 +18699,34 @@
         <v>425</v>
       </c>
       <c r="B428" s="9" t="s">
-        <v>1030</v>
+        <v>1057</v>
+      </c>
+      <c r="C428" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D428" s="9">
+        <v>2014.0</v>
+      </c>
+      <c r="E428" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F428" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G428" s="11" t="s">
+        <v>1052</v>
       </c>
       <c r="H428" s="9">
         <v>10658.0</v>
       </c>
-      <c r="J428" s="8"/>
+      <c r="I428" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J428" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"New Girl S04","alt":"New Girl 4","tags":["2014","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1420","post":"10658"},</v>
+      </c>
     </row>
     <row r="429" ht="15.75" customHeight="1">
       <c r="A429" s="6">
@@ -17932,15 +18734,34 @@
         <v>426</v>
       </c>
       <c r="B429" s="9" t="s">
-        <v>1031</v>
+        <v>1059</v>
+      </c>
+      <c r="C429" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D429" s="9">
+        <v>2016.0</v>
+      </c>
+      <c r="E429" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F429" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G429" s="11" t="s">
+        <v>1052</v>
       </c>
       <c r="H429" s="9">
         <v>10681.0</v>
       </c>
-      <c r="J429" s="8"/>
+      <c r="I429" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J429" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"New Girl S05","alt":"New Girl 5","tags":["2016","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1420","post":"10681"},</v>
+      </c>
     </row>
     <row r="430" ht="15.75" customHeight="1">
       <c r="A430" s="6">
@@ -17948,15 +18769,34 @@
         <v>427</v>
       </c>
       <c r="B430" s="9" t="s">
-        <v>1032</v>
+        <v>1061</v>
+      </c>
+      <c r="C430" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D430" s="9">
+        <v>2016.0</v>
+      </c>
+      <c r="E430" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F430" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G430" s="11" t="s">
+        <v>1052</v>
       </c>
       <c r="H430" s="9">
         <v>10704.0</v>
       </c>
-      <c r="J430" s="8"/>
+      <c r="I430" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J430" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"New Girl S06","alt":"New Girl 6","tags":["2016","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1420","post":"10704"},</v>
+      </c>
     </row>
     <row r="431" ht="15.75" customHeight="1">
       <c r="A431" s="6">
@@ -17964,15 +18804,34 @@
         <v>428</v>
       </c>
       <c r="B431" s="9" t="s">
-        <v>1033</v>
+        <v>1063</v>
+      </c>
+      <c r="C431" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D431" s="9">
+        <v>2018.0</v>
+      </c>
+      <c r="E431" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F431" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G431" s="11" t="s">
+        <v>1052</v>
       </c>
       <c r="H431" s="9">
         <v>10727.0</v>
       </c>
-      <c r="J431" s="8"/>
+      <c r="I431" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J431" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"New Girl S07","alt":"New Girl 7","tags":["2018","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1420","post":"10727"},</v>
+      </c>
     </row>
     <row r="432" ht="15.75" customHeight="1">
       <c r="A432" s="6">
@@ -17980,15 +18839,34 @@
         <v>429</v>
       </c>
       <c r="B432" s="9" t="s">
-        <v>1034</v>
+        <v>1065</v>
+      </c>
+      <c r="C432" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D432" s="9">
+        <v>2020.0</v>
+      </c>
+      <c r="E432" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F432" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G432" s="11" t="s">
+        <v>1067</v>
       </c>
       <c r="H432" s="9">
         <v>10559.0</v>
       </c>
-      <c r="J432" s="8"/>
+      <c r="I432" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J432" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Ted Lasso S01","alt":"Ted Lasso 1","tags":["2020","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/97546","post":"10559"},</v>
+      </c>
     </row>
     <row r="433" ht="15.75" customHeight="1">
       <c r="A433" s="6">
@@ -17996,15 +18874,34 @@
         <v>430</v>
       </c>
       <c r="B433" s="9" t="s">
-        <v>1035</v>
+        <v>1068</v>
+      </c>
+      <c r="C433" s="9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D433" s="9">
+        <v>2021.0</v>
+      </c>
+      <c r="E433" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F433" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G433" s="11" t="s">
+        <v>1067</v>
       </c>
       <c r="H433" s="9">
         <v>10570.0</v>
       </c>
-      <c r="J433" s="8"/>
+      <c r="I433" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J433" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Ted Lasso S02","alt":"Ted Lasso 2","tags":["2021","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/97546","post":"10570"},</v>
+      </c>
     </row>
     <row r="434" ht="15.75" customHeight="1">
       <c r="A434" s="6">
@@ -18012,15 +18909,34 @@
         <v>431</v>
       </c>
       <c r="B434" s="9" t="s">
-        <v>1036</v>
+        <v>1070</v>
+      </c>
+      <c r="C434" s="9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D434" s="9">
+        <v>2016.0</v>
+      </c>
+      <c r="E434" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F434" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G434" s="11" t="s">
+        <v>1072</v>
       </c>
       <c r="H434" s="9">
         <v>10522.0</v>
       </c>
-      <c r="J434" s="8"/>
+      <c r="I434" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J434" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Fleabag S01","alt":"Fleabag 1","tags":["2016","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/67070","post":"10522"},</v>
+      </c>
     </row>
     <row r="435" ht="15.75" customHeight="1">
       <c r="A435" s="6">
@@ -18028,15 +18944,34 @@
         <v>432</v>
       </c>
       <c r="B435" s="9" t="s">
-        <v>1037</v>
+        <v>1073</v>
+      </c>
+      <c r="C435" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D435" s="9">
+        <v>2019.0</v>
+      </c>
+      <c r="E435" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F435" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G435" s="11" t="s">
+        <v>1072</v>
       </c>
       <c r="H435" s="9">
         <v>10529.0</v>
       </c>
-      <c r="J435" s="8"/>
+      <c r="I435" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J435" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Fleabag S02","alt":"Fleabag 2","tags":["2019","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/67070","post":"10529"},</v>
+      </c>
     </row>
     <row r="436" ht="15.75" customHeight="1">
       <c r="A436" s="6">
@@ -18044,15 +18979,34 @@
         <v>433</v>
       </c>
       <c r="B436" s="9" t="s">
-        <v>1038</v>
+        <v>1075</v>
+      </c>
+      <c r="C436" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D436" s="9">
+        <v>2011.0</v>
+      </c>
+      <c r="E436" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F436" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G436" s="11" t="s">
+        <v>1077</v>
       </c>
       <c r="H436" s="9">
         <v>10491.0</v>
       </c>
-      <c r="J436" s="8"/>
+      <c r="I436" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J436" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Black Mirror S01","alt":"Black Mirror 1","tags":["2011","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/42009","post":"10491"},</v>
+      </c>
     </row>
     <row r="437" ht="15.75" customHeight="1">
       <c r="A437" s="6">
@@ -18060,15 +19014,34 @@
         <v>434</v>
       </c>
       <c r="B437" s="9" t="s">
-        <v>1039</v>
+        <v>1078</v>
+      </c>
+      <c r="C437" s="9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D437" s="9">
+        <v>2013.0</v>
+      </c>
+      <c r="E437" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F437" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G437" s="11" t="s">
+        <v>1077</v>
       </c>
       <c r="H437" s="9">
         <v>10495.0</v>
       </c>
-      <c r="J437" s="8"/>
+      <c r="I437" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J437" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Black Mirror S02","alt":"Black Mirror 2","tags":["2013","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/42009","post":"10495"},</v>
+      </c>
     </row>
     <row r="438" ht="15.75" customHeight="1">
       <c r="A438" s="6">
@@ -18076,15 +19049,34 @@
         <v>435</v>
       </c>
       <c r="B438" s="9" t="s">
-        <v>1040</v>
+        <v>1080</v>
+      </c>
+      <c r="C438" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D438" s="9">
+        <v>2016.0</v>
+      </c>
+      <c r="E438" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F438" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G438" s="11" t="s">
+        <v>1077</v>
       </c>
       <c r="H438" s="9">
         <v>10500.0</v>
       </c>
-      <c r="J438" s="8"/>
+      <c r="I438" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J438" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Black Mirror S03","alt":"Black Mirror 3","tags":["2016","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/42009","post":"10500"},</v>
+      </c>
     </row>
     <row r="439" ht="15.75" customHeight="1">
       <c r="A439" s="6">
@@ -18092,15 +19084,34 @@
         <v>436</v>
       </c>
       <c r="B439" s="9" t="s">
-        <v>1041</v>
+        <v>1082</v>
+      </c>
+      <c r="C439" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D439" s="9">
+        <v>2017.0</v>
+      </c>
+      <c r="E439" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F439" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G439" s="11" t="s">
+        <v>1077</v>
       </c>
       <c r="H439" s="9">
         <v>10507.0</v>
       </c>
-      <c r="J439" s="8"/>
+      <c r="I439" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J439" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Black Mirror S04","alt":"Black Mirror 4","tags":["2017","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/42009","post":"10507"},</v>
+      </c>
     </row>
     <row r="440" ht="15.75" customHeight="1">
       <c r="A440" s="6">
@@ -18108,15 +19119,34 @@
         <v>437</v>
       </c>
       <c r="B440" s="9" t="s">
-        <v>1042</v>
+        <v>1084</v>
+      </c>
+      <c r="C440" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D440" s="9">
+        <v>2019.0</v>
+      </c>
+      <c r="E440" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F440" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G440" s="11" t="s">
+        <v>1077</v>
       </c>
       <c r="H440" s="9">
         <v>10518.0</v>
       </c>
-      <c r="J440" s="8"/>
+      <c r="I440" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J440" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Black Mirror S05","alt":"Black Mirror 5","tags":["2019","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/42009","post":"10518"},</v>
+      </c>
     </row>
     <row r="441" ht="15.75" customHeight="1">
       <c r="A441" s="6">
@@ -18124,15 +19154,31 @@
         <v>438</v>
       </c>
       <c r="B441" s="9" t="s">
-        <v>1043</v>
+        <v>1086</v>
+      </c>
+      <c r="D441" s="9">
+        <v>2018.0</v>
+      </c>
+      <c r="E441" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F441" s="9" t="s">
         <v>119</v>
       </c>
+      <c r="G441" s="11" t="s">
+        <v>1087</v>
+      </c>
       <c r="H441" s="9">
         <v>10514.0</v>
       </c>
-      <c r="J441" s="8"/>
+      <c r="I441" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J441" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Black Mirror: Bandersnatch","alt":"","tags":["2018","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/569547","post":"10514"},</v>
+      </c>
     </row>
     <row r="442" ht="15.75" customHeight="1">
       <c r="A442" s="6">
@@ -18140,15 +19186,34 @@
         <v>439</v>
       </c>
       <c r="B442" s="9" t="s">
-        <v>1044</v>
+        <v>1088</v>
+      </c>
+      <c r="C442" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D442" s="9">
+        <v>1998.0</v>
+      </c>
+      <c r="E442" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F442" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G442" s="11" t="s">
+        <v>1090</v>
       </c>
       <c r="H442" s="9">
         <v>10283.0</v>
       </c>
-      <c r="J442" s="8"/>
+      <c r="I442" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J442" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"That '70s Show S01","alt":"That '70s Show 1","tags":["1998","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/52","post":"10283"},</v>
+      </c>
     </row>
     <row r="443" ht="15.75" customHeight="1">
       <c r="A443" s="6">
@@ -18156,15 +19221,34 @@
         <v>440</v>
       </c>
       <c r="B443" s="9" t="s">
-        <v>1045</v>
+        <v>1091</v>
+      </c>
+      <c r="C443" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D443" s="9">
+        <v>1999.0</v>
+      </c>
+      <c r="E443" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F443" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G443" s="11" t="s">
+        <v>1090</v>
       </c>
       <c r="H443" s="9">
         <v>10309.0</v>
       </c>
-      <c r="J443" s="8"/>
+      <c r="I443" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J443" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"That '70s Show S02","alt":"That '70s Show 2","tags":["1999","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/52","post":"10309"},</v>
+      </c>
     </row>
     <row r="444" ht="15.75" customHeight="1">
       <c r="A444" s="6">
@@ -18172,15 +19256,34 @@
         <v>441</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>1046</v>
+        <v>1093</v>
+      </c>
+      <c r="C444" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D444" s="9">
+        <v>2000.0</v>
+      </c>
+      <c r="E444" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F444" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G444" s="11" t="s">
+        <v>1090</v>
       </c>
       <c r="H444" s="9">
         <v>10336.0</v>
       </c>
-      <c r="J444" s="8"/>
+      <c r="I444" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J444" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"That '70s Show S03","alt":"That '70s Show 3","tags":["2000","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/52","post":"10336"},</v>
+      </c>
     </row>
     <row r="445" ht="15.75" customHeight="1">
       <c r="A445" s="6">
@@ -18188,15 +19291,34 @@
         <v>442</v>
       </c>
       <c r="B445" s="9" t="s">
-        <v>1047</v>
+        <v>1095</v>
+      </c>
+      <c r="C445" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D445" s="9">
+        <v>2001.0</v>
+      </c>
+      <c r="E445" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F445" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G445" s="11" t="s">
+        <v>1090</v>
       </c>
       <c r="H445" s="9">
         <v>10362.0</v>
       </c>
-      <c r="J445" s="8"/>
+      <c r="I445" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J445" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"That '70s Show S04","alt":"That '70s Show 4","tags":["2001","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/52","post":"10362"},</v>
+      </c>
     </row>
     <row r="446" ht="15.75" customHeight="1">
       <c r="A446" s="6">
@@ -18204,15 +19326,34 @@
         <v>443</v>
       </c>
       <c r="B446" s="9" t="s">
-        <v>1048</v>
+        <v>1097</v>
+      </c>
+      <c r="C446" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D446" s="9">
+        <v>2002.0</v>
+      </c>
+      <c r="E446" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F446" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G446" s="11" t="s">
+        <v>1090</v>
       </c>
       <c r="H446" s="9">
         <v>10390.0</v>
       </c>
-      <c r="J446" s="8"/>
+      <c r="I446" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J446" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"That '70s Show S05","alt":"That '70s Show 5","tags":["2002","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/52","post":"10390"},</v>
+      </c>
     </row>
     <row r="447" ht="15.75" customHeight="1">
       <c r="A447" s="6">
@@ -18220,15 +19361,34 @@
         <v>444</v>
       </c>
       <c r="B447" s="9" t="s">
-        <v>1049</v>
+        <v>1099</v>
+      </c>
+      <c r="C447" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D447" s="9">
+        <v>2003.0</v>
+      </c>
+      <c r="E447" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F447" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G447" s="11" t="s">
+        <v>1090</v>
       </c>
       <c r="H447" s="9">
         <v>10416.0</v>
       </c>
-      <c r="J447" s="8"/>
+      <c r="I447" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J447" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"That '70s Show S06","alt":"That '70s Show 6","tags":["2003","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/52","post":"10416"},</v>
+      </c>
     </row>
     <row r="448" ht="15.75" customHeight="1">
       <c r="A448" s="6">
@@ -18236,15 +19396,34 @@
         <v>445</v>
       </c>
       <c r="B448" s="9" t="s">
-        <v>1050</v>
+        <v>1101</v>
+      </c>
+      <c r="C448" s="9" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D448" s="9">
+        <v>2004.0</v>
+      </c>
+      <c r="E448" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F448" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G448" s="11" t="s">
+        <v>1090</v>
       </c>
       <c r="H448" s="9">
         <v>10442.0</v>
       </c>
-      <c r="J448" s="8"/>
+      <c r="I448" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J448" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"That '70s Show S07","alt":"That '70s Show 7","tags":["2004","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/52","post":"10442"},</v>
+      </c>
     </row>
     <row r="449" ht="15.75" customHeight="1">
       <c r="A449" s="6">
@@ -18252,15 +19431,34 @@
         <v>446</v>
       </c>
       <c r="B449" s="9" t="s">
-        <v>1051</v>
+        <v>1103</v>
+      </c>
+      <c r="C449" s="9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D449" s="9">
+        <v>2005.0</v>
+      </c>
+      <c r="E449" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F449" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G449" s="11" t="s">
+        <v>1090</v>
       </c>
       <c r="H449" s="9">
         <v>10468.0</v>
       </c>
-      <c r="J449" s="8"/>
+      <c r="I449" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J449" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"That '70s Show S08","alt":"That '70s Show 8","tags":["2005","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/52","post":"10468"},</v>
+      </c>
     </row>
     <row r="450" ht="15.75" customHeight="1">
       <c r="A450" s="6">
@@ -18268,15 +19466,34 @@
         <v>447</v>
       </c>
       <c r="B450" s="9" t="s">
-        <v>1052</v>
+        <v>1105</v>
+      </c>
+      <c r="C450" s="9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D450" s="9">
+        <v>2003.0</v>
+      </c>
+      <c r="E450" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F450" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G450" s="11" t="s">
+        <v>1107</v>
       </c>
       <c r="H450" s="9">
         <v>10009.0</v>
       </c>
-      <c r="J450" s="8"/>
+      <c r="I450" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J450" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Two and a Half Men S01","alt":"Two and a Half Men 1","tags":["2003","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/2691","post":"10009"},</v>
+      </c>
     </row>
     <row r="451" ht="15.75" customHeight="1">
       <c r="A451" s="6">
@@ -18284,15 +19501,34 @@
         <v>448</v>
       </c>
       <c r="B451" s="9" t="s">
-        <v>1053</v>
+        <v>1108</v>
+      </c>
+      <c r="C451" s="9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D451" s="9">
+        <v>2004.0</v>
+      </c>
+      <c r="E451" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F451" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G451" s="11" t="s">
+        <v>1107</v>
       </c>
       <c r="H451" s="9">
         <v>10034.0</v>
       </c>
-      <c r="J451" s="8"/>
+      <c r="I451" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J451" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Two and a Half Men S02","alt":"Two and a Half Men 2","tags":["2004","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/2691","post":"10034"},</v>
+      </c>
     </row>
     <row r="452" ht="15.75" customHeight="1">
       <c r="A452" s="6">
@@ -18300,15 +19536,34 @@
         <v>449</v>
       </c>
       <c r="B452" s="9" t="s">
-        <v>1054</v>
+        <v>1110</v>
+      </c>
+      <c r="C452" s="9" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D452" s="9">
+        <v>2005.0</v>
+      </c>
+      <c r="E452" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F452" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G452" s="11" t="s">
+        <v>1107</v>
       </c>
       <c r="H452" s="9">
         <v>10059.0</v>
       </c>
-      <c r="J452" s="8"/>
+      <c r="I452" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J452" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Two and a Half Men S03","alt":"Two and a Half Men 3","tags":["2005","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/2691","post":"10059"},</v>
+      </c>
     </row>
     <row r="453" ht="15.75" customHeight="1">
       <c r="A453" s="6">
@@ -18316,15 +19571,34 @@
         <v>450</v>
       </c>
       <c r="B453" s="9" t="s">
-        <v>1055</v>
+        <v>1112</v>
+      </c>
+      <c r="C453" s="9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D453" s="9">
+        <v>2006.0</v>
+      </c>
+      <c r="E453" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F453" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G453" s="11" t="s">
+        <v>1107</v>
       </c>
       <c r="H453" s="9">
         <v>10084.0</v>
       </c>
-      <c r="J453" s="8"/>
+      <c r="I453" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J453" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Two and a Half Men S04","alt":"Two and a Half Men 4","tags":["2006","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/2691","post":"10084"},</v>
+      </c>
     </row>
     <row r="454" ht="15.75" customHeight="1">
       <c r="A454" s="6">
@@ -18332,15 +19606,34 @@
         <v>451</v>
       </c>
       <c r="B454" s="9" t="s">
-        <v>1056</v>
+        <v>1114</v>
+      </c>
+      <c r="C454" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D454" s="9">
+        <v>2007.0</v>
+      </c>
+      <c r="E454" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F454" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G454" s="11" t="s">
+        <v>1107</v>
       </c>
       <c r="H454" s="9">
         <v>10109.0</v>
       </c>
-      <c r="J454" s="8"/>
+      <c r="I454" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J454" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Two and a Half Men S05","alt":"Two and a Half Men 5","tags":["2007","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/2691","post":"10109"},</v>
+      </c>
     </row>
     <row r="455" ht="15.75" customHeight="1">
       <c r="A455" s="6">
@@ -18348,15 +19641,34 @@
         <v>452</v>
       </c>
       <c r="B455" s="9" t="s">
-        <v>1057</v>
+        <v>1116</v>
+      </c>
+      <c r="C455" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D455" s="9">
+        <v>2008.0</v>
+      </c>
+      <c r="E455" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F455" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G455" s="11" t="s">
+        <v>1107</v>
       </c>
       <c r="H455" s="9">
         <v>10129.0</v>
       </c>
-      <c r="J455" s="8"/>
+      <c r="I455" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J455" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Two and a Half Men S06","alt":"Two and a Half Men 6","tags":["2008","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/2691","post":"10129"},</v>
+      </c>
     </row>
     <row r="456" ht="15.75" customHeight="1">
       <c r="A456" s="6">
@@ -18364,15 +19676,34 @@
         <v>453</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>1058</v>
+        <v>1118</v>
+      </c>
+      <c r="C456" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D456" s="9">
+        <v>2009.0</v>
+      </c>
+      <c r="E456" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F456" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G456" s="11" t="s">
+        <v>1107</v>
       </c>
       <c r="H456" s="9">
         <v>10154.0</v>
       </c>
-      <c r="J456" s="8"/>
+      <c r="I456" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J456" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Two and a Half Men S07","alt":"Two and a Half Men 7","tags":["2009","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/2691","post":"10154"},</v>
+      </c>
     </row>
     <row r="457" ht="15.75" customHeight="1">
       <c r="A457" s="6">
@@ -18380,15 +19711,34 @@
         <v>454</v>
       </c>
       <c r="B457" s="9" t="s">
-        <v>1059</v>
+        <v>1120</v>
+      </c>
+      <c r="C457" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D457" s="9">
+        <v>2010.0</v>
+      </c>
+      <c r="E457" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F457" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G457" s="11" t="s">
+        <v>1107</v>
       </c>
       <c r="H457" s="9">
         <v>10177.0</v>
       </c>
-      <c r="J457" s="8"/>
+      <c r="I457" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J457" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Two and a Half Men S08","alt":"Two and a Half Men 8","tags":["2010","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/2691","post":"10177"},</v>
+      </c>
     </row>
     <row r="458" ht="15.75" customHeight="1">
       <c r="A458" s="6">
@@ -18396,15 +19746,34 @@
         <v>455</v>
       </c>
       <c r="B458" s="9" t="s">
-        <v>1060</v>
+        <v>1122</v>
+      </c>
+      <c r="C458" s="9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D458" s="9">
+        <v>2011.0</v>
+      </c>
+      <c r="E458" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F458" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G458" s="11" t="s">
+        <v>1107</v>
       </c>
       <c r="H458" s="9">
         <v>10194.0</v>
       </c>
-      <c r="J458" s="8"/>
+      <c r="I458" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J458" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Two and a Half Men S09","alt":"Two and a Half Men 9","tags":["2011","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/2691","post":"10194"},</v>
+      </c>
     </row>
     <row r="459" ht="15.75" customHeight="1">
       <c r="A459" s="6">
@@ -18412,15 +19781,34 @@
         <v>456</v>
       </c>
       <c r="B459" s="9" t="s">
-        <v>1061</v>
+        <v>1124</v>
+      </c>
+      <c r="C459" s="9" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D459" s="9">
+        <v>2012.0</v>
+      </c>
+      <c r="E459" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F459" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G459" s="11" t="s">
+        <v>1107</v>
       </c>
       <c r="H459" s="9">
         <v>10219.0</v>
       </c>
-      <c r="J459" s="8"/>
+      <c r="I459" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J459" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Two and a Half Men S10","alt":"Two and a Half Men 10","tags":["2012","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/2691","post":"10219"},</v>
+      </c>
     </row>
     <row r="460" ht="15.75" customHeight="1">
       <c r="A460" s="6">
@@ -18428,15 +19816,34 @@
         <v>457</v>
       </c>
       <c r="B460" s="9" t="s">
-        <v>1062</v>
+        <v>1126</v>
+      </c>
+      <c r="C460" s="9" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D460" s="9">
+        <v>2013.0</v>
+      </c>
+      <c r="E460" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F460" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G460" s="11" t="s">
+        <v>1107</v>
       </c>
       <c r="H460" s="9">
         <v>10243.0</v>
       </c>
-      <c r="J460" s="8"/>
+      <c r="I460" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J460" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Two and a Half Men S11","alt":"Two and a Half Men 11","tags":["2013","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/2691","post":"10243"},</v>
+      </c>
     </row>
     <row r="461" ht="15.75" customHeight="1">
       <c r="A461" s="6">
@@ -18444,15 +19851,34 @@
         <v>458</v>
       </c>
       <c r="B461" s="9" t="s">
-        <v>1063</v>
+        <v>1128</v>
+      </c>
+      <c r="C461" s="9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D461" s="9">
+        <v>2014.0</v>
+      </c>
+      <c r="E461" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F461" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G461" s="11" t="s">
+        <v>1107</v>
       </c>
       <c r="H461" s="9">
         <v>10267.0</v>
       </c>
-      <c r="J461" s="8"/>
+      <c r="I461" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J461" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Two and a Half Men S12","alt":"Two and a Half Men 12","tags":["2014","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/2691","post":"10267"},</v>
+      </c>
     </row>
     <row r="462" ht="15.75" customHeight="1">
       <c r="A462" s="6">
@@ -18460,15 +19886,31 @@
         <v>459</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>1064</v>
+        <v>1130</v>
+      </c>
+      <c r="D462" s="9">
+        <v>1994.0</v>
+      </c>
+      <c r="E462" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F462" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G462" s="11" t="s">
+        <v>1131</v>
       </c>
       <c r="H462" s="9">
         <v>9989.0</v>
       </c>
-      <c r="J462" s="8"/>
+      <c r="I462" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J462" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"My So-Called Life","alt":"","tags":["1994","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1101","post":"9989"},</v>
+      </c>
     </row>
     <row r="463" ht="15.75" customHeight="1">
       <c r="A463" s="6">
@@ -18476,15 +19918,34 @@
         <v>460</v>
       </c>
       <c r="B463" s="9" t="s">
-        <v>1065</v>
+        <v>1132</v>
+      </c>
+      <c r="C463" s="9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D463" s="9">
+        <v>2007.0</v>
+      </c>
+      <c r="E463" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F463" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G463" s="11" t="s">
+        <v>1134</v>
       </c>
       <c r="H463" s="9">
         <v>9698.0</v>
       </c>
-      <c r="J463" s="8"/>
+      <c r="I463" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J463" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Big Bang Theory S01","alt":"The Big Bang Theory 1","tags":["2007","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1418","post":"9698"},</v>
+      </c>
     </row>
     <row r="464" ht="15.75" customHeight="1">
       <c r="A464" s="6">
@@ -18492,15 +19953,34 @@
         <v>461</v>
       </c>
       <c r="B464" s="9" t="s">
-        <v>1066</v>
+        <v>1135</v>
+      </c>
+      <c r="C464" s="9" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D464" s="9">
+        <v>2008.0</v>
+      </c>
+      <c r="E464" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F464" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G464" s="11" t="s">
+        <v>1134</v>
       </c>
       <c r="H464" s="9">
         <v>9716.0</v>
       </c>
-      <c r="J464" s="8"/>
+      <c r="I464" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J464" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Big Bang Theory S02","alt":"The Big Bang Theory 2","tags":["2008","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1418","post":"9716"},</v>
+      </c>
     </row>
     <row r="465" ht="15.75" customHeight="1">
       <c r="A465" s="6">
@@ -18508,15 +19988,34 @@
         <v>462</v>
       </c>
       <c r="B465" s="9" t="s">
-        <v>1067</v>
+        <v>1137</v>
+      </c>
+      <c r="C465" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D465" s="9">
+        <v>2009.0</v>
+      </c>
+      <c r="E465" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F465" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G465" s="11" t="s">
+        <v>1134</v>
       </c>
       <c r="H465" s="9">
         <v>9740.0</v>
       </c>
-      <c r="J465" s="8"/>
+      <c r="I465" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J465" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Big Bang Theory S03","alt":"The Big Bang Theory 3","tags":["2009","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1418","post":"9740"},</v>
+      </c>
     </row>
     <row r="466" ht="15.75" customHeight="1">
       <c r="A466" s="6">
@@ -18524,15 +20023,34 @@
         <v>463</v>
       </c>
       <c r="B466" s="9" t="s">
-        <v>1068</v>
+        <v>1139</v>
+      </c>
+      <c r="C466" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D466" s="9">
+        <v>2010.0</v>
+      </c>
+      <c r="E466" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F466" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G466" s="11" t="s">
+        <v>1134</v>
       </c>
       <c r="H466" s="9">
         <v>9764.0</v>
       </c>
-      <c r="J466" s="8"/>
+      <c r="I466" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J466" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Big Bang Theory S04","alt":"The Big Bang Theory 4","tags":["2010","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1418","post":"9764"},</v>
+      </c>
     </row>
     <row r="467" ht="15.75" customHeight="1">
       <c r="A467" s="6">
@@ -18540,15 +20058,34 @@
         <v>464</v>
       </c>
       <c r="B467" s="9" t="s">
-        <v>1069</v>
+        <v>1141</v>
+      </c>
+      <c r="C467" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D467" s="9">
+        <v>2011.0</v>
+      </c>
+      <c r="E467" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F467" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G467" s="11" t="s">
+        <v>1134</v>
       </c>
       <c r="H467" s="9">
         <v>9789.0</v>
       </c>
-      <c r="J467" s="8"/>
+      <c r="I467" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J467" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Big Bang Theory S05","alt":"The Big Bang Theory 5","tags":["2011","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1418","post":"9789"},</v>
+      </c>
     </row>
     <row r="468" ht="15.75" customHeight="1">
       <c r="A468" s="6">
@@ -18556,15 +20093,34 @@
         <v>465</v>
       </c>
       <c r="B468" s="9" t="s">
-        <v>1070</v>
+        <v>1143</v>
+      </c>
+      <c r="C468" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D468" s="9">
+        <v>2012.0</v>
+      </c>
+      <c r="E468" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F468" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G468" s="11" t="s">
+        <v>1134</v>
       </c>
       <c r="H468" s="9">
         <v>9814.0</v>
       </c>
-      <c r="J468" s="8"/>
+      <c r="I468" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J468" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Big Bang Theory S06","alt":"The Big Bang Theory 6","tags":["2012","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1418","post":"9814"},</v>
+      </c>
     </row>
     <row r="469" ht="15.75" customHeight="1">
       <c r="A469" s="6">
@@ -18572,15 +20128,34 @@
         <v>466</v>
       </c>
       <c r="B469" s="9" t="s">
-        <v>1071</v>
+        <v>1145</v>
+      </c>
+      <c r="C469" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D469" s="9">
+        <v>2013.0</v>
+      </c>
+      <c r="E469" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F469" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G469" s="11" t="s">
+        <v>1134</v>
       </c>
       <c r="H469" s="9">
         <v>9839.0</v>
       </c>
-      <c r="J469" s="8"/>
+      <c r="I469" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J469" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Big Bang Theory S07","alt":"The Big Bang Theory 7","tags":["2013","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1418","post":"9839"},</v>
+      </c>
     </row>
     <row r="470" ht="15.75" customHeight="1">
       <c r="A470" s="6">
@@ -18588,15 +20163,34 @@
         <v>467</v>
       </c>
       <c r="B470" s="9" t="s">
-        <v>1072</v>
+        <v>1147</v>
+      </c>
+      <c r="C470" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D470" s="9">
+        <v>2014.0</v>
+      </c>
+      <c r="E470" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F470" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G470" s="11" t="s">
+        <v>1134</v>
       </c>
       <c r="H470" s="9">
         <v>9864.0</v>
       </c>
-      <c r="J470" s="8"/>
+      <c r="I470" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J470" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Big Bang Theory S08","alt":"The Big Bang Theory 8","tags":["2014","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1418","post":"9864"},</v>
+      </c>
     </row>
     <row r="471" ht="15.75" customHeight="1">
       <c r="A471" s="6">
@@ -18604,15 +20198,34 @@
         <v>468</v>
       </c>
       <c r="B471" s="9" t="s">
-        <v>1073</v>
+        <v>1149</v>
+      </c>
+      <c r="C471" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D471" s="9">
+        <v>2015.0</v>
+      </c>
+      <c r="E471" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F471" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G471" s="11" t="s">
+        <v>1134</v>
       </c>
       <c r="H471" s="9">
         <v>9889.0</v>
       </c>
-      <c r="J471" s="8"/>
+      <c r="I471" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J471" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Big Bang Theory S09","alt":"The Big Bang Theory 9","tags":["2015","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1418","post":"9889"},</v>
+      </c>
     </row>
     <row r="472" ht="15.75" customHeight="1">
       <c r="A472" s="6">
@@ -18620,15 +20233,34 @@
         <v>469</v>
       </c>
       <c r="B472" s="9" t="s">
-        <v>1074</v>
+        <v>1151</v>
+      </c>
+      <c r="C472" s="9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D472" s="9">
+        <v>2016.0</v>
+      </c>
+      <c r="E472" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F472" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G472" s="11" t="s">
+        <v>1134</v>
       </c>
       <c r="H472" s="9">
         <v>9914.0</v>
       </c>
-      <c r="J472" s="8"/>
+      <c r="I472" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J472" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Big Bang Theory S10","alt":"The Big Bang Theory 10","tags":["2016","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1418","post":"9914"},</v>
+      </c>
     </row>
     <row r="473" ht="15.75" customHeight="1">
       <c r="A473" s="6">
@@ -18636,15 +20268,34 @@
         <v>470</v>
       </c>
       <c r="B473" s="9" t="s">
-        <v>1075</v>
+        <v>1153</v>
+      </c>
+      <c r="C473" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D473" s="9">
+        <v>2017.0</v>
+      </c>
+      <c r="E473" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F473" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G473" s="11" t="s">
+        <v>1134</v>
       </c>
       <c r="H473" s="9">
         <v>9939.0</v>
       </c>
-      <c r="J473" s="8"/>
+      <c r="I473" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J473" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Big Bang Theory S11","alt":"The Big Bang Theory 11","tags":["2017","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1418","post":"9939"},</v>
+      </c>
     </row>
     <row r="474" ht="15.75" customHeight="1">
       <c r="A474" s="6">
@@ -18652,15 +20303,34 @@
         <v>471</v>
       </c>
       <c r="B474" s="9" t="s">
-        <v>1076</v>
+        <v>1155</v>
+      </c>
+      <c r="C474" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D474" s="9">
+        <v>2018.0</v>
+      </c>
+      <c r="E474" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F474" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G474" s="11" t="s">
+        <v>1134</v>
       </c>
       <c r="H474" s="9">
         <v>9964.0</v>
       </c>
-      <c r="J474" s="8"/>
+      <c r="I474" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J474" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Big Bang Theory S12","alt":"The Big Bang Theory 12","tags":["2018","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1418","post":"9964"},</v>
+      </c>
     </row>
     <row r="475" ht="15.75" customHeight="1">
       <c r="A475" s="6">
@@ -18668,15 +20338,31 @@
         <v>472</v>
       </c>
       <c r="B475" s="9" t="s">
-        <v>1077</v>
+        <v>1157</v>
+      </c>
+      <c r="D475" s="9">
+        <v>1999.0</v>
+      </c>
+      <c r="E475" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F475" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G475" s="11" t="s">
+        <v>1158</v>
       </c>
       <c r="H475" s="9">
         <v>9679.0</v>
       </c>
-      <c r="J475" s="8"/>
+      <c r="I475" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J475" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Freaks and Geeks","alt":"","tags":["1999","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/2382","post":"9679"},</v>
+      </c>
     </row>
     <row r="476" ht="15.75" customHeight="1">
       <c r="A476" s="6">
@@ -18684,18 +20370,31 @@
         <v>473</v>
       </c>
       <c r="B476" s="9" t="s">
-        <v>1078</v>
+        <v>1159</v>
       </c>
       <c r="D476" s="9">
         <v>2010.0</v>
       </c>
+      <c r="E476" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F476" s="9" t="s">
         <v>119</v>
       </c>
+      <c r="G476" s="11" t="s">
+        <v>1160</v>
+      </c>
       <c r="H476" s="9">
         <v>9677.0</v>
       </c>
-      <c r="J476" s="8"/>
+      <c r="I476" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J476" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Sex and the City 2","alt":"","tags":["2010","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/37786","post":"9677"},</v>
+      </c>
     </row>
     <row r="477" ht="15.75" customHeight="1">
       <c r="A477" s="6">
@@ -18703,18 +20402,34 @@
         <v>474</v>
       </c>
       <c r="B477" s="9" t="s">
-        <v>1079</v>
+        <v>1161</v>
+      </c>
+      <c r="C477" s="9" t="s">
+        <v>1162</v>
       </c>
       <c r="D477" s="9">
         <v>2008.0</v>
       </c>
+      <c r="E477" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F477" s="9" t="s">
         <v>119</v>
       </c>
+      <c r="G477" s="11" t="s">
+        <v>1163</v>
+      </c>
       <c r="H477" s="9">
         <v>9675.0</v>
       </c>
-      <c r="J477" s="8"/>
+      <c r="I477" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J477" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Sex and the City","alt":"Sex and the City 1","tags":["2008","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/4564","post":"9675"},</v>
+      </c>
     </row>
     <row r="478" ht="15.75" customHeight="1">
       <c r="A478" s="6">
@@ -18722,15 +20437,34 @@
         <v>475</v>
       </c>
       <c r="B478" s="9" t="s">
-        <v>1080</v>
+        <v>1164</v>
+      </c>
+      <c r="C478" s="9" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D478" s="9">
+        <v>1998.0</v>
+      </c>
+      <c r="E478" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F478" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G478" s="11" t="s">
+        <v>1165</v>
       </c>
       <c r="H478" s="9">
         <v>9575.0</v>
       </c>
-      <c r="J478" s="8"/>
+      <c r="I478" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J478" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Sex and the City S01","alt":"Sex and the City 1","tags":["1998","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/105","post":"9575"},</v>
+      </c>
     </row>
     <row r="479" ht="15.75" customHeight="1">
       <c r="A479" s="6">
@@ -18738,15 +20472,34 @@
         <v>476</v>
       </c>
       <c r="B479" s="9" t="s">
-        <v>1081</v>
+        <v>1166</v>
+      </c>
+      <c r="C479" s="9" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D479" s="9">
+        <v>1999.0</v>
+      </c>
+      <c r="E479" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F479" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G479" s="11" t="s">
+        <v>1165</v>
       </c>
       <c r="H479" s="9">
         <v>9588.0</v>
       </c>
-      <c r="J479" s="8"/>
+      <c r="I479" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J479" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Sex and the City S02","alt":"Sex and the City 2","tags":["1999","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/105","post":"9588"},</v>
+      </c>
     </row>
     <row r="480" ht="15.75" customHeight="1">
       <c r="A480" s="6">
@@ -18754,15 +20507,34 @@
         <v>477</v>
       </c>
       <c r="B480" s="9" t="s">
-        <v>1082</v>
+        <v>1167</v>
+      </c>
+      <c r="C480" s="9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D480" s="9">
+        <v>2000.0</v>
+      </c>
+      <c r="E480" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F480" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G480" s="11" t="s">
+        <v>1165</v>
       </c>
       <c r="H480" s="9">
         <v>9607.0</v>
       </c>
-      <c r="J480" s="8"/>
+      <c r="I480" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J480" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Sex and the City S03","alt":"Sex and the City 3","tags":["2000","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/105","post":"9607"},</v>
+      </c>
     </row>
     <row r="481" ht="15.75" customHeight="1">
       <c r="A481" s="6">
@@ -18770,15 +20542,34 @@
         <v>478</v>
       </c>
       <c r="B481" s="9" t="s">
-        <v>1083</v>
+        <v>1169</v>
+      </c>
+      <c r="C481" s="9" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D481" s="9">
+        <v>2001.0</v>
+      </c>
+      <c r="E481" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F481" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G481" s="11" t="s">
+        <v>1165</v>
       </c>
       <c r="H481" s="9">
         <v>9626.0</v>
       </c>
-      <c r="J481" s="8"/>
+      <c r="I481" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J481" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Sex and the City S04","alt":"Sex and the City 4","tags":["2001","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/105","post":"9626"},</v>
+      </c>
     </row>
     <row r="482" ht="15.75" customHeight="1">
       <c r="A482" s="6">
@@ -18786,15 +20577,34 @@
         <v>479</v>
       </c>
       <c r="B482" s="9" t="s">
-        <v>1084</v>
+        <v>1171</v>
+      </c>
+      <c r="C482" s="9" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D482" s="9">
+        <v>2002.0</v>
+      </c>
+      <c r="E482" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F482" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G482" s="11" t="s">
+        <v>1165</v>
       </c>
       <c r="H482" s="9">
         <v>9645.0</v>
       </c>
-      <c r="J482" s="8"/>
+      <c r="I482" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J482" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Sex and the City S05","alt":"Sex and the City 5","tags":["2002","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/105","post":"9645"},</v>
+      </c>
     </row>
     <row r="483" ht="15.75" customHeight="1">
       <c r="A483" s="6">
@@ -18802,15 +20612,34 @@
         <v>480</v>
       </c>
       <c r="B483" s="9" t="s">
-        <v>1085</v>
+        <v>1173</v>
+      </c>
+      <c r="C483" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D483" s="9">
+        <v>2003.0</v>
+      </c>
+      <c r="E483" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F483" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G483" s="11" t="s">
+        <v>1165</v>
       </c>
       <c r="H483" s="9">
         <v>9654.0</v>
       </c>
-      <c r="J483" s="8"/>
+      <c r="I483" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J483" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Sex and the City S06","alt":"Sex and the City 6","tags":["2003","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/105","post":"9654"},</v>
+      </c>
     </row>
     <row r="484" ht="15.75" customHeight="1">
       <c r="A484" s="6">
@@ -18818,15 +20647,34 @@
         <v>481</v>
       </c>
       <c r="B484" s="9" t="s">
-        <v>1086</v>
+        <v>1175</v>
+      </c>
+      <c r="C484" s="9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D484" s="9">
+        <v>2019.0</v>
+      </c>
+      <c r="E484" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F484" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G484" s="11" t="s">
+        <v>1177</v>
       </c>
       <c r="H484" s="9">
         <v>9548.0</v>
       </c>
-      <c r="J484" s="8"/>
+      <c r="I484" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J484" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Sex Education S01","alt":"Sex Education 1","tags":["2019","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/81356","post":"9548"},</v>
+      </c>
     </row>
     <row r="485" ht="15.75" customHeight="1">
       <c r="A485" s="6">
@@ -18834,15 +20682,34 @@
         <v>482</v>
       </c>
       <c r="B485" s="9" t="s">
-        <v>1087</v>
+        <v>1178</v>
+      </c>
+      <c r="C485" s="9" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D485" s="9">
+        <v>2020.0</v>
+      </c>
+      <c r="E485" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F485" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G485" s="11" t="s">
+        <v>1177</v>
       </c>
       <c r="H485" s="9">
         <v>9557.0</v>
       </c>
-      <c r="J485" s="8"/>
+      <c r="I485" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J485" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Sex Education S02","alt":"Sex Education 2","tags":["2020","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/81356","post":"9557"},</v>
+      </c>
     </row>
     <row r="486" ht="15.75" customHeight="1">
       <c r="A486" s="6">
@@ -18850,15 +20717,34 @@
         <v>483</v>
       </c>
       <c r="B486" s="9" t="s">
-        <v>1088</v>
+        <v>1180</v>
+      </c>
+      <c r="C486" s="9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D486" s="9">
+        <v>2021.0</v>
+      </c>
+      <c r="E486" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F486" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G486" s="11" t="s">
+        <v>1177</v>
       </c>
       <c r="H486" s="9">
         <v>9566.0</v>
       </c>
-      <c r="J486" s="8"/>
+      <c r="I486" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J486" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Sex Education S03","alt":"Sex Education 3","tags":["2021","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/81356","post":"9566"},</v>
+      </c>
     </row>
     <row r="487" ht="15.75" customHeight="1">
       <c r="A487" s="6">
@@ -18866,15 +20752,34 @@
         <v>484</v>
       </c>
       <c r="B487" s="9" t="s">
-        <v>1089</v>
+        <v>1182</v>
+      </c>
+      <c r="C487" s="9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D487" s="9">
+        <v>2020.0</v>
+      </c>
+      <c r="E487" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F487" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G487" s="11" t="s">
+        <v>1184</v>
       </c>
       <c r="H487" s="9">
         <v>9497.0</v>
       </c>
-      <c r="J487" s="8"/>
+      <c r="I487" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J487" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Penthouse S01","alt":"The Penthouse 1, The Penthouse: War in Life 1, The Penthouse: War in Life S01","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/99489","post":"9497"},</v>
+      </c>
     </row>
     <row r="488" ht="15.75" customHeight="1">
       <c r="A488" s="6">
@@ -18882,15 +20787,34 @@
         <v>485</v>
       </c>
       <c r="B488" s="9" t="s">
-        <v>1090</v>
+        <v>1185</v>
+      </c>
+      <c r="C488" s="9" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D488" s="9">
+        <v>2021.0</v>
+      </c>
+      <c r="E488" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F488" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G488" s="11" t="s">
+        <v>1184</v>
       </c>
       <c r="H488" s="9">
         <v>9519.0</v>
       </c>
-      <c r="J488" s="8"/>
+      <c r="I488" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J488" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Penthouse S02","alt":"The Penthouse 2, The Penthouse: War in Life 2, The Penthouse: War in Life S02","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/99489","post":"9519"},</v>
+      </c>
     </row>
     <row r="489" ht="15.75" customHeight="1">
       <c r="A489" s="6">
@@ -18898,15 +20822,34 @@
         <v>486</v>
       </c>
       <c r="B489" s="9" t="s">
-        <v>1091</v>
+        <v>1187</v>
+      </c>
+      <c r="C489" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D489" s="9">
+        <v>2021.0</v>
+      </c>
+      <c r="E489" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F489" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G489" s="11" t="s">
+        <v>1184</v>
       </c>
       <c r="H489" s="9">
         <v>9533.0</v>
       </c>
-      <c r="J489" s="8"/>
+      <c r="I489" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J489" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Penthouse S03","alt":"The Penthouse 3, The Penthouse: War in Life 3, The Penthouse: War in Life S03","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/99489","post":"9533"},</v>
+      </c>
     </row>
     <row r="490" ht="15.75" customHeight="1">
       <c r="A490" s="6">
@@ -18914,15 +20857,34 @@
         <v>487</v>
       </c>
       <c r="B490" s="9" t="s">
-        <v>1092</v>
+        <v>1189</v>
+      </c>
+      <c r="C490" s="9" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D490" s="9">
+        <v>2020.0</v>
+      </c>
+      <c r="E490" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F490" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G490" s="11" t="s">
+        <v>1191</v>
       </c>
       <c r="H490" s="9">
         <v>9471.0</v>
       </c>
-      <c r="J490" s="8"/>
+      <c r="I490" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J490" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Hospital Playlist S01","alt":"Hospital Playlist 1, Wise Doctor Life 1, Smart Doctor Living 1, A Wise Doctor's Life 1, Secret Doctor's Life 1","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/96102","post":"9471"},</v>
+      </c>
     </row>
     <row r="491" ht="15.75" customHeight="1">
       <c r="A491" s="6">
@@ -18930,15 +20892,34 @@
         <v>488</v>
       </c>
       <c r="B491" s="9" t="s">
-        <v>1093</v>
+        <v>1192</v>
+      </c>
+      <c r="C491" s="9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D491" s="9">
+        <v>2021.0</v>
+      </c>
+      <c r="E491" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F491" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G491" s="11" t="s">
+        <v>1191</v>
       </c>
       <c r="H491" s="9">
         <v>9484.0</v>
       </c>
-      <c r="J491" s="8"/>
+      <c r="I491" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J491" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Hospital Playlist S02","alt":"Hospital Playlist 2, Wise Doctor Life 2, Smart Doctor Living 2, A Wise Doctor's Life 2, Secret Doctor's Life 2","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/96102","post":"9484"},</v>
+      </c>
     </row>
     <row r="492" ht="15.75" customHeight="1">
       <c r="A492" s="6">
@@ -18946,15 +20927,34 @@
         <v>489</v>
       </c>
       <c r="B492" s="9" t="s">
-        <v>1094</v>
+        <v>1194</v>
+      </c>
+      <c r="C492" s="9" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D492" s="9">
+        <v>2021.0</v>
+      </c>
+      <c r="E492" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F492" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G492" s="11" t="s">
+        <v>1196</v>
       </c>
       <c r="H492" s="9">
         <v>9454.0</v>
       </c>
-      <c r="J492" s="8"/>
+      <c r="I492" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J492" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Monthly Magazine Home","alt":"Monthly House, Monthly Home","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/120057","post":"9454"},</v>
+      </c>
     </row>
     <row r="493" ht="15.75" customHeight="1">
       <c r="A493" s="6">
@@ -18962,15 +20962,34 @@
         <v>490</v>
       </c>
       <c r="B493" s="9" t="s">
-        <v>1095</v>
+        <v>1197</v>
+      </c>
+      <c r="C493" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D493" s="9">
+        <v>2017.0</v>
+      </c>
+      <c r="E493" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F493" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G493" s="11" t="s">
+        <v>1199</v>
       </c>
       <c r="H493" s="9">
         <v>9441.0</v>
       </c>
-      <c r="J493" s="8"/>
+      <c r="I493" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J493" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Go Back Couple","alt":"Go Back Spouses, Confession Couple, Confession Spouses, Go Back to 1999, Couple on the Backtrack, Do It One More Time","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/74064","post":"9441"},</v>
+      </c>
     </row>
     <row r="494" ht="15.75" customHeight="1">
       <c r="A494" s="6">
@@ -18978,15 +20997,34 @@
         <v>491</v>
       </c>
       <c r="B494" s="9" t="s">
-        <v>1096</v>
+        <v>1200</v>
+      </c>
+      <c r="C494" s="12" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D494" s="9">
+        <v>2021.0</v>
+      </c>
+      <c r="E494" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F494" s="9" t="s">
         <v>25</v>
+      </c>
+      <c r="G494" s="11" t="s">
+        <v>1202</v>
       </c>
       <c r="H494" s="9">
         <v>9431.0</v>
       </c>
-      <c r="J494" s="8"/>
+      <c r="I494" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>]}</v>
+      </c>
+      <c r="J494" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Squid Game","alt":"The Squid Game, Cuttlefish Game, Squid Games, Round Six, Round 6","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/93405","post":"9431"}]}</v>
+      </c>
     </row>
     <row r="495" ht="15.75" customHeight="1">
       <c r="J495" s="8"/>
@@ -20474,10 +22512,102 @@
       <c r="J989" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G406"/>
+    <hyperlink r:id="rId2" ref="G407"/>
+    <hyperlink r:id="rId3" ref="G408"/>
+    <hyperlink r:id="rId4" ref="G409"/>
+    <hyperlink r:id="rId5" ref="G410"/>
+    <hyperlink r:id="rId6" ref="G411"/>
+    <hyperlink r:id="rId7" ref="G412"/>
+    <hyperlink r:id="rId8" ref="G413"/>
+    <hyperlink r:id="rId9" ref="G414"/>
+    <hyperlink r:id="rId10" ref="G415"/>
+    <hyperlink r:id="rId11" ref="G416"/>
+    <hyperlink r:id="rId12" ref="G417"/>
+    <hyperlink r:id="rId13" ref="G418"/>
+    <hyperlink r:id="rId14" ref="G419"/>
+    <hyperlink r:id="rId15" ref="G420"/>
+    <hyperlink r:id="rId16" ref="G421"/>
+    <hyperlink r:id="rId17" ref="G422"/>
+    <hyperlink r:id="rId18" ref="G423"/>
+    <hyperlink r:id="rId19" ref="G424"/>
+    <hyperlink r:id="rId20" ref="G425"/>
+    <hyperlink r:id="rId21" ref="G426"/>
+    <hyperlink r:id="rId22" ref="G427"/>
+    <hyperlink r:id="rId23" ref="G428"/>
+    <hyperlink r:id="rId24" ref="G429"/>
+    <hyperlink r:id="rId25" ref="G430"/>
+    <hyperlink r:id="rId26" ref="G431"/>
+    <hyperlink r:id="rId27" ref="G432"/>
+    <hyperlink r:id="rId28" ref="G433"/>
+    <hyperlink r:id="rId29" ref="G434"/>
+    <hyperlink r:id="rId30" ref="G435"/>
+    <hyperlink r:id="rId31" ref="G436"/>
+    <hyperlink r:id="rId32" ref="G437"/>
+    <hyperlink r:id="rId33" ref="G438"/>
+    <hyperlink r:id="rId34" ref="G439"/>
+    <hyperlink r:id="rId35" ref="G440"/>
+    <hyperlink r:id="rId36" ref="G441"/>
+    <hyperlink r:id="rId37" ref="G442"/>
+    <hyperlink r:id="rId38" ref="G443"/>
+    <hyperlink r:id="rId39" ref="G444"/>
+    <hyperlink r:id="rId40" ref="G445"/>
+    <hyperlink r:id="rId41" ref="G446"/>
+    <hyperlink r:id="rId42" ref="G447"/>
+    <hyperlink r:id="rId43" ref="G448"/>
+    <hyperlink r:id="rId44" ref="G449"/>
+    <hyperlink r:id="rId45" ref="G450"/>
+    <hyperlink r:id="rId46" ref="G451"/>
+    <hyperlink r:id="rId47" ref="G452"/>
+    <hyperlink r:id="rId48" ref="G453"/>
+    <hyperlink r:id="rId49" ref="G454"/>
+    <hyperlink r:id="rId50" ref="G455"/>
+    <hyperlink r:id="rId51" ref="G456"/>
+    <hyperlink r:id="rId52" ref="G457"/>
+    <hyperlink r:id="rId53" ref="G458"/>
+    <hyperlink r:id="rId54" ref="G459"/>
+    <hyperlink r:id="rId55" ref="G460"/>
+    <hyperlink r:id="rId56" ref="G461"/>
+    <hyperlink r:id="rId57" ref="G462"/>
+    <hyperlink r:id="rId58" ref="G463"/>
+    <hyperlink r:id="rId59" ref="G464"/>
+    <hyperlink r:id="rId60" ref="G465"/>
+    <hyperlink r:id="rId61" ref="G466"/>
+    <hyperlink r:id="rId62" ref="G467"/>
+    <hyperlink r:id="rId63" ref="G468"/>
+    <hyperlink r:id="rId64" ref="G469"/>
+    <hyperlink r:id="rId65" ref="G470"/>
+    <hyperlink r:id="rId66" ref="G471"/>
+    <hyperlink r:id="rId67" ref="G472"/>
+    <hyperlink r:id="rId68" ref="G473"/>
+    <hyperlink r:id="rId69" ref="G474"/>
+    <hyperlink r:id="rId70" ref="G475"/>
+    <hyperlink r:id="rId71" ref="G476"/>
+    <hyperlink r:id="rId72" ref="G477"/>
+    <hyperlink r:id="rId73" ref="G478"/>
+    <hyperlink r:id="rId74" ref="G479"/>
+    <hyperlink r:id="rId75" ref="G480"/>
+    <hyperlink r:id="rId76" ref="G481"/>
+    <hyperlink r:id="rId77" ref="G482"/>
+    <hyperlink r:id="rId78" ref="G483"/>
+    <hyperlink r:id="rId79" ref="G484"/>
+    <hyperlink r:id="rId80" ref="G485"/>
+    <hyperlink r:id="rId81" ref="G486"/>
+    <hyperlink r:id="rId82" ref="G487"/>
+    <hyperlink r:id="rId83" ref="G488"/>
+    <hyperlink r:id="rId84" ref="G489"/>
+    <hyperlink r:id="rId85" ref="G490"/>
+    <hyperlink r:id="rId86" ref="G491"/>
+    <hyperlink r:id="rId87" ref="G492"/>
+    <hyperlink r:id="rId88" ref="G493"/>
+    <hyperlink r:id="rId89" ref="C494"/>
+    <hyperlink r:id="rId90" ref="G494"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId91"/>
 </worksheet>
 </file>
 
@@ -20496,9 +22626,9 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11">
+      <c r="A1" s="13">
         <f>NOW()</f>
-        <v>45085.07329</v>
+        <v>45085.26941</v>
       </c>
       <c r="B1" s="7">
         <f>DAY(A1)</f>
@@ -20520,7 +22650,7 @@
         <v>1.0</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>1097</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="2">
@@ -20528,7 +22658,7 @@
         <v>2.0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1098</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="3">
@@ -20540,7 +22670,7 @@
         <v>3.0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>1099</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="4">
@@ -20548,7 +22678,7 @@
         <v>4.0</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1100</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="5">
@@ -20556,7 +22686,7 @@
         <v>5.0</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1101</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="6">
@@ -20564,7 +22694,7 @@
         <v>6.0</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1102</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="7">
@@ -20572,7 +22702,7 @@
         <v>7.0</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>1103</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="8">
@@ -20580,7 +22710,7 @@
         <v>8.0</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1104</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="9">
@@ -20588,7 +22718,7 @@
         <v>9.0</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>1105</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="10">
@@ -20596,7 +22726,7 @@
         <v>10.0</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>1106</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="11">
@@ -20604,7 +22734,7 @@
         <v>11.0</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1107</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="12">
@@ -20612,7 +22742,7 @@
         <v>12.0</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>1108</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/a.xlsx
+++ b/a.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3804" uniqueCount="2018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3947" uniqueCount="2103">
   <si>
     <t>info</t>
   </si>
@@ -4568,46 +4568,97 @@
     <t>https://www.themoviedb.org/tv/112119</t>
   </si>
   <si>
-    <t>Welcome</t>
+    <t>Meow, the Secret Boy</t>
+  </si>
+  <si>
+    <t>The Man Who Bakes Bread, The Man Who Toasts Bread, The Man That Bakes Bread, Come Here, Come On, Welcome Home, You're Back</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/97957</t>
   </si>
   <si>
     <t>The Tale of Nokdu</t>
   </si>
   <si>
+    <t>ung Bean Pancake, The Joseon Romantic-Comedy Tale of Nok-Du, Joseon Roko Nok Du Jeon, Joseon Loco - Mung Bean Chronicles, Nok Du Chronicle, Mung Bean Chronicles, Tale of Nok Du</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/93541</t>
+  </si>
+  <si>
     <t>When My Love Blooms</t>
   </si>
   <si>
-    <t>Busted S01</t>
-  </si>
-  <si>
-    <t>Busted 1</t>
-  </si>
-  <si>
-    <t>Busted S02</t>
-  </si>
-  <si>
-    <t>Busted 2</t>
-  </si>
-  <si>
-    <t>Busted S03</t>
-  </si>
-  <si>
-    <t>Busted 3</t>
+    <t>Hwayang Softening, The Happiest Time of Our Lives, The Most Beautiful Days in Life, The Most Beautiful Time in My Life, The Most Beautiful Moment in Life, Blossom</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/100595</t>
+  </si>
+  <si>
+    <t>Busted! S01</t>
+  </si>
+  <si>
+    <t>The Culprit is You 1, Busted! 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/78798</t>
+  </si>
+  <si>
+    <t>Busted! S02</t>
+  </si>
+  <si>
+    <t>The Culprit is You 2, Busted! 2</t>
+  </si>
+  <si>
+    <t>Busted! S03</t>
+  </si>
+  <si>
+    <t>The Culprit is You 3, Busted! 3</t>
   </si>
   <si>
     <t>Once Again</t>
   </si>
   <si>
+    <t>I Went There Once, I've Been There Once, I’ve Returned After One Marriage, I Have Been There Once</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/99490</t>
+  </si>
+  <si>
     <t>Run On</t>
   </si>
   <si>
+    <t>Keep On</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/113240</t>
+  </si>
+  <si>
     <t>Royal Secret Agent</t>
   </si>
   <si>
+    <t>New Secret Royal Agent, New Ambassador, New Secret Royal Inspector, New Secret Royal Investigator, Blade of the Phantom Master, Secret Royal Inspector: Joseon Secret Investigation Team</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/114149</t>
+  </si>
+  <si>
     <t>Cinderella and the Four Knights</t>
   </si>
   <si>
-    <t>Do You Like Brahms</t>
+    <t>You're the First, Cinderella and Four Knights, Cinderella with Four Knights</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/67084</t>
+  </si>
+  <si>
+    <t>Do You Like Brahms?</t>
+  </si>
+  <si>
+    <t>Please Love Brahms, Liking Brahms</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/101857</t>
   </si>
   <si>
     <t>Love Alarm S01</t>
@@ -4616,6 +4667,9 @@
     <t>Love Alarm 1</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/tv/89641</t>
+  </si>
+  <si>
     <t>Love Alarm S02</t>
   </si>
   <si>
@@ -4625,42 +4679,87 @@
     <t>Doctor Romantic S01</t>
   </si>
   <si>
-    <t>Doctor Romantic 1</t>
+    <t>Romantic Doctor Kim Sa Bu 1, Dr Romantic 1, Good Things Get Better 1, The Romantic Doctor 1, Teacher Kim 1, Doctor Romantic 1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/68398</t>
   </si>
   <si>
     <t>Doctor Romantic S02</t>
   </si>
   <si>
-    <t>Doctor Romantic 2</t>
+    <t>Romantic Doctor Kim Sa Bu 2, Dr Romantic 2, Good Things Get Better 2, The Romantic Doctor 2, Teacher Kim 2, Doctor Romantic 2</t>
   </si>
   <si>
     <t>My Absolute Boyfriend</t>
   </si>
   <si>
+    <t>Roco King</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/88514</t>
+  </si>
+  <si>
     <t>My Secret Romance</t>
   </si>
   <si>
+    <t>Frustrating Romance, You Drive Me Crazy</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/70744</t>
+  </si>
+  <si>
     <t>The Nokdu Flower</t>
   </si>
   <si>
-    <t>Nevertheless</t>
+    <t>Green Bean Flower, Mung Bean Flower</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/88398</t>
+  </si>
+  <si>
+    <t>Nevertheless,</t>
+  </si>
+  <si>
+    <t>I Know But, I Already Know</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/126035</t>
   </si>
   <si>
     <t>Hit the Top</t>
   </si>
   <si>
+    <t>The Big Blow, Greatest One Shot, The Best Hit, Best Punch</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/71871</t>
+  </si>
+  <si>
     <t>Clean with Passion for Now</t>
   </si>
   <si>
+    <t>Clean Up Like It's Hot, First, Clean Passionately</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/78869</t>
+  </si>
+  <si>
     <t>Psychopath Diary</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/tv/94680</t>
+  </si>
+  <si>
     <t>Why Women Kill S01</t>
   </si>
   <si>
     <t>Why Women Kill 1</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/tv/87428</t>
+  </si>
+  <si>
     <t>Why Women Kill S02</t>
   </si>
   <si>
@@ -4670,85 +4769,241 @@
     <t>A Daughter Just Like You</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/tv/94586</t>
+  </si>
+  <si>
     <t>365: Repeat the Year</t>
   </si>
   <si>
+    <t>365: 1 Year Against Destiny, 365: One Year Against Destiny, 365: A Year of Defying Fate</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/99479</t>
+  </si>
+  <si>
     <t>Road Number One</t>
   </si>
   <si>
+    <t>Road No. 1, Road Number 1, Road #1</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/40962</t>
+  </si>
+  <si>
     <t>Immortal Classic</t>
   </si>
   <si>
+    <t>Immortal Masterpiece</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/93755</t>
+  </si>
+  <si>
     <t>Grand Prince</t>
   </si>
   <si>
-    <t>Come Back Mister</t>
+    <t>The King, Grand Prince: He Yearns for, Grand Prince: Paint a Picture, Grand Prince: Drawing</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/77428</t>
+  </si>
+  <si>
+    <t>Please Come Back, Mister</t>
+  </si>
+  <si>
+    <t>Hello My Precious Person, Goodbye My Beloved One, Hello, My Precious, Come Back Ahjussi, Come Back Mister, Come Back, Uncle, Come Back Alive</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/65412</t>
   </si>
   <si>
     <t>Find Me in Your Memory</t>
   </si>
   <si>
+    <t>That Man's Mnemonics, The Man's Memory Method, Memoir of the Man, Memoirs of a Man, His Memorization Method, The Way He Remembers, Memoirs of the Man</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/99477</t>
+  </si>
+  <si>
     <t>What Happened in Bali</t>
   </si>
   <si>
+    <t>Something Happened in Bali, Hearts in Bali, Memories in Bali, Memories of Bali</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/13733</t>
+  </si>
+  <si>
     <t>Lovestruck in the City</t>
   </si>
   <si>
+    <t>City Couple’s Way of Love: My Lovable Camera Thief, Love Way of Urban Man &amp; Woman, City Man and Woman Love Method, How to Love Between Men and Women in the City</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/113710</t>
+  </si>
+  <si>
     <t>Black Dog</t>
   </si>
   <si>
+    <t>Black Dog: Being A Teacher</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/95067</t>
+  </si>
+  <si>
     <t>Zombie Detective</t>
   </si>
   <si>
+    <t>The Zombie Detective</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/108285</t>
+  </si>
+  <si>
     <t>Dark Hole</t>
   </si>
   <si>
-    <t>L.U.C.A.</t>
+    <t>Another Class</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/120314</t>
+  </si>
+  <si>
+    <t>L.U.C.A.: The Beginning</t>
+  </si>
+  <si>
+    <t>Last Universal Common Ancestor: The Beginning, LUCA: The Beginning, Luka: The Beginning, LUCA: The Beginning</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/116043</t>
   </si>
   <si>
     <t>Suits</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/tv/83334</t>
+  </si>
+  <si>
     <t>My Country: The New Age</t>
   </si>
   <si>
+    <t>My Nation</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/93490</t>
+  </si>
+  <si>
     <t>Mother</t>
   </si>
   <si>
+    <t>Call Me Mother</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/76092</t>
+  </si>
+  <si>
     <t>Hello, Me!</t>
   </si>
   <si>
+    <t>Hi? It's Me, Hello, It's Me!</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/116045</t>
+  </si>
+  <si>
     <t>Brain</t>
   </si>
   <si>
-    <t>Misaeng</t>
+    <t>https://www.themoviedb.org/tv/42058</t>
+  </si>
+  <si>
+    <t>Misaeng: Incomplete Life</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/61678</t>
   </si>
   <si>
     <t>Times</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/tv/116673</t>
+  </si>
+  <si>
     <t>Wanted</t>
   </si>
   <si>
+    <t>The Reality Show: Wanted</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/66634</t>
+  </si>
+  <si>
     <t>Missing You</t>
   </si>
   <si>
+    <t>Waiting for You, The Wait</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/movie/390433</t>
+  </si>
+  <si>
+    <t>I Miss You</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/46002</t>
+  </si>
+  <si>
     <t>Undercover</t>
   </si>
   <si>
+    <t>https://www.themoviedb.org/tv/120318</t>
+  </si>
+  <si>
     <t>Three Days</t>
   </si>
   <si>
+    <t>3 Days</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/61157</t>
+  </si>
+  <si>
     <t>At a Distance, Spring is Green</t>
   </si>
   <si>
+    <t>A Blue Spring from Afar, From Distance, Blue Spring, From a Distance, a Green Spring, Seen from a Distance, Green Spring, Blue Spring From a Distance</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/126436</t>
+  </si>
+  <si>
     <t>I'm Not a Robot</t>
   </si>
   <si>
+    <t>It's Not a Robot, I Am Not a Robot, She's not a robot</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/74682</t>
+  </si>
+  <si>
     <t>Navillera</t>
   </si>
   <si>
+    <t>Navillera: Like a Butterfly</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/119464</t>
+  </si>
+  <si>
     <t>Move to Heaven</t>
+  </si>
+  <si>
+    <t>Move To Heaven: I Am a Person Who Arranges Articles Left by Deceased, Move to Heaven: I Clean Dead People's Possessions</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/tv/96571</t>
   </si>
   <si>
     <t>Goong S</t>
@@ -6117,7 +6372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -6154,14 +6409,6 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0563C1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -6202,7 +6449,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6226,12 +6473,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="22" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -6629,11 +6870,11 @@
         <v>17172.0</v>
       </c>
       <c r="I4" s="8" t="str">
-        <f t="shared" ref="I4:I494" si="1">IF(H5="",$G$2&amp;$D$2,$H$2)</f>
+        <f t="shared" ref="I4:I657" si="1">IF(H5="",$G$2&amp;$D$2,$H$2)</f>
         <v>,</v>
       </c>
       <c r="J4" s="10" t="str">
-        <f t="shared" ref="J4:J494" si="2">$B$2&amp;$I$2&amp;$B$3&amp;$I$2&amp;$E$2&amp;$I$2&amp;B4&amp;$I$2&amp;$H$2&amp;$I$2&amp;$C$3&amp;$I$2&amp;$E$2&amp;$I$2&amp;C4&amp;$I$2&amp;$H$2&amp;$I$2&amp;$I$3&amp;$I$2&amp;$E$2&amp;$F$2&amp;$I$2&amp;D4&amp;$I$2&amp;$H$2&amp;$I$2&amp;E4&amp;$I$2&amp;$H$2&amp;$I$2&amp;F4&amp;$I$2&amp;$G$2&amp;$H$2&amp;$I$2&amp;$G$3&amp;$I$2&amp;$E$2&amp;$I$2&amp;G4&amp;$I$2&amp;$H$2&amp;$I$2&amp;$H$3&amp;$I$2&amp;$E$2&amp;$I$2&amp;H4&amp;$I$2&amp;$D$2&amp;I4</f>
+        <f t="shared" ref="J4:J657" si="2">$B$2&amp;$I$2&amp;$B$3&amp;$I$2&amp;$E$2&amp;$I$2&amp;B4&amp;$I$2&amp;$H$2&amp;$I$2&amp;$C$3&amp;$I$2&amp;$E$2&amp;$I$2&amp;C4&amp;$I$2&amp;$H$2&amp;$I$2&amp;$I$3&amp;$I$2&amp;$E$2&amp;$F$2&amp;$I$2&amp;D4&amp;$I$2&amp;$H$2&amp;$I$2&amp;E4&amp;$I$2&amp;$H$2&amp;$I$2&amp;F4&amp;$I$2&amp;$G$2&amp;$H$2&amp;$I$2&amp;$G$3&amp;$I$2&amp;$E$2&amp;$I$2&amp;G4&amp;$I$2&amp;$H$2&amp;$I$2&amp;$H$3&amp;$I$2&amp;$E$2&amp;$I$2&amp;H4&amp;$I$2&amp;$D$2&amp;I4</f>
         <v>{"name":"Rooftop Prince","alt":"Attic Prince","tags":["2012","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/43152","post":"17172"},</v>
       </c>
     </row>
@@ -23471,7 +23712,14 @@
       <c r="H495" s="11">
         <v>9214.0</v>
       </c>
-      <c r="J495" s="10"/>
+      <c r="I495" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J495" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"How I Met Your Mother S01","alt":"How I Met Your Mother 1","tags":["2005","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1100","post":"9214"},</v>
+      </c>
     </row>
     <row r="496" ht="15.75" customHeight="1">
       <c r="A496" s="7">
@@ -23499,7 +23747,14 @@
       <c r="H496" s="11">
         <v>9237.0</v>
       </c>
-      <c r="J496" s="10"/>
+      <c r="I496" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J496" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"How I Met Your Mother S02","alt":"How I Met Your Mother 2","tags":["2006","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1100","post":"9237"},</v>
+      </c>
     </row>
     <row r="497" ht="15.75" customHeight="1">
       <c r="A497" s="7">
@@ -23527,7 +23782,14 @@
       <c r="H497" s="11">
         <v>9260.0</v>
       </c>
-      <c r="J497" s="10"/>
+      <c r="I497" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J497" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"How I Met Your Mother S03","alt":"How I Met Your Mother 3","tags":["2007","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1100","post":"9260"},</v>
+      </c>
     </row>
     <row r="498" ht="15.75" customHeight="1">
       <c r="A498" s="7">
@@ -23555,7 +23817,14 @@
       <c r="H498" s="11">
         <v>9281.0</v>
       </c>
-      <c r="J498" s="10"/>
+      <c r="I498" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J498" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"How I Met Your Mother S04","alt":"How I Met Your Mother 4","tags":["2008","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1100","post":"9281"},</v>
+      </c>
     </row>
     <row r="499" ht="15.75" customHeight="1">
       <c r="A499" s="7">
@@ -23583,7 +23852,14 @@
       <c r="H499" s="11">
         <v>9306.0</v>
       </c>
-      <c r="J499" s="10"/>
+      <c r="I499" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J499" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"How I Met Your Mother S05","alt":"How I Met Your Mother 5","tags":["2009","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1100","post":"9306"},</v>
+      </c>
     </row>
     <row r="500" ht="15.75" customHeight="1">
       <c r="A500" s="7">
@@ -23611,7 +23887,14 @@
       <c r="H500" s="11">
         <v>9331.0</v>
       </c>
-      <c r="J500" s="10"/>
+      <c r="I500" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J500" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"How I Met Your Mother S06","alt":"How I Met Your Mother 6","tags":["2010","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1100","post":"9331"},</v>
+      </c>
     </row>
     <row r="501" ht="15.75" customHeight="1">
       <c r="A501" s="7">
@@ -23639,7 +23922,14 @@
       <c r="H501" s="11">
         <v>9356.0</v>
       </c>
-      <c r="J501" s="10"/>
+      <c r="I501" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J501" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"How I Met Your Mother S07","alt":"How I Met Your Mother 7","tags":["2011","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1100","post":"9356"},</v>
+      </c>
     </row>
     <row r="502" ht="15.75" customHeight="1">
       <c r="A502" s="7">
@@ -23667,7 +23957,14 @@
       <c r="H502" s="11">
         <v>9381.0</v>
       </c>
-      <c r="J502" s="10"/>
+      <c r="I502" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J502" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"How I Met Your Mother S08","alt":"How I Met Your Mother 8","tags":["2012","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1100","post":"9381"},</v>
+      </c>
     </row>
     <row r="503" ht="15.75" customHeight="1">
       <c r="A503" s="7">
@@ -23695,7 +23992,14 @@
       <c r="H503" s="11">
         <v>9406.0</v>
       </c>
-      <c r="J503" s="10"/>
+      <c r="I503" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J503" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"How I Met Your Mother S09","alt":"How I Met Your Mother 9","tags":["2013","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/1100","post":"9406"},</v>
+      </c>
     </row>
     <row r="504" ht="15.75" customHeight="1">
       <c r="A504" s="7">
@@ -23723,7 +24027,14 @@
       <c r="H504" s="11">
         <v>9130.0</v>
       </c>
-      <c r="J504" s="10"/>
+      <c r="I504" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J504" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Tomorrow With You","alt":"Tomorrow, With You","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/68250","post":"9130"},</v>
+      </c>
     </row>
     <row r="505" ht="15.75" customHeight="1">
       <c r="A505" s="7">
@@ -23751,7 +24062,14 @@
       <c r="H505" s="11">
         <v>9113.0</v>
       </c>
-      <c r="J505" s="10"/>
+      <c r="I505" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J505" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Terius Behind Me","alt":"Code Name: Terrius, Code Name: Terius, Terrius Behind Me, My Secret Terrius, My Secret Terius, My Secret, Terius, My Secret, Terrius","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/81211","post":"9113"},</v>
+      </c>
     </row>
     <row r="506" ht="15.75" customHeight="1">
       <c r="A506" s="7">
@@ -23779,7 +24097,14 @@
       <c r="H506" s="11">
         <v>9096.0</v>
       </c>
-      <c r="J506" s="10"/>
+      <c r="I506" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J506" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Catch the Ghost","alt":"Catch Yoo-Ryung, Catch Yoo Ryung","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/94615","post":"9096"},</v>
+      </c>
     </row>
     <row r="507" ht="15.75" customHeight="1">
       <c r="A507" s="7">
@@ -23807,7 +24132,14 @@
       <c r="H507" s="11">
         <v>9077.0</v>
       </c>
-      <c r="J507" s="10"/>
+      <c r="I507" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J507" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Are You Human Too?","alt":"Are You Human?, I'm Human Too?","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/72548","post":"9077"},</v>
+      </c>
     </row>
     <row r="508" ht="15.75" customHeight="1">
       <c r="A508" s="7">
@@ -23835,7 +24167,14 @@
       <c r="H508" s="11">
         <v>9060.0</v>
       </c>
-      <c r="J508" s="10"/>
+      <c r="I508" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J508" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Designated Survivor: 60 Days","alt":"60 Days, Designated Survivor - 60 Days","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/86824","post":"9060"},</v>
+      </c>
     </row>
     <row r="509" ht="15.75" customHeight="1">
       <c r="A509" s="7">
@@ -23863,7 +24202,14 @@
       <c r="H509" s="11">
         <v>9026.0</v>
       </c>
-      <c r="J509" s="10"/>
+      <c r="I509" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J509" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Madame Antoine","alt":"Madame Antoine: The Love Therapist","tags":["2016","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/64448","post":"9026"},</v>
+      </c>
     </row>
     <row r="510" ht="15.75" customHeight="1">
       <c r="A510" s="7">
@@ -23891,7 +24237,14 @@
       <c r="H510" s="11">
         <v>9009.0</v>
       </c>
-      <c r="J510" s="10"/>
+      <c r="I510" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J510" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Bubblegum","alt":"Bubble Gum","tags":["2015","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/64061","post":"9009"},</v>
+      </c>
     </row>
     <row r="511" ht="15.75" customHeight="1">
       <c r="A511" s="7">
@@ -23919,7 +24272,14 @@
       <c r="H511" s="11">
         <v>9007.0</v>
       </c>
-      <c r="J511" s="10"/>
+      <c r="I511" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J511" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Marvel One-Shot: All Hail the King","alt":"MCU","tags":["2014","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/253980","post":"9007"},</v>
+      </c>
     </row>
     <row r="512" ht="15.75" customHeight="1">
       <c r="A512" s="7">
@@ -23947,7 +24307,14 @@
       <c r="H512" s="11">
         <v>9005.0</v>
       </c>
-      <c r="J512" s="10"/>
+      <c r="I512" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J512" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Marvel One-Shot: Agent Carter","alt":"MCU","tags":["2013","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/211387","post":"9005"},</v>
+      </c>
     </row>
     <row r="513" ht="15.75" customHeight="1">
       <c r="A513" s="7">
@@ -23975,7 +24342,14 @@
       <c r="H513" s="11">
         <v>9003.0</v>
       </c>
-      <c r="J513" s="10"/>
+      <c r="I513" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J513" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Marvel One-Shot: Item 47","alt":"MCU","tags":["2012","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/119569","post":"9003"},</v>
+      </c>
     </row>
     <row r="514" ht="15.75" customHeight="1">
       <c r="A514" s="7">
@@ -24003,7 +24377,14 @@
       <c r="H514" s="11">
         <v>9001.0</v>
       </c>
-      <c r="J514" s="10"/>
+      <c r="I514" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J514" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Marvel One-Shot: A Funny Thing Happened on the Way to Thor's Hammer","alt":"MCU","tags":["2011","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/76535","post":"9001"},</v>
+      </c>
     </row>
     <row r="515" ht="15.75" customHeight="1">
       <c r="A515" s="7">
@@ -24031,7 +24412,14 @@
       <c r="H515" s="11">
         <v>8999.0</v>
       </c>
-      <c r="J515" s="10"/>
+      <c r="I515" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J515" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Marvel One-Shot: The Consultant","alt":"MCU","tags":["2011","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/76122","post":"8999"},</v>
+      </c>
     </row>
     <row r="516" ht="15.75" customHeight="1">
       <c r="A516" s="7">
@@ -24059,7 +24447,14 @@
       <c r="H516" s="11">
         <v>8989.0</v>
       </c>
-      <c r="J516" s="10"/>
+      <c r="I516" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J516" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Rabindranath Never Came to Eat Here","alt":"Robindronath Ekhane Kawkhono Khete Aashenni, REKKA","tags":["2021","Bangla","SHOW"],"wiki":"https://www.themoviedb.org/tv/131066","post":"8989"},</v>
+      </c>
     </row>
     <row r="517" ht="15.75" customHeight="1">
       <c r="A517" s="7">
@@ -24087,7 +24482,14 @@
       <c r="H517" s="11">
         <v>8972.0</v>
       </c>
-      <c r="J517" s="10"/>
+      <c r="I517" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J517" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Where Stars Land","alt":"Incheon Airport People, People of Incheon Airport, Fox Bride Star, Star of the Foxes","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/82298","post":"8972"},</v>
+      </c>
     </row>
     <row r="518" ht="15.75" customHeight="1">
       <c r="A518" s="7">
@@ -24115,7 +24517,14 @@
       <c r="H518" s="11">
         <v>8955.0</v>
       </c>
-      <c r="J518" s="10"/>
+      <c r="I518" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J518" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"He is Psychometric","alt":"That Psychometric Guy, That Psychometric Fellow, He is Psychometric","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/87302","post":"8955"},</v>
+      </c>
     </row>
     <row r="519" ht="15.75" customHeight="1">
       <c r="A519" s="7">
@@ -24143,7 +24552,14 @@
       <c r="H519" s="11">
         <v>8938.0</v>
       </c>
-      <c r="J519" s="10"/>
+      <c r="I519" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J519" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Dating Agency: Cyrano","alt":"Flower Boy Dating Agency, Flower Boy, Love Manipulation","tags":["2013","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/60385","post":"8938"},</v>
+      </c>
     </row>
     <row r="520" ht="15.75" customHeight="1">
       <c r="A520" s="7">
@@ -24171,7 +24587,14 @@
       <c r="H520" s="11">
         <v>8921.0</v>
       </c>
-      <c r="J520" s="10"/>
+      <c r="I520" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J520" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Just Between Lovers","alt":"Just In Love, Just Lovers, Rain or Shine","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/74829","post":"8921"},</v>
+      </c>
     </row>
     <row r="521" ht="15.75" customHeight="1">
       <c r="A521" s="7">
@@ -24199,7 +24622,14 @@
       <c r="H521" s="11">
         <v>8904.0</v>
       </c>
-      <c r="J521" s="10"/>
+      <c r="I521" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J521" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Be Melodramatic","alt":"Yeoeuido Scandal, Melo is My Nature, Romance Is My Disposition, The Nature of a Melo, Melo Suits Me","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/90720","post":"8904"},</v>
+      </c>
     </row>
     <row r="522" ht="15.75" customHeight="1">
       <c r="A522" s="7">
@@ -24224,7 +24654,14 @@
       <c r="H522" s="11">
         <v>8902.0</v>
       </c>
-      <c r="J522" s="10"/>
+      <c r="I522" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J522" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Free Guy","alt":"","tags":["2021","English","MOVIE"],"wiki":"https://www.themoviedb.org/movie/550988","post":"8902"},</v>
+      </c>
     </row>
     <row r="523" ht="15.75" customHeight="1">
       <c r="A523" s="7">
@@ -24252,7 +24689,14 @@
       <c r="H523" s="11">
         <v>8885.0</v>
       </c>
-      <c r="J523" s="10"/>
+      <c r="I523" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J523" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Class of Lies","alt":"Fixed Term, Mister Temporary, Mr. Temporary, Undercover Teacher","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/90181","post":"8885"},</v>
+      </c>
     </row>
     <row r="524" ht="15.75" customHeight="1">
       <c r="A524" s="7">
@@ -24280,7 +24724,14 @@
       <c r="H524" s="11">
         <v>8864.0</v>
       </c>
-      <c r="J524" s="10"/>
+      <c r="I524" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J524" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Woman of Dignity","alt":"Lady With Class, Classy Her, Her With Class, The Lady in Dignity","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/71497","post":"8864"},</v>
+      </c>
     </row>
     <row r="525" ht="15.75" customHeight="1">
       <c r="A525" s="7">
@@ -24305,7 +24756,14 @@
       <c r="H525" s="11">
         <v>8847.0</v>
       </c>
-      <c r="J525" s="10"/>
+      <c r="I525" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J525" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Radio Romance","alt":"","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/76114","post":"8847"},</v>
+      </c>
     </row>
     <row r="526" ht="15.75" customHeight="1">
       <c r="A526" s="7">
@@ -24330,7 +24788,14 @@
       <c r="H526" s="11">
         <v>8834.0</v>
       </c>
-      <c r="J526" s="10"/>
+      <c r="I526" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J526" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Orange Marmalade","alt":"","tags":["2015","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/62669","post":"8834"},</v>
+      </c>
     </row>
     <row r="527" ht="15.75" customHeight="1">
       <c r="A527" s="7">
@@ -24355,7 +24820,14 @@
       <c r="H527" s="11">
         <v>8817.0</v>
       </c>
-      <c r="J527" s="10"/>
+      <c r="I527" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J527" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"One Spring Night","alt":"","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/89604","post":"8817"},</v>
+      </c>
     </row>
     <row r="528" ht="15.75" customHeight="1">
       <c r="A528" s="7">
@@ -24380,7 +24852,14 @@
       <c r="H528" s="11">
         <v>8800.0</v>
       </c>
-      <c r="J528" s="10"/>
+      <c r="I528" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J528" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Beauty Inside","alt":"","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/82237","post":"8800"},</v>
+      </c>
     </row>
     <row r="529" ht="15.75" customHeight="1">
       <c r="A529" s="7">
@@ -24408,7 +24887,14 @@
       <c r="H529" s="11">
         <v>8783.0</v>
       </c>
-      <c r="J529" s="10"/>
+      <c r="I529" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J529" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Romance is a Bonus Book","alt":"Romance Is a Supplement, Romance Supplement, How to Publish Love?","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/85220","post":"8783"},</v>
+      </c>
     </row>
     <row r="530" ht="15.75" customHeight="1">
       <c r="A530" s="7">
@@ -24436,7 +24922,14 @@
       <c r="H530" s="11">
         <v>8762.0</v>
       </c>
-      <c r="J530" s="10"/>
+      <c r="I530" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J530" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"SKY Castle","alt":"Princess Maker","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/84327","post":"8762"},</v>
+      </c>
     </row>
     <row r="531" ht="15.75" customHeight="1">
       <c r="A531" s="7">
@@ -24464,7 +24957,14 @@
       <c r="H531" s="11">
         <v>8745.0</v>
       </c>
-      <c r="J531" s="10"/>
+      <c r="I531" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J531" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"She was Pretty","alt":"She Was Beautiful, Puzzled Lovers","tags":["2015","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/63767","post":"8745"},</v>
+      </c>
     </row>
     <row r="532" ht="15.75" customHeight="1">
       <c r="A532" s="7">
@@ -24492,7 +24992,14 @@
       <c r="H532" s="11">
         <v>8726.0</v>
       </c>
-      <c r="J532" s="10"/>
+      <c r="I532" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J532" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Defendant","alt":"Innocent Defendant","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/68890","post":"8726"},</v>
+      </c>
     </row>
     <row r="533" ht="15.75" customHeight="1">
       <c r="A533" s="7">
@@ -24520,7 +25027,14 @@
       <c r="H533" s="11">
         <v>8697.0</v>
       </c>
-      <c r="J533" s="10"/>
+      <c r="I533" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J533" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Bridal Mask","alt":"Doll Mask","tags":["2012","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/44956","post":"8697"},</v>
+      </c>
     </row>
     <row r="534" ht="15.75" customHeight="1">
       <c r="A534" s="7">
@@ -24548,7 +25062,14 @@
       <c r="H534" s="11">
         <v>8680.0</v>
       </c>
-      <c r="J534" s="10"/>
+      <c r="I534" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J534" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Witch's Romance","alt":"A Witch's Love","tags":["2014","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/63022","post":"8680"},</v>
+      </c>
     </row>
     <row r="535" ht="15.75" customHeight="1">
       <c r="A535" s="7">
@@ -24576,7 +25097,14 @@
       <c r="H535" s="11">
         <v>8660.0</v>
       </c>
-      <c r="J535" s="10"/>
+      <c r="I535" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J535" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Wok of Love","alt":"Greasy Melo","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/78797","post":"8660"},</v>
+      </c>
     </row>
     <row r="536" ht="15.75" customHeight="1">
       <c r="A536" s="7">
@@ -24604,7 +25132,14 @@
       <c r="H536" s="11">
         <v>8643.0</v>
       </c>
-      <c r="J536" s="10"/>
+      <c r="I536" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J536" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Secret Life of My Secretary","alt":"How to Train Your Blind Boss, I Love You From The Beginning, Hitting on the Blind Boss, Love at First Sight, I Loved You from the Start, I Loved You From The Beginning, My Secretary Life","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/88783","post":"8643"},</v>
+      </c>
     </row>
     <row r="537" ht="15.75" customHeight="1">
       <c r="A537" s="7">
@@ -24632,7 +25167,14 @@
       <c r="H537" s="11">
         <v>8626.0</v>
       </c>
-      <c r="J537" s="10"/>
+      <c r="I537" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J537" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Prison Playbook","alt":"Smart Prison Living, Wise Prison Life","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/74821","post":"8626"},</v>
+      </c>
     </row>
     <row r="538" ht="15.75" customHeight="1">
       <c r="A538" s="7">
@@ -24660,7 +25202,14 @@
       <c r="H538" s="11">
         <v>8609.0</v>
       </c>
-      <c r="J538" s="10"/>
+      <c r="I538" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J538" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Diary of a Prosecutor","alt":"Prosecutor Civil War, Civil War Inspection, Civil War of Prosecutors, Inside Stories of Prosecutors, War of Prosecutors","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/95231","post":"8609"},</v>
+      </c>
     </row>
     <row r="539" ht="15.75" customHeight="1">
       <c r="A539" s="7">
@@ -24688,7 +25237,14 @@
       <c r="H539" s="11">
         <v>8592.0</v>
       </c>
-      <c r="J539" s="10"/>
+      <c r="I539" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J539" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"You Are My Spring","alt":"You're My Spring","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/126698","post":"8592"},</v>
+      </c>
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="A540" s="7">
@@ -24716,7 +25272,14 @@
       <c r="H540" s="11">
         <v>8575.0</v>
       </c>
-      <c r="J540" s="10"/>
+      <c r="I540" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J540" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Love with Flaws","alt":"Defective People, People With Flaws, Doctor People","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/95212","post":"8575"},</v>
+      </c>
     </row>
     <row r="541" ht="15.75" customHeight="1">
       <c r="A541" s="7">
@@ -24744,7 +25307,14 @@
       <c r="H541" s="11">
         <v>8558.0</v>
       </c>
-      <c r="J541" s="10"/>
+      <c r="I541" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J541" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Queen: Love and War","alt":"Selection, Selection: The War Between Girls, Gantaek-Girls' War, Selection - Girls' War, Selection: The War Between Women","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/95109","post":"8558"},</v>
+      </c>
     </row>
     <row r="542" ht="15.75" customHeight="1">
       <c r="A542" s="7">
@@ -24772,7 +25342,14 @@
       <c r="H542" s="11">
         <v>8541.0</v>
       </c>
-      <c r="J542" s="10"/>
+      <c r="I542" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J542" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"When the Weather is Fine","alt":"If the Weather Is Good, I'll Find You, I'll Visit You When the Weather Is Nice, I'll Come by When the Weather's Good, I'll Visit You If the Weather Is Good, I'll Go To You When The Weather Is Nice, I'll Find You on a Beautif","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/96977","post":"8541"},</v>
+      </c>
     </row>
     <row r="543" ht="15.75" customHeight="1">
       <c r="A543" s="7">
@@ -24800,7 +25377,14 @@
       <c r="H543" s="11">
         <v>8520.0</v>
       </c>
-      <c r="J543" s="10"/>
+      <c r="I543" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J543" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Winter Sonata","alt":"Winter Ballad, Winter Love Song, Endless Love 2","tags":["2002","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/12539","post":"8520"},</v>
+      </c>
     </row>
     <row r="544" ht="15.75" customHeight="1">
       <c r="A544" s="7">
@@ -24828,7 +25412,14 @@
       <c r="H544" s="11">
         <v>8503.0</v>
       </c>
-      <c r="J544" s="10"/>
+      <c r="I544" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J544" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Rugal","alt":"Lugal","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/97766","post":"8503"},</v>
+      </c>
     </row>
     <row r="545" ht="15.75" customHeight="1">
       <c r="A545" s="7">
@@ -24853,7 +25444,14 @@
       <c r="H545" s="11">
         <v>8486.0</v>
       </c>
-      <c r="J545" s="10"/>
+      <c r="I545" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J545" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"My Secret Hotel","alt":"","tags":["2014","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/61219","post":"8486"},</v>
+      </c>
     </row>
     <row r="546" ht="15.75" customHeight="1">
       <c r="A546" s="7">
@@ -24881,7 +25479,14 @@
       <c r="H546" s="11">
         <v>8473.0</v>
       </c>
-      <c r="J546" s="10"/>
+      <c r="I546" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J546" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"A Piece of Your Mind","alt":"One Fourth, Half of Half, Half of a Half","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/99112","post":"8473"},</v>
+      </c>
     </row>
     <row r="547" ht="15.75" customHeight="1">
       <c r="A547" s="7">
@@ -24909,7 +25514,14 @@
       <c r="H547" s="11">
         <v>8456.0</v>
       </c>
-      <c r="J547" s="10"/>
+      <c r="I547" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J547" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Strongest Deliveryman","alt":"Best Delivery Person","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/72396","post":"8456"},</v>
+      </c>
     </row>
     <row r="548" ht="15.75" customHeight="1">
       <c r="A548" s="7">
@@ -24937,7 +25549,14 @@
       <c r="H548" s="11">
         <v>8439.0</v>
       </c>
-      <c r="J548" s="10"/>
+      <c r="I548" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J548" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Secret Love Affair","alt":"Secret Affair","tags":["2014","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/61146","post":"8439"},</v>
+      </c>
     </row>
     <row r="549" ht="15.75" customHeight="1">
       <c r="A549" s="7">
@@ -24962,7 +25581,14 @@
       <c r="H549" s="11">
         <v>8422.0</v>
       </c>
-      <c r="J549" s="10"/>
+      <c r="I549" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J549" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Tunnel","alt":"","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/70440","post":"8422"},</v>
+      </c>
     </row>
     <row r="550" ht="15.75" customHeight="1">
       <c r="A550" s="7">
@@ -24990,7 +25616,14 @@
       <c r="H550" s="11">
         <v>8405.0</v>
       </c>
-      <c r="J550" s="10"/>
+      <c r="I550" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J550" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Because This Is My First Life","alt":"This Life is Our First","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/74074","post":"8405"},</v>
+      </c>
     </row>
     <row r="551" ht="15.75" customHeight="1">
       <c r="A551" s="7">
@@ -25018,7 +25651,14 @@
       <c r="H551" s="11">
         <v>8388.0</v>
       </c>
-      <c r="J551" s="10"/>
+      <c r="I551" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J551" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Hyena","alt":"Haiena, Hiena","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/95110","post":"8388"},</v>
+      </c>
     </row>
     <row r="552" ht="15.75" customHeight="1">
       <c r="A552" s="7">
@@ -25043,7 +25683,14 @@
       <c r="H552" s="11">
         <v>8371.0</v>
       </c>
-      <c r="J552" s="10"/>
+      <c r="I552" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J552" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Sketch","alt":"","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/79566","post":"8371"},</v>
+      </c>
     </row>
     <row r="553" ht="15.75" customHeight="1">
       <c r="A553" s="7">
@@ -25068,7 +25715,14 @@
       <c r="H553" s="11">
         <v>8358.0</v>
       </c>
-      <c r="J553" s="10"/>
+      <c r="I553" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J553" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Producers","alt":"","tags":["2015","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/62644","post":"8358"},</v>
+      </c>
     </row>
     <row r="554" ht="15.75" customHeight="1">
       <c r="A554" s="7">
@@ -25096,7 +25750,14 @@
       <c r="H554" s="11">
         <v>8345.0</v>
       </c>
-      <c r="J554" s="10"/>
+      <c r="I554" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J554" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Light in Your Eyes","alt":"Eyes Are Dazzling, Radiant","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/86546","post":"8345"},</v>
+      </c>
     </row>
     <row r="555" ht="15.75" customHeight="1">
       <c r="A555" s="7">
@@ -25124,7 +25785,14 @@
       <c r="H555" s="11">
         <v>8327.0</v>
       </c>
-      <c r="J555" s="10"/>
+      <c r="I555" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J555" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Master's Sun","alt":"The Sun of My Master, The Sun Of The Lord, Master's Sun","tags":["2013","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/57646","post":"8327"},</v>
+      </c>
     </row>
     <row r="556" ht="15.75" customHeight="1">
       <c r="A556" s="7">
@@ -25152,7 +25820,14 @@
       <c r="H556" s="11">
         <v>8310.0</v>
       </c>
-      <c r="J556" s="10"/>
+      <c r="I556" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J556" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Bride of the Water God","alt":"The Bride of Habaek","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/70452","post":"8310"},</v>
+      </c>
     </row>
     <row r="557" ht="15.75" customHeight="1">
       <c r="A557" s="7">
@@ -25180,7 +25855,14 @@
       <c r="H557" s="11">
         <v>8293.0</v>
       </c>
-      <c r="J557" s="10"/>
+      <c r="I557" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J557" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Crowned Clown","alt":"Man Became A King, Masquerade, Man Who Became King, The Man Who Became King","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/85405","post":"8293"},</v>
+      </c>
     </row>
     <row r="558" ht="15.75" customHeight="1">
       <c r="A558" s="7">
@@ -25208,7 +25890,14 @@
       <c r="H558" s="11">
         <v>8276.0</v>
       </c>
-      <c r="J558" s="10"/>
+      <c r="I558" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J558" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Devil Judge","alt":"The Demon Judge, Devilish Judge, The Devil Judgement, The Devil's Justice, The Merciless Judge","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/119772","post":"8276"},</v>
+      </c>
     </row>
     <row r="559" ht="15.75" customHeight="1">
       <c r="A559" s="7">
@@ -25236,7 +25925,14 @@
       <c r="H559" s="11">
         <v>8248.0</v>
       </c>
-      <c r="J559" s="10"/>
+      <c r="I559" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J559" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Last Empress","alt":"Empress’s Dignity, An Empress’ Dignity, Last Empress, The Queen's Dignity","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/84107","post":"8248"},</v>
+      </c>
     </row>
     <row r="560" ht="15.75" customHeight="1">
       <c r="A560" s="7">
@@ -25264,7 +25960,14 @@
       <c r="H560" s="11">
         <v>8227.0</v>
       </c>
-      <c r="J560" s="10"/>
+      <c r="I560" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J560" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Fiery Priest","alt":"Hot Blooded Priest, Enthusiastic Priest, Passionate Priest","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/86830","post":"8227"},</v>
+      </c>
     </row>
     <row r="561" ht="15.75" customHeight="1">
       <c r="A561" s="7">
@@ -25292,7 +25995,14 @@
       <c r="H561" s="11">
         <v>8209.0</v>
       </c>
-      <c r="J561" s="10"/>
+      <c r="I561" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J561" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Shopping King Louie","alt":"Shopaholic Louie, Shopping King Louis, Shopaholic Louis","tags":["2016","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/67272","post":"8209"},</v>
+      </c>
     </row>
     <row r="562" ht="15.75" customHeight="1">
       <c r="A562" s="7">
@@ -25320,7 +26030,14 @@
       <c r="H562" s="11">
         <v>8193.0</v>
       </c>
-      <c r="J562" s="10"/>
+      <c r="I562" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J562" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Mystic Pop-Up Bar","alt":"Two Tops Pocha, Two-Way Pocha, Twin Pub, Double Decker Carriage","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/99491","post":"8193"},</v>
+      </c>
     </row>
     <row r="563" ht="15.75" customHeight="1">
       <c r="A563" s="7">
@@ -25348,7 +26065,14 @@
       <c r="H563" s="11">
         <v>8176.0</v>
       </c>
-      <c r="J563" s="10"/>
+      <c r="I563" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J563" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Live Up to Your Name","alt":"Deserving of the Name, Live Up to Your Name, Dr. Heo","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/72851","post":"8176"},</v>
+      </c>
     </row>
     <row r="564" ht="15.75" customHeight="1">
       <c r="A564" s="7">
@@ -25376,7 +26100,14 @@
       <c r="H564" s="11">
         <v>8159.0</v>
       </c>
-      <c r="J564" s="10"/>
+      <c r="I564" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J564" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Revolutionary Love","alt":"Byun Hyuk's Love, Love of Transformation, Revolutionary Love, Revolution","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/74075","post":"8159"},</v>
+      </c>
     </row>
     <row r="565" ht="15.75" customHeight="1">
       <c r="A565" s="7">
@@ -25404,7 +26135,14 @@
       <c r="H565" s="11">
         <v>8138.0</v>
       </c>
-      <c r="J565" s="10"/>
+      <c r="I565" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J565" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Good Manager","alt":"Chief Kim, Mister Kim, Manager Kim","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/68947","post":"8138"},</v>
+      </c>
     </row>
     <row r="566" ht="15.75" customHeight="1">
       <c r="A566" s="7">
@@ -25432,7 +26170,14 @@
       <c r="H566" s="11">
         <v>8121.0</v>
       </c>
-      <c r="J566" s="10"/>
+      <c r="I566" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J566" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Encounter","alt":"Boyfriend","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/83941","post":"8121"},</v>
+      </c>
     </row>
     <row r="567" ht="15.75" customHeight="1">
       <c r="A567" s="7">
@@ -25457,7 +26202,14 @@
       <c r="H567" s="11">
         <v>8100.0</v>
       </c>
-      <c r="J567" s="10"/>
+      <c r="I567" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J567" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Blood","alt":"","tags":["2015","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/62078","post":"8100"},</v>
+      </c>
     </row>
     <row r="568" ht="15.75" customHeight="1">
       <c r="A568" s="7">
@@ -25482,7 +26234,14 @@
       <c r="H568" s="11">
         <v>8079.0</v>
       </c>
-      <c r="J568" s="10"/>
+      <c r="I568" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J568" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The City Hall","alt":"","tags":["2009","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/31229","post":"8079"},</v>
+      </c>
     </row>
     <row r="569" ht="15.75" customHeight="1">
       <c r="A569" s="7">
@@ -25510,7 +26269,14 @@
       <c r="H569" s="11">
         <v>8058.0</v>
       </c>
-      <c r="J569" s="10"/>
+      <c r="I569" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J569" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Queen for Seven Days","alt":"Queen for 7 Days, Seven Day Queen, 7 Day Queen","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/71748","post":"8058"},</v>
+      </c>
     </row>
     <row r="570" ht="15.75" customHeight="1">
       <c r="A570" s="7">
@@ -25538,7 +26304,14 @@
       <c r="H570" s="11">
         <v>8039.0</v>
       </c>
-      <c r="J570" s="10"/>
+      <c r="I570" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J570" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"My Fellow Citizens","alt":"My Dear Citizens, People of the Country","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/87408","post":"8039"},</v>
+      </c>
     </row>
     <row r="571" ht="15.75" customHeight="1">
       <c r="A571" s="7">
@@ -25563,7 +26336,14 @@
       <c r="H571" s="11">
         <v>8022.0</v>
       </c>
-      <c r="J571" s="10"/>
+      <c r="I571" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J571" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Life on Mars","alt":"","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/79407","post":"8022"},</v>
+      </c>
     </row>
     <row r="572" ht="15.75" customHeight="1">
       <c r="A572" s="7">
@@ -25591,7 +26371,14 @@
       <c r="H572" s="11">
         <v>8005.0</v>
       </c>
-      <c r="J572" s="10"/>
+      <c r="I572" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J572" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Dinner Mate","alt":"Will You Have Dinner With Me, Would You Like to Have Dinner Together, Let's Have Dinner Together, Shall We Eat Dinner Together?, Would You Like to Have Dinner?","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/102293","post":"8005"},</v>
+      </c>
     </row>
     <row r="573" ht="15.75" customHeight="1">
       <c r="A573" s="7">
@@ -25619,7 +26406,14 @@
       <c r="H573" s="11">
         <v>7984.0</v>
       </c>
-      <c r="J573" s="10"/>
+      <c r="I573" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J573" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"When the Camellia Blooms","alt":"When Camellia Blooms","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/93097","post":"7984"},</v>
+      </c>
     </row>
     <row r="574" ht="15.75" customHeight="1">
       <c r="A574" s="7">
@@ -25647,7 +26441,14 @@
       <c r="H574" s="11">
         <v>7967.0</v>
       </c>
-      <c r="J574" s="10"/>
+      <c r="I574" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J574" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Was It Love","alt":"Begin Again, We, Were in Love, Did We Love?","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/96161","post":"7967"},</v>
+      </c>
     </row>
     <row r="575" ht="15.75" customHeight="1">
       <c r="A575" s="7">
@@ -25675,7 +26476,14 @@
       <c r="H575" s="11">
         <v>7950.0</v>
       </c>
-      <c r="J575" s="10"/>
+      <c r="I575" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J575" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"My Strange Hero","alt":"Bok-Soo's Back, Revenge Returns, Revenge Has Returned, Revenge is Back, Bok Soo is Back","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/84464","post":"7950"},</v>
+      </c>
     </row>
     <row r="576" ht="15.75" customHeight="1">
       <c r="A576" s="7">
@@ -25703,7 +26511,14 @@
       <c r="H576" s="11">
         <v>7933.0</v>
       </c>
-      <c r="J576" s="10"/>
+      <c r="I576" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J576" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Backstreet Rookie","alt":"Convenience Store, Convenience Store Venus, Convenience Store Morning Star, Convenience Store Saet Byul, Convenience Store Kyunbyeol","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/98827","post":"7933"},</v>
+      </c>
     </row>
     <row r="577" ht="15.75" customHeight="1">
       <c r="A577" s="7">
@@ -25728,7 +26543,14 @@
       <c r="H577" s="11">
         <v>7920.0</v>
       </c>
-      <c r="J577" s="10"/>
+      <c r="I577" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J577" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Train","alt":"","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/104811","post":"7920"},</v>
+      </c>
     </row>
     <row r="578" ht="15.75" customHeight="1">
       <c r="A578" s="7">
@@ -25756,7 +26578,14 @@
       <c r="H578" s="11">
         <v>7903.0</v>
       </c>
-      <c r="J578" s="10"/>
+      <c r="I578" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J578" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Possessed","alt":"Possession","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/86640","post":"7903"},</v>
+      </c>
     </row>
     <row r="579" ht="15.75" customHeight="1">
       <c r="A579" s="7">
@@ -25784,7 +26613,14 @@
       <c r="H579" s="11">
         <v>7896.0</v>
       </c>
-      <c r="J579" s="10"/>
+      <c r="I579" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J579" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The School Nurse Files","alt":"Nurse Teacher An Eun Young, Nurse Teacher Ahn Eun Young, School Nurse Ahn Eun Young, Health Teacher Ahn Eun Young, The Faculty Nurse Records Data","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/87313","post":"7896"},</v>
+      </c>
     </row>
     <row r="580" ht="15.75" customHeight="1">
       <c r="A580" s="7">
@@ -25812,7 +26648,14 @@
       <c r="H580" s="11">
         <v>7883.0</v>
       </c>
-      <c r="J580" s="10"/>
+      <c r="I580" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J580" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Sweet Munchies","alt":"Midnight Snack Men Women, Midnight Snack Couple, Supper Man and Woman, Late Night Snack Man and Woman, Late Snack Man and Woman","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/99493","post":"7883"},</v>
+      </c>
     </row>
     <row r="581" ht="15.75" customHeight="1">
       <c r="A581" s="7">
@@ -25840,7 +26683,14 @@
       <c r="H581" s="11">
         <v>7849.0</v>
       </c>
-      <c r="J581" s="10"/>
+      <c r="I581" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J581" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Stranger S01","alt":"Secret Forest 1, Forest of Secrets 1, Stranger 1","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/70626","post":"7849"},</v>
+      </c>
     </row>
     <row r="582" ht="15.75" customHeight="1">
       <c r="A582" s="7">
@@ -25868,7 +26718,14 @@
       <c r="H582" s="11">
         <v>7866.0</v>
       </c>
-      <c r="J582" s="10"/>
+      <c r="I582" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J582" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Stranger S02","alt":"Secret Forest 2, Forest of Secrets 2, Stranger 2","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/70626","post":"7866"},</v>
+      </c>
     </row>
     <row r="583" ht="15.75" customHeight="1">
       <c r="A583" s="7">
@@ -25896,7 +26753,14 @@
       <c r="H583" s="11">
         <v>7832.0</v>
       </c>
-      <c r="J583" s="10"/>
+      <c r="I583" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J583" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Record of Youth","alt":"Youth Record, A Record of Youth, Youth Report, The Moment","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/99047","post":"7832"},</v>
+      </c>
     </row>
     <row r="584" ht="15.75" customHeight="1">
       <c r="A584" s="7">
@@ -25915,13 +26779,20 @@
       <c r="F584" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G584" s="13" t="s">
+      <c r="G584" s="9" t="s">
         <v>1446</v>
       </c>
       <c r="H584" s="11">
         <v>7815.0</v>
       </c>
-      <c r="J584" s="10"/>
+      <c r="I584" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J584" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Hot Stove League","alt":"","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/95484","post":"7815"},</v>
+      </c>
     </row>
     <row r="585" ht="15.75" customHeight="1">
       <c r="A585" s="7">
@@ -25943,13 +26814,20 @@
       <c r="F585" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G585" s="13" t="s">
+      <c r="G585" s="9" t="s">
         <v>1449</v>
       </c>
       <c r="H585" s="11">
         <v>7798.0</v>
       </c>
-      <c r="J585" s="10"/>
+      <c r="I585" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J585" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Bring It On, Ghost","alt":"Let's Fight, Ghost, Hey Ghost, Let's Fight","tags":["2016","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/66393","post":"7798"},</v>
+      </c>
     </row>
     <row r="586" ht="15.75" customHeight="1">
       <c r="A586" s="7">
@@ -25971,13 +26849,20 @@
       <c r="F586" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G586" s="13" t="s">
+      <c r="G586" s="9" t="s">
         <v>1452</v>
       </c>
       <c r="H586" s="11">
         <v>7781.0</v>
       </c>
-      <c r="J586" s="10"/>
+      <c r="I586" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J586" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Her Private Life","alt":"Her Personal Life","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/87553","post":"7781"},</v>
+      </c>
     </row>
     <row r="587" ht="15.75" customHeight="1">
       <c r="A587" s="7">
@@ -25996,13 +26881,20 @@
       <c r="F587" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G587" s="14" t="s">
+      <c r="G587" s="9" t="s">
         <v>1454</v>
       </c>
       <c r="H587" s="11">
         <v>7764.0</v>
       </c>
-      <c r="J587" s="10"/>
+      <c r="I587" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J587" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"VIP","alt":"","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/94642","post":"7764"},</v>
+      </c>
     </row>
     <row r="588" ht="15.75" customHeight="1">
       <c r="A588" s="7">
@@ -26024,13 +26916,20 @@
       <c r="F588" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G588" s="13" t="s">
+      <c r="G588" s="9" t="s">
         <v>1457</v>
       </c>
       <c r="H588" s="11">
         <v>7747.0</v>
       </c>
-      <c r="J588" s="10"/>
+      <c r="I588" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J588" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Smile Has Left Your Eyes","alt":"One Million Stars Falling from the Sky, Hundred Million Stars From the Sky","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/82501","post":"7747"},</v>
+      </c>
     </row>
     <row r="589" ht="15.75" customHeight="1">
       <c r="A589" s="7">
@@ -26052,13 +26951,20 @@
       <c r="F589" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G589" s="13" t="s">
+      <c r="G589" s="9" t="s">
         <v>174</v>
       </c>
       <c r="H589" s="11">
         <v>7730.0</v>
       </c>
-      <c r="J589" s="10"/>
+      <c r="I589" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J589" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Good Detective","alt":"Silent, Silence, Model Detective, Exemplary Detective, A Model Detective","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/99480","post":"7730"},</v>
+      </c>
     </row>
     <row r="590" ht="15.75" customHeight="1">
       <c r="A590" s="7">
@@ -26077,13 +26983,20 @@
       <c r="F590" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G590" s="13" t="s">
+      <c r="G590" s="9" t="s">
         <v>1461</v>
       </c>
       <c r="H590" s="11">
         <v>7713.0</v>
       </c>
-      <c r="J590" s="10"/>
+      <c r="I590" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J590" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Oh My Baby","alt":"","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/101243","post":"7713"},</v>
+      </c>
     </row>
     <row r="591" ht="15.75" customHeight="1">
       <c r="A591" s="7">
@@ -26105,13 +27018,20 @@
       <c r="F591" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G591" s="13" t="s">
+      <c r="G591" s="9" t="s">
         <v>1464</v>
       </c>
       <c r="H591" s="11">
         <v>7696.0</v>
       </c>
-      <c r="J591" s="10"/>
+      <c r="I591" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J591" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Moment at Eighteen","alt":"18 Moments, A Moment at Eighteen, The Moment of 18, Moments of 18, Moment of Eighteen","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/90407","post":"7696"},</v>
+      </c>
     </row>
     <row r="592" ht="15.75" customHeight="1">
       <c r="A592" s="7">
@@ -26133,13 +27053,20 @@
       <c r="F592" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G592" s="13" t="s">
+      <c r="G592" s="9" t="s">
         <v>1467</v>
       </c>
       <c r="H592" s="11">
         <v>7679.0</v>
       </c>
-      <c r="J592" s="10"/>
+      <c r="I592" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J592" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Good Casting","alt":"Miscasting, Miss Casting","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/99497","post":"7679"},</v>
+      </c>
     </row>
     <row r="593" ht="15.75" customHeight="1">
       <c r="A593" s="7">
@@ -26161,13 +27088,20 @@
       <c r="F593" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G593" s="13" t="s">
+      <c r="G593" s="9" t="s">
         <v>1470</v>
       </c>
       <c r="H593" s="11">
         <v>7676.0</v>
       </c>
-      <c r="J593" s="10"/>
+      <c r="I593" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J593" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Cursed: Dead Man's Prey","alt":"The Cursed: Again, The Cursed: Jaechaui, Method: Again","tags":["2021","Korean","MOVIE"],"wiki":"https://www.themoviedb.org/movie/724885","post":"7676"},</v>
+      </c>
     </row>
     <row r="594" ht="15.75" customHeight="1">
       <c r="A594" s="7">
@@ -26189,13 +27123,20 @@
       <c r="F594" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G594" s="13" t="s">
+      <c r="G594" s="9" t="s">
         <v>1473</v>
       </c>
       <c r="H594" s="11">
         <v>7660.0</v>
       </c>
-      <c r="J594" s="10"/>
+      <c r="I594" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J594" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Cursed","alt":"The Way, The Method","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/97488","post":"7660"},</v>
+      </c>
     </row>
     <row r="595" ht="15.75" customHeight="1">
       <c r="A595" s="7">
@@ -26217,13 +27158,20 @@
       <c r="F595" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G595" s="13" t="s">
+      <c r="G595" s="9" t="s">
         <v>1476</v>
       </c>
       <c r="H595" s="11">
         <v>7643.0</v>
       </c>
-      <c r="J595" s="10"/>
+      <c r="I595" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J595" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Private Lives","alt":"Privacy, Private Life, Personal Life","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/107442","post":"7643"},</v>
+      </c>
     </row>
     <row r="596" ht="15.75" customHeight="1">
       <c r="A596" s="7">
@@ -26245,13 +27193,20 @@
       <c r="F596" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G596" s="13" t="s">
+      <c r="G596" s="9" t="s">
         <v>1479</v>
       </c>
       <c r="H596" s="11">
         <v>7630.0</v>
       </c>
-      <c r="J596" s="10"/>
+      <c r="I596" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J596" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"My Holo Love","alt":"I am Alone, I'm Alone, You, Holo, and Me, Me Alone and You, I Holo You, My Intelligent Lover","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/96160","post":"7630"},</v>
+      </c>
     </row>
     <row r="597" ht="15.75" customHeight="1">
       <c r="A597" s="7">
@@ -26273,13 +27228,20 @@
       <c r="F597" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G597" s="13" t="s">
+      <c r="G597" s="9" t="s">
         <v>1482</v>
       </c>
       <c r="H597" s="11">
         <v>7617.0</v>
       </c>
-      <c r="J597" s="10"/>
+      <c r="I597" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J597" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Avengers Social Club","alt":"Buamdong Revengers, Buam-dong Revenge Social Club, Buam-dong Avenger Social Club, Buamdong Revenge Social Club, Buam-dong Revengers, Buam-dong Avengers, Bokja Club","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/74473","post":"7617"},</v>
+      </c>
     </row>
     <row r="598" ht="15.75" customHeight="1">
       <c r="A598" s="7">
@@ -26298,13 +27260,20 @@
       <c r="F598" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G598" s="13" t="s">
+      <c r="G598" s="9" t="s">
         <v>1484</v>
       </c>
       <c r="H598" s="11">
         <v>7604.0</v>
       </c>
-      <c r="J598" s="10"/>
+      <c r="I598" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J598" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Package","alt":"","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/70220","post":"7604"},</v>
+      </c>
     </row>
     <row r="599" ht="15.75" customHeight="1">
       <c r="A599" s="7">
@@ -26326,13 +27295,20 @@
       <c r="F599" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G599" s="13" t="s">
+      <c r="G599" s="9" t="s">
         <v>1487</v>
       </c>
       <c r="H599" s="11">
         <v>7587.0</v>
       </c>
-      <c r="J599" s="10"/>
+      <c r="I599" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J599" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Queen In-Hyun's Man","alt":"Queen and I, Queen Inhyun's Man","tags":["2012","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/44964","post":"7587"},</v>
+      </c>
     </row>
     <row r="600" ht="15.75" customHeight="1">
       <c r="A600" s="7">
@@ -26354,13 +27330,20 @@
       <c r="F600" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G600" s="13" t="s">
+      <c r="G600" s="9" t="s">
         <v>1490</v>
       </c>
       <c r="H600" s="11">
         <v>7570.0</v>
       </c>
-      <c r="J600" s="10"/>
+      <c r="I600" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J600" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Do Do Sol Sol La La Sol","alt":"To me a really lovely debtor, A debtor really lovely to me","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/106465","post":"7570"},</v>
+      </c>
     </row>
     <row r="601" ht="15.75" customHeight="1">
       <c r="A601" s="7">
@@ -26382,13 +27365,20 @@
       <c r="F601" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G601" s="14" t="s">
+      <c r="G601" s="9" t="s">
         <v>1493</v>
       </c>
       <c r="H601" s="11">
         <v>7536.0</v>
       </c>
-      <c r="J601" s="10"/>
+      <c r="I601" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J601" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Guest","alt":"Hand: The Guest, Hand: Guest","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/81822","post":"7536"},</v>
+      </c>
     </row>
     <row r="602" ht="15.75" customHeight="1">
       <c r="A602" s="7">
@@ -26410,13 +27400,20 @@
       <c r="F602" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G602" s="13" t="s">
+      <c r="G602" s="9" t="s">
         <v>1496</v>
       </c>
       <c r="H602" s="11">
         <v>7527.0</v>
       </c>
-      <c r="J602" s="10"/>
+      <c r="I602" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J602" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Because It's the First Time","alt":"Friends, My First Time","tags":["2015","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/64107","post":"7527"},</v>
+      </c>
     </row>
     <row r="603" ht="15.75" customHeight="1">
       <c r="A603" s="7">
@@ -26438,13 +27435,20 @@
       <c r="F603" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G603" s="13" t="s">
+      <c r="G603" s="9" t="s">
         <v>1499</v>
       </c>
       <c r="H603" s="11">
         <v>7510.0</v>
       </c>
-      <c r="J603" s="10"/>
+      <c r="I603" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J603" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"100 Days My Prince","alt":"Hundred Days' Husband, Dear Husband of 100 Days, 100 Days of Husband, Husband for 100 Days","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/81821","post":"7510"},</v>
+      </c>
     </row>
     <row r="604" ht="15.75" customHeight="1">
       <c r="A604" s="7">
@@ -26466,13 +27470,20 @@
       <c r="F604" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G604" s="13" t="s">
+      <c r="G604" s="9" t="s">
         <v>1502</v>
       </c>
       <c r="H604" s="11">
         <v>7493.0</v>
       </c>
-      <c r="J604" s="10"/>
+      <c r="I604" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J604" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Kairos","alt":"Cairos, Kyros","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/112119","post":"7493"},</v>
+      </c>
     </row>
     <row r="605" ht="15.75" customHeight="1">
       <c r="A605" s="7">
@@ -26482,13 +27493,32 @@
       <c r="B605" s="11" t="s">
         <v>1503</v>
       </c>
+      <c r="C605" s="11" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D605" s="11">
+        <v>2020.0</v>
+      </c>
+      <c r="E605" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="F605" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G605" s="9" t="s">
+        <v>1505</v>
       </c>
       <c r="H605" s="11">
         <v>7480.0</v>
       </c>
-      <c r="J605" s="10"/>
+      <c r="I605" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J605" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Meow, the Secret Boy","alt":"The Man Who Bakes Bread, The Man Who Toasts Bread, The Man That Bakes Bread, Come Here, Come On, Welcome Home, You're Back","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/97957","post":"7480"},</v>
+      </c>
     </row>
     <row r="606" ht="15.75" customHeight="1">
       <c r="A606" s="7">
@@ -26496,15 +27526,34 @@
         <v>603</v>
       </c>
       <c r="B606" s="11" t="s">
-        <v>1504</v>
+        <v>1506</v>
+      </c>
+      <c r="C606" s="11" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D606" s="11">
+        <v>2019.0</v>
+      </c>
+      <c r="E606" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F606" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G606" s="9" t="s">
+        <v>1508</v>
       </c>
       <c r="H606" s="11">
         <v>7463.0</v>
       </c>
-      <c r="J606" s="10"/>
+      <c r="I606" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J606" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Tale of Nokdu","alt":"ung Bean Pancake, The Joseon Romantic-Comedy Tale of Nok-Du, Joseon Roko Nok Du Jeon, Joseon Loco - Mung Bean Chronicles, Nok Du Chronicle, Mung Bean Chronicles, Tale of Nok Du","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/93541","post":"7463"},</v>
+      </c>
     </row>
     <row r="607" ht="15.75" customHeight="1">
       <c r="A607" s="7">
@@ -26512,15 +27561,34 @@
         <v>604</v>
       </c>
       <c r="B607" s="11" t="s">
-        <v>1505</v>
+        <v>1509</v>
+      </c>
+      <c r="C607" s="11" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D607" s="11">
+        <v>2020.0</v>
+      </c>
+      <c r="E607" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F607" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G607" s="9" t="s">
+        <v>1511</v>
       </c>
       <c r="H607" s="11">
         <v>7446.0</v>
       </c>
-      <c r="J607" s="10"/>
+      <c r="I607" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J607" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"When My Love Blooms","alt":"Hwayang Softening, The Happiest Time of Our Lives, The Most Beautiful Days in Life, The Most Beautiful Time in My Life, The Most Beautiful Moment in Life, Blossom","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/100595","post":"7446"},</v>
+      </c>
     </row>
     <row r="608" ht="15.75" customHeight="1">
       <c r="A608" s="7">
@@ -26528,18 +27596,34 @@
         <v>605</v>
       </c>
       <c r="B608" s="11" t="s">
-        <v>1506</v>
+        <v>1512</v>
       </c>
       <c r="C608" s="11" t="s">
-        <v>1507</v>
+        <v>1513</v>
+      </c>
+      <c r="D608" s="11">
+        <v>2018.0</v>
+      </c>
+      <c r="E608" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F608" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G608" s="9" t="s">
+        <v>1514</v>
       </c>
       <c r="H608" s="11">
         <v>7415.0</v>
       </c>
-      <c r="J608" s="10"/>
+      <c r="I608" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J608" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Busted! S01","alt":"The Culprit is You 1, Busted! 1","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/78798","post":"7415"},</v>
+      </c>
     </row>
     <row r="609" ht="15.75" customHeight="1">
       <c r="A609" s="7">
@@ -26547,18 +27631,34 @@
         <v>606</v>
       </c>
       <c r="B609" s="11" t="s">
-        <v>1508</v>
+        <v>1515</v>
       </c>
       <c r="C609" s="11" t="s">
-        <v>1509</v>
+        <v>1516</v>
+      </c>
+      <c r="D609" s="11">
+        <v>2019.0</v>
+      </c>
+      <c r="E609" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F609" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G609" s="9" t="s">
+        <v>1514</v>
       </c>
       <c r="H609" s="11">
         <v>7426.0</v>
       </c>
-      <c r="J609" s="10"/>
+      <c r="I609" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J609" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Busted! S02","alt":"The Culprit is You 2, Busted! 2","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/78798","post":"7426"},</v>
+      </c>
     </row>
     <row r="610" ht="15.75" customHeight="1">
       <c r="A610" s="7">
@@ -26566,18 +27666,34 @@
         <v>607</v>
       </c>
       <c r="B610" s="11" t="s">
-        <v>1510</v>
+        <v>1517</v>
       </c>
       <c r="C610" s="11" t="s">
-        <v>1511</v>
+        <v>1518</v>
+      </c>
+      <c r="D610" s="11">
+        <v>2021.0</v>
+      </c>
+      <c r="E610" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F610" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G610" s="9" t="s">
+        <v>1514</v>
       </c>
       <c r="H610" s="11">
         <v>7437.0</v>
       </c>
-      <c r="J610" s="10"/>
+      <c r="I610" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J610" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Busted! S03","alt":"The Culprit is You 3, Busted! 3","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/78798","post":"7437"},</v>
+      </c>
     </row>
     <row r="611" ht="15.75" customHeight="1">
       <c r="A611" s="7">
@@ -26585,15 +27701,34 @@
         <v>608</v>
       </c>
       <c r="B611" s="11" t="s">
-        <v>1512</v>
+        <v>1519</v>
+      </c>
+      <c r="C611" s="11" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D611" s="11">
+        <v>2020.0</v>
+      </c>
+      <c r="E611" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F611" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G611" s="9" t="s">
+        <v>1521</v>
       </c>
       <c r="H611" s="11">
         <v>7353.0</v>
       </c>
-      <c r="J611" s="10"/>
+      <c r="I611" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J611" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Once Again","alt":"I Went There Once, I've Been There Once, I’ve Returned After One Marriage, I Have Been There Once","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/99490","post":"7353"},</v>
+      </c>
     </row>
     <row r="612" ht="15.75" customHeight="1">
       <c r="A612" s="7">
@@ -26601,15 +27736,34 @@
         <v>609</v>
       </c>
       <c r="B612" s="11" t="s">
-        <v>1513</v>
+        <v>1522</v>
+      </c>
+      <c r="C612" s="11" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D612" s="11">
+        <v>2020.0</v>
+      </c>
+      <c r="E612" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F612" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G612" s="9" t="s">
+        <v>1524</v>
       </c>
       <c r="H612" s="11">
         <v>7336.0</v>
       </c>
-      <c r="J612" s="10"/>
+      <c r="I612" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J612" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Run On","alt":"Keep On","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/113240","post":"7336"},</v>
+      </c>
     </row>
     <row r="613" ht="15.75" customHeight="1">
       <c r="A613" s="7">
@@ -26617,15 +27771,34 @@
         <v>610</v>
       </c>
       <c r="B613" s="11" t="s">
-        <v>1514</v>
+        <v>1525</v>
+      </c>
+      <c r="C613" s="11" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D613" s="11">
+        <v>2020.0</v>
+      </c>
+      <c r="E613" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F613" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G613" s="9" t="s">
+        <v>1527</v>
       </c>
       <c r="H613" s="11">
         <v>7319.0</v>
       </c>
-      <c r="J613" s="10"/>
+      <c r="I613" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J613" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Royal Secret Agent","alt":"New Secret Royal Agent, New Ambassador, New Secret Royal Inspector, New Secret Royal Investigator, Blade of the Phantom Master, Secret Royal Inspector: Joseon Secret Investigation Team","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/114149","post":"7319"},</v>
+      </c>
     </row>
     <row r="614" ht="15.75" customHeight="1">
       <c r="A614" s="7">
@@ -26633,15 +27806,34 @@
         <v>611</v>
       </c>
       <c r="B614" s="11" t="s">
-        <v>1515</v>
+        <v>1528</v>
+      </c>
+      <c r="C614" s="11" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D614" s="11">
+        <v>2016.0</v>
+      </c>
+      <c r="E614" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F614" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G614" s="9" t="s">
+        <v>1530</v>
       </c>
       <c r="H614" s="11">
         <v>7302.0</v>
       </c>
-      <c r="J614" s="10"/>
+      <c r="I614" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J614" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Cinderella and the Four Knights","alt":"You're the First, Cinderella and Four Knights, Cinderella with Four Knights","tags":["2016","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/67084","post":"7302"},</v>
+      </c>
     </row>
     <row r="615" ht="15.75" customHeight="1">
       <c r="A615" s="7">
@@ -26649,15 +27841,34 @@
         <v>612</v>
       </c>
       <c r="B615" s="11" t="s">
-        <v>1516</v>
+        <v>1531</v>
+      </c>
+      <c r="C615" s="11" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D615" s="11">
+        <v>2020.0</v>
+      </c>
+      <c r="E615" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F615" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G615" s="9" t="s">
+        <v>1533</v>
       </c>
       <c r="H615" s="11">
         <v>7285.0</v>
       </c>
-      <c r="J615" s="10"/>
+      <c r="I615" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J615" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Do You Like Brahms?","alt":"Please Love Brahms, Liking Brahms","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/101857","post":"7285"},</v>
+      </c>
     </row>
     <row r="616" ht="15.75" customHeight="1">
       <c r="A616" s="7">
@@ -26665,18 +27876,34 @@
         <v>613</v>
       </c>
       <c r="B616" s="11" t="s">
-        <v>1517</v>
+        <v>1534</v>
       </c>
       <c r="C616" s="11" t="s">
-        <v>1518</v>
+        <v>1535</v>
+      </c>
+      <c r="D616" s="11">
+        <v>2019.0</v>
+      </c>
+      <c r="E616" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F616" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G616" s="9" t="s">
+        <v>1536</v>
       </c>
       <c r="H616" s="11">
         <v>7269.0</v>
       </c>
-      <c r="J616" s="10"/>
+      <c r="I616" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J616" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Love Alarm S01","alt":"Love Alarm 1","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/89641","post":"7269"},</v>
+      </c>
     </row>
     <row r="617" ht="15.75" customHeight="1">
       <c r="A617" s="7">
@@ -26684,18 +27911,34 @@
         <v>614</v>
       </c>
       <c r="B617" s="11" t="s">
-        <v>1519</v>
+        <v>1537</v>
       </c>
       <c r="C617" s="11" t="s">
-        <v>1520</v>
+        <v>1538</v>
+      </c>
+      <c r="D617" s="11">
+        <v>2021.0</v>
+      </c>
+      <c r="E617" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F617" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G617" s="9" t="s">
+        <v>1536</v>
       </c>
       <c r="H617" s="11">
         <v>7278.0</v>
       </c>
-      <c r="J617" s="10"/>
+      <c r="I617" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J617" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Love Alarm S02","alt":"Love Alarm 2","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/89641","post":"7278"},</v>
+      </c>
     </row>
     <row r="618" ht="15.75" customHeight="1">
       <c r="A618" s="7">
@@ -26703,18 +27946,34 @@
         <v>615</v>
       </c>
       <c r="B618" s="11" t="s">
-        <v>1521</v>
+        <v>1539</v>
       </c>
       <c r="C618" s="11" t="s">
-        <v>1522</v>
+        <v>1540</v>
+      </c>
+      <c r="D618" s="11">
+        <v>2016.0</v>
+      </c>
+      <c r="E618" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F618" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G618" s="9" t="s">
+        <v>1541</v>
       </c>
       <c r="H618" s="11">
         <v>7230.0</v>
       </c>
-      <c r="J618" s="10"/>
+      <c r="I618" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J618" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Doctor Romantic S01","alt":"Romantic Doctor Kim Sa Bu 1, Dr Romantic 1, Good Things Get Better 1, The Romantic Doctor 1, Teacher Kim 1, Doctor Romantic 1","tags":["2016","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/68398","post":"7230"},</v>
+      </c>
     </row>
     <row r="619" ht="15.75" customHeight="1">
       <c r="A619" s="7">
@@ -26722,18 +27981,34 @@
         <v>616</v>
       </c>
       <c r="B619" s="11" t="s">
-        <v>1523</v>
+        <v>1542</v>
       </c>
       <c r="C619" s="11" t="s">
-        <v>1524</v>
+        <v>1543</v>
+      </c>
+      <c r="D619" s="11">
+        <v>2020.0</v>
+      </c>
+      <c r="E619" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F619" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G619" s="9" t="s">
+        <v>1541</v>
       </c>
       <c r="H619" s="11">
         <v>7252.0</v>
       </c>
-      <c r="J619" s="10"/>
+      <c r="I619" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J619" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Doctor Romantic S02","alt":"Romantic Doctor Kim Sa Bu 2, Dr Romantic 2, Good Things Get Better 2, The Romantic Doctor 2, Teacher Kim 2, Doctor Romantic 2","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/68398","post":"7252"},</v>
+      </c>
     </row>
     <row r="620" ht="15.75" customHeight="1">
       <c r="A620" s="7">
@@ -26741,15 +28016,34 @@
         <v>617</v>
       </c>
       <c r="B620" s="11" t="s">
-        <v>1525</v>
+        <v>1544</v>
+      </c>
+      <c r="C620" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D620" s="11">
+        <v>2019.0</v>
+      </c>
+      <c r="E620" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F620" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G620" s="9" t="s">
+        <v>1546</v>
       </c>
       <c r="H620" s="11">
         <v>7209.0</v>
       </c>
-      <c r="J620" s="10"/>
+      <c r="I620" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J620" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"My Absolute Boyfriend","alt":"Roco King","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/88514","post":"7209"},</v>
+      </c>
     </row>
     <row r="621" ht="15.75" customHeight="1">
       <c r="A621" s="7">
@@ -26757,15 +28051,34 @@
         <v>618</v>
       </c>
       <c r="B621" s="11" t="s">
-        <v>1526</v>
+        <v>1547</v>
+      </c>
+      <c r="C621" s="11" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D621" s="11">
+        <v>2017.0</v>
+      </c>
+      <c r="E621" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F621" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G621" s="9" t="s">
+        <v>1549</v>
       </c>
       <c r="H621" s="11">
         <v>7194.0</v>
       </c>
-      <c r="J621" s="10"/>
+      <c r="I621" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J621" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"My Secret Romance","alt":"Frustrating Romance, You Drive Me Crazy","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/70744","post":"7194"},</v>
+      </c>
     </row>
     <row r="622" ht="15.75" customHeight="1">
       <c r="A622" s="7">
@@ -26773,15 +28086,34 @@
         <v>619</v>
       </c>
       <c r="B622" s="11" t="s">
-        <v>1527</v>
+        <v>1550</v>
+      </c>
+      <c r="C622" s="11" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D622" s="11">
+        <v>2019.0</v>
+      </c>
+      <c r="E622" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F622" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G622" s="9" t="s">
+        <v>1552</v>
       </c>
       <c r="H622" s="11">
         <v>7169.0</v>
       </c>
-      <c r="J622" s="10"/>
+      <c r="I622" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J622" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"The Nokdu Flower","alt":"Green Bean Flower, Mung Bean Flower","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/88398","post":"7169"},</v>
+      </c>
     </row>
     <row r="623" ht="15.75" customHeight="1">
       <c r="A623" s="7">
@@ -26789,15 +28121,34 @@
         <v>620</v>
       </c>
       <c r="B623" s="11" t="s">
-        <v>1528</v>
+        <v>1553</v>
+      </c>
+      <c r="C623" s="11" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D623" s="11">
+        <v>2021.0</v>
+      </c>
+      <c r="E623" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F623" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G623" s="9" t="s">
+        <v>1555</v>
       </c>
       <c r="H623" s="11">
         <v>7158.0</v>
       </c>
-      <c r="J623" s="10"/>
+      <c r="I623" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J623" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Nevertheless,","alt":"I Know But, I Already Know","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/126035","post":"7158"},</v>
+      </c>
     </row>
     <row r="624" ht="15.75" customHeight="1">
       <c r="A624" s="7">
@@ -26805,15 +28156,34 @@
         <v>621</v>
       </c>
       <c r="B624" s="11" t="s">
-        <v>1529</v>
+        <v>1556</v>
+      </c>
+      <c r="C624" s="11" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D624" s="11">
+        <v>2017.0</v>
+      </c>
+      <c r="E624" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F624" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G624" s="9" t="s">
+        <v>1558</v>
       </c>
       <c r="H624" s="11">
         <v>7141.0</v>
       </c>
-      <c r="J624" s="10"/>
+      <c r="I624" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J624" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Hit the Top","alt":"The Big Blow, Greatest One Shot, The Best Hit, Best Punch","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/71871","post":"7141"},</v>
+      </c>
     </row>
     <row r="625" ht="15.75" customHeight="1">
       <c r="A625" s="7">
@@ -26821,15 +28191,34 @@
         <v>622</v>
       </c>
       <c r="B625" s="11" t="s">
-        <v>1530</v>
+        <v>1559</v>
+      </c>
+      <c r="C625" s="11" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D625" s="11">
+        <v>2018.0</v>
+      </c>
+      <c r="E625" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F625" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G625" s="9" t="s">
+        <v>1561</v>
       </c>
       <c r="H625" s="11">
         <v>7124.0</v>
       </c>
-      <c r="J625" s="10"/>
+      <c r="I625" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J625" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Clean with Passion for Now","alt":"Clean Up Like It's Hot, First, Clean Passionately","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/78869","post":"7124"},</v>
+      </c>
     </row>
     <row r="626" ht="15.75" customHeight="1">
       <c r="A626" s="7">
@@ -26837,15 +28226,31 @@
         <v>623</v>
       </c>
       <c r="B626" s="11" t="s">
-        <v>1531</v>
+        <v>1562</v>
+      </c>
+      <c r="D626" s="11">
+        <v>2019.0</v>
+      </c>
+      <c r="E626" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F626" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G626" s="9" t="s">
+        <v>1563</v>
       </c>
       <c r="H626" s="11">
         <v>7107.0</v>
       </c>
-      <c r="J626" s="10"/>
+      <c r="I626" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J626" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Psychopath Diary","alt":"","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/94680","post":"7107"},</v>
+      </c>
     </row>
     <row r="627" ht="15.75" customHeight="1">
       <c r="A627" s="7">
@@ -26853,18 +28258,34 @@
         <v>624</v>
       </c>
       <c r="B627" s="11" t="s">
-        <v>1532</v>
+        <v>1564</v>
       </c>
       <c r="C627" s="11" t="s">
-        <v>1533</v>
+        <v>1565</v>
+      </c>
+      <c r="D627" s="11">
+        <v>2019.0</v>
+      </c>
+      <c r="E627" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="F627" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G627" s="9" t="s">
+        <v>1566</v>
       </c>
       <c r="H627" s="11">
         <v>7068.0</v>
       </c>
-      <c r="J627" s="10"/>
+      <c r="I627" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J627" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Why Women Kill S01","alt":"Why Women Kill 1","tags":["2019","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/87428","post":"7068"},</v>
+      </c>
     </row>
     <row r="628" ht="15.75" customHeight="1">
       <c r="A628" s="7">
@@ -26872,18 +28293,34 @@
         <v>625</v>
       </c>
       <c r="B628" s="11" t="s">
-        <v>1534</v>
+        <v>1567</v>
       </c>
       <c r="C628" s="11" t="s">
-        <v>1535</v>
+        <v>1568</v>
+      </c>
+      <c r="D628" s="11">
+        <v>2021.0</v>
+      </c>
+      <c r="E628" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="F628" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G628" s="9" t="s">
+        <v>1566</v>
       </c>
       <c r="H628" s="11">
         <v>7079.0</v>
       </c>
-      <c r="J628" s="10"/>
+      <c r="I628" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J628" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Why Women Kill S02","alt":"Why Women Kill 2","tags":["2021","English","SHOW"],"wiki":"https://www.themoviedb.org/tv/87428","post":"7079"},</v>
+      </c>
     </row>
     <row r="629" ht="15.75" customHeight="1">
       <c r="A629" s="7">
@@ -26891,15 +28328,31 @@
         <v>626</v>
       </c>
       <c r="B629" s="11" t="s">
-        <v>1536</v>
+        <v>1569</v>
+      </c>
+      <c r="D629" s="11">
+        <v>2015.0</v>
+      </c>
+      <c r="E629" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F629" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G629" s="9" t="s">
+        <v>1570</v>
       </c>
       <c r="H629" s="11">
         <v>6947.0</v>
       </c>
-      <c r="J629" s="10"/>
+      <c r="I629" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J629" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"A Daughter Just Like You","alt":"","tags":["2015","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/94586","post":"6947"},</v>
+      </c>
     </row>
     <row r="630" ht="15.75" customHeight="1">
       <c r="A630" s="7">
@@ -26907,15 +28360,34 @@
         <v>627</v>
       </c>
       <c r="B630" s="11" t="s">
-        <v>1537</v>
+        <v>1571</v>
+      </c>
+      <c r="C630" s="11" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D630" s="11">
+        <v>2020.0</v>
+      </c>
+      <c r="E630" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F630" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G630" s="9" t="s">
+        <v>1573</v>
       </c>
       <c r="H630" s="11">
         <v>6752.0</v>
       </c>
-      <c r="J630" s="10"/>
+      <c r="I630" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J630" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"365: Repeat the Year","alt":"365: 1 Year Against Destiny, 365: One Year Against Destiny, 365: A Year of Defying Fate","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/99479","post":"6752"},</v>
+      </c>
     </row>
     <row r="631" ht="15.75" customHeight="1">
       <c r="A631" s="7">
@@ -26923,15 +28395,34 @@
         <v>628</v>
       </c>
       <c r="B631" s="11" t="s">
-        <v>1538</v>
+        <v>1574</v>
+      </c>
+      <c r="C631" s="11" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D631" s="11">
+        <v>2010.0</v>
+      </c>
+      <c r="E631" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F631" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G631" s="9" t="s">
+        <v>1576</v>
       </c>
       <c r="H631" s="11">
         <v>6697.0</v>
       </c>
-      <c r="J631" s="10"/>
+      <c r="I631" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J631" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Road Number One","alt":"Road No. 1, Road Number 1, Road #1","tags":["2010","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/40962","post":"6697"},</v>
+      </c>
     </row>
     <row r="632" ht="15.75" customHeight="1">
       <c r="A632" s="7">
@@ -26939,15 +28430,34 @@
         <v>629</v>
       </c>
       <c r="B632" s="11" t="s">
-        <v>1539</v>
+        <v>1577</v>
+      </c>
+      <c r="C632" s="11" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D632" s="11">
+        <v>2012.0</v>
+      </c>
+      <c r="E632" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F632" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G632" s="9" t="s">
+        <v>1579</v>
       </c>
       <c r="H632" s="11">
         <v>6676.0</v>
       </c>
-      <c r="J632" s="10"/>
+      <c r="I632" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J632" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Immortal Classic","alt":"Immortal Masterpiece","tags":["2012","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/93755","post":"6676"},</v>
+      </c>
     </row>
     <row r="633" ht="15.75" customHeight="1">
       <c r="A633" s="7">
@@ -26955,15 +28465,34 @@
         <v>630</v>
       </c>
       <c r="B633" s="11" t="s">
-        <v>1540</v>
+        <v>1580</v>
+      </c>
+      <c r="C633" s="11" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D633" s="11">
+        <v>2018.0</v>
+      </c>
+      <c r="E633" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F633" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G633" s="9" t="s">
+        <v>1582</v>
       </c>
       <c r="H633" s="11">
         <v>6655.0</v>
       </c>
-      <c r="J633" s="10"/>
+      <c r="I633" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J633" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Grand Prince","alt":"The King, Grand Prince: He Yearns for, Grand Prince: Paint a Picture, Grand Prince: Drawing","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/77428","post":"6655"},</v>
+      </c>
     </row>
     <row r="634" ht="15.75" customHeight="1">
       <c r="A634" s="7">
@@ -26971,15 +28500,34 @@
         <v>631</v>
       </c>
       <c r="B634" s="11" t="s">
-        <v>1541</v>
+        <v>1583</v>
+      </c>
+      <c r="C634" s="11" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D634" s="11">
+        <v>2016.0</v>
+      </c>
+      <c r="E634" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F634" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G634" s="9" t="s">
+        <v>1585</v>
       </c>
       <c r="H634" s="11">
         <v>6638.0</v>
       </c>
-      <c r="J634" s="10"/>
+      <c r="I634" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J634" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Please Come Back, Mister","alt":"Hello My Precious Person, Goodbye My Beloved One, Hello, My Precious, Come Back Ahjussi, Come Back Mister, Come Back, Uncle, Come Back Alive","tags":["2016","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/65412","post":"6638"},</v>
+      </c>
     </row>
     <row r="635" ht="15.75" customHeight="1">
       <c r="A635" s="7">
@@ -26987,15 +28535,34 @@
         <v>632</v>
       </c>
       <c r="B635" s="11" t="s">
-        <v>1542</v>
+        <v>1586</v>
+      </c>
+      <c r="C635" s="11" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D635" s="11">
+        <v>2020.0</v>
+      </c>
+      <c r="E635" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F635" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G635" s="9" t="s">
+        <v>1588</v>
       </c>
       <c r="H635" s="11">
         <v>6621.0</v>
       </c>
-      <c r="J635" s="10"/>
+      <c r="I635" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J635" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Find Me in Your Memory","alt":"That Man's Mnemonics, The Man's Memory Method, Memoir of the Man, Memoirs of a Man, His Memorization Method, The Way He Remembers, Memoirs of the Man","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/99477","post":"6621"},</v>
+      </c>
     </row>
     <row r="636" ht="15.75" customHeight="1">
       <c r="A636" s="7">
@@ -27003,15 +28570,34 @@
         <v>633</v>
       </c>
       <c r="B636" s="11" t="s">
-        <v>1543</v>
+        <v>1589</v>
+      </c>
+      <c r="C636" s="11" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D636" s="11">
+        <v>2004.0</v>
+      </c>
+      <c r="E636" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F636" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G636" s="9" t="s">
+        <v>1591</v>
       </c>
       <c r="H636" s="11">
         <v>6598.0</v>
       </c>
-      <c r="J636" s="10"/>
+      <c r="I636" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J636" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"What Happened in Bali","alt":"Something Happened in Bali, Hearts in Bali, Memories in Bali, Memories of Bali","tags":["2004","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/13733","post":"6598"},</v>
+      </c>
     </row>
     <row r="637" ht="15.75" customHeight="1">
       <c r="A637" s="7">
@@ -27019,15 +28605,34 @@
         <v>634</v>
       </c>
       <c r="B637" s="11" t="s">
-        <v>1544</v>
+        <v>1592</v>
+      </c>
+      <c r="C637" s="11" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D637" s="11">
+        <v>2020.0</v>
+      </c>
+      <c r="E637" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F637" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G637" s="9" t="s">
+        <v>1594</v>
       </c>
       <c r="H637" s="11">
         <v>6580.0</v>
       </c>
-      <c r="J637" s="10"/>
+      <c r="I637" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J637" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Lovestruck in the City","alt":"City Couple’s Way of Love: My Lovable Camera Thief, Love Way of Urban Man &amp; Woman, City Man and Woman Love Method, How to Love Between Men and Women in the City","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/113710","post":"6580"},</v>
+      </c>
     </row>
     <row r="638" ht="15.75" customHeight="1">
       <c r="A638" s="7">
@@ -27035,15 +28640,34 @@
         <v>635</v>
       </c>
       <c r="B638" s="11" t="s">
-        <v>1545</v>
+        <v>1595</v>
+      </c>
+      <c r="C638" s="11" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D638" s="11">
+        <v>2019.0</v>
+      </c>
+      <c r="E638" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F638" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G638" s="9" t="s">
+        <v>1597</v>
       </c>
       <c r="H638" s="11">
         <v>6563.0</v>
       </c>
-      <c r="J638" s="10"/>
+      <c r="I638" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J638" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Black Dog","alt":"Black Dog: Being A Teacher","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/95067","post":"6563"},</v>
+      </c>
     </row>
     <row r="639" ht="15.75" customHeight="1">
       <c r="A639" s="7">
@@ -27051,15 +28675,34 @@
         <v>636</v>
       </c>
       <c r="B639" s="11" t="s">
-        <v>1546</v>
+        <v>1598</v>
+      </c>
+      <c r="C639" s="11" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D639" s="11">
+        <v>2020.0</v>
+      </c>
+      <c r="E639" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F639" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G639" s="9" t="s">
+        <v>1600</v>
       </c>
       <c r="H639" s="11">
         <v>6550.0</v>
       </c>
-      <c r="J639" s="10"/>
+      <c r="I639" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J639" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Zombie Detective","alt":"The Zombie Detective","tags":["2020","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/108285","post":"6550"},</v>
+      </c>
     </row>
     <row r="640" ht="15.75" customHeight="1">
       <c r="A640" s="7">
@@ -27067,15 +28710,34 @@
         <v>637</v>
       </c>
       <c r="B640" s="11" t="s">
-        <v>1547</v>
+        <v>1601</v>
+      </c>
+      <c r="C640" s="11" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D640" s="11">
+        <v>2021.0</v>
+      </c>
+      <c r="E640" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F640" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G640" s="9" t="s">
+        <v>1603</v>
       </c>
       <c r="H640" s="11">
         <v>6537.0</v>
       </c>
-      <c r="J640" s="10"/>
+      <c r="I640" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J640" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Dark Hole","alt":"Another Class","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/120314","post":"6537"},</v>
+      </c>
     </row>
     <row r="641" ht="15.75" customHeight="1">
       <c r="A641" s="7">
@@ -27083,15 +28745,34 @@
         <v>638</v>
       </c>
       <c r="B641" s="11" t="s">
-        <v>1548</v>
+        <v>1604</v>
+      </c>
+      <c r="C641" s="11" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D641" s="11">
+        <v>2021.0</v>
+      </c>
+      <c r="E641" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F641" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G641" s="9" t="s">
+        <v>1606</v>
       </c>
       <c r="H641" s="11">
         <v>6524.0</v>
       </c>
-      <c r="J641" s="10"/>
+      <c r="I641" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J641" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"L.U.C.A.: The Beginning","alt":"Last Universal Common Ancestor: The Beginning, LUCA: The Beginning, Luka: The Beginning, LUCA: The Beginning","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/116043","post":"6524"},</v>
+      </c>
     </row>
     <row r="642" ht="15.75" customHeight="1">
       <c r="A642" s="7">
@@ -27099,15 +28780,31 @@
         <v>639</v>
       </c>
       <c r="B642" s="11" t="s">
-        <v>1549</v>
+        <v>1607</v>
+      </c>
+      <c r="D642" s="11">
+        <v>2018.0</v>
+      </c>
+      <c r="E642" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F642" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G642" s="9" t="s">
+        <v>1608</v>
       </c>
       <c r="H642" s="11">
         <v>6507.0</v>
       </c>
-      <c r="J642" s="10"/>
+      <c r="I642" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J642" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Suits","alt":"","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/83334","post":"6507"},</v>
+      </c>
     </row>
     <row r="643" ht="15.75" customHeight="1">
       <c r="A643" s="7">
@@ -27115,15 +28812,34 @@
         <v>640</v>
       </c>
       <c r="B643" s="11" t="s">
-        <v>1550</v>
+        <v>1609</v>
+      </c>
+      <c r="C643" s="11" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D643" s="11">
+        <v>2019.0</v>
+      </c>
+      <c r="E643" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F643" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G643" s="9" t="s">
+        <v>1611</v>
       </c>
       <c r="H643" s="11">
         <v>6490.0</v>
       </c>
-      <c r="J643" s="10"/>
+      <c r="I643" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J643" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"My Country: The New Age","alt":"My Nation","tags":["2019","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/93490","post":"6490"},</v>
+      </c>
     </row>
     <row r="644" ht="15.75" customHeight="1">
       <c r="A644" s="7">
@@ -27131,15 +28847,34 @@
         <v>641</v>
       </c>
       <c r="B644" s="11" t="s">
-        <v>1551</v>
+        <v>1612</v>
+      </c>
+      <c r="C644" s="11" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D644" s="11">
+        <v>2018.0</v>
+      </c>
+      <c r="E644" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F644" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G644" s="9" t="s">
+        <v>1614</v>
       </c>
       <c r="H644" s="11">
         <v>6473.0</v>
       </c>
-      <c r="J644" s="10"/>
+      <c r="I644" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J644" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Mother","alt":"Call Me Mother","tags":["2018","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/76092","post":"6473"},</v>
+      </c>
     </row>
     <row r="645" ht="15.75" customHeight="1">
       <c r="A645" s="7">
@@ -27147,15 +28882,34 @@
         <v>642</v>
       </c>
       <c r="B645" s="11" t="s">
-        <v>1552</v>
+        <v>1615</v>
+      </c>
+      <c r="C645" s="11" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D645" s="11">
+        <v>2021.0</v>
+      </c>
+      <c r="E645" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F645" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G645" s="9" t="s">
+        <v>1617</v>
       </c>
       <c r="H645" s="11">
         <v>6456.0</v>
       </c>
-      <c r="J645" s="10"/>
+      <c r="I645" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J645" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Hello, Me!","alt":"Hi? It's Me, Hello, It's Me!","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/116045","post":"6456"},</v>
+      </c>
     </row>
     <row r="646" ht="15.75" customHeight="1">
       <c r="A646" s="7">
@@ -27163,15 +28917,31 @@
         <v>643</v>
       </c>
       <c r="B646" s="11" t="s">
-        <v>1553</v>
+        <v>1618</v>
+      </c>
+      <c r="D646" s="11">
+        <v>2011.0</v>
+      </c>
+      <c r="E646" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F646" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G646" s="9" t="s">
+        <v>1619</v>
       </c>
       <c r="H646" s="11">
         <v>6435.0</v>
       </c>
-      <c r="J646" s="10"/>
+      <c r="I646" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J646" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Brain","alt":"","tags":["2011","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/42058","post":"6435"},</v>
+      </c>
     </row>
     <row r="647" ht="15.75" customHeight="1">
       <c r="A647" s="7">
@@ -27179,15 +28949,31 @@
         <v>644</v>
       </c>
       <c r="B647" s="11" t="s">
-        <v>1554</v>
+        <v>1620</v>
+      </c>
+      <c r="D647" s="11">
+        <v>2014.0</v>
+      </c>
+      <c r="E647" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F647" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G647" s="9" t="s">
+        <v>1621</v>
       </c>
       <c r="H647" s="11">
         <v>6414.0</v>
       </c>
-      <c r="J647" s="10"/>
+      <c r="I647" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J647" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Misaeng: Incomplete Life","alt":"","tags":["2014","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/61678","post":"6414"},</v>
+      </c>
     </row>
     <row r="648" ht="15.75" customHeight="1">
       <c r="A648" s="7">
@@ -27195,15 +28981,31 @@
         <v>645</v>
       </c>
       <c r="B648" s="11" t="s">
-        <v>1555</v>
+        <v>1622</v>
+      </c>
+      <c r="D648" s="11">
+        <v>2021.0</v>
+      </c>
+      <c r="E648" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F648" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G648" s="9" t="s">
+        <v>1623</v>
       </c>
       <c r="H648" s="11">
         <v>6401.0</v>
       </c>
-      <c r="J648" s="10"/>
+      <c r="I648" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J648" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Times","alt":"","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/116673","post":"6401"},</v>
+      </c>
     </row>
     <row r="649" ht="15.75" customHeight="1">
       <c r="A649" s="7">
@@ -27211,15 +29013,34 @@
         <v>646</v>
       </c>
       <c r="B649" s="11" t="s">
-        <v>1556</v>
+        <v>1624</v>
+      </c>
+      <c r="C649" s="11" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D649" s="11">
+        <v>2016.0</v>
+      </c>
+      <c r="E649" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F649" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G649" s="9" t="s">
+        <v>1626</v>
       </c>
       <c r="H649" s="11">
         <v>6384.0</v>
       </c>
-      <c r="J649" s="10"/>
+      <c r="I649" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J649" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Wanted","alt":"The Reality Show: Wanted","tags":["2016","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/66634","post":"6384"},</v>
+      </c>
     </row>
     <row r="650" ht="15.75" customHeight="1">
       <c r="A650" s="7">
@@ -27227,18 +29048,34 @@
         <v>647</v>
       </c>
       <c r="B650" s="11" t="s">
-        <v>1557</v>
+        <v>1627</v>
+      </c>
+      <c r="C650" s="11" t="s">
+        <v>1628</v>
       </c>
       <c r="D650" s="11">
         <v>2016.0</v>
       </c>
+      <c r="E650" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="F650" s="11" t="s">
         <v>119</v>
       </c>
+      <c r="G650" s="9" t="s">
+        <v>1629</v>
+      </c>
       <c r="H650" s="11">
         <v>6382.0</v>
       </c>
-      <c r="J650" s="10"/>
+      <c r="I650" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J650" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Missing You","alt":"Waiting for You, The Wait","tags":["2016","Korean","MOVIE"],"wiki":"https://www.themoviedb.org/movie/390433","post":"6382"},</v>
+      </c>
     </row>
     <row r="651" ht="15.75" customHeight="1">
       <c r="A651" s="7">
@@ -27246,15 +29083,34 @@
         <v>648</v>
       </c>
       <c r="B651" s="11" t="s">
-        <v>1557</v>
+        <v>1627</v>
+      </c>
+      <c r="C651" s="11" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D651" s="11">
+        <v>2012.0</v>
+      </c>
+      <c r="E651" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F651" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G651" s="9" t="s">
+        <v>1631</v>
       </c>
       <c r="H651" s="11">
         <v>6361.0</v>
       </c>
-      <c r="J651" s="10"/>
+      <c r="I651" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J651" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Missing You","alt":"I Miss You","tags":["2012","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/46002","post":"6361"},</v>
+      </c>
     </row>
     <row r="652" ht="15.75" customHeight="1">
       <c r="A652" s="7">
@@ -27262,15 +29118,31 @@
         <v>649</v>
       </c>
       <c r="B652" s="11" t="s">
-        <v>1558</v>
+        <v>1632</v>
+      </c>
+      <c r="D652" s="11">
+        <v>2021.0</v>
+      </c>
+      <c r="E652" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F652" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G652" s="9" t="s">
+        <v>1633</v>
       </c>
       <c r="H652" s="11">
         <v>6317.0</v>
       </c>
-      <c r="J652" s="10"/>
+      <c r="I652" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J652" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Undercover","alt":"","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/120318","post":"6317"},</v>
+      </c>
     </row>
     <row r="653" ht="15.75" customHeight="1">
       <c r="A653" s="7">
@@ -27278,15 +29150,34 @@
         <v>650</v>
       </c>
       <c r="B653" s="11" t="s">
-        <v>1559</v>
+        <v>1634</v>
+      </c>
+      <c r="C653" s="11" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D653" s="11">
+        <v>2014.0</v>
+      </c>
+      <c r="E653" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F653" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G653" s="9" t="s">
+        <v>1636</v>
       </c>
       <c r="H653" s="11">
         <v>6287.0</v>
       </c>
-      <c r="J653" s="10"/>
+      <c r="I653" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J653" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Three Days","alt":"3 Days","tags":["2014","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/61157","post":"6287"},</v>
+      </c>
     </row>
     <row r="654" ht="15.75" customHeight="1">
       <c r="A654" s="7">
@@ -27294,15 +29185,34 @@
         <v>651</v>
       </c>
       <c r="B654" s="11" t="s">
-        <v>1560</v>
+        <v>1637</v>
+      </c>
+      <c r="C654" s="11" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D654" s="11">
+        <v>2021.0</v>
+      </c>
+      <c r="E654" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F654" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G654" s="9" t="s">
+        <v>1639</v>
       </c>
       <c r="H654" s="11">
         <v>6274.0</v>
       </c>
-      <c r="J654" s="10"/>
+      <c r="I654" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J654" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"At a Distance, Spring is Green","alt":"A Blue Spring from Afar, From Distance, Blue Spring, From a Distance, a Green Spring, Seen from a Distance, Green Spring, Blue Spring From a Distance","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/126436","post":"6274"},</v>
+      </c>
     </row>
     <row r="655" ht="15.75" customHeight="1">
       <c r="A655" s="7">
@@ -27310,15 +29220,34 @@
         <v>652</v>
       </c>
       <c r="B655" s="11" t="s">
-        <v>1561</v>
+        <v>1640</v>
+      </c>
+      <c r="C655" s="11" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D655" s="11">
+        <v>2017.0</v>
+      </c>
+      <c r="E655" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F655" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G655" s="9" t="s">
+        <v>1642</v>
       </c>
       <c r="H655" s="11">
         <v>6257.0</v>
       </c>
-      <c r="J655" s="10"/>
+      <c r="I655" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J655" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"I'm Not a Robot","alt":"It's Not a Robot, I Am Not a Robot, She's not a robot","tags":["2017","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/74682","post":"6257"},</v>
+      </c>
     </row>
     <row r="656" ht="15.75" customHeight="1">
       <c r="A656" s="7">
@@ -27326,15 +29255,34 @@
         <v>653</v>
       </c>
       <c r="B656" s="11" t="s">
-        <v>1562</v>
+        <v>1643</v>
+      </c>
+      <c r="C656" s="11" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D656" s="11">
+        <v>2021.0</v>
+      </c>
+      <c r="E656" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F656" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G656" s="9" t="s">
+        <v>1645</v>
       </c>
       <c r="H656" s="11">
         <v>6227.0</v>
       </c>
-      <c r="J656" s="10"/>
+      <c r="I656" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J656" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Navillera","alt":"Navillera: Like a Butterfly","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/119464","post":"6227"},</v>
+      </c>
     </row>
     <row r="657" ht="15.75" customHeight="1">
       <c r="A657" s="7">
@@ -27342,15 +29290,34 @@
         <v>654</v>
       </c>
       <c r="B657" s="11" t="s">
-        <v>1563</v>
+        <v>1646</v>
+      </c>
+      <c r="C657" s="11" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D657" s="11">
+        <v>2021.0</v>
+      </c>
+      <c r="E657" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F657" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="G657" s="9" t="s">
+        <v>1648</v>
       </c>
       <c r="H657" s="11">
         <v>6215.0</v>
       </c>
-      <c r="J657" s="10"/>
+      <c r="I657" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="J657" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>{"name":"Move to Heaven","alt":"Move To Heaven: I Am a Person Who Arranges Articles Left by Deceased, Move to Heaven: I Clean Dead People's Possessions","tags":["2021","Korean","SHOW"],"wiki":"https://www.themoviedb.org/tv/96571","post":"6215"},</v>
+      </c>
     </row>
     <row r="658" ht="15.75" customHeight="1">
       <c r="A658" s="7">
@@ -27358,7 +29325,7 @@
         <v>655</v>
       </c>
       <c r="B658" s="11" t="s">
-        <v>1564</v>
+        <v>1649</v>
       </c>
       <c r="F658" s="11" t="s">
         <v>25</v>
@@ -27374,7 +29341,7 @@
         <v>656</v>
       </c>
       <c r="B659" s="11" t="s">
-        <v>1565</v>
+        <v>1650</v>
       </c>
       <c r="F659" s="11" t="s">
         <v>25</v>
@@ -27390,7 +29357,7 @@
         <v>657</v>
       </c>
       <c r="B660" s="11" t="s">
-        <v>1566</v>
+        <v>1651</v>
       </c>
       <c r="F660" s="11" t="s">
         <v>25</v>
@@ -27406,7 +29373,7 @@
         <v>658</v>
       </c>
       <c r="B661" s="11" t="s">
-        <v>1567</v>
+        <v>1652</v>
       </c>
       <c r="F661" s="11" t="s">
         <v>25</v>
@@ -27422,7 +29389,7 @@
         <v>659</v>
       </c>
       <c r="B662" s="11" t="s">
-        <v>1568</v>
+        <v>1653</v>
       </c>
       <c r="F662" s="11" t="s">
         <v>25</v>
@@ -27438,7 +29405,7 @@
         <v>660</v>
       </c>
       <c r="B663" s="11" t="s">
-        <v>1569</v>
+        <v>1654</v>
       </c>
       <c r="F663" s="11" t="s">
         <v>25</v>
@@ -27454,7 +29421,7 @@
         <v>661</v>
       </c>
       <c r="B664" s="11" t="s">
-        <v>1570</v>
+        <v>1655</v>
       </c>
       <c r="F664" s="11" t="s">
         <v>25</v>
@@ -27470,7 +29437,7 @@
         <v>662</v>
       </c>
       <c r="B665" s="11" t="s">
-        <v>1571</v>
+        <v>1656</v>
       </c>
       <c r="F665" s="11" t="s">
         <v>25</v>
@@ -27486,7 +29453,7 @@
         <v>663</v>
       </c>
       <c r="B666" s="11" t="s">
-        <v>1572</v>
+        <v>1657</v>
       </c>
       <c r="F666" s="11" t="s">
         <v>25</v>
@@ -27502,7 +29469,7 @@
         <v>664</v>
       </c>
       <c r="B667" s="11" t="s">
-        <v>1573</v>
+        <v>1658</v>
       </c>
       <c r="F667" s="11" t="s">
         <v>25</v>
@@ -27518,7 +29485,7 @@
         <v>665</v>
       </c>
       <c r="B668" s="11" t="s">
-        <v>1574</v>
+        <v>1659</v>
       </c>
       <c r="F668" s="11" t="s">
         <v>25</v>
@@ -27534,7 +29501,7 @@
         <v>666</v>
       </c>
       <c r="B669" s="11" t="s">
-        <v>1575</v>
+        <v>1660</v>
       </c>
       <c r="F669" s="11" t="s">
         <v>25</v>
@@ -27550,7 +29517,7 @@
         <v>667</v>
       </c>
       <c r="B670" s="11" t="s">
-        <v>1576</v>
+        <v>1661</v>
       </c>
       <c r="D670" s="11">
         <v>2021.0</v>
@@ -27569,10 +29536,10 @@
         <v>668</v>
       </c>
       <c r="B671" s="11" t="s">
-        <v>1577</v>
+        <v>1662</v>
       </c>
       <c r="C671" s="11" t="s">
-        <v>1578</v>
+        <v>1663</v>
       </c>
       <c r="F671" s="11" t="s">
         <v>25</v>
@@ -27588,10 +29555,10 @@
         <v>669</v>
       </c>
       <c r="B672" s="11" t="s">
-        <v>1579</v>
+        <v>1664</v>
       </c>
       <c r="C672" s="11" t="s">
-        <v>1580</v>
+        <v>1665</v>
       </c>
       <c r="F672" s="11" t="s">
         <v>25</v>
@@ -27607,7 +29574,7 @@
         <v>670</v>
       </c>
       <c r="B673" s="11" t="s">
-        <v>1581</v>
+        <v>1666</v>
       </c>
       <c r="F673" s="11" t="s">
         <v>25</v>
@@ -27623,7 +29590,7 @@
         <v>671</v>
       </c>
       <c r="B674" s="11" t="s">
-        <v>1582</v>
+        <v>1667</v>
       </c>
       <c r="F674" s="11" t="s">
         <v>25</v>
@@ -27639,7 +29606,7 @@
         <v>672</v>
       </c>
       <c r="B675" s="11" t="s">
-        <v>1583</v>
+        <v>1668</v>
       </c>
       <c r="F675" s="11" t="s">
         <v>25</v>
@@ -27655,7 +29622,7 @@
         <v>673</v>
       </c>
       <c r="B676" s="11" t="s">
-        <v>1584</v>
+        <v>1669</v>
       </c>
       <c r="F676" s="11" t="s">
         <v>25</v>
@@ -27671,7 +29638,7 @@
         <v>674</v>
       </c>
       <c r="B677" s="11" t="s">
-        <v>1585</v>
+        <v>1670</v>
       </c>
       <c r="D677" s="11">
         <v>2021.0</v>
@@ -27690,7 +29657,7 @@
         <v>675</v>
       </c>
       <c r="B678" s="11" t="s">
-        <v>1586</v>
+        <v>1671</v>
       </c>
       <c r="F678" s="11" t="s">
         <v>25</v>
@@ -27706,7 +29673,7 @@
         <v>676</v>
       </c>
       <c r="B679" s="11" t="s">
-        <v>1587</v>
+        <v>1672</v>
       </c>
       <c r="F679" s="11" t="s">
         <v>25</v>
@@ -27722,7 +29689,7 @@
         <v>677</v>
       </c>
       <c r="B680" s="11" t="s">
-        <v>1588</v>
+        <v>1673</v>
       </c>
       <c r="F680" s="11" t="s">
         <v>25</v>
@@ -27738,7 +29705,7 @@
         <v>678</v>
       </c>
       <c r="B681" s="11" t="s">
-        <v>1589</v>
+        <v>1674</v>
       </c>
       <c r="F681" s="11" t="s">
         <v>25</v>
@@ -27754,7 +29721,7 @@
         <v>679</v>
       </c>
       <c r="B682" s="11" t="s">
-        <v>1590</v>
+        <v>1675</v>
       </c>
       <c r="F682" s="11" t="s">
         <v>25</v>
@@ -27770,7 +29737,7 @@
         <v>680</v>
       </c>
       <c r="B683" s="11" t="s">
-        <v>1591</v>
+        <v>1676</v>
       </c>
       <c r="F683" s="11" t="s">
         <v>25</v>
@@ -27786,7 +29753,7 @@
         <v>681</v>
       </c>
       <c r="B684" s="11" t="s">
-        <v>1592</v>
+        <v>1677</v>
       </c>
       <c r="F684" s="11" t="s">
         <v>25</v>
@@ -27802,7 +29769,7 @@
         <v>682</v>
       </c>
       <c r="B685" s="11" t="s">
-        <v>1593</v>
+        <v>1678</v>
       </c>
       <c r="F685" s="11" t="s">
         <v>25</v>
@@ -27818,7 +29785,7 @@
         <v>683</v>
       </c>
       <c r="B686" s="11" t="s">
-        <v>1594</v>
+        <v>1679</v>
       </c>
       <c r="D686" s="11">
         <v>2021.0</v>
@@ -27837,7 +29804,7 @@
         <v>684</v>
       </c>
       <c r="B687" s="11" t="s">
-        <v>1595</v>
+        <v>1680</v>
       </c>
       <c r="D687" s="11">
         <v>2020.0</v>
@@ -27856,7 +29823,7 @@
         <v>685</v>
       </c>
       <c r="B688" s="11" t="s">
-        <v>1596</v>
+        <v>1681</v>
       </c>
       <c r="F688" s="11" t="s">
         <v>25</v>
@@ -27872,10 +29839,10 @@
         <v>686</v>
       </c>
       <c r="B689" s="11" t="s">
-        <v>1597</v>
+        <v>1682</v>
       </c>
       <c r="C689" s="11" t="s">
-        <v>1598</v>
+        <v>1683</v>
       </c>
       <c r="F689" s="11" t="s">
         <v>25</v>
@@ -27891,10 +29858,10 @@
         <v>687</v>
       </c>
       <c r="B690" s="11" t="s">
-        <v>1599</v>
+        <v>1684</v>
       </c>
       <c r="C690" s="11" t="s">
-        <v>1600</v>
+        <v>1685</v>
       </c>
       <c r="F690" s="11" t="s">
         <v>25</v>
@@ -27910,10 +29877,10 @@
         <v>688</v>
       </c>
       <c r="B691" s="11" t="s">
-        <v>1601</v>
+        <v>1686</v>
       </c>
       <c r="C691" s="11" t="s">
-        <v>1602</v>
+        <v>1687</v>
       </c>
       <c r="F691" s="11" t="s">
         <v>25</v>
@@ -27929,10 +29896,10 @@
         <v>689</v>
       </c>
       <c r="B692" s="11" t="s">
-        <v>1603</v>
+        <v>1688</v>
       </c>
       <c r="C692" s="11" t="s">
-        <v>1604</v>
+        <v>1689</v>
       </c>
       <c r="F692" s="11" t="s">
         <v>25</v>
@@ -27948,10 +29915,10 @@
         <v>690</v>
       </c>
       <c r="B693" s="11" t="s">
-        <v>1605</v>
+        <v>1690</v>
       </c>
       <c r="C693" s="11" t="s">
-        <v>1606</v>
+        <v>1691</v>
       </c>
       <c r="F693" s="11" t="s">
         <v>25</v>
@@ -27967,10 +29934,10 @@
         <v>691</v>
       </c>
       <c r="B694" s="11" t="s">
-        <v>1607</v>
+        <v>1692</v>
       </c>
       <c r="C694" s="11" t="s">
-        <v>1608</v>
+        <v>1693</v>
       </c>
       <c r="F694" s="11" t="s">
         <v>25</v>
@@ -27986,7 +29953,7 @@
         <v>692</v>
       </c>
       <c r="B695" s="11" t="s">
-        <v>1609</v>
+        <v>1694</v>
       </c>
       <c r="D695" s="11">
         <v>2019.0</v>
@@ -28005,7 +29972,7 @@
         <v>693</v>
       </c>
       <c r="B696" s="11" t="s">
-        <v>1610</v>
+        <v>1695</v>
       </c>
       <c r="D696" s="11">
         <v>2019.0</v>
@@ -28024,7 +29991,7 @@
         <v>694</v>
       </c>
       <c r="B697" s="11" t="s">
-        <v>1611</v>
+        <v>1696</v>
       </c>
       <c r="D697" s="11">
         <v>2019.0</v>
@@ -28043,7 +30010,7 @@
         <v>695</v>
       </c>
       <c r="B698" s="11" t="s">
-        <v>1612</v>
+        <v>1697</v>
       </c>
       <c r="D698" s="11">
         <v>2018.0</v>
@@ -28062,7 +30029,7 @@
         <v>696</v>
       </c>
       <c r="B699" s="11" t="s">
-        <v>1613</v>
+        <v>1698</v>
       </c>
       <c r="D699" s="11">
         <v>2021.0</v>
@@ -28081,7 +30048,7 @@
         <v>697</v>
       </c>
       <c r="B700" s="11" t="s">
-        <v>1614</v>
+        <v>1699</v>
       </c>
       <c r="D700" s="11">
         <v>2020.0</v>
@@ -28100,7 +30067,7 @@
         <v>698</v>
       </c>
       <c r="B701" s="11" t="s">
-        <v>1615</v>
+        <v>1700</v>
       </c>
       <c r="D701" s="11">
         <v>2018.0</v>
@@ -28119,7 +30086,7 @@
         <v>699</v>
       </c>
       <c r="B702" s="11" t="s">
-        <v>1616</v>
+        <v>1701</v>
       </c>
       <c r="D702" s="11">
         <v>2018.0</v>
@@ -28138,7 +30105,7 @@
         <v>700</v>
       </c>
       <c r="B703" s="11" t="s">
-        <v>1617</v>
+        <v>1702</v>
       </c>
       <c r="D703" s="11">
         <v>2017.0</v>
@@ -28157,7 +30124,7 @@
         <v>701</v>
       </c>
       <c r="B704" s="11" t="s">
-        <v>1618</v>
+        <v>1703</v>
       </c>
       <c r="D704" s="11">
         <v>2017.0</v>
@@ -28176,7 +30143,7 @@
         <v>702</v>
       </c>
       <c r="B705" s="11" t="s">
-        <v>1619</v>
+        <v>1704</v>
       </c>
       <c r="D705" s="11">
         <v>2017.0</v>
@@ -28195,7 +30162,7 @@
         <v>703</v>
       </c>
       <c r="B706" s="11" t="s">
-        <v>1620</v>
+        <v>1705</v>
       </c>
       <c r="D706" s="11">
         <v>2016.0</v>
@@ -28214,7 +30181,7 @@
         <v>704</v>
       </c>
       <c r="B707" s="11" t="s">
-        <v>1621</v>
+        <v>1706</v>
       </c>
       <c r="D707" s="11">
         <v>2016.0</v>
@@ -28233,7 +30200,7 @@
         <v>705</v>
       </c>
       <c r="B708" s="11" t="s">
-        <v>1622</v>
+        <v>1707</v>
       </c>
       <c r="D708" s="11">
         <v>2001.0</v>
@@ -28252,7 +30219,7 @@
         <v>706</v>
       </c>
       <c r="B709" s="11" t="s">
-        <v>1623</v>
+        <v>1708</v>
       </c>
       <c r="D709" s="11">
         <v>2015.0</v>
@@ -28271,7 +30238,7 @@
         <v>707</v>
       </c>
       <c r="B710" s="11" t="s">
-        <v>1624</v>
+        <v>1709</v>
       </c>
       <c r="D710" s="11">
         <v>2015.0</v>
@@ -28290,7 +30257,7 @@
         <v>708</v>
       </c>
       <c r="B711" s="11" t="s">
-        <v>1625</v>
+        <v>1710</v>
       </c>
       <c r="D711" s="11">
         <v>2014.0</v>
@@ -28309,7 +30276,7 @@
         <v>709</v>
       </c>
       <c r="B712" s="11" t="s">
-        <v>1626</v>
+        <v>1711</v>
       </c>
       <c r="D712" s="11">
         <v>2014.0</v>
@@ -28328,7 +30295,7 @@
         <v>710</v>
       </c>
       <c r="B713" s="11" t="s">
-        <v>1627</v>
+        <v>1712</v>
       </c>
       <c r="D713" s="11">
         <v>2021.0</v>
@@ -28347,7 +30314,7 @@
         <v>711</v>
       </c>
       <c r="B714" s="11" t="s">
-        <v>1628</v>
+        <v>1713</v>
       </c>
       <c r="D714" s="11">
         <v>2021.0</v>
@@ -28366,7 +30333,7 @@
         <v>712</v>
       </c>
       <c r="B715" s="11" t="s">
-        <v>1629</v>
+        <v>1714</v>
       </c>
       <c r="D715" s="11">
         <v>2010.0</v>
@@ -28385,10 +30352,10 @@
         <v>713</v>
       </c>
       <c r="B716" s="11" t="s">
-        <v>1630</v>
+        <v>1715</v>
       </c>
       <c r="C716" s="11" t="s">
-        <v>1631</v>
+        <v>1716</v>
       </c>
       <c r="F716" s="11" t="s">
         <v>25</v>
@@ -28404,10 +30371,10 @@
         <v>714</v>
       </c>
       <c r="B717" s="11" t="s">
-        <v>1632</v>
+        <v>1717</v>
       </c>
       <c r="C717" s="11" t="s">
-        <v>1633</v>
+        <v>1718</v>
       </c>
       <c r="F717" s="11" t="s">
         <v>25</v>
@@ -28423,10 +30390,10 @@
         <v>715</v>
       </c>
       <c r="B718" s="11" t="s">
-        <v>1634</v>
+        <v>1719</v>
       </c>
       <c r="C718" s="11" t="s">
-        <v>1635</v>
+        <v>1720</v>
       </c>
       <c r="F718" s="11" t="s">
         <v>25</v>
@@ -28442,7 +30409,7 @@
         <v>716</v>
       </c>
       <c r="B719" s="11" t="s">
-        <v>1636</v>
+        <v>1721</v>
       </c>
       <c r="D719" s="11">
         <v>2008.0</v>
@@ -28461,7 +30428,7 @@
         <v>717</v>
       </c>
       <c r="B720" s="11" t="s">
-        <v>1637</v>
+        <v>1722</v>
       </c>
       <c r="F720" s="11" t="s">
         <v>25</v>
@@ -28477,7 +30444,7 @@
         <v>718</v>
       </c>
       <c r="B721" s="11" t="s">
-        <v>1637</v>
+        <v>1722</v>
       </c>
       <c r="D721" s="11">
         <v>2018.0</v>
@@ -28496,7 +30463,7 @@
         <v>719</v>
       </c>
       <c r="B722" s="11" t="s">
-        <v>1638</v>
+        <v>1723</v>
       </c>
       <c r="D722" s="11">
         <v>2013.0</v>
@@ -28515,7 +30482,7 @@
         <v>720</v>
       </c>
       <c r="B723" s="11" t="s">
-        <v>1639</v>
+        <v>1724</v>
       </c>
       <c r="D723" s="11">
         <v>2013.0</v>
@@ -28534,7 +30501,7 @@
         <v>721</v>
       </c>
       <c r="B724" s="11" t="s">
-        <v>1640</v>
+        <v>1725</v>
       </c>
       <c r="D724" s="11">
         <v>2020.0</v>
@@ -28553,7 +30520,7 @@
         <v>722</v>
       </c>
       <c r="B725" s="11" t="s">
-        <v>1641</v>
+        <v>1726</v>
       </c>
       <c r="D725" s="11">
         <v>2021.0</v>
@@ -28572,7 +30539,7 @@
         <v>723</v>
       </c>
       <c r="B726" s="11" t="s">
-        <v>1642</v>
+        <v>1727</v>
       </c>
       <c r="D726" s="11">
         <v>2012.0</v>
@@ -28591,7 +30558,7 @@
         <v>724</v>
       </c>
       <c r="B727" s="11" t="s">
-        <v>1643</v>
+        <v>1728</v>
       </c>
       <c r="D727" s="11">
         <v>2011.0</v>
@@ -28610,7 +30577,7 @@
         <v>725</v>
       </c>
       <c r="B728" s="11" t="s">
-        <v>1644</v>
+        <v>1729</v>
       </c>
       <c r="D728" s="11">
         <v>2011.0</v>
@@ -28629,7 +30596,7 @@
         <v>726</v>
       </c>
       <c r="B729" s="11" t="s">
-        <v>1645</v>
+        <v>1730</v>
       </c>
       <c r="F729" s="11" t="s">
         <v>25</v>
@@ -28645,7 +30612,7 @@
         <v>727</v>
       </c>
       <c r="B730" s="11" t="s">
-        <v>1646</v>
+        <v>1731</v>
       </c>
       <c r="D730" s="11">
         <v>2003.0</v>
@@ -28664,7 +30631,7 @@
         <v>728</v>
       </c>
       <c r="B731" s="11" t="s">
-        <v>1647</v>
+        <v>1732</v>
       </c>
       <c r="D731" s="11">
         <v>2013.0</v>
@@ -28683,7 +30650,7 @@
         <v>729</v>
       </c>
       <c r="B732" s="11" t="s">
-        <v>1648</v>
+        <v>1733</v>
       </c>
       <c r="F732" s="11" t="s">
         <v>25</v>
@@ -28699,7 +30666,7 @@
         <v>730</v>
       </c>
       <c r="B733" s="11" t="s">
-        <v>1649</v>
+        <v>1734</v>
       </c>
       <c r="D733" s="11">
         <v>2010.0</v>
@@ -28718,7 +30685,7 @@
         <v>731</v>
       </c>
       <c r="B734" s="11" t="s">
-        <v>1650</v>
+        <v>1735</v>
       </c>
       <c r="D734" s="11">
         <v>2008.0</v>
@@ -28737,10 +30704,10 @@
         <v>732</v>
       </c>
       <c r="B735" s="11" t="s">
-        <v>1651</v>
+        <v>1736</v>
       </c>
       <c r="C735" s="11" t="s">
-        <v>1652</v>
+        <v>1737</v>
       </c>
       <c r="D735" s="11">
         <v>2008.0</v>
@@ -28759,7 +30726,7 @@
         <v>733</v>
       </c>
       <c r="B736" s="11" t="s">
-        <v>1653</v>
+        <v>1738</v>
       </c>
       <c r="F736" s="11" t="s">
         <v>25</v>
@@ -28775,7 +30742,7 @@
         <v>734</v>
       </c>
       <c r="B737" s="11" t="s">
-        <v>1654</v>
+        <v>1739</v>
       </c>
       <c r="F737" s="11" t="s">
         <v>25</v>
@@ -28791,7 +30758,7 @@
         <v>735</v>
       </c>
       <c r="B738" s="11" t="s">
-        <v>1655</v>
+        <v>1740</v>
       </c>
       <c r="F738" s="11" t="s">
         <v>25</v>
@@ -28807,7 +30774,7 @@
         <v>736</v>
       </c>
       <c r="B739" s="11" t="s">
-        <v>1656</v>
+        <v>1741</v>
       </c>
       <c r="F739" s="11" t="s">
         <v>25</v>
@@ -28823,7 +30790,7 @@
         <v>737</v>
       </c>
       <c r="B740" s="11" t="s">
-        <v>1657</v>
+        <v>1742</v>
       </c>
       <c r="D740" s="11">
         <v>2021.0</v>
@@ -28842,7 +30809,7 @@
         <v>738</v>
       </c>
       <c r="B741" s="11" t="s">
-        <v>1658</v>
+        <v>1743</v>
       </c>
       <c r="D741" s="11">
         <v>2021.0</v>
@@ -28861,7 +30828,7 @@
         <v>739</v>
       </c>
       <c r="B742" s="11" t="s">
-        <v>1659</v>
+        <v>1744</v>
       </c>
       <c r="D742" s="11">
         <v>2020.0</v>
@@ -28880,7 +30847,7 @@
         <v>740</v>
       </c>
       <c r="B743" s="11" t="s">
-        <v>1660</v>
+        <v>1745</v>
       </c>
       <c r="D743" s="11">
         <v>2013.0</v>
@@ -28899,7 +30866,7 @@
         <v>741</v>
       </c>
       <c r="B744" s="11" t="s">
-        <v>1661</v>
+        <v>1746</v>
       </c>
       <c r="F744" s="11" t="s">
         <v>25</v>
@@ -28915,7 +30882,7 @@
         <v>742</v>
       </c>
       <c r="B745" s="11" t="s">
-        <v>1662</v>
+        <v>1747</v>
       </c>
       <c r="D745" s="11">
         <v>2020.0</v>
@@ -28934,7 +30901,7 @@
         <v>743</v>
       </c>
       <c r="B746" s="11" t="s">
-        <v>1663</v>
+        <v>1748</v>
       </c>
       <c r="D746" s="11">
         <v>2020.0</v>
@@ -28953,7 +30920,7 @@
         <v>744</v>
       </c>
       <c r="B747" s="11" t="s">
-        <v>1664</v>
+        <v>1749</v>
       </c>
       <c r="F747" s="11" t="s">
         <v>25</v>
@@ -28969,7 +30936,7 @@
         <v>745</v>
       </c>
       <c r="B748" s="11" t="s">
-        <v>1665</v>
+        <v>1750</v>
       </c>
       <c r="D748" s="11">
         <v>2013.0</v>
@@ -28988,10 +30955,10 @@
         <v>746</v>
       </c>
       <c r="B749" s="11" t="s">
-        <v>1666</v>
+        <v>1751</v>
       </c>
       <c r="C749" s="11" t="s">
-        <v>1667</v>
+        <v>1752</v>
       </c>
       <c r="F749" s="11" t="s">
         <v>25</v>
@@ -29007,10 +30974,10 @@
         <v>747</v>
       </c>
       <c r="B750" s="11" t="s">
-        <v>1668</v>
+        <v>1753</v>
       </c>
       <c r="C750" s="11" t="s">
-        <v>1669</v>
+        <v>1754</v>
       </c>
       <c r="F750" s="11" t="s">
         <v>25</v>
@@ -29026,7 +30993,7 @@
         <v>748</v>
       </c>
       <c r="B751" s="11" t="s">
-        <v>1670</v>
+        <v>1755</v>
       </c>
       <c r="F751" s="11" t="s">
         <v>25</v>
@@ -29042,7 +31009,7 @@
         <v>749</v>
       </c>
       <c r="B752" s="11" t="s">
-        <v>1671</v>
+        <v>1756</v>
       </c>
       <c r="F752" s="11" t="s">
         <v>25</v>
@@ -29058,7 +31025,7 @@
         <v>750</v>
       </c>
       <c r="B753" s="11" t="s">
-        <v>1672</v>
+        <v>1757</v>
       </c>
       <c r="F753" s="11" t="s">
         <v>25</v>
@@ -29074,7 +31041,7 @@
         <v>751</v>
       </c>
       <c r="B754" s="11" t="s">
-        <v>1673</v>
+        <v>1758</v>
       </c>
       <c r="F754" s="11" t="s">
         <v>25</v>
@@ -29090,7 +31057,7 @@
         <v>752</v>
       </c>
       <c r="B755" s="11" t="s">
-        <v>1674</v>
+        <v>1759</v>
       </c>
       <c r="F755" s="11" t="s">
         <v>25</v>
@@ -29106,7 +31073,7 @@
         <v>753</v>
       </c>
       <c r="B756" s="11" t="s">
-        <v>1675</v>
+        <v>1760</v>
       </c>
       <c r="F756" s="11" t="s">
         <v>25</v>
@@ -29122,7 +31089,7 @@
         <v>754</v>
       </c>
       <c r="B757" s="11" t="s">
-        <v>1676</v>
+        <v>1761</v>
       </c>
       <c r="D757" s="11">
         <v>2017.0</v>
@@ -29141,7 +31108,7 @@
         <v>755</v>
       </c>
       <c r="B758" s="11" t="s">
-        <v>1677</v>
+        <v>1762</v>
       </c>
       <c r="D758" s="11">
         <v>2020.0</v>
@@ -29160,7 +31127,7 @@
         <v>756</v>
       </c>
       <c r="B759" s="11" t="s">
-        <v>1678</v>
+        <v>1763</v>
       </c>
       <c r="F759" s="11" t="s">
         <v>25</v>
@@ -29176,7 +31143,7 @@
         <v>757</v>
       </c>
       <c r="B760" s="11" t="s">
-        <v>1679</v>
+        <v>1764</v>
       </c>
       <c r="F760" s="11" t="s">
         <v>25</v>
@@ -29192,7 +31159,7 @@
         <v>758</v>
       </c>
       <c r="B761" s="11" t="s">
-        <v>1680</v>
+        <v>1765</v>
       </c>
       <c r="D761" s="11">
         <v>2014.0</v>
@@ -29211,7 +31178,7 @@
         <v>759</v>
       </c>
       <c r="B762" s="11" t="s">
-        <v>1681</v>
+        <v>1766</v>
       </c>
       <c r="D762" s="11">
         <v>2010.0</v>
@@ -29230,7 +31197,7 @@
         <v>760</v>
       </c>
       <c r="B763" s="11" t="s">
-        <v>1682</v>
+        <v>1767</v>
       </c>
       <c r="F763" s="11" t="s">
         <v>25</v>
@@ -29246,7 +31213,7 @@
         <v>761</v>
       </c>
       <c r="B764" s="11" t="s">
-        <v>1683</v>
+        <v>1768</v>
       </c>
       <c r="D764" s="11">
         <v>2020.0</v>
@@ -29265,7 +31232,7 @@
         <v>762</v>
       </c>
       <c r="B765" s="11" t="s">
-        <v>1684</v>
+        <v>1769</v>
       </c>
       <c r="D765" s="11">
         <v>2020.0</v>
@@ -29284,7 +31251,7 @@
         <v>763</v>
       </c>
       <c r="B766" s="11" t="s">
-        <v>1685</v>
+        <v>1770</v>
       </c>
       <c r="D766" s="11">
         <v>2009.0</v>
@@ -29303,7 +31270,7 @@
         <v>764</v>
       </c>
       <c r="B767" s="11" t="s">
-        <v>1686</v>
+        <v>1771</v>
       </c>
       <c r="D767" s="11">
         <v>2004.0</v>
@@ -29322,7 +31289,7 @@
         <v>765</v>
       </c>
       <c r="B768" s="11" t="s">
-        <v>1687</v>
+        <v>1772</v>
       </c>
       <c r="F768" s="11" t="s">
         <v>25</v>
@@ -29338,7 +31305,7 @@
         <v>766</v>
       </c>
       <c r="B769" s="11" t="s">
-        <v>1688</v>
+        <v>1773</v>
       </c>
       <c r="F769" s="11" t="s">
         <v>25</v>
@@ -29354,7 +31321,7 @@
         <v>767</v>
       </c>
       <c r="B770" s="11" t="s">
-        <v>1689</v>
+        <v>1774</v>
       </c>
       <c r="F770" s="11" t="s">
         <v>25</v>
@@ -29370,7 +31337,7 @@
         <v>768</v>
       </c>
       <c r="B771" s="11" t="s">
-        <v>1690</v>
+        <v>1775</v>
       </c>
       <c r="F771" s="11" t="s">
         <v>25</v>
@@ -29386,7 +31353,7 @@
         <v>769</v>
       </c>
       <c r="B772" s="11" t="s">
-        <v>1691</v>
+        <v>1776</v>
       </c>
       <c r="F772" s="11" t="s">
         <v>25</v>
@@ -29402,7 +31369,7 @@
         <v>770</v>
       </c>
       <c r="B773" s="11" t="s">
-        <v>1692</v>
+        <v>1777</v>
       </c>
       <c r="F773" s="11" t="s">
         <v>25</v>
@@ -29418,7 +31385,7 @@
         <v>771</v>
       </c>
       <c r="B774" s="11" t="s">
-        <v>1693</v>
+        <v>1778</v>
       </c>
       <c r="F774" s="11" t="s">
         <v>25</v>
@@ -29434,7 +31401,7 @@
         <v>772</v>
       </c>
       <c r="B775" s="11" t="s">
-        <v>1694</v>
+        <v>1779</v>
       </c>
       <c r="F775" s="11" t="s">
         <v>25</v>
@@ -29450,7 +31417,7 @@
         <v>773</v>
       </c>
       <c r="B776" s="11" t="s">
-        <v>1695</v>
+        <v>1780</v>
       </c>
       <c r="F776" s="11" t="s">
         <v>25</v>
@@ -29466,7 +31433,7 @@
         <v>774</v>
       </c>
       <c r="B777" s="11" t="s">
-        <v>1696</v>
+        <v>1781</v>
       </c>
       <c r="F777" s="11" t="s">
         <v>25</v>
@@ -29482,10 +31449,10 @@
         <v>775</v>
       </c>
       <c r="B778" s="11" t="s">
-        <v>1697</v>
+        <v>1782</v>
       </c>
       <c r="C778" s="11" t="s">
-        <v>1698</v>
+        <v>1783</v>
       </c>
       <c r="F778" s="11" t="s">
         <v>25</v>
@@ -29501,10 +31468,10 @@
         <v>776</v>
       </c>
       <c r="B779" s="11" t="s">
-        <v>1699</v>
+        <v>1784</v>
       </c>
       <c r="C779" s="11" t="s">
-        <v>1700</v>
+        <v>1785</v>
       </c>
       <c r="F779" s="11" t="s">
         <v>25</v>
@@ -29520,10 +31487,10 @@
         <v>777</v>
       </c>
       <c r="B780" s="11" t="s">
-        <v>1701</v>
+        <v>1786</v>
       </c>
       <c r="C780" s="11" t="s">
-        <v>1702</v>
+        <v>1787</v>
       </c>
       <c r="F780" s="11" t="s">
         <v>25</v>
@@ -29539,10 +31506,10 @@
         <v>778</v>
       </c>
       <c r="B781" s="11" t="s">
-        <v>1703</v>
+        <v>1788</v>
       </c>
       <c r="C781" s="11" t="s">
-        <v>1704</v>
+        <v>1789</v>
       </c>
       <c r="F781" s="11" t="s">
         <v>25</v>
@@ -29558,10 +31525,10 @@
         <v>779</v>
       </c>
       <c r="B782" s="11" t="s">
-        <v>1705</v>
+        <v>1790</v>
       </c>
       <c r="C782" s="11" t="s">
-        <v>1706</v>
+        <v>1791</v>
       </c>
       <c r="F782" s="11" t="s">
         <v>25</v>
@@ -29577,10 +31544,10 @@
         <v>780</v>
       </c>
       <c r="B783" s="11" t="s">
-        <v>1707</v>
+        <v>1792</v>
       </c>
       <c r="C783" s="11" t="s">
-        <v>1708</v>
+        <v>1793</v>
       </c>
       <c r="F783" s="11" t="s">
         <v>25</v>
@@ -29596,10 +31563,10 @@
         <v>781</v>
       </c>
       <c r="B784" s="11" t="s">
-        <v>1709</v>
+        <v>1794</v>
       </c>
       <c r="C784" s="11" t="s">
-        <v>1710</v>
+        <v>1795</v>
       </c>
       <c r="F784" s="11" t="s">
         <v>25</v>
@@ -29615,10 +31582,10 @@
         <v>782</v>
       </c>
       <c r="B785" s="11" t="s">
-        <v>1711</v>
+        <v>1796</v>
       </c>
       <c r="C785" s="11" t="s">
-        <v>1712</v>
+        <v>1797</v>
       </c>
       <c r="F785" s="11" t="s">
         <v>25</v>
@@ -29634,10 +31601,10 @@
         <v>783</v>
       </c>
       <c r="B786" s="11" t="s">
-        <v>1713</v>
+        <v>1798</v>
       </c>
       <c r="C786" s="11" t="s">
-        <v>1714</v>
+        <v>1799</v>
       </c>
       <c r="F786" s="11" t="s">
         <v>25</v>
@@ -29653,10 +31620,10 @@
         <v>784</v>
       </c>
       <c r="B787" s="11" t="s">
-        <v>1715</v>
+        <v>1800</v>
       </c>
       <c r="C787" s="11" t="s">
-        <v>1716</v>
+        <v>1801</v>
       </c>
       <c r="F787" s="11" t="s">
         <v>25</v>
@@ -29672,10 +31639,10 @@
         <v>785</v>
       </c>
       <c r="B788" s="11" t="s">
-        <v>1717</v>
+        <v>1802</v>
       </c>
       <c r="C788" s="11" t="s">
-        <v>1718</v>
+        <v>1803</v>
       </c>
       <c r="F788" s="11" t="s">
         <v>25</v>
@@ -29691,10 +31658,10 @@
         <v>786</v>
       </c>
       <c r="B789" s="11" t="s">
-        <v>1719</v>
+        <v>1804</v>
       </c>
       <c r="C789" s="11" t="s">
-        <v>1720</v>
+        <v>1805</v>
       </c>
       <c r="F789" s="11" t="s">
         <v>25</v>
@@ -29710,10 +31677,10 @@
         <v>787</v>
       </c>
       <c r="B790" s="11" t="s">
-        <v>1721</v>
+        <v>1806</v>
       </c>
       <c r="C790" s="11" t="s">
-        <v>1722</v>
+        <v>1807</v>
       </c>
       <c r="F790" s="11" t="s">
         <v>25</v>
@@ -29729,7 +31696,7 @@
         <v>788</v>
       </c>
       <c r="B791" s="11" t="s">
-        <v>1723</v>
+        <v>1808</v>
       </c>
       <c r="D791" s="11">
         <v>2020.0</v>
@@ -29748,7 +31715,7 @@
         <v>789</v>
       </c>
       <c r="B792" s="11" t="s">
-        <v>1724</v>
+        <v>1809</v>
       </c>
       <c r="D792" s="11">
         <v>2019.0</v>
@@ -29767,7 +31734,7 @@
         <v>790</v>
       </c>
       <c r="B793" s="11" t="s">
-        <v>1725</v>
+        <v>1810</v>
       </c>
       <c r="D793" s="11">
         <v>2020.0</v>
@@ -29786,7 +31753,7 @@
         <v>791</v>
       </c>
       <c r="B794" s="11" t="s">
-        <v>1726</v>
+        <v>1811</v>
       </c>
       <c r="F794" s="11" t="s">
         <v>25</v>
@@ -29802,7 +31769,7 @@
         <v>792</v>
       </c>
       <c r="B795" s="11" t="s">
-        <v>1727</v>
+        <v>1812</v>
       </c>
       <c r="F795" s="11" t="s">
         <v>25</v>
@@ -29818,7 +31785,7 @@
         <v>793</v>
       </c>
       <c r="B796" s="11" t="s">
-        <v>1727</v>
+        <v>1812</v>
       </c>
       <c r="D796" s="11">
         <v>1995.0</v>
@@ -29837,7 +31804,7 @@
         <v>794</v>
       </c>
       <c r="B797" s="11" t="s">
-        <v>1728</v>
+        <v>1813</v>
       </c>
       <c r="F797" s="11" t="s">
         <v>25</v>
@@ -29853,10 +31820,10 @@
         <v>795</v>
       </c>
       <c r="B798" s="11" t="s">
-        <v>1729</v>
+        <v>1814</v>
       </c>
       <c r="C798" s="11" t="s">
-        <v>1730</v>
+        <v>1815</v>
       </c>
       <c r="F798" s="11" t="s">
         <v>25</v>
@@ -29872,10 +31839,10 @@
         <v>796</v>
       </c>
       <c r="B799" s="11" t="s">
-        <v>1731</v>
+        <v>1816</v>
       </c>
       <c r="C799" s="11" t="s">
-        <v>1732</v>
+        <v>1817</v>
       </c>
       <c r="F799" s="11" t="s">
         <v>25</v>
@@ -29891,7 +31858,7 @@
         <v>797</v>
       </c>
       <c r="B800" s="11" t="s">
-        <v>1733</v>
+        <v>1818</v>
       </c>
       <c r="F800" s="11" t="s">
         <v>25</v>
@@ -29907,7 +31874,7 @@
         <v>798</v>
       </c>
       <c r="B801" s="11" t="s">
-        <v>1734</v>
+        <v>1819</v>
       </c>
       <c r="F801" s="11" t="s">
         <v>25</v>
@@ -29923,7 +31890,7 @@
         <v>799</v>
       </c>
       <c r="B802" s="11" t="s">
-        <v>1735</v>
+        <v>1820</v>
       </c>
       <c r="F802" s="11" t="s">
         <v>25</v>
@@ -29939,10 +31906,10 @@
         <v>800</v>
       </c>
       <c r="B803" s="11" t="s">
-        <v>1736</v>
+        <v>1821</v>
       </c>
       <c r="C803" s="11" t="s">
-        <v>1737</v>
+        <v>1822</v>
       </c>
       <c r="F803" s="11" t="s">
         <v>25</v>
@@ -29958,10 +31925,10 @@
         <v>801</v>
       </c>
       <c r="B804" s="11" t="s">
-        <v>1738</v>
+        <v>1823</v>
       </c>
       <c r="C804" s="11" t="s">
-        <v>1739</v>
+        <v>1824</v>
       </c>
       <c r="F804" s="11" t="s">
         <v>25</v>
@@ -29977,10 +31944,10 @@
         <v>802</v>
       </c>
       <c r="B805" s="11" t="s">
-        <v>1740</v>
+        <v>1825</v>
       </c>
       <c r="C805" s="11" t="s">
-        <v>1741</v>
+        <v>1826</v>
       </c>
       <c r="F805" s="11" t="s">
         <v>25</v>
@@ -29996,7 +31963,7 @@
         <v>803</v>
       </c>
       <c r="B806" s="11" t="s">
-        <v>1742</v>
+        <v>1827</v>
       </c>
       <c r="D806" s="11">
         <v>2009.0</v>
@@ -30015,7 +31982,7 @@
         <v>804</v>
       </c>
       <c r="B807" s="11" t="s">
-        <v>1743</v>
+        <v>1828</v>
       </c>
       <c r="F807" s="11" t="s">
         <v>25</v>
@@ -30031,7 +31998,7 @@
         <v>805</v>
       </c>
       <c r="B808" s="11" t="s">
-        <v>1744</v>
+        <v>1829</v>
       </c>
       <c r="F808" s="11" t="s">
         <v>25</v>
@@ -30047,7 +32014,7 @@
         <v>806</v>
       </c>
       <c r="B809" s="11" t="s">
-        <v>1745</v>
+        <v>1830</v>
       </c>
       <c r="F809" s="11" t="s">
         <v>25</v>
@@ -30063,7 +32030,7 @@
         <v>807</v>
       </c>
       <c r="B810" s="11" t="s">
-        <v>1746</v>
+        <v>1831</v>
       </c>
       <c r="D810" s="11">
         <v>2020.0</v>
@@ -30082,7 +32049,7 @@
         <v>808</v>
       </c>
       <c r="B811" s="11" t="s">
-        <v>1747</v>
+        <v>1832</v>
       </c>
       <c r="F811" s="11" t="s">
         <v>25</v>
@@ -30117,7 +32084,7 @@
         <v>810</v>
       </c>
       <c r="B813" s="11" t="s">
-        <v>1748</v>
+        <v>1833</v>
       </c>
       <c r="F813" s="11" t="s">
         <v>25</v>
@@ -30133,7 +32100,7 @@
         <v>811</v>
       </c>
       <c r="B814" s="11" t="s">
-        <v>1749</v>
+        <v>1834</v>
       </c>
       <c r="F814" s="11" t="s">
         <v>25</v>
@@ -30149,7 +32116,7 @@
         <v>812</v>
       </c>
       <c r="B815" s="11" t="s">
-        <v>1750</v>
+        <v>1835</v>
       </c>
       <c r="F815" s="11" t="s">
         <v>25</v>
@@ -30165,10 +32132,10 @@
         <v>813</v>
       </c>
       <c r="B816" s="11" t="s">
-        <v>1751</v>
+        <v>1836</v>
       </c>
       <c r="C816" s="11" t="s">
-        <v>1752</v>
+        <v>1837</v>
       </c>
       <c r="F816" s="11" t="s">
         <v>25</v>
@@ -30184,10 +32151,10 @@
         <v>814</v>
       </c>
       <c r="B817" s="11" t="s">
-        <v>1753</v>
+        <v>1838</v>
       </c>
       <c r="C817" s="11" t="s">
-        <v>1754</v>
+        <v>1839</v>
       </c>
       <c r="F817" s="11" t="s">
         <v>25</v>
@@ -30203,10 +32170,10 @@
         <v>815</v>
       </c>
       <c r="B818" s="11" t="s">
-        <v>1755</v>
+        <v>1840</v>
       </c>
       <c r="C818" s="11" t="s">
-        <v>1756</v>
+        <v>1841</v>
       </c>
       <c r="F818" s="11" t="s">
         <v>25</v>
@@ -30222,10 +32189,10 @@
         <v>816</v>
       </c>
       <c r="B819" s="11" t="s">
-        <v>1757</v>
+        <v>1842</v>
       </c>
       <c r="C819" s="11" t="s">
-        <v>1758</v>
+        <v>1843</v>
       </c>
       <c r="F819" s="11" t="s">
         <v>25</v>
@@ -30241,10 +32208,10 @@
         <v>817</v>
       </c>
       <c r="B820" s="11" t="s">
-        <v>1759</v>
+        <v>1844</v>
       </c>
       <c r="C820" s="11" t="s">
-        <v>1760</v>
+        <v>1845</v>
       </c>
       <c r="F820" s="11" t="s">
         <v>25</v>
@@ -30260,10 +32227,10 @@
         <v>818</v>
       </c>
       <c r="B821" s="11" t="s">
-        <v>1761</v>
+        <v>1846</v>
       </c>
       <c r="C821" s="11" t="s">
-        <v>1762</v>
+        <v>1847</v>
       </c>
       <c r="F821" s="11" t="s">
         <v>25</v>
@@ -30279,10 +32246,10 @@
         <v>819</v>
       </c>
       <c r="B822" s="11" t="s">
-        <v>1763</v>
+        <v>1848</v>
       </c>
       <c r="C822" s="11" t="s">
-        <v>1764</v>
+        <v>1849</v>
       </c>
       <c r="F822" s="11" t="s">
         <v>25</v>
@@ -30298,10 +32265,10 @@
         <v>820</v>
       </c>
       <c r="B823" s="11" t="s">
-        <v>1765</v>
+        <v>1850</v>
       </c>
       <c r="C823" s="11" t="s">
-        <v>1766</v>
+        <v>1851</v>
       </c>
       <c r="F823" s="11" t="s">
         <v>25</v>
@@ -30317,10 +32284,10 @@
         <v>821</v>
       </c>
       <c r="B824" s="11" t="s">
-        <v>1767</v>
+        <v>1852</v>
       </c>
       <c r="C824" s="11" t="s">
-        <v>1768</v>
+        <v>1853</v>
       </c>
       <c r="F824" s="11" t="s">
         <v>25</v>
@@ -30336,10 +32303,10 @@
         <v>822</v>
       </c>
       <c r="B825" s="11" t="s">
-        <v>1769</v>
+        <v>1854</v>
       </c>
       <c r="C825" s="11" t="s">
-        <v>1770</v>
+        <v>1855</v>
       </c>
       <c r="F825" s="11" t="s">
         <v>25</v>
@@ -30355,10 +32322,10 @@
         <v>823</v>
       </c>
       <c r="B826" s="11" t="s">
-        <v>1771</v>
+        <v>1856</v>
       </c>
       <c r="C826" s="11" t="s">
-        <v>1772</v>
+        <v>1857</v>
       </c>
       <c r="F826" s="11" t="s">
         <v>25</v>
@@ -30374,10 +32341,10 @@
         <v>824</v>
       </c>
       <c r="B827" s="11" t="s">
-        <v>1773</v>
+        <v>1858</v>
       </c>
       <c r="C827" s="11" t="s">
-        <v>1774</v>
+        <v>1859</v>
       </c>
       <c r="F827" s="11" t="s">
         <v>25</v>
@@ -30393,10 +32360,10 @@
         <v>825</v>
       </c>
       <c r="B828" s="11" t="s">
-        <v>1775</v>
+        <v>1860</v>
       </c>
       <c r="C828" s="11" t="s">
-        <v>1776</v>
+        <v>1861</v>
       </c>
       <c r="F828" s="11" t="s">
         <v>25</v>
@@ -30412,10 +32379,10 @@
         <v>826</v>
       </c>
       <c r="B829" s="11" t="s">
-        <v>1777</v>
+        <v>1862</v>
       </c>
       <c r="C829" s="11" t="s">
-        <v>1778</v>
+        <v>1863</v>
       </c>
       <c r="F829" s="11" t="s">
         <v>25</v>
@@ -30431,10 +32398,10 @@
         <v>827</v>
       </c>
       <c r="B830" s="11" t="s">
-        <v>1779</v>
+        <v>1864</v>
       </c>
       <c r="C830" s="11" t="s">
-        <v>1780</v>
+        <v>1865</v>
       </c>
       <c r="F830" s="11" t="s">
         <v>25</v>
@@ -30450,10 +32417,10 @@
         <v>828</v>
       </c>
       <c r="B831" s="11" t="s">
-        <v>1781</v>
+        <v>1866</v>
       </c>
       <c r="C831" s="11" t="s">
-        <v>1782</v>
+        <v>1867</v>
       </c>
       <c r="F831" s="11" t="s">
         <v>25</v>
@@ -30469,10 +32436,10 @@
         <v>829</v>
       </c>
       <c r="B832" s="11" t="s">
-        <v>1783</v>
+        <v>1868</v>
       </c>
       <c r="C832" s="11" t="s">
-        <v>1784</v>
+        <v>1869</v>
       </c>
       <c r="F832" s="11" t="s">
         <v>25</v>
@@ -30488,10 +32455,10 @@
         <v>830</v>
       </c>
       <c r="B833" s="11" t="s">
-        <v>1785</v>
+        <v>1870</v>
       </c>
       <c r="C833" s="11" t="s">
-        <v>1786</v>
+        <v>1871</v>
       </c>
       <c r="F833" s="11" t="s">
         <v>25</v>
@@ -30507,10 +32474,10 @@
         <v>831</v>
       </c>
       <c r="B834" s="11" t="s">
-        <v>1787</v>
+        <v>1872</v>
       </c>
       <c r="C834" s="11" t="s">
-        <v>1788</v>
+        <v>1873</v>
       </c>
       <c r="F834" s="11" t="s">
         <v>25</v>
@@ -30526,10 +32493,10 @@
         <v>832</v>
       </c>
       <c r="B835" s="11" t="s">
-        <v>1789</v>
+        <v>1874</v>
       </c>
       <c r="C835" s="11" t="s">
-        <v>1790</v>
+        <v>1875</v>
       </c>
       <c r="F835" s="11" t="s">
         <v>25</v>
@@ -30545,10 +32512,10 @@
         <v>833</v>
       </c>
       <c r="B836" s="11" t="s">
-        <v>1791</v>
+        <v>1876</v>
       </c>
       <c r="C836" s="11" t="s">
-        <v>1792</v>
+        <v>1877</v>
       </c>
       <c r="F836" s="11" t="s">
         <v>25</v>
@@ -30564,10 +32531,10 @@
         <v>834</v>
       </c>
       <c r="B837" s="11" t="s">
-        <v>1793</v>
+        <v>1878</v>
       </c>
       <c r="C837" s="11" t="s">
-        <v>1794</v>
+        <v>1879</v>
       </c>
       <c r="F837" s="11" t="s">
         <v>25</v>
@@ -30583,10 +32550,10 @@
         <v>835</v>
       </c>
       <c r="B838" s="11" t="s">
-        <v>1795</v>
+        <v>1880</v>
       </c>
       <c r="C838" s="11" t="s">
-        <v>1796</v>
+        <v>1881</v>
       </c>
       <c r="F838" s="11" t="s">
         <v>25</v>
@@ -30602,10 +32569,10 @@
         <v>836</v>
       </c>
       <c r="B839" s="11" t="s">
-        <v>1797</v>
+        <v>1882</v>
       </c>
       <c r="C839" s="11" t="s">
-        <v>1798</v>
+        <v>1883</v>
       </c>
       <c r="F839" s="11" t="s">
         <v>25</v>
@@ -30621,10 +32588,10 @@
         <v>837</v>
       </c>
       <c r="B840" s="11" t="s">
-        <v>1799</v>
+        <v>1884</v>
       </c>
       <c r="C840" s="11" t="s">
-        <v>1800</v>
+        <v>1885</v>
       </c>
       <c r="F840" s="11" t="s">
         <v>25</v>
@@ -30640,7 +32607,7 @@
         <v>838</v>
       </c>
       <c r="B841" s="11" t="s">
-        <v>1801</v>
+        <v>1886</v>
       </c>
       <c r="D841" s="11">
         <v>2020.0</v>
@@ -30659,7 +32626,7 @@
         <v>839</v>
       </c>
       <c r="B842" s="11" t="s">
-        <v>1802</v>
+        <v>1887</v>
       </c>
       <c r="D842" s="11">
         <v>1957.0</v>
@@ -30678,7 +32645,7 @@
         <v>840</v>
       </c>
       <c r="B843" s="11" t="s">
-        <v>1803</v>
+        <v>1888</v>
       </c>
       <c r="D843" s="11">
         <v>2018.0</v>
@@ -30697,7 +32664,7 @@
         <v>841</v>
       </c>
       <c r="B844" s="11" t="s">
-        <v>1804</v>
+        <v>1889</v>
       </c>
       <c r="D844" s="11">
         <v>2016.0</v>
@@ -30716,7 +32683,7 @@
         <v>842</v>
       </c>
       <c r="B845" s="11" t="s">
-        <v>1805</v>
+        <v>1890</v>
       </c>
       <c r="F845" s="11" t="s">
         <v>25</v>
@@ -30732,10 +32699,10 @@
         <v>843</v>
       </c>
       <c r="B846" s="11" t="s">
-        <v>1806</v>
+        <v>1891</v>
       </c>
       <c r="C846" s="11" t="s">
-        <v>1807</v>
+        <v>1892</v>
       </c>
       <c r="F846" s="11" t="s">
         <v>25</v>
@@ -30751,10 +32718,10 @@
         <v>844</v>
       </c>
       <c r="B847" s="11" t="s">
-        <v>1808</v>
+        <v>1893</v>
       </c>
       <c r="C847" s="11" t="s">
-        <v>1809</v>
+        <v>1894</v>
       </c>
       <c r="F847" s="11" t="s">
         <v>25</v>
@@ -30770,7 +32737,7 @@
         <v>845</v>
       </c>
       <c r="B848" s="11" t="s">
-        <v>1810</v>
+        <v>1895</v>
       </c>
       <c r="D848" s="11">
         <v>2016.0</v>
@@ -30789,7 +32756,7 @@
         <v>846</v>
       </c>
       <c r="B849" s="11" t="s">
-        <v>1811</v>
+        <v>1896</v>
       </c>
       <c r="D849" s="11">
         <v>1994.0</v>
@@ -30808,7 +32775,7 @@
         <v>847</v>
       </c>
       <c r="B850" s="11" t="s">
-        <v>1812</v>
+        <v>1897</v>
       </c>
       <c r="D850" s="11">
         <v>1994.0</v>
@@ -30827,7 +32794,7 @@
         <v>848</v>
       </c>
       <c r="B851" s="11" t="s">
-        <v>1813</v>
+        <v>1898</v>
       </c>
       <c r="D851" s="11">
         <v>2020.0</v>
@@ -30846,10 +32813,10 @@
         <v>849</v>
       </c>
       <c r="B852" s="11" t="s">
-        <v>1814</v>
+        <v>1899</v>
       </c>
       <c r="C852" s="11" t="s">
-        <v>1815</v>
+        <v>1900</v>
       </c>
       <c r="D852" s="11">
         <v>2018.0</v>
@@ -30868,10 +32835,10 @@
         <v>850</v>
       </c>
       <c r="B853" s="11" t="s">
-        <v>1816</v>
+        <v>1901</v>
       </c>
       <c r="C853" s="11" t="s">
-        <v>1817</v>
+        <v>1902</v>
       </c>
       <c r="F853" s="11" t="s">
         <v>25</v>
@@ -30887,10 +32854,10 @@
         <v>851</v>
       </c>
       <c r="B854" s="11" t="s">
-        <v>1818</v>
+        <v>1903</v>
       </c>
       <c r="C854" s="11" t="s">
-        <v>1819</v>
+        <v>1904</v>
       </c>
       <c r="F854" s="11" t="s">
         <v>25</v>
@@ -30906,10 +32873,10 @@
         <v>852</v>
       </c>
       <c r="B855" s="11" t="s">
-        <v>1820</v>
+        <v>1905</v>
       </c>
       <c r="C855" s="11" t="s">
-        <v>1821</v>
+        <v>1906</v>
       </c>
       <c r="F855" s="11" t="s">
         <v>25</v>
@@ -30925,10 +32892,10 @@
         <v>853</v>
       </c>
       <c r="B856" s="11" t="s">
-        <v>1822</v>
+        <v>1907</v>
       </c>
       <c r="C856" s="11" t="s">
-        <v>1823</v>
+        <v>1908</v>
       </c>
       <c r="F856" s="11" t="s">
         <v>25</v>
@@ -30944,10 +32911,10 @@
         <v>854</v>
       </c>
       <c r="B857" s="11" t="s">
-        <v>1824</v>
+        <v>1909</v>
       </c>
       <c r="C857" s="11" t="s">
-        <v>1825</v>
+        <v>1910</v>
       </c>
       <c r="F857" s="11" t="s">
         <v>25</v>
@@ -30963,10 +32930,10 @@
         <v>855</v>
       </c>
       <c r="B858" s="11" t="s">
-        <v>1826</v>
+        <v>1911</v>
       </c>
       <c r="C858" s="11" t="s">
-        <v>1827</v>
+        <v>1912</v>
       </c>
       <c r="F858" s="11" t="s">
         <v>25</v>
@@ -30982,10 +32949,10 @@
         <v>856</v>
       </c>
       <c r="B859" s="11" t="s">
-        <v>1828</v>
+        <v>1913</v>
       </c>
       <c r="C859" s="11" t="s">
-        <v>1829</v>
+        <v>1914</v>
       </c>
       <c r="F859" s="11" t="s">
         <v>25</v>
@@ -31001,10 +32968,10 @@
         <v>857</v>
       </c>
       <c r="B860" s="11" t="s">
-        <v>1830</v>
+        <v>1915</v>
       </c>
       <c r="C860" s="11" t="s">
-        <v>1831</v>
+        <v>1916</v>
       </c>
       <c r="F860" s="11" t="s">
         <v>25</v>
@@ -31020,10 +32987,10 @@
         <v>858</v>
       </c>
       <c r="B861" s="11" t="s">
-        <v>1832</v>
+        <v>1917</v>
       </c>
       <c r="C861" s="11" t="s">
-        <v>1833</v>
+        <v>1918</v>
       </c>
       <c r="F861" s="11" t="s">
         <v>25</v>
@@ -31039,10 +33006,10 @@
         <v>859</v>
       </c>
       <c r="B862" s="11" t="s">
-        <v>1834</v>
+        <v>1919</v>
       </c>
       <c r="C862" s="11" t="s">
-        <v>1835</v>
+        <v>1920</v>
       </c>
       <c r="F862" s="11" t="s">
         <v>25</v>
@@ -31058,10 +33025,10 @@
         <v>860</v>
       </c>
       <c r="B863" s="11" t="s">
-        <v>1836</v>
+        <v>1921</v>
       </c>
       <c r="C863" s="11" t="s">
-        <v>1837</v>
+        <v>1922</v>
       </c>
       <c r="F863" s="11" t="s">
         <v>25</v>
@@ -31077,10 +33044,10 @@
         <v>861</v>
       </c>
       <c r="B864" s="11" t="s">
-        <v>1838</v>
+        <v>1923</v>
       </c>
       <c r="C864" s="11" t="s">
-        <v>1839</v>
+        <v>1924</v>
       </c>
       <c r="F864" s="11" t="s">
         <v>25</v>
@@ -31096,7 +33063,7 @@
         <v>862</v>
       </c>
       <c r="B865" s="11" t="s">
-        <v>1840</v>
+        <v>1925</v>
       </c>
       <c r="F865" s="11" t="s">
         <v>25</v>
@@ -31112,7 +33079,7 @@
         <v>863</v>
       </c>
       <c r="B866" s="11" t="s">
-        <v>1841</v>
+        <v>1926</v>
       </c>
       <c r="F866" s="11" t="s">
         <v>25</v>
@@ -31128,7 +33095,7 @@
         <v>864</v>
       </c>
       <c r="B867" s="11" t="s">
-        <v>1842</v>
+        <v>1927</v>
       </c>
       <c r="D867" s="11">
         <v>2019.0</v>
@@ -31147,7 +33114,7 @@
         <v>865</v>
       </c>
       <c r="B868" s="11" t="s">
-        <v>1843</v>
+        <v>1928</v>
       </c>
       <c r="F868" s="11" t="s">
         <v>25</v>
@@ -31163,7 +33130,7 @@
         <v>866</v>
       </c>
       <c r="B869" s="11" t="s">
-        <v>1844</v>
+        <v>1929</v>
       </c>
       <c r="F869" s="11" t="s">
         <v>25</v>
@@ -31179,7 +33146,7 @@
         <v>867</v>
       </c>
       <c r="B870" s="11" t="s">
-        <v>1845</v>
+        <v>1930</v>
       </c>
       <c r="F870" s="11" t="s">
         <v>25</v>
@@ -31195,7 +33162,7 @@
         <v>868</v>
       </c>
       <c r="B871" s="11" t="s">
-        <v>1846</v>
+        <v>1931</v>
       </c>
       <c r="F871" s="11" t="s">
         <v>25</v>
@@ -31211,7 +33178,7 @@
         <v>869</v>
       </c>
       <c r="B872" s="11" t="s">
-        <v>1847</v>
+        <v>1932</v>
       </c>
       <c r="F872" s="11" t="s">
         <v>25</v>
@@ -31227,7 +33194,7 @@
         <v>870</v>
       </c>
       <c r="B873" s="11" t="s">
-        <v>1848</v>
+        <v>1933</v>
       </c>
       <c r="F873" s="11" t="s">
         <v>25</v>
@@ -31243,7 +33210,7 @@
         <v>871</v>
       </c>
       <c r="B874" s="11" t="s">
-        <v>1849</v>
+        <v>1934</v>
       </c>
       <c r="F874" s="11" t="s">
         <v>25</v>
@@ -31259,10 +33226,10 @@
         <v>872</v>
       </c>
       <c r="B875" s="11" t="s">
-        <v>1850</v>
+        <v>1935</v>
       </c>
       <c r="C875" s="11" t="s">
-        <v>1851</v>
+        <v>1936</v>
       </c>
       <c r="F875" s="11" t="s">
         <v>25</v>
@@ -31278,10 +33245,10 @@
         <v>873</v>
       </c>
       <c r="B876" s="11" t="s">
-        <v>1852</v>
+        <v>1937</v>
       </c>
       <c r="C876" s="11" t="s">
-        <v>1853</v>
+        <v>1938</v>
       </c>
       <c r="F876" s="11" t="s">
         <v>25</v>
@@ -31297,10 +33264,10 @@
         <v>874</v>
       </c>
       <c r="B877" s="11" t="s">
-        <v>1854</v>
+        <v>1939</v>
       </c>
       <c r="C877" s="11" t="s">
-        <v>1855</v>
+        <v>1940</v>
       </c>
       <c r="F877" s="11" t="s">
         <v>25</v>
@@ -31316,10 +33283,10 @@
         <v>875</v>
       </c>
       <c r="B878" s="11" t="s">
-        <v>1856</v>
+        <v>1941</v>
       </c>
       <c r="C878" s="11" t="s">
-        <v>1857</v>
+        <v>1942</v>
       </c>
       <c r="F878" s="11" t="s">
         <v>25</v>
@@ -31335,7 +33302,7 @@
         <v>876</v>
       </c>
       <c r="B879" s="11" t="s">
-        <v>1858</v>
+        <v>1943</v>
       </c>
       <c r="F879" s="11" t="s">
         <v>25</v>
@@ -31351,7 +33318,7 @@
         <v>877</v>
       </c>
       <c r="B880" s="11" t="s">
-        <v>1859</v>
+        <v>1944</v>
       </c>
       <c r="F880" s="11" t="s">
         <v>25</v>
@@ -31367,7 +33334,7 @@
         <v>878</v>
       </c>
       <c r="B881" s="11" t="s">
-        <v>1860</v>
+        <v>1945</v>
       </c>
       <c r="F881" s="11" t="s">
         <v>25</v>
@@ -31383,7 +33350,7 @@
         <v>879</v>
       </c>
       <c r="B882" s="11" t="s">
-        <v>1861</v>
+        <v>1946</v>
       </c>
       <c r="F882" s="11" t="s">
         <v>25</v>
@@ -31399,7 +33366,7 @@
         <v>880</v>
       </c>
       <c r="B883" s="11" t="s">
-        <v>1862</v>
+        <v>1947</v>
       </c>
       <c r="F883" s="11" t="s">
         <v>25</v>
@@ -31415,7 +33382,7 @@
         <v>881</v>
       </c>
       <c r="B884" s="11" t="s">
-        <v>1863</v>
+        <v>1948</v>
       </c>
       <c r="D884" s="11">
         <v>2020.0</v>
@@ -31434,7 +33401,7 @@
         <v>882</v>
       </c>
       <c r="B885" s="11" t="s">
-        <v>1864</v>
+        <v>1949</v>
       </c>
       <c r="D885" s="11">
         <v>2020.0</v>
@@ -31453,7 +33420,7 @@
         <v>883</v>
       </c>
       <c r="B886" s="11" t="s">
-        <v>1865</v>
+        <v>1950</v>
       </c>
       <c r="D886" s="11">
         <v>2020.0</v>
@@ -31472,7 +33439,7 @@
         <v>884</v>
       </c>
       <c r="B887" s="11" t="s">
-        <v>1866</v>
+        <v>1951</v>
       </c>
       <c r="F887" s="11" t="s">
         <v>25</v>
@@ -31488,7 +33455,7 @@
         <v>885</v>
       </c>
       <c r="B888" s="11" t="s">
-        <v>1867</v>
+        <v>1952</v>
       </c>
       <c r="F888" s="11" t="s">
         <v>25</v>
@@ -31504,7 +33471,7 @@
         <v>886</v>
       </c>
       <c r="B889" s="11" t="s">
-        <v>1868</v>
+        <v>1953</v>
       </c>
       <c r="F889" s="11" t="s">
         <v>25</v>
@@ -31520,10 +33487,10 @@
         <v>887</v>
       </c>
       <c r="B890" s="11" t="s">
-        <v>1869</v>
+        <v>1954</v>
       </c>
       <c r="C890" s="11" t="s">
-        <v>1870</v>
+        <v>1955</v>
       </c>
       <c r="F890" s="11" t="s">
         <v>25</v>
@@ -31539,10 +33506,10 @@
         <v>888</v>
       </c>
       <c r="B891" s="11" t="s">
-        <v>1871</v>
+        <v>1956</v>
       </c>
       <c r="C891" s="11" t="s">
-        <v>1872</v>
+        <v>1957</v>
       </c>
       <c r="F891" s="11" t="s">
         <v>25</v>
@@ -31558,10 +33525,10 @@
         <v>889</v>
       </c>
       <c r="B892" s="11" t="s">
-        <v>1873</v>
+        <v>1958</v>
       </c>
       <c r="C892" s="11" t="s">
-        <v>1874</v>
+        <v>1959</v>
       </c>
       <c r="F892" s="11" t="s">
         <v>25</v>
@@ -31577,10 +33544,10 @@
         <v>890</v>
       </c>
       <c r="B893" s="11" t="s">
-        <v>1875</v>
+        <v>1960</v>
       </c>
       <c r="C893" s="11" t="s">
-        <v>1876</v>
+        <v>1961</v>
       </c>
       <c r="F893" s="11" t="s">
         <v>25</v>
@@ -31596,7 +33563,7 @@
         <v>891</v>
       </c>
       <c r="B894" s="11" t="s">
-        <v>1877</v>
+        <v>1962</v>
       </c>
       <c r="F894" s="11" t="s">
         <v>25</v>
@@ -31612,7 +33579,7 @@
         <v>892</v>
       </c>
       <c r="B895" s="11" t="s">
-        <v>1878</v>
+        <v>1963</v>
       </c>
       <c r="F895" s="11" t="s">
         <v>25</v>
@@ -31628,7 +33595,7 @@
         <v>893</v>
       </c>
       <c r="B896" s="11" t="s">
-        <v>1879</v>
+        <v>1964</v>
       </c>
       <c r="F896" s="11" t="s">
         <v>25</v>
@@ -31644,7 +33611,7 @@
         <v>894</v>
       </c>
       <c r="B897" s="11" t="s">
-        <v>1880</v>
+        <v>1965</v>
       </c>
       <c r="F897" s="11" t="s">
         <v>25</v>
@@ -31660,7 +33627,7 @@
         <v>895</v>
       </c>
       <c r="B898" s="11" t="s">
-        <v>1881</v>
+        <v>1966</v>
       </c>
       <c r="F898" s="11" t="s">
         <v>25</v>
@@ -31676,10 +33643,10 @@
         <v>896</v>
       </c>
       <c r="B899" s="11" t="s">
-        <v>1882</v>
+        <v>1967</v>
       </c>
       <c r="C899" s="11" t="s">
-        <v>1883</v>
+        <v>1968</v>
       </c>
       <c r="F899" s="11" t="s">
         <v>25</v>
@@ -31695,10 +33662,10 @@
         <v>897</v>
       </c>
       <c r="B900" s="11" t="s">
-        <v>1884</v>
+        <v>1969</v>
       </c>
       <c r="C900" s="11" t="s">
-        <v>1885</v>
+        <v>1970</v>
       </c>
       <c r="F900" s="11" t="s">
         <v>25</v>
@@ -31714,7 +33681,7 @@
         <v>898</v>
       </c>
       <c r="B901" s="11" t="s">
-        <v>1886</v>
+        <v>1971</v>
       </c>
       <c r="F901" s="11" t="s">
         <v>25</v>
@@ -31730,7 +33697,7 @@
         <v>899</v>
       </c>
       <c r="B902" s="11" t="s">
-        <v>1887</v>
+        <v>1972</v>
       </c>
       <c r="D902" s="11">
         <v>2016.0</v>
@@ -31749,7 +33716,7 @@
         <v>900</v>
       </c>
       <c r="B903" s="11" t="s">
-        <v>1888</v>
+        <v>1973</v>
       </c>
       <c r="F903" s="11" t="s">
         <v>25</v>
@@ -31765,7 +33732,7 @@
         <v>901</v>
       </c>
       <c r="B904" s="11" t="s">
-        <v>1889</v>
+        <v>1974</v>
       </c>
       <c r="F904" s="11" t="s">
         <v>25</v>
@@ -31781,7 +33748,7 @@
         <v>902</v>
       </c>
       <c r="B905" s="11" t="s">
-        <v>1890</v>
+        <v>1975</v>
       </c>
       <c r="F905" s="11" t="s">
         <v>25</v>
@@ -31797,7 +33764,7 @@
         <v>903</v>
       </c>
       <c r="B906" s="11" t="s">
-        <v>1891</v>
+        <v>1976</v>
       </c>
       <c r="F906" s="11" t="s">
         <v>25</v>
@@ -31813,7 +33780,7 @@
         <v>904</v>
       </c>
       <c r="B907" s="11" t="s">
-        <v>1892</v>
+        <v>1977</v>
       </c>
       <c r="F907" s="11" t="s">
         <v>25</v>
@@ -31829,7 +33796,7 @@
         <v>905</v>
       </c>
       <c r="B908" s="11" t="s">
-        <v>1893</v>
+        <v>1978</v>
       </c>
       <c r="F908" s="11" t="s">
         <v>25</v>
@@ -31845,7 +33812,7 @@
         <v>906</v>
       </c>
       <c r="B909" s="11" t="s">
-        <v>1894</v>
+        <v>1979</v>
       </c>
       <c r="F909" s="11" t="s">
         <v>25</v>
@@ -31861,7 +33828,7 @@
         <v>907</v>
       </c>
       <c r="B910" s="11" t="s">
-        <v>1895</v>
+        <v>1980</v>
       </c>
       <c r="F910" s="11" t="s">
         <v>25</v>
@@ -31877,7 +33844,7 @@
         <v>908</v>
       </c>
       <c r="B911" s="11" t="s">
-        <v>1896</v>
+        <v>1981</v>
       </c>
       <c r="D911" s="11">
         <v>2019.0</v>
@@ -31896,10 +33863,10 @@
         <v>909</v>
       </c>
       <c r="B912" s="11" t="s">
-        <v>1897</v>
+        <v>1982</v>
       </c>
       <c r="C912" s="11" t="s">
-        <v>1898</v>
+        <v>1983</v>
       </c>
       <c r="F912" s="11" t="s">
         <v>25</v>
@@ -31915,10 +33882,10 @@
         <v>910</v>
       </c>
       <c r="B913" s="11" t="s">
-        <v>1899</v>
+        <v>1984</v>
       </c>
       <c r="C913" s="11" t="s">
-        <v>1900</v>
+        <v>1985</v>
       </c>
       <c r="F913" s="11" t="s">
         <v>25</v>
@@ -31934,7 +33901,7 @@
         <v>911</v>
       </c>
       <c r="B914" s="11" t="s">
-        <v>1901</v>
+        <v>1986</v>
       </c>
       <c r="F914" s="11" t="s">
         <v>25</v>
@@ -31950,7 +33917,7 @@
         <v>912</v>
       </c>
       <c r="B915" s="11" t="s">
-        <v>1902</v>
+        <v>1987</v>
       </c>
       <c r="D915" s="11">
         <v>2012.0</v>
@@ -31969,7 +33936,7 @@
         <v>913</v>
       </c>
       <c r="B916" s="11" t="s">
-        <v>1903</v>
+        <v>1988</v>
       </c>
       <c r="F916" s="11" t="s">
         <v>25</v>
@@ -31985,7 +33952,7 @@
         <v>914</v>
       </c>
       <c r="B917" s="11" t="s">
-        <v>1904</v>
+        <v>1989</v>
       </c>
       <c r="F917" s="11" t="s">
         <v>25</v>
@@ -32001,7 +33968,7 @@
         <v>915</v>
       </c>
       <c r="B918" s="11" t="s">
-        <v>1905</v>
+        <v>1990</v>
       </c>
       <c r="F918" s="11" t="s">
         <v>25</v>
@@ -32017,10 +33984,10 @@
         <v>916</v>
       </c>
       <c r="B919" s="11" t="s">
-        <v>1906</v>
+        <v>1991</v>
       </c>
       <c r="C919" s="11" t="s">
-        <v>1907</v>
+        <v>1992</v>
       </c>
       <c r="F919" s="11" t="s">
         <v>25</v>
@@ -32036,10 +34003,10 @@
         <v>917</v>
       </c>
       <c r="B920" s="11" t="s">
-        <v>1908</v>
+        <v>1993</v>
       </c>
       <c r="C920" s="11" t="s">
-        <v>1909</v>
+        <v>1994</v>
       </c>
       <c r="F920" s="11" t="s">
         <v>25</v>
@@ -32055,7 +34022,7 @@
         <v>918</v>
       </c>
       <c r="B921" s="11" t="s">
-        <v>1910</v>
+        <v>1995</v>
       </c>
       <c r="F921" s="11" t="s">
         <v>25</v>
@@ -32071,7 +34038,7 @@
         <v>919</v>
       </c>
       <c r="B922" s="11" t="s">
-        <v>1911</v>
+        <v>1996</v>
       </c>
       <c r="F922" s="11" t="s">
         <v>25</v>
@@ -32087,10 +34054,10 @@
         <v>920</v>
       </c>
       <c r="B923" s="11" t="s">
-        <v>1912</v>
+        <v>1997</v>
       </c>
       <c r="C923" s="11" t="s">
-        <v>1913</v>
+        <v>1998</v>
       </c>
       <c r="F923" s="11" t="s">
         <v>25</v>
@@ -32106,10 +34073,10 @@
         <v>921</v>
       </c>
       <c r="B924" s="11" t="s">
-        <v>1914</v>
+        <v>1999</v>
       </c>
       <c r="C924" s="11" t="s">
-        <v>1915</v>
+        <v>2000</v>
       </c>
       <c r="F924" s="11" t="s">
         <v>25</v>
@@ -32125,10 +34092,10 @@
         <v>922</v>
       </c>
       <c r="B925" s="11" t="s">
-        <v>1916</v>
+        <v>2001</v>
       </c>
       <c r="C925" s="11" t="s">
-        <v>1917</v>
+        <v>2002</v>
       </c>
       <c r="F925" s="11" t="s">
         <v>25</v>
@@ -32144,10 +34111,10 @@
         <v>923</v>
       </c>
       <c r="B926" s="11" t="s">
-        <v>1918</v>
+        <v>2003</v>
       </c>
       <c r="C926" s="11" t="s">
-        <v>1919</v>
+        <v>2004</v>
       </c>
       <c r="F926" s="11" t="s">
         <v>25</v>
@@ -32163,7 +34130,7 @@
         <v>924</v>
       </c>
       <c r="B927" s="11" t="s">
-        <v>1920</v>
+        <v>2005</v>
       </c>
       <c r="D927" s="11">
         <v>2020.0</v>
@@ -32182,7 +34149,7 @@
         <v>925</v>
       </c>
       <c r="B928" s="11" t="s">
-        <v>1921</v>
+        <v>2006</v>
       </c>
       <c r="F928" s="11" t="s">
         <v>25</v>
@@ -32198,7 +34165,7 @@
         <v>926</v>
       </c>
       <c r="B929" s="11" t="s">
-        <v>1922</v>
+        <v>2007</v>
       </c>
       <c r="F929" s="11" t="s">
         <v>25</v>
@@ -32214,7 +34181,7 @@
         <v>927</v>
       </c>
       <c r="B930" s="11" t="s">
-        <v>1923</v>
+        <v>2008</v>
       </c>
       <c r="F930" s="11" t="s">
         <v>25</v>
@@ -32230,7 +34197,7 @@
         <v>928</v>
       </c>
       <c r="B931" s="11" t="s">
-        <v>1924</v>
+        <v>2009</v>
       </c>
       <c r="D931" s="11">
         <v>2013.0</v>
@@ -32249,7 +34216,7 @@
         <v>929</v>
       </c>
       <c r="B932" s="11" t="s">
-        <v>1925</v>
+        <v>2010</v>
       </c>
       <c r="F932" s="11" t="s">
         <v>25</v>
@@ -32265,7 +34232,7 @@
         <v>930</v>
       </c>
       <c r="B933" s="11" t="s">
-        <v>1926</v>
+        <v>2011</v>
       </c>
       <c r="F933" s="11" t="s">
         <v>25</v>
@@ -32281,7 +34248,7 @@
         <v>931</v>
       </c>
       <c r="B934" s="11" t="s">
-        <v>1927</v>
+        <v>2012</v>
       </c>
       <c r="F934" s="11" t="s">
         <v>25</v>
@@ -32297,10 +34264,10 @@
         <v>932</v>
       </c>
       <c r="B935" s="11" t="s">
-        <v>1928</v>
+        <v>2013</v>
       </c>
       <c r="C935" s="11" t="s">
-        <v>1929</v>
+        <v>2014</v>
       </c>
       <c r="F935" s="11" t="s">
         <v>25</v>
@@ -32316,10 +34283,10 @@
         <v>933</v>
       </c>
       <c r="B936" s="11" t="s">
-        <v>1930</v>
+        <v>2015</v>
       </c>
       <c r="C936" s="11" t="s">
-        <v>1931</v>
+        <v>2016</v>
       </c>
       <c r="F936" s="11" t="s">
         <v>25</v>
@@ -32335,10 +34302,10 @@
         <v>934</v>
       </c>
       <c r="B937" s="11" t="s">
-        <v>1932</v>
+        <v>2017</v>
       </c>
       <c r="C937" s="11" t="s">
-        <v>1933</v>
+        <v>2018</v>
       </c>
       <c r="F937" s="11" t="s">
         <v>25</v>
@@ -32354,7 +34321,7 @@
         <v>935</v>
       </c>
       <c r="B938" s="11" t="s">
-        <v>1934</v>
+        <v>2019</v>
       </c>
       <c r="F938" s="11" t="s">
         <v>25</v>
@@ -32370,7 +34337,7 @@
         <v>936</v>
       </c>
       <c r="B939" s="11" t="s">
-        <v>1935</v>
+        <v>2020</v>
       </c>
       <c r="F939" s="11" t="s">
         <v>25</v>
@@ -32386,7 +34353,7 @@
         <v>937</v>
       </c>
       <c r="B940" s="11" t="s">
-        <v>1936</v>
+        <v>2021</v>
       </c>
       <c r="F940" s="11" t="s">
         <v>25</v>
@@ -32402,7 +34369,7 @@
         <v>938</v>
       </c>
       <c r="B941" s="11" t="s">
-        <v>1937</v>
+        <v>2022</v>
       </c>
       <c r="F941" s="11" t="s">
         <v>25</v>
@@ -32418,7 +34385,7 @@
         <v>939</v>
       </c>
       <c r="B942" s="11" t="s">
-        <v>1938</v>
+        <v>2023</v>
       </c>
       <c r="F942" s="11" t="s">
         <v>25</v>
@@ -32434,7 +34401,7 @@
         <v>940</v>
       </c>
       <c r="B943" s="11" t="s">
-        <v>1939</v>
+        <v>2024</v>
       </c>
       <c r="F943" s="11" t="s">
         <v>25</v>
@@ -32450,10 +34417,10 @@
         <v>941</v>
       </c>
       <c r="B944" s="11" t="s">
-        <v>1940</v>
+        <v>2025</v>
       </c>
       <c r="C944" s="11" t="s">
-        <v>1941</v>
+        <v>2026</v>
       </c>
       <c r="F944" s="11" t="s">
         <v>25</v>
@@ -32469,10 +34436,10 @@
         <v>942</v>
       </c>
       <c r="B945" s="11" t="s">
-        <v>1942</v>
+        <v>2027</v>
       </c>
       <c r="C945" s="11" t="s">
-        <v>1943</v>
+        <v>2028</v>
       </c>
       <c r="F945" s="11" t="s">
         <v>25</v>
@@ -32488,10 +34455,10 @@
         <v>943</v>
       </c>
       <c r="B946" s="11" t="s">
-        <v>1944</v>
+        <v>2029</v>
       </c>
       <c r="C946" s="11" t="s">
-        <v>1945</v>
+        <v>2030</v>
       </c>
       <c r="F946" s="11" t="s">
         <v>25</v>
@@ -32507,10 +34474,10 @@
         <v>944</v>
       </c>
       <c r="B947" s="11" t="s">
-        <v>1946</v>
+        <v>2031</v>
       </c>
       <c r="C947" s="11" t="s">
-        <v>1947</v>
+        <v>2032</v>
       </c>
       <c r="F947" s="11" t="s">
         <v>25</v>
@@ -32526,10 +34493,10 @@
         <v>945</v>
       </c>
       <c r="B948" s="11" t="s">
-        <v>1948</v>
+        <v>2033</v>
       </c>
       <c r="C948" s="11" t="s">
-        <v>1949</v>
+        <v>2034</v>
       </c>
       <c r="F948" s="11" t="s">
         <v>25</v>
@@ -32545,10 +34512,10 @@
         <v>946</v>
       </c>
       <c r="B949" s="11" t="s">
-        <v>1950</v>
+        <v>2035</v>
       </c>
       <c r="C949" s="11" t="s">
-        <v>1951</v>
+        <v>2036</v>
       </c>
       <c r="F949" s="11" t="s">
         <v>25</v>
@@ -32564,7 +34531,7 @@
         <v>947</v>
       </c>
       <c r="B950" s="11" t="s">
-        <v>1952</v>
+        <v>2037</v>
       </c>
       <c r="F950" s="11" t="s">
         <v>25</v>
@@ -32580,7 +34547,7 @@
         <v>948</v>
       </c>
       <c r="B951" s="11" t="s">
-        <v>1953</v>
+        <v>2038</v>
       </c>
       <c r="F951" s="11" t="s">
         <v>25</v>
@@ -32596,7 +34563,7 @@
         <v>949</v>
       </c>
       <c r="B952" s="11" t="s">
-        <v>1954</v>
+        <v>2039</v>
       </c>
       <c r="F952" s="11" t="s">
         <v>25</v>
@@ -32612,7 +34579,7 @@
         <v>950</v>
       </c>
       <c r="B953" s="11" t="s">
-        <v>1955</v>
+        <v>2040</v>
       </c>
       <c r="D953" s="11">
         <v>2004.0</v>
@@ -32631,7 +34598,7 @@
         <v>951</v>
       </c>
       <c r="B954" s="11" t="s">
-        <v>1955</v>
+        <v>2040</v>
       </c>
       <c r="F954" s="11" t="s">
         <v>25</v>
@@ -32647,7 +34614,7 @@
         <v>952</v>
       </c>
       <c r="B955" s="11" t="s">
-        <v>1956</v>
+        <v>2041</v>
       </c>
       <c r="F955" s="11" t="s">
         <v>25</v>
@@ -32663,7 +34630,7 @@
         <v>953</v>
       </c>
       <c r="B956" s="11" t="s">
-        <v>1957</v>
+        <v>2042</v>
       </c>
       <c r="F956" s="11" t="s">
         <v>25</v>
@@ -32679,7 +34646,7 @@
         <v>954</v>
       </c>
       <c r="B957" s="11" t="s">
-        <v>1958</v>
+        <v>2043</v>
       </c>
       <c r="F957" s="11" t="s">
         <v>25</v>
@@ -32695,10 +34662,10 @@
         <v>955</v>
       </c>
       <c r="B958" s="11" t="s">
-        <v>1959</v>
+        <v>2044</v>
       </c>
       <c r="C958" s="11" t="s">
-        <v>1960</v>
+        <v>2045</v>
       </c>
       <c r="F958" s="11" t="s">
         <v>25</v>
@@ -32714,10 +34681,10 @@
         <v>956</v>
       </c>
       <c r="B959" s="11" t="s">
-        <v>1961</v>
+        <v>2046</v>
       </c>
       <c r="C959" s="11" t="s">
-        <v>1962</v>
+        <v>2047</v>
       </c>
       <c r="F959" s="11" t="s">
         <v>25</v>
@@ -32733,10 +34700,10 @@
         <v>957</v>
       </c>
       <c r="B960" s="11" t="s">
-        <v>1963</v>
+        <v>2048</v>
       </c>
       <c r="C960" s="11" t="s">
-        <v>1964</v>
+        <v>2049</v>
       </c>
       <c r="F960" s="11" t="s">
         <v>25</v>
@@ -32752,10 +34719,10 @@
         <v>958</v>
       </c>
       <c r="B961" s="11" t="s">
-        <v>1965</v>
+        <v>2050</v>
       </c>
       <c r="C961" s="11" t="s">
-        <v>1966</v>
+        <v>2051</v>
       </c>
       <c r="F961" s="11" t="s">
         <v>25</v>
@@ -32771,10 +34738,10 @@
         <v>959</v>
       </c>
       <c r="B962" s="11" t="s">
-        <v>1967</v>
+        <v>2052</v>
       </c>
       <c r="C962" s="11" t="s">
-        <v>1968</v>
+        <v>2053</v>
       </c>
       <c r="F962" s="11" t="s">
         <v>25</v>
@@ -32790,7 +34757,7 @@
         <v>960</v>
       </c>
       <c r="B963" s="11" t="s">
-        <v>1969</v>
+        <v>2054</v>
       </c>
       <c r="F963" s="11" t="s">
         <v>25</v>
@@ -32806,7 +34773,7 @@
         <v>961</v>
       </c>
       <c r="B964" s="11" t="s">
-        <v>1970</v>
+        <v>2055</v>
       </c>
       <c r="F964" s="11" t="s">
         <v>119</v>
@@ -32822,7 +34789,7 @@
         <v>962</v>
       </c>
       <c r="B965" s="11" t="s">
-        <v>1971</v>
+        <v>2056</v>
       </c>
       <c r="F965" s="11" t="s">
         <v>25</v>
@@ -32838,7 +34805,7 @@
         <v>963</v>
       </c>
       <c r="B966" s="11" t="s">
-        <v>1972</v>
+        <v>2057</v>
       </c>
       <c r="F966" s="11" t="s">
         <v>25</v>
@@ -32854,7 +34821,7 @@
         <v>964</v>
       </c>
       <c r="B967" s="11" t="s">
-        <v>1973</v>
+        <v>2058</v>
       </c>
       <c r="F967" s="11" t="s">
         <v>25</v>
@@ -32870,7 +34837,7 @@
         <v>965</v>
       </c>
       <c r="B968" s="11" t="s">
-        <v>1974</v>
+        <v>2059</v>
       </c>
       <c r="F968" s="11" t="s">
         <v>25</v>
@@ -32886,7 +34853,7 @@
         <v>966</v>
       </c>
       <c r="B969" s="11" t="s">
-        <v>1975</v>
+        <v>2060</v>
       </c>
       <c r="F969" s="11" t="s">
         <v>25</v>
@@ -32902,7 +34869,7 @@
         <v>967</v>
       </c>
       <c r="B970" s="11" t="s">
-        <v>1976</v>
+        <v>2061</v>
       </c>
       <c r="D970" s="11">
         <v>2019.0</v>
@@ -32921,7 +34888,7 @@
         <v>968</v>
       </c>
       <c r="B971" s="11" t="s">
-        <v>1977</v>
+        <v>2062</v>
       </c>
       <c r="F971" s="11" t="s">
         <v>25</v>
@@ -32937,7 +34904,7 @@
         <v>969</v>
       </c>
       <c r="B972" s="11" t="s">
-        <v>1978</v>
+        <v>2063</v>
       </c>
       <c r="F972" s="11" t="s">
         <v>25</v>
@@ -32953,7 +34920,7 @@
         <v>970</v>
       </c>
       <c r="B973" s="11" t="s">
-        <v>1979</v>
+        <v>2064</v>
       </c>
       <c r="F973" s="11" t="s">
         <v>25</v>
@@ -32988,7 +34955,7 @@
         <v>972</v>
       </c>
       <c r="B975" s="11" t="s">
-        <v>1980</v>
+        <v>2065</v>
       </c>
       <c r="F975" s="11" t="s">
         <v>25</v>
@@ -33004,7 +34971,7 @@
         <v>973</v>
       </c>
       <c r="B976" s="11" t="s">
-        <v>1981</v>
+        <v>2066</v>
       </c>
       <c r="F976" s="11" t="s">
         <v>25</v>
@@ -33020,7 +34987,7 @@
         <v>974</v>
       </c>
       <c r="B977" s="11" t="s">
-        <v>1982</v>
+        <v>2067</v>
       </c>
       <c r="F977" s="11" t="s">
         <v>25</v>
@@ -33036,7 +35003,7 @@
         <v>975</v>
       </c>
       <c r="B978" s="11" t="s">
-        <v>1983</v>
+        <v>2068</v>
       </c>
       <c r="F978" s="11" t="s">
         <v>25</v>
@@ -33052,7 +35019,7 @@
         <v>976</v>
       </c>
       <c r="B979" s="11" t="s">
-        <v>1984</v>
+        <v>2069</v>
       </c>
       <c r="F979" s="11" t="s">
         <v>25</v>
@@ -33068,7 +35035,7 @@
         <v>977</v>
       </c>
       <c r="B980" s="11" t="s">
-        <v>1985</v>
+        <v>2070</v>
       </c>
       <c r="F980" s="11" t="s">
         <v>25</v>
@@ -33084,7 +35051,7 @@
         <v>978</v>
       </c>
       <c r="B981" s="11" t="s">
-        <v>1986</v>
+        <v>2071</v>
       </c>
       <c r="F981" s="11" t="s">
         <v>25</v>
@@ -33100,10 +35067,10 @@
         <v>979</v>
       </c>
       <c r="B982" s="11" t="s">
-        <v>1987</v>
+        <v>2072</v>
       </c>
       <c r="C982" s="11" t="s">
-        <v>1988</v>
+        <v>2073</v>
       </c>
       <c r="F982" s="11" t="s">
         <v>25</v>
@@ -33119,10 +35086,10 @@
         <v>980</v>
       </c>
       <c r="B983" s="11" t="s">
-        <v>1989</v>
+        <v>2074</v>
       </c>
       <c r="C983" s="11" t="s">
-        <v>1990</v>
+        <v>2075</v>
       </c>
       <c r="F983" s="11" t="s">
         <v>25</v>
@@ -33138,10 +35105,10 @@
         <v>981</v>
       </c>
       <c r="B984" s="11" t="s">
-        <v>1991</v>
+        <v>2076</v>
       </c>
       <c r="C984" s="11" t="s">
-        <v>1992</v>
+        <v>2077</v>
       </c>
       <c r="F984" s="11" t="s">
         <v>25</v>
@@ -33157,10 +35124,10 @@
         <v>982</v>
       </c>
       <c r="B985" s="11" t="s">
-        <v>1993</v>
+        <v>2078</v>
       </c>
       <c r="C985" s="11" t="s">
-        <v>1994</v>
+        <v>2079</v>
       </c>
       <c r="F985" s="11" t="s">
         <v>25</v>
@@ -33176,10 +35143,10 @@
         <v>983</v>
       </c>
       <c r="B986" s="11" t="s">
-        <v>1995</v>
+        <v>2080</v>
       </c>
       <c r="C986" s="11" t="s">
-        <v>1996</v>
+        <v>2081</v>
       </c>
       <c r="F986" s="11" t="s">
         <v>25</v>
@@ -33195,7 +35162,7 @@
         <v>984</v>
       </c>
       <c r="B987" s="11" t="s">
-        <v>1997</v>
+        <v>2082</v>
       </c>
       <c r="D987" s="11">
         <v>2009.0</v>
@@ -33214,10 +35181,10 @@
         <v>985</v>
       </c>
       <c r="B988" s="11" t="s">
-        <v>1998</v>
+        <v>2083</v>
       </c>
       <c r="C988" s="11" t="s">
-        <v>1999</v>
+        <v>2084</v>
       </c>
       <c r="F988" s="11" t="s">
         <v>25</v>
@@ -33233,10 +35200,10 @@
         <v>986</v>
       </c>
       <c r="B989" s="11" t="s">
-        <v>2000</v>
+        <v>2085</v>
       </c>
       <c r="C989" s="11" t="s">
-        <v>2001</v>
+        <v>2086</v>
       </c>
       <c r="F989" s="11" t="s">
         <v>25</v>
@@ -33252,10 +35219,10 @@
         <v>987</v>
       </c>
       <c r="B990" s="11" t="s">
-        <v>2002</v>
+        <v>2087</v>
       </c>
       <c r="C990" s="11" t="s">
-        <v>2003</v>
+        <v>2088</v>
       </c>
       <c r="F990" s="11" t="s">
         <v>25</v>
@@ -33271,10 +35238,10 @@
         <v>988</v>
       </c>
       <c r="B991" s="11" t="s">
-        <v>2004</v>
+        <v>2089</v>
       </c>
       <c r="C991" s="11" t="s">
-        <v>2005</v>
+        <v>2090</v>
       </c>
       <c r="F991" s="11" t="s">
         <v>25</v>
@@ -34784,32 +36751,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C494"/>
-    <hyperlink r:id="rId2" ref="G584"/>
-    <hyperlink r:id="rId3" ref="G585"/>
-    <hyperlink r:id="rId4" ref="G586"/>
-    <hyperlink r:id="rId5" ref="G587"/>
-    <hyperlink r:id="rId6" ref="G588"/>
-    <hyperlink r:id="rId7" ref="G589"/>
-    <hyperlink r:id="rId8" ref="G590"/>
-    <hyperlink r:id="rId9" ref="G591"/>
-    <hyperlink r:id="rId10" ref="G592"/>
-    <hyperlink r:id="rId11" ref="G593"/>
-    <hyperlink r:id="rId12" ref="G594"/>
-    <hyperlink r:id="rId13" ref="G595"/>
-    <hyperlink r:id="rId14" ref="G596"/>
-    <hyperlink r:id="rId15" ref="G597"/>
-    <hyperlink r:id="rId16" ref="G598"/>
-    <hyperlink r:id="rId17" ref="G599"/>
-    <hyperlink r:id="rId18" ref="G600"/>
-    <hyperlink r:id="rId19" ref="G601"/>
-    <hyperlink r:id="rId20" ref="G602"/>
-    <hyperlink r:id="rId21" ref="G603"/>
-    <hyperlink r:id="rId22" ref="G604"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId23"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -34828,9 +36774,9 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15">
+      <c r="A1" s="13">
         <f>NOW()</f>
-        <v>45086.06531</v>
+        <v>45086.23725</v>
       </c>
       <c r="B1" s="8">
         <f>DAY(A1)</f>
@@ -34852,7 +36798,7 @@
         <v>1.0</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>2006</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="2">
@@ -34860,7 +36806,7 @@
         <v>2.0</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>2007</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="3">
@@ -34872,7 +36818,7 @@
         <v>3.0</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>2008</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="4">
@@ -34880,7 +36826,7 @@
         <v>4.0</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>2009</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="5">
@@ -34888,7 +36834,7 @@
         <v>5.0</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>2010</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="6">
@@ -34896,7 +36842,7 @@
         <v>6.0</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>2011</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="7">
@@ -34904,7 +36850,7 @@
         <v>7.0</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>2012</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="8">
@@ -34912,7 +36858,7 @@
         <v>8.0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>2013</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="9">
@@ -34920,7 +36866,7 @@
         <v>9.0</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>2014</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="10">
@@ -34928,7 +36874,7 @@
         <v>10.0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>2015</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="11">
@@ -34936,7 +36882,7 @@
         <v>11.0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>2016</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="12">
@@ -34944,7 +36890,7 @@
         <v>12.0</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>2017</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
